--- a/Process/Timesheet/Timesheet.xlsx
+++ b/Process/Timesheet/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vinoth\GIT\TeamProject\Project\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0121F0D8-5E7A-4B0C-8DC3-BC18260DC017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03FC8A22-E891-41CA-95B4-43D99BB15112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19414" windowHeight="10303" firstSheet="26" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3650,10 +3650,10 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3662,7 +3662,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -16760,7 +16760,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="72" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -16790,7 +16790,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="73"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="51" t="s">
         <v>289</v>
       </c>
@@ -16819,7 +16819,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="73"/>
+      <c r="A4" s="72"/>
       <c r="B4" s="51" t="s">
         <v>291</v>
       </c>
@@ -16848,7 +16848,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="73"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="51" t="s">
         <v>292</v>
       </c>
@@ -16877,7 +16877,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="73"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="51" t="s">
         <v>294</v>
       </c>
@@ -16906,7 +16906,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="73"/>
+      <c r="A7" s="72"/>
       <c r="B7" t="s">
         <v>297</v>
       </c>
@@ -16935,7 +16935,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="73"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="51" t="s">
         <v>298</v>
       </c>
@@ -16961,7 +16961,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="73"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="51" t="s">
         <v>299</v>
       </c>
@@ -16987,7 +16987,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="73"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="51" t="s">
         <v>301</v>
       </c>
@@ -17007,7 +17007,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="73"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="51" t="s">
         <v>302</v>
       </c>
@@ -17027,7 +17027,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="73"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="51" t="s">
         <v>303</v>
       </c>
@@ -17046,7 +17046,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="73"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="51" t="s">
         <v>304</v>
       </c>
@@ -17065,7 +17065,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="73"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="51" t="s">
         <v>305</v>
       </c>
@@ -17084,7 +17084,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="73"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="51" t="s">
         <v>306</v>
       </c>
@@ -17103,7 +17103,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="73"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="52"/>
@@ -17114,7 +17114,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="72" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51"/>
@@ -17137,7 +17137,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="73"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="52">
@@ -17159,7 +17159,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="73"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="52">
@@ -17181,7 +17181,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="73"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
       <c r="D20" s="52">
@@ -17203,7 +17203,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="73"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="52">
@@ -17225,7 +17225,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="73"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52">
@@ -17247,7 +17247,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="73"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="51" t="s">
         <v>73</v>
       </c>
@@ -17271,7 +17271,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="73"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52">
@@ -17293,7 +17293,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="73"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52">
@@ -17309,7 +17309,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="73"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -17321,7 +17321,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="73"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -17332,7 +17332,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="73"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -17343,7 +17343,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="73"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -17354,7 +17354,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="73"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -17365,7 +17365,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="73"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -17376,7 +17376,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="72" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -17403,7 +17403,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="73"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="51" t="s">
         <v>307</v>
       </c>
@@ -17429,7 +17429,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="73"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="51" t="s">
         <v>308</v>
       </c>
@@ -17455,7 +17455,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="73"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="51" t="s">
         <v>309</v>
       </c>
@@ -17481,7 +17481,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="73"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="51" t="s">
         <v>310</v>
       </c>
@@ -17507,7 +17507,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="73"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -17533,7 +17533,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="73"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="51" t="s">
         <v>312</v>
       </c>
@@ -17559,7 +17559,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="73"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="51" t="s">
         <v>313</v>
       </c>
@@ -17585,7 +17585,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="73"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="51" t="s">
         <v>314</v>
       </c>
@@ -17605,7 +17605,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="73"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="51" t="s">
         <v>312</v>
       </c>
@@ -17625,7 +17625,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="73"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="51" t="s">
         <v>315</v>
       </c>
@@ -17644,7 +17644,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="73"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="51" t="s">
         <v>309</v>
       </c>
@@ -17663,7 +17663,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="73"/>
+      <c r="A44" s="72"/>
       <c r="B44" s="51" t="s">
         <v>316</v>
       </c>
@@ -17682,7 +17682,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="73"/>
+      <c r="A45" s="72"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -17928,7 +17928,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="76" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -17955,7 +17955,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="73"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="51" t="s">
         <v>284</v>
       </c>
@@ -17980,7 +17980,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="73"/>
+      <c r="A64" s="72"/>
       <c r="B64" s="51" t="s">
         <v>318</v>
       </c>
@@ -18006,7 +18006,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="73"/>
+      <c r="A65" s="72"/>
       <c r="B65" s="51" t="s">
         <v>313</v>
       </c>
@@ -18032,7 +18032,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="73"/>
+      <c r="A66" s="72"/>
       <c r="B66" s="51" t="s">
         <v>319</v>
       </c>
@@ -18058,7 +18058,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="73"/>
+      <c r="A67" s="72"/>
       <c r="B67" s="51" t="s">
         <v>302</v>
       </c>
@@ -18084,7 +18084,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="73"/>
+      <c r="A68" s="72"/>
       <c r="B68" s="51" t="s">
         <v>304</v>
       </c>
@@ -18110,7 +18110,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="73"/>
+      <c r="A69" s="72"/>
       <c r="B69" s="51" t="s">
         <v>315</v>
       </c>
@@ -18136,7 +18136,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="73"/>
+      <c r="A70" s="72"/>
       <c r="B70" s="51" t="s">
         <v>320</v>
       </c>
@@ -18156,7 +18156,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="73"/>
+      <c r="A71" s="72"/>
       <c r="B71" s="51" t="s">
         <v>306</v>
       </c>
@@ -18176,7 +18176,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="73"/>
+      <c r="A72" s="72"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -18187,7 +18187,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="73"/>
+      <c r="A73" s="72"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -18198,7 +18198,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="73"/>
+      <c r="A74" s="72"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -18209,7 +18209,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="73"/>
+      <c r="A75" s="72"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -18220,7 +18220,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="73"/>
+      <c r="A76" s="72"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -18231,7 +18231,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="73" t="s">
+      <c r="A77" s="72" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -18258,7 +18258,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="73"/>
+      <c r="A78" s="72"/>
       <c r="B78" s="51" t="s">
         <v>322</v>
       </c>
@@ -18284,7 +18284,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="73"/>
+      <c r="A79" s="72"/>
       <c r="B79" s="51" t="s">
         <v>323</v>
       </c>
@@ -18310,7 +18310,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="73"/>
+      <c r="A80" s="72"/>
       <c r="B80" s="51" t="s">
         <v>324</v>
       </c>
@@ -18336,7 +18336,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="73"/>
+      <c r="A81" s="72"/>
       <c r="B81" s="51" t="s">
         <v>325</v>
       </c>
@@ -18362,7 +18362,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="73"/>
+      <c r="A82" s="72"/>
       <c r="B82" s="51" t="s">
         <v>326</v>
       </c>
@@ -18388,7 +18388,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="73"/>
+      <c r="A83" s="72"/>
       <c r="B83" s="51" t="s">
         <v>327</v>
       </c>
@@ -18414,7 +18414,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="73"/>
+      <c r="A84" s="72"/>
       <c r="B84" s="51" t="s">
         <v>328</v>
       </c>
@@ -18440,7 +18440,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="73"/>
+      <c r="A85" s="72"/>
       <c r="B85" s="51" t="s">
         <v>294</v>
       </c>
@@ -18460,7 +18460,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="73"/>
+      <c r="A86" s="72"/>
       <c r="B86" s="51" t="s">
         <v>329</v>
       </c>
@@ -18480,7 +18480,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="73"/>
+      <c r="A87" s="72"/>
       <c r="B87" s="51" t="s">
         <v>304</v>
       </c>
@@ -18499,7 +18499,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="73"/>
+      <c r="A88" s="72"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -18510,7 +18510,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="73"/>
+      <c r="A89" s="72"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -18521,7 +18521,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="73"/>
+      <c r="A90" s="72"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -18532,7 +18532,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="76"/>
+      <c r="A91" s="73"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -18543,7 +18543,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="72" t="s">
+      <c r="A92" s="76" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -18570,7 +18570,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="73"/>
+      <c r="A93" s="72"/>
       <c r="B93" s="51" t="s">
         <v>330</v>
       </c>
@@ -18596,7 +18596,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="73"/>
+      <c r="A94" s="72"/>
       <c r="B94" s="56" t="s">
         <v>331</v>
       </c>
@@ -18622,7 +18622,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="73"/>
+      <c r="A95" s="72"/>
       <c r="B95" s="51" t="s">
         <v>309</v>
       </c>
@@ -18648,7 +18648,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="73"/>
+      <c r="A96" s="72"/>
       <c r="B96" s="51" t="s">
         <v>332</v>
       </c>
@@ -18674,7 +18674,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="73"/>
+      <c r="A97" s="72"/>
       <c r="B97" s="51" t="s">
         <v>311</v>
       </c>
@@ -18700,7 +18700,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="73"/>
+      <c r="A98" s="72"/>
       <c r="B98" s="51" t="s">
         <v>313</v>
       </c>
@@ -18726,7 +18726,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="73"/>
+      <c r="A99" s="72"/>
       <c r="B99" s="51" t="s">
         <v>333</v>
       </c>
@@ -18752,7 +18752,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="73"/>
+      <c r="A100" s="72"/>
       <c r="B100" s="51" t="s">
         <v>334</v>
       </c>
@@ -18772,7 +18772,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="73"/>
+      <c r="A101" s="72"/>
       <c r="B101" s="51" t="s">
         <v>309</v>
       </c>
@@ -18792,7 +18792,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="73"/>
+      <c r="A102" s="72"/>
       <c r="B102" s="51" t="s">
         <v>316</v>
       </c>
@@ -18811,7 +18811,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="73"/>
+      <c r="A103" s="72"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -18819,7 +18819,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="73"/>
+      <c r="A104" s="72"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -18827,7 +18827,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="73"/>
+      <c r="A105" s="72"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -19155,7 +19155,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="72" t="s">
+      <c r="A122" s="76" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -19182,7 +19182,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="73"/>
+      <c r="A123" s="72"/>
       <c r="B123" s="51" t="s">
         <v>322</v>
       </c>
@@ -19208,7 +19208,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="73"/>
+      <c r="A124" s="72"/>
       <c r="B124" s="51" t="s">
         <v>294</v>
       </c>
@@ -19234,7 +19234,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="73"/>
+      <c r="A125" s="72"/>
       <c r="B125" s="51" t="s">
         <v>344</v>
       </c>
@@ -19260,7 +19260,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="73"/>
+      <c r="A126" s="72"/>
       <c r="B126" s="51" t="s">
         <v>329</v>
       </c>
@@ -19286,7 +19286,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="73"/>
+      <c r="A127" s="72"/>
       <c r="B127" s="56" t="s">
         <v>345</v>
       </c>
@@ -19312,7 +19312,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="73"/>
+      <c r="A128" s="72"/>
       <c r="B128" s="51" t="s">
         <v>346</v>
       </c>
@@ -19338,7 +19338,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="73"/>
+      <c r="A129" s="72"/>
       <c r="B129" s="56" t="s">
         <v>304</v>
       </c>
@@ -19364,7 +19364,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="73"/>
+      <c r="A130" s="72"/>
       <c r="B130" s="56" t="s">
         <v>304</v>
       </c>
@@ -19384,7 +19384,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="73"/>
+      <c r="A131" s="72"/>
       <c r="B131" s="51" t="s">
         <v>347</v>
       </c>
@@ -19404,7 +19404,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="73"/>
+      <c r="A132" s="72"/>
       <c r="B132" s="51" t="s">
         <v>348</v>
       </c>
@@ -19423,7 +19423,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="73"/>
+      <c r="A133" s="72"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -19434,7 +19434,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="73"/>
+      <c r="A134" s="72"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -19445,7 +19445,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="73"/>
+      <c r="A135" s="72"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -19771,7 +19771,7 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="72" t="s">
+      <c r="A152" s="76" t="s">
         <v>355</v>
       </c>
       <c r="B152" s="51" t="s">
@@ -19798,7 +19798,7 @@
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="73"/>
+      <c r="A153" s="72"/>
       <c r="B153" s="51" t="s">
         <v>357</v>
       </c>
@@ -19824,7 +19824,7 @@
       </c>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="73"/>
+      <c r="A154" s="72"/>
       <c r="B154" s="51" t="s">
         <v>341</v>
       </c>
@@ -19850,7 +19850,7 @@
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="73"/>
+      <c r="A155" s="72"/>
       <c r="B155" s="51" t="s">
         <v>357</v>
       </c>
@@ -19876,7 +19876,7 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="73"/>
+      <c r="A156" s="72"/>
       <c r="B156" s="51" t="s">
         <v>301</v>
       </c>
@@ -19902,7 +19902,7 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="73"/>
+      <c r="A157" s="72"/>
       <c r="B157" s="51" t="s">
         <v>294</v>
       </c>
@@ -19928,7 +19928,7 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="73"/>
+      <c r="A158" s="72"/>
       <c r="B158" s="51" t="s">
         <v>304</v>
       </c>
@@ -19954,7 +19954,7 @@
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="73"/>
+      <c r="A159" s="72"/>
       <c r="B159" s="51" t="s">
         <v>358</v>
       </c>
@@ -19980,7 +19980,7 @@
       </c>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="73"/>
+      <c r="A160" s="72"/>
       <c r="B160" s="51" t="s">
         <v>359</v>
       </c>
@@ -20000,7 +20000,7 @@
       <c r="I160" s="54"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="73"/>
+      <c r="A161" s="72"/>
       <c r="B161" s="51"/>
       <c r="C161" s="51"/>
       <c r="D161" s="52"/>
@@ -20012,7 +20012,7 @@
       <c r="I161" s="54"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="73"/>
+      <c r="A162" s="72"/>
       <c r="B162" s="51"/>
       <c r="C162" s="51"/>
       <c r="D162" s="52"/>
@@ -20023,7 +20023,7 @@
       </c>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="73"/>
+      <c r="A163" s="72"/>
       <c r="B163" s="51"/>
       <c r="C163" s="51"/>
       <c r="D163" s="52"/>
@@ -20034,7 +20034,7 @@
       </c>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="73"/>
+      <c r="A164" s="72"/>
       <c r="B164" s="51"/>
       <c r="C164" s="51"/>
       <c r="D164" s="52"/>
@@ -20045,7 +20045,7 @@
       </c>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="73"/>
+      <c r="A165" s="72"/>
       <c r="B165" s="51"/>
       <c r="C165" s="51"/>
       <c r="D165" s="52"/>
@@ -20056,7 +20056,7 @@
       </c>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="73"/>
+      <c r="A166" s="72"/>
       <c r="B166" s="51"/>
       <c r="C166" s="51"/>
       <c r="D166" s="52"/>
@@ -20068,17 +20068,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="142" priority="12" operator="greaterThan">
@@ -20184,7 +20184,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="72" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -20214,7 +20214,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="73"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="51" t="s">
         <v>360</v>
       </c>
@@ -20243,7 +20243,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="73"/>
+      <c r="A4" s="72"/>
       <c r="B4" s="51" t="s">
         <v>361</v>
       </c>
@@ -20272,7 +20272,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="73"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -20301,7 +20301,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="73"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="51" t="s">
         <v>311</v>
       </c>
@@ -20330,7 +20330,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="73"/>
+      <c r="A7" s="72"/>
       <c r="B7" t="s">
         <v>362</v>
       </c>
@@ -20359,7 +20359,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="73"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="51" t="s">
         <v>363</v>
       </c>
@@ -20385,7 +20385,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="73"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="51" t="s">
         <v>364</v>
       </c>
@@ -20411,7 +20411,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="73"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="51" t="s">
         <v>329</v>
       </c>
@@ -20431,7 +20431,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="73"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="51" t="s">
         <v>365</v>
       </c>
@@ -20451,7 +20451,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="73"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="51" t="s">
         <v>345</v>
       </c>
@@ -20470,7 +20470,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="73"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -20489,7 +20489,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="73"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="51" t="s">
         <v>366</v>
       </c>
@@ -20508,7 +20508,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="73"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="51" t="s">
         <v>367</v>
       </c>
@@ -20527,7 +20527,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="73"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="51" t="s">
         <v>368</v>
       </c>
@@ -20546,7 +20546,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="72" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -20573,7 +20573,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="73"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="51" t="s">
         <v>370</v>
       </c>
@@ -20599,7 +20599,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="73"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="51" t="s">
         <v>342</v>
       </c>
@@ -20625,7 +20625,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="73"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="51" t="s">
         <v>371</v>
       </c>
@@ -20651,7 +20651,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="73"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="51" t="s">
         <v>372</v>
       </c>
@@ -20677,7 +20677,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="73"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -20703,7 +20703,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="73"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="51" t="s">
         <v>373</v>
       </c>
@@ -20729,7 +20729,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="73"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="51" t="s">
         <v>374</v>
       </c>
@@ -20755,7 +20755,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="73"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="51" t="s">
         <v>304</v>
       </c>
@@ -20775,7 +20775,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="73"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="51" t="s">
         <v>375</v>
       </c>
@@ -20795,7 +20795,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="73"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="51" t="s">
         <v>376</v>
       </c>
@@ -20814,7 +20814,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="73"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="51" t="s">
         <v>377</v>
       </c>
@@ -20833,7 +20833,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="73"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="51" t="s">
         <v>378</v>
       </c>
@@ -20852,7 +20852,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="73"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -20863,7 +20863,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="73"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -20874,7 +20874,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="72" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -20901,7 +20901,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="73"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="51" t="s">
         <v>380</v>
       </c>
@@ -20927,7 +20927,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="73"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="51" t="s">
         <v>370</v>
       </c>
@@ -20953,7 +20953,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="73"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="51" t="s">
         <v>294</v>
       </c>
@@ -20979,7 +20979,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="73"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="51" t="s">
         <v>381</v>
       </c>
@@ -21005,7 +21005,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="73"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -21031,7 +21031,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="73"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="51" t="s">
         <v>382</v>
       </c>
@@ -21057,7 +21057,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="73"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -21083,7 +21083,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="73"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="51" t="s">
         <v>383</v>
       </c>
@@ -21103,7 +21103,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="73"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="51" t="s">
         <v>374</v>
       </c>
@@ -21123,7 +21123,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="73"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="51" t="s">
         <v>304</v>
       </c>
@@ -21142,7 +21142,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="73"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="51" t="s">
         <v>384</v>
       </c>
@@ -21161,7 +21161,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="73"/>
+      <c r="A44" s="72"/>
       <c r="B44" s="51" t="s">
         <v>385</v>
       </c>
@@ -21180,7 +21180,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="73"/>
+      <c r="A45" s="72"/>
       <c r="B45" s="51" t="s">
         <v>386</v>
       </c>
@@ -21444,7 +21444,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="76" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -21471,7 +21471,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="73"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="51" t="s">
         <v>390</v>
       </c>
@@ -21496,7 +21496,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="73"/>
+      <c r="A64" s="72"/>
       <c r="B64" s="51" t="s">
         <v>370</v>
       </c>
@@ -21522,7 +21522,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="73"/>
+      <c r="A65" s="72"/>
       <c r="B65" s="51" t="s">
         <v>309</v>
       </c>
@@ -21548,7 +21548,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="73"/>
+      <c r="A66" s="72"/>
       <c r="B66" s="51" t="s">
         <v>391</v>
       </c>
@@ -21574,7 +21574,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="73"/>
+      <c r="A67" s="72"/>
       <c r="B67" s="51" t="s">
         <v>392</v>
       </c>
@@ -21600,7 +21600,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="73"/>
+      <c r="A68" s="72"/>
       <c r="B68" s="56" t="s">
         <v>313</v>
       </c>
@@ -21626,7 +21626,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="73"/>
+      <c r="A69" s="72"/>
       <c r="B69" s="51" t="s">
         <v>393</v>
       </c>
@@ -21652,7 +21652,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="73"/>
+      <c r="A70" s="72"/>
       <c r="B70" s="51" t="s">
         <v>394</v>
       </c>
@@ -21672,7 +21672,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="73"/>
+      <c r="A71" s="72"/>
       <c r="B71" s="51" t="s">
         <v>342</v>
       </c>
@@ -21692,7 +21692,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="73"/>
+      <c r="A72" s="72"/>
       <c r="B72" s="51" t="s">
         <v>385</v>
       </c>
@@ -21711,7 +21711,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="73"/>
+      <c r="A73" s="72"/>
       <c r="B73" s="51" t="s">
         <v>395</v>
       </c>
@@ -21730,7 +21730,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="73"/>
+      <c r="A74" s="72"/>
       <c r="B74" s="51" t="s">
         <v>396</v>
       </c>
@@ -21749,7 +21749,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="73"/>
+      <c r="A75" s="72"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -21760,7 +21760,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="73"/>
+      <c r="A76" s="72"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -21771,7 +21771,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="73" t="s">
+      <c r="A77" s="72" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -21798,7 +21798,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="73"/>
+      <c r="A78" s="72"/>
       <c r="B78" s="51" t="s">
         <v>397</v>
       </c>
@@ -21824,7 +21824,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="73"/>
+      <c r="A79" s="72"/>
       <c r="B79" s="51" t="s">
         <v>398</v>
       </c>
@@ -21850,7 +21850,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="73"/>
+      <c r="A80" s="72"/>
       <c r="B80" s="51" t="s">
         <v>309</v>
       </c>
@@ -21876,7 +21876,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="73"/>
+      <c r="A81" s="72"/>
       <c r="B81" s="51" t="s">
         <v>399</v>
       </c>
@@ -21902,7 +21902,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="73"/>
+      <c r="A82" s="72"/>
       <c r="B82" s="51" t="s">
         <v>400</v>
       </c>
@@ -21928,7 +21928,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="73"/>
+      <c r="A83" s="72"/>
       <c r="B83" s="51" t="s">
         <v>329</v>
       </c>
@@ -21954,7 +21954,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="73"/>
+      <c r="A84" s="72"/>
       <c r="B84" s="51" t="s">
         <v>401</v>
       </c>
@@ -21980,7 +21980,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="73"/>
+      <c r="A85" s="72"/>
       <c r="B85" s="51" t="s">
         <v>394</v>
       </c>
@@ -22000,7 +22000,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="73"/>
+      <c r="A86" s="72"/>
       <c r="B86" s="51" t="s">
         <v>309</v>
       </c>
@@ -22020,7 +22020,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="73"/>
+      <c r="A87" s="72"/>
       <c r="B87" s="51" t="s">
         <v>385</v>
       </c>
@@ -22039,7 +22039,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="73"/>
+      <c r="A88" s="72"/>
       <c r="B88" s="51" t="s">
         <v>402</v>
       </c>
@@ -22058,7 +22058,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="73"/>
+      <c r="A89" s="72"/>
       <c r="B89" s="51" t="s">
         <v>403</v>
       </c>
@@ -22077,7 +22077,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="73"/>
+      <c r="A90" s="72"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -22088,7 +22088,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="76"/>
+      <c r="A91" s="73"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -22099,7 +22099,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="72" t="s">
+      <c r="A92" s="76" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -22126,7 +22126,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="73"/>
+      <c r="A93" s="72"/>
       <c r="B93" s="51" t="s">
         <v>405</v>
       </c>
@@ -22152,7 +22152,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="73"/>
+      <c r="A94" s="72"/>
       <c r="B94" s="56" t="s">
         <v>406</v>
       </c>
@@ -22178,7 +22178,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="73"/>
+      <c r="A95" s="72"/>
       <c r="B95" s="51" t="s">
         <v>407</v>
       </c>
@@ -22204,7 +22204,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="73"/>
+      <c r="A96" s="72"/>
       <c r="B96" s="51" t="s">
         <v>342</v>
       </c>
@@ -22230,7 +22230,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="73"/>
+      <c r="A97" s="72"/>
       <c r="B97" s="51" t="s">
         <v>408</v>
       </c>
@@ -22256,7 +22256,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="73"/>
+      <c r="A98" s="72"/>
       <c r="B98" s="51" t="s">
         <v>409</v>
       </c>
@@ -22282,7 +22282,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="73"/>
+      <c r="A99" s="72"/>
       <c r="B99" s="51" t="s">
         <v>410</v>
       </c>
@@ -22308,7 +22308,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="73"/>
+      <c r="A100" s="72"/>
       <c r="B100" s="51" t="s">
         <v>411</v>
       </c>
@@ -22328,7 +22328,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="73"/>
+      <c r="A101" s="72"/>
       <c r="B101" s="51" t="s">
         <v>412</v>
       </c>
@@ -22348,7 +22348,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="73"/>
+      <c r="A102" s="72"/>
       <c r="B102" s="51" t="s">
         <v>413</v>
       </c>
@@ -22367,7 +22367,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="73"/>
+      <c r="A103" s="72"/>
       <c r="B103" s="51" t="s">
         <v>414</v>
       </c>
@@ -22386,7 +22386,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="73"/>
+      <c r="A104" s="72"/>
       <c r="B104" s="51" t="s">
         <v>304</v>
       </c>
@@ -22405,7 +22405,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="73"/>
+      <c r="A105" s="72"/>
       <c r="B105" s="51" t="s">
         <v>415</v>
       </c>
@@ -22767,7 +22767,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="72" t="s">
+      <c r="A122" s="76" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -22794,7 +22794,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="73"/>
+      <c r="A123" s="72"/>
       <c r="B123" s="51" t="s">
         <v>426</v>
       </c>
@@ -22820,7 +22820,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="73"/>
+      <c r="A124" s="72"/>
       <c r="B124" s="51" t="s">
         <v>427</v>
       </c>
@@ -22846,7 +22846,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="73"/>
+      <c r="A125" s="72"/>
       <c r="B125" s="51" t="s">
         <v>428</v>
       </c>
@@ -22872,7 +22872,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="73"/>
+      <c r="A126" s="72"/>
       <c r="B126" s="51" t="s">
         <v>429</v>
       </c>
@@ -22898,7 +22898,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="73"/>
+      <c r="A127" s="72"/>
       <c r="B127" s="56" t="s">
         <v>430</v>
       </c>
@@ -22924,7 +22924,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="73"/>
+      <c r="A128" s="72"/>
       <c r="B128" s="51" t="s">
         <v>431</v>
       </c>
@@ -22950,7 +22950,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="73"/>
+      <c r="A129" s="72"/>
       <c r="B129" s="56" t="s">
         <v>432</v>
       </c>
@@ -22976,7 +22976,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="73"/>
+      <c r="A130" s="72"/>
       <c r="B130" s="56" t="s">
         <v>433</v>
       </c>
@@ -22996,7 +22996,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="73"/>
+      <c r="A131" s="72"/>
       <c r="B131" s="51" t="s">
         <v>294</v>
       </c>
@@ -23016,7 +23016,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="73"/>
+      <c r="A132" s="72"/>
       <c r="B132" s="51" t="s">
         <v>329</v>
       </c>
@@ -23035,7 +23035,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="73"/>
+      <c r="A133" s="72"/>
       <c r="B133" s="51" t="s">
         <v>304</v>
       </c>
@@ -23054,7 +23054,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="73"/>
+      <c r="A134" s="72"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -23065,7 +23065,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="73"/>
+      <c r="A135" s="72"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -23523,7 +23523,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="72" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -23553,7 +23553,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="73"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="51" t="s">
         <v>311</v>
       </c>
@@ -23582,7 +23582,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="73"/>
+      <c r="A4" s="72"/>
       <c r="B4" s="51" t="s">
         <v>440</v>
       </c>
@@ -23611,7 +23611,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="73"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="56" t="s">
         <v>441</v>
       </c>
@@ -23640,7 +23640,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="73"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="51" t="s">
         <v>342</v>
       </c>
@@ -23669,7 +23669,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="73"/>
+      <c r="A7" s="72"/>
       <c r="B7" t="s">
         <v>442</v>
       </c>
@@ -23698,7 +23698,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="73"/>
+      <c r="A8" s="72"/>
       <c r="B8" t="s">
         <v>443</v>
       </c>
@@ -23724,7 +23724,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="73"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="51" t="s">
         <v>329</v>
       </c>
@@ -23750,7 +23750,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="73"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="51" t="s">
         <v>444</v>
       </c>
@@ -23770,7 +23770,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="73"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="51" t="s">
         <v>445</v>
       </c>
@@ -23790,7 +23790,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="73"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="51" t="s">
         <v>446</v>
       </c>
@@ -23809,7 +23809,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="73"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -23822,7 +23822,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="73"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -23835,7 +23835,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="73"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -23848,7 +23848,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="73"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -23861,7 +23861,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="72" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -23888,7 +23888,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="73"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="51" t="s">
         <v>447</v>
       </c>
@@ -23914,7 +23914,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="73"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="51" t="s">
         <v>342</v>
       </c>
@@ -23940,7 +23940,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="73"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="51" t="s">
         <v>371</v>
       </c>
@@ -23966,7 +23966,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="73"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="51" t="s">
         <v>372</v>
       </c>
@@ -23992,7 +23992,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="73"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -24018,7 +24018,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="73"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="51" t="s">
         <v>373</v>
       </c>
@@ -24044,7 +24044,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="73"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="51" t="s">
         <v>374</v>
       </c>
@@ -24070,7 +24070,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="73"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="51" t="s">
         <v>304</v>
       </c>
@@ -24090,7 +24090,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="73"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="51" t="s">
         <v>375</v>
       </c>
@@ -24110,7 +24110,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="73"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="51" t="s">
         <v>376</v>
       </c>
@@ -24129,7 +24129,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="73"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="51" t="s">
         <v>377</v>
       </c>
@@ -24148,7 +24148,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="73"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="51" t="s">
         <v>378</v>
       </c>
@@ -24167,7 +24167,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="73"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="51" t="s">
         <v>448</v>
       </c>
@@ -24186,7 +24186,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="73"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -24197,7 +24197,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="72" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -24224,7 +24224,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="73"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="51" t="s">
         <v>449</v>
       </c>
@@ -24250,7 +24250,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="73"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="51" t="s">
         <v>450</v>
       </c>
@@ -24276,7 +24276,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="73"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="51" t="s">
         <v>294</v>
       </c>
@@ -24302,7 +24302,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="73"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="51" t="s">
         <v>451</v>
       </c>
@@ -24328,7 +24328,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="73"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -24354,7 +24354,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="73"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="51" t="s">
         <v>452</v>
       </c>
@@ -24380,7 +24380,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="73"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -24406,7 +24406,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="73"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="51" t="s">
         <v>453</v>
       </c>
@@ -24426,7 +24426,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="73"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="51" t="s">
         <v>454</v>
       </c>
@@ -24446,7 +24446,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="73"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="51" t="s">
         <v>304</v>
       </c>
@@ -24465,7 +24465,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="73"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="51" t="s">
         <v>455</v>
       </c>
@@ -24484,7 +24484,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="73"/>
+      <c r="A44" s="72"/>
       <c r="B44" s="51" t="s">
         <v>448</v>
       </c>
@@ -24503,7 +24503,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="73"/>
+      <c r="A45" s="72"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
       <c r="E45" s="52"/>
@@ -24750,7 +24750,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="76" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -24769,7 +24769,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="73"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -24786,7 +24786,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="73"/>
+      <c r="A64" s="72"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -24804,7 +24804,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="73"/>
+      <c r="A65" s="72"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -24822,7 +24822,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="73"/>
+      <c r="A66" s="72"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -24840,7 +24840,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="73"/>
+      <c r="A67" s="72"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -24858,7 +24858,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="73"/>
+      <c r="A68" s="72"/>
       <c r="B68" s="56" t="s">
         <v>456</v>
       </c>
@@ -24878,7 +24878,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="73"/>
+      <c r="A69" s="72"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -24896,7 +24896,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="73"/>
+      <c r="A70" s="72"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -24908,7 +24908,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="73"/>
+      <c r="A71" s="72"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -24920,7 +24920,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="73"/>
+      <c r="A72" s="72"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -24931,7 +24931,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="73"/>
+      <c r="A73" s="72"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -24942,7 +24942,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="73"/>
+      <c r="A74" s="72"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -24953,7 +24953,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="73"/>
+      <c r="A75" s="72"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -24964,7 +24964,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="73"/>
+      <c r="A76" s="72"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -24975,7 +24975,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="73" t="s">
+      <c r="A77" s="72" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -25002,7 +25002,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="73"/>
+      <c r="A78" s="72"/>
       <c r="B78" s="51" t="s">
         <v>457</v>
       </c>
@@ -25028,7 +25028,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="73"/>
+      <c r="A79" s="72"/>
       <c r="B79" s="51" t="s">
         <v>458</v>
       </c>
@@ -25054,7 +25054,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="73"/>
+      <c r="A80" s="72"/>
       <c r="B80" s="51" t="s">
         <v>309</v>
       </c>
@@ -25080,7 +25080,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="73"/>
+      <c r="A81" s="72"/>
       <c r="B81" s="51" t="s">
         <v>459</v>
       </c>
@@ -25106,7 +25106,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="73"/>
+      <c r="A82" s="72"/>
       <c r="B82" s="51" t="s">
         <v>400</v>
       </c>
@@ -25132,7 +25132,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="73"/>
+      <c r="A83" s="72"/>
       <c r="B83" s="51" t="s">
         <v>329</v>
       </c>
@@ -25158,7 +25158,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="73"/>
+      <c r="A84" s="72"/>
       <c r="B84" s="51" t="s">
         <v>401</v>
       </c>
@@ -25184,7 +25184,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="73"/>
+      <c r="A85" s="72"/>
       <c r="B85" s="51" t="s">
         <v>394</v>
       </c>
@@ -25204,7 +25204,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="73"/>
+      <c r="A86" s="72"/>
       <c r="B86" s="51" t="s">
         <v>309</v>
       </c>
@@ -25224,7 +25224,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="73"/>
+      <c r="A87" s="72"/>
       <c r="B87" s="51" t="s">
         <v>385</v>
       </c>
@@ -25243,7 +25243,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="73"/>
+      <c r="A88" s="72"/>
       <c r="B88" s="51" t="s">
         <v>402</v>
       </c>
@@ -25262,7 +25262,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="73"/>
+      <c r="A89" s="72"/>
       <c r="B89" s="51" t="s">
         <v>403</v>
       </c>
@@ -25281,7 +25281,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="73"/>
+      <c r="A90" s="72"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -25292,7 +25292,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="76"/>
+      <c r="A91" s="73"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -25303,7 +25303,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="72" t="s">
+      <c r="A92" s="76" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -25330,7 +25330,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="73"/>
+      <c r="A93" s="72"/>
       <c r="B93" s="51" t="s">
         <v>461</v>
       </c>
@@ -25356,7 +25356,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="73"/>
+      <c r="A94" s="72"/>
       <c r="B94" s="56" t="s">
         <v>309</v>
       </c>
@@ -25382,7 +25382,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="73"/>
+      <c r="A95" s="72"/>
       <c r="B95" s="51" t="s">
         <v>462</v>
       </c>
@@ -25408,7 +25408,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="73"/>
+      <c r="A96" s="72"/>
       <c r="B96" s="51" t="s">
         <v>463</v>
       </c>
@@ -25434,7 +25434,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="73"/>
+      <c r="A97" s="72"/>
       <c r="B97" s="51" t="s">
         <v>464</v>
       </c>
@@ -25460,7 +25460,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="73"/>
+      <c r="A98" s="72"/>
       <c r="B98" s="51" t="s">
         <v>465</v>
       </c>
@@ -25486,7 +25486,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="73"/>
+      <c r="A99" s="72"/>
       <c r="B99" s="51" t="s">
         <v>466</v>
       </c>
@@ -25512,7 +25512,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="73"/>
+      <c r="A100" s="72"/>
       <c r="B100" s="51" t="s">
         <v>421</v>
       </c>
@@ -25532,7 +25532,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="73"/>
+      <c r="A101" s="72"/>
       <c r="B101" s="51" t="s">
         <v>467</v>
       </c>
@@ -25552,7 +25552,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="73"/>
+      <c r="A102" s="72"/>
       <c r="B102" s="51" t="s">
         <v>468</v>
       </c>
@@ -25571,7 +25571,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="73"/>
+      <c r="A103" s="72"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -25588,7 +25588,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="73"/>
+      <c r="A104" s="72"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -25605,7 +25605,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="73"/>
+      <c r="A105" s="72"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -25865,7 +25865,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="72" t="s">
+      <c r="A122" s="76" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51"/>
@@ -25890,7 +25890,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="73"/>
+      <c r="A123" s="72"/>
       <c r="B123" s="51"/>
       <c r="C123" s="51" t="s">
         <v>295</v>
@@ -25914,7 +25914,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="73"/>
+      <c r="A124" s="72"/>
       <c r="B124" s="51"/>
       <c r="C124" s="51" t="s">
         <v>288</v>
@@ -25938,7 +25938,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="73"/>
+      <c r="A125" s="72"/>
       <c r="B125" s="51"/>
       <c r="C125" s="51" t="s">
         <v>295</v>
@@ -25962,7 +25962,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="73"/>
+      <c r="A126" s="72"/>
       <c r="B126" s="58"/>
       <c r="C126" s="51" t="s">
         <v>288</v>
@@ -26058,7 +26058,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="73"/>
+      <c r="A131" s="72"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -26067,7 +26067,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="73"/>
+      <c r="A132" s="72"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -26075,7 +26075,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="73"/>
+      <c r="A133" s="72"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -26083,7 +26083,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="73"/>
+      <c r="A134" s="72"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -26091,7 +26091,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="73"/>
+      <c r="A135" s="72"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -26853,7 +26853,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="72" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -26883,7 +26883,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="73"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="51" t="s">
         <v>470</v>
       </c>
@@ -26912,7 +26912,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="73"/>
+      <c r="A4" s="72"/>
       <c r="B4" s="51" t="s">
         <v>471</v>
       </c>
@@ -26941,7 +26941,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="73"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="51" t="s">
         <v>472</v>
       </c>
@@ -26970,7 +26970,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="73"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="51" t="s">
         <v>329</v>
       </c>
@@ -26999,7 +26999,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="73"/>
+      <c r="A7" s="72"/>
       <c r="B7" t="s">
         <v>473</v>
       </c>
@@ -27028,7 +27028,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="73"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="51" t="s">
         <v>474</v>
       </c>
@@ -27054,7 +27054,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="73"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
         <v>288</v>
@@ -27074,7 +27074,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="73"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
         <v>295</v>
@@ -27088,7 +27088,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="73"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -27102,7 +27102,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="73"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -27115,7 +27115,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="73"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -27128,7 +27128,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="73"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -27141,7 +27141,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="73"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -27154,7 +27154,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="73"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -27167,7 +27167,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="72" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -27194,7 +27194,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="73"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="51" t="s">
         <v>476</v>
       </c>
@@ -27220,7 +27220,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="73"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -27246,7 +27246,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="73"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="51" t="s">
         <v>477</v>
       </c>
@@ -27272,7 +27272,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="73"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="51" t="s">
         <v>309</v>
       </c>
@@ -27298,7 +27298,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="73"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="51" t="s">
         <v>478</v>
       </c>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="73"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
@@ -27339,7 +27339,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="73"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
@@ -27354,7 +27354,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="73"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -27363,7 +27363,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="73"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -27375,7 +27375,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="73"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -27386,7 +27386,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="73"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -27397,7 +27397,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="73"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -27408,7 +27408,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="73"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -27419,7 +27419,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="73"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -27430,7 +27430,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="72" t="s">
         <v>263</v>
       </c>
       <c r="C32" s="51"/>
@@ -27448,7 +27448,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="73"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -27466,7 +27466,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="73"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -27484,7 +27484,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="73"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="52"/>
@@ -27502,7 +27502,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="73"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -27520,7 +27520,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="73"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="51" t="s">
         <v>479</v>
       </c>
@@ -27540,7 +27540,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="73"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -27558,7 +27558,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="73"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -27576,7 +27576,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="73"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -27588,7 +27588,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="73"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -27600,7 +27600,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="73"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -27611,7 +27611,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="73"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -27622,7 +27622,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="73"/>
+      <c r="A44" s="72"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -27633,7 +27633,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="73"/>
+      <c r="A45" s="72"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -27925,7 +27925,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="76" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -27944,7 +27944,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="73"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -27961,7 +27961,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="73"/>
+      <c r="A64" s="72"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -27979,7 +27979,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="73"/>
+      <c r="A65" s="72"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -27997,7 +27997,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="73"/>
+      <c r="A66" s="72"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -28015,7 +28015,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="73"/>
+      <c r="A67" s="72"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -28033,7 +28033,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="73"/>
+      <c r="A68" s="72"/>
       <c r="B68" s="56" t="s">
         <v>488</v>
       </c>
@@ -28053,7 +28053,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="73"/>
+      <c r="A69" s="72"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -28071,7 +28071,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="73"/>
+      <c r="A70" s="72"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -28083,7 +28083,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="73"/>
+      <c r="A71" s="72"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -28095,7 +28095,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="73"/>
+      <c r="A72" s="72"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -28106,7 +28106,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="73"/>
+      <c r="A73" s="72"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -28117,7 +28117,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="73"/>
+      <c r="A74" s="72"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -28128,7 +28128,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="73"/>
+      <c r="A75" s="72"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -28139,7 +28139,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="73"/>
+      <c r="A76" s="72"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -28150,7 +28150,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="73" t="s">
+      <c r="A77" s="72" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -28171,7 +28171,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="73"/>
+      <c r="A78" s="72"/>
       <c r="B78" s="51"/>
       <c r="C78" s="51"/>
       <c r="D78" s="52"/>
@@ -28189,7 +28189,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="73"/>
+      <c r="A79" s="72"/>
       <c r="B79" s="51"/>
       <c r="C79" s="51"/>
       <c r="D79" s="52"/>
@@ -28207,7 +28207,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="73"/>
+      <c r="A80" s="72"/>
       <c r="B80" s="51"/>
       <c r="C80" s="51"/>
       <c r="D80" s="52"/>
@@ -28225,7 +28225,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="73"/>
+      <c r="A81" s="72"/>
       <c r="B81" s="51"/>
       <c r="C81" s="51"/>
       <c r="D81" s="52"/>
@@ -28243,7 +28243,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="73"/>
+      <c r="A82" s="72"/>
       <c r="B82" s="51"/>
       <c r="C82" s="51"/>
       <c r="D82" s="52"/>
@@ -28261,7 +28261,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="73"/>
+      <c r="A83" s="72"/>
       <c r="B83" s="51"/>
       <c r="C83" s="51"/>
       <c r="D83" s="52"/>
@@ -28279,7 +28279,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="73"/>
+      <c r="A84" s="72"/>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
@@ -28297,7 +28297,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="73"/>
+      <c r="A85" s="72"/>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
@@ -28309,7 +28309,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="73"/>
+      <c r="A86" s="72"/>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
@@ -28321,7 +28321,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="73"/>
+      <c r="A87" s="72"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
       <c r="D87" s="52"/>
@@ -28332,7 +28332,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="73"/>
+      <c r="A88" s="72"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -28343,7 +28343,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="73"/>
+      <c r="A89" s="72"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -28354,7 +28354,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="73"/>
+      <c r="A90" s="72"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -28365,7 +28365,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="76"/>
+      <c r="A91" s="73"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -28376,7 +28376,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="72" t="s">
+      <c r="A92" s="76" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -28403,7 +28403,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="73"/>
+      <c r="A93" s="72"/>
       <c r="B93" s="51" t="s">
         <v>491</v>
       </c>
@@ -28429,7 +28429,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="73"/>
+      <c r="A94" s="72"/>
       <c r="B94" s="56" t="s">
         <v>492</v>
       </c>
@@ -28455,7 +28455,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="73"/>
+      <c r="A95" s="72"/>
       <c r="B95" s="51"/>
       <c r="C95" s="51" t="s">
         <v>293</v>
@@ -28479,7 +28479,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="73"/>
+      <c r="A96" s="72"/>
       <c r="B96" s="51"/>
       <c r="C96" s="51" t="s">
         <v>295</v>
@@ -28503,7 +28503,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="73"/>
+      <c r="A97" s="72"/>
       <c r="B97" s="51"/>
       <c r="C97" s="51" t="s">
         <v>288</v>
@@ -28527,7 +28527,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="73"/>
+      <c r="A98" s="72"/>
       <c r="B98" s="51"/>
       <c r="C98" s="51" t="s">
         <v>285</v>
@@ -28551,7 +28551,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="73"/>
+      <c r="A99" s="72"/>
       <c r="B99" s="51"/>
       <c r="C99" s="51" t="s">
         <v>290</v>
@@ -28575,7 +28575,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="73"/>
+      <c r="A100" s="72"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>288</v>
@@ -28593,7 +28593,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="73"/>
+      <c r="A101" s="72"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>295</v>
@@ -28611,7 +28611,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="73"/>
+      <c r="A102" s="72"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -28628,7 +28628,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="73"/>
+      <c r="A103" s="72"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -28645,7 +28645,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="73"/>
+      <c r="A104" s="72"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -28662,7 +28662,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="73"/>
+      <c r="A105" s="72"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -28922,7 +28922,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="72" t="s">
+      <c r="A122" s="76" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -28949,7 +28949,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="73"/>
+      <c r="A123" s="72"/>
       <c r="B123" s="51" t="s">
         <v>494</v>
       </c>
@@ -28975,7 +28975,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="73"/>
+      <c r="A124" s="72"/>
       <c r="B124" s="51" t="s">
         <v>495</v>
       </c>
@@ -29001,7 +29001,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="73"/>
+      <c r="A125" s="72"/>
       <c r="B125" s="51" t="s">
         <v>496</v>
       </c>
@@ -29027,7 +29027,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="73"/>
+      <c r="A126" s="72"/>
       <c r="B126" s="58" t="s">
         <v>497</v>
       </c>
@@ -29149,7 +29149,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="73"/>
+      <c r="A131" s="72"/>
       <c r="B131" s="59" t="s">
         <v>502</v>
       </c>
@@ -29168,7 +29168,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="73"/>
+      <c r="A132" s="72"/>
       <c r="B132" s="51" t="s">
         <v>503</v>
       </c>
@@ -29186,7 +29186,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="73"/>
+      <c r="A133" s="72"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -29194,7 +29194,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="73"/>
+      <c r="A134" s="72"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -29202,7 +29202,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="73"/>
+      <c r="A135" s="72"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -29622,7 +29622,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="72" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51"/>
@@ -29646,7 +29646,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="73"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51" t="s">
         <v>288</v>
@@ -29669,7 +29669,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="73"/>
+      <c r="A4" s="72"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51" t="s">
         <v>285</v>
@@ -29692,7 +29692,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="73"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51" t="s">
         <v>295</v>
@@ -29715,7 +29715,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="73"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51" t="s">
         <v>285</v>
@@ -29738,7 +29738,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="73"/>
+      <c r="A7" s="72"/>
       <c r="C7" s="51" t="s">
         <v>288</v>
       </c>
@@ -29760,7 +29760,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="73"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51" t="s">
         <v>288</v>
@@ -29780,7 +29780,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="73"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="51" t="s">
         <v>388</v>
       </c>
@@ -29802,7 +29802,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="73"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
         <v>295</v>
@@ -29816,7 +29816,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="73"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -29830,7 +29830,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="73"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -29843,7 +29843,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="73"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -29856,7 +29856,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="73"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -29869,7 +29869,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="73"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -29882,7 +29882,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="73"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -29895,7 +29895,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="72" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -29922,7 +29922,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="73"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="51" t="s">
         <v>510</v>
       </c>
@@ -29948,7 +29948,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="73"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -29974,7 +29974,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="73"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="51" t="s">
         <v>477</v>
       </c>
@@ -30000,7 +30000,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="73"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="51" t="s">
         <v>511</v>
       </c>
@@ -30026,7 +30026,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="73"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52"/>
@@ -30044,7 +30044,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="73"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
@@ -30059,7 +30059,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="73"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
@@ -30074,7 +30074,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="73"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -30083,7 +30083,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="73"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -30095,7 +30095,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="73"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -30106,7 +30106,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="73"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -30117,7 +30117,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="73"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -30128,7 +30128,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="73"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -30139,7 +30139,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="73"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -30150,7 +30150,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="72" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -30171,7 +30171,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="73"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -30189,7 +30189,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="73"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -30207,7 +30207,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="73"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="51" t="s">
         <v>513</v>
       </c>
@@ -30233,7 +30233,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="73"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -30251,7 +30251,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="73"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
       <c r="D37" s="52"/>
@@ -30269,7 +30269,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="73"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -30287,7 +30287,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="73"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -30305,7 +30305,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="73"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -30317,7 +30317,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="73"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -30329,7 +30329,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="73"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -30340,7 +30340,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="73"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -30351,7 +30351,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="73"/>
+      <c r="A44" s="72"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -30362,7 +30362,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="73"/>
+      <c r="A45" s="72"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -30622,7 +30622,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="76" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -30641,7 +30641,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="73"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -30658,7 +30658,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="73"/>
+      <c r="A64" s="72"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -30676,7 +30676,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="73"/>
+      <c r="A65" s="72"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -30694,7 +30694,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="73"/>
+      <c r="A66" s="72"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -30712,7 +30712,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="73"/>
+      <c r="A67" s="72"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -30730,7 +30730,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="73"/>
+      <c r="A68" s="72"/>
       <c r="B68" s="56" t="s">
         <v>520</v>
       </c>
@@ -30750,7 +30750,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="73"/>
+      <c r="A69" s="72"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -30768,7 +30768,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="73"/>
+      <c r="A70" s="72"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -30780,7 +30780,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="73"/>
+      <c r="A71" s="72"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -30792,7 +30792,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="73"/>
+      <c r="A72" s="72"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -30803,7 +30803,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="73"/>
+      <c r="A73" s="72"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -30814,7 +30814,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="73"/>
+      <c r="A74" s="72"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -30825,7 +30825,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="73"/>
+      <c r="A75" s="72"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -30836,7 +30836,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="73"/>
+      <c r="A76" s="72"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -30847,7 +30847,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="73" t="s">
+      <c r="A77" s="72" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -30874,7 +30874,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="73"/>
+      <c r="A78" s="72"/>
       <c r="B78" s="56" t="s">
         <v>522</v>
       </c>
@@ -30900,7 +30900,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="73"/>
+      <c r="A79" s="72"/>
       <c r="B79" s="51" t="s">
         <v>523</v>
       </c>
@@ -30926,7 +30926,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="73"/>
+      <c r="A80" s="72"/>
       <c r="B80" s="51" t="s">
         <v>524</v>
       </c>
@@ -30952,7 +30952,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="73"/>
+      <c r="A81" s="72"/>
       <c r="B81" s="51" t="s">
         <v>525</v>
       </c>
@@ -30978,7 +30978,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="73"/>
+      <c r="A82" s="72"/>
       <c r="B82" s="51" t="s">
         <v>329</v>
       </c>
@@ -31004,7 +31004,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="73"/>
+      <c r="A83" s="72"/>
       <c r="B83" s="56" t="s">
         <v>526</v>
       </c>
@@ -31030,7 +31030,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="73"/>
+      <c r="A84" s="72"/>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
@@ -31048,7 +31048,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="73"/>
+      <c r="A85" s="72"/>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
@@ -31060,7 +31060,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="73"/>
+      <c r="A86" s="72"/>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
@@ -31072,7 +31072,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="73"/>
+      <c r="A87" s="72"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
       <c r="D87" s="52"/>
@@ -31083,7 +31083,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="73"/>
+      <c r="A88" s="72"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -31094,7 +31094,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="73"/>
+      <c r="A89" s="72"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -31105,7 +31105,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="73"/>
+      <c r="A90" s="72"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -31116,7 +31116,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="76"/>
+      <c r="A91" s="73"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -31127,7 +31127,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="72" t="s">
+      <c r="A92" s="76" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51"/>
@@ -31152,7 +31152,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="73"/>
+      <c r="A93" s="72"/>
       <c r="B93" s="51"/>
       <c r="C93" s="51" t="s">
         <v>288</v>
@@ -31176,7 +31176,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="73"/>
+      <c r="A94" s="72"/>
       <c r="B94" s="56"/>
       <c r="C94" s="51" t="s">
         <v>288</v>
@@ -31200,7 +31200,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="73"/>
+      <c r="A95" s="72"/>
       <c r="B95" s="51"/>
       <c r="C95" s="51" t="s">
         <v>293</v>
@@ -31224,7 +31224,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="73"/>
+      <c r="A96" s="72"/>
       <c r="B96" s="51"/>
       <c r="C96" s="51" t="s">
         <v>295</v>
@@ -31248,7 +31248,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="73"/>
+      <c r="A97" s="72"/>
       <c r="B97" s="51"/>
       <c r="C97" s="51" t="s">
         <v>288</v>
@@ -31272,7 +31272,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="73"/>
+      <c r="A98" s="72"/>
       <c r="B98" s="51"/>
       <c r="C98" s="51" t="s">
         <v>285</v>
@@ -31296,7 +31296,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="73"/>
+      <c r="A99" s="72"/>
       <c r="B99" s="51" t="s">
         <v>388</v>
       </c>
@@ -31322,7 +31322,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="73"/>
+      <c r="A100" s="72"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>288</v>
@@ -31340,7 +31340,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="73"/>
+      <c r="A101" s="72"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>295</v>
@@ -31358,7 +31358,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="73"/>
+      <c r="A102" s="72"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -31375,7 +31375,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="73"/>
+      <c r="A103" s="72"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -31392,7 +31392,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="73"/>
+      <c r="A104" s="72"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -31409,7 +31409,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="73"/>
+      <c r="A105" s="72"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -31669,7 +31669,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="72" t="s">
+      <c r="A122" s="76" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -31696,7 +31696,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="73"/>
+      <c r="A123" s="72"/>
       <c r="B123" s="51" t="s">
         <v>529</v>
       </c>
@@ -31722,7 +31722,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="73"/>
+      <c r="A124" s="72"/>
       <c r="B124" s="51" t="s">
         <v>530</v>
       </c>
@@ -31748,7 +31748,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="73"/>
+      <c r="A125" s="72"/>
       <c r="B125" s="51" t="s">
         <v>313</v>
       </c>
@@ -31774,7 +31774,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="73"/>
+      <c r="A126" s="72"/>
       <c r="B126" s="58" t="s">
         <v>531</v>
       </c>
@@ -31896,7 +31896,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="73"/>
+      <c r="A131" s="72"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -31905,7 +31905,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="73"/>
+      <c r="A132" s="72"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -31913,7 +31913,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="73"/>
+      <c r="A133" s="72"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -31921,7 +31921,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="73"/>
+      <c r="A134" s="72"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -31929,7 +31929,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="73"/>
+      <c r="A135" s="72"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -32357,7 +32357,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="72" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -32387,7 +32387,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="73"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="51" t="s">
         <v>545</v>
       </c>
@@ -32416,7 +32416,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="73"/>
+      <c r="A4" s="72"/>
       <c r="B4" s="51" t="s">
         <v>546</v>
       </c>
@@ -32445,7 +32445,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="73"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="51" t="s">
         <v>547</v>
       </c>
@@ -32474,7 +32474,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="73"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="51" t="s">
         <v>342</v>
       </c>
@@ -32503,7 +32503,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="73"/>
+      <c r="A7" s="72"/>
       <c r="C7" s="51" t="s">
         <v>288</v>
       </c>
@@ -32525,7 +32525,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="73"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="51" t="s">
         <v>465</v>
       </c>
@@ -32551,7 +32551,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="73"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
         <v>288</v>
@@ -32571,7 +32571,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="73"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="51" t="s">
         <v>548</v>
       </c>
@@ -32591,7 +32591,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="73"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -32605,7 +32605,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="73"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -32618,7 +32618,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="73"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -32631,7 +32631,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="73"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -32644,7 +32644,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="73"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -32657,7 +32657,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="73"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -32670,7 +32670,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="72" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -32697,7 +32697,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="73"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="51" t="s">
         <v>549</v>
       </c>
@@ -32723,7 +32723,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="73"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -32749,7 +32749,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="73"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="51" t="s">
         <v>550</v>
       </c>
@@ -32775,7 +32775,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="73"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="51" t="s">
         <v>550</v>
       </c>
@@ -32801,7 +32801,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="73"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="58" t="s">
         <v>551</v>
       </c>
@@ -32845,7 +32845,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="73"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
       <c r="D24" s="63"/>
@@ -32863,7 +32863,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="73"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -32875,7 +32875,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="73"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -32887,7 +32887,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="73"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -32898,7 +32898,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="73"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -32909,7 +32909,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="73"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -32920,7 +32920,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="73"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -32931,7 +32931,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="73"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -32942,7 +32942,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="72" t="s">
         <v>263</v>
       </c>
       <c r="C32" s="51"/>
@@ -32960,7 +32960,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="73"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -32978,7 +32978,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="73"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -32996,7 +32996,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="73"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="52"/>
@@ -33014,7 +33014,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="73"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -33032,7 +33032,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="73"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="51" t="s">
         <v>73</v>
       </c>
@@ -33052,7 +33052,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="73"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -33070,7 +33070,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="73"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -33088,7 +33088,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="73"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -33100,7 +33100,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="73"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -33112,7 +33112,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="73"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -33123,7 +33123,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="73"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -33134,7 +33134,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="73"/>
+      <c r="A44" s="72"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -33145,7 +33145,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="73"/>
+      <c r="A45" s="72"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -33464,7 +33464,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="76" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -33491,7 +33491,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="73"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="51" t="s">
         <v>575</v>
       </c>
@@ -33517,7 +33517,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="73"/>
+      <c r="A64" s="72"/>
       <c r="B64" s="51" t="s">
         <v>576</v>
       </c>
@@ -33543,7 +33543,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="73"/>
+      <c r="A65" s="72"/>
       <c r="B65" s="51" t="s">
         <v>309</v>
       </c>
@@ -33569,7 +33569,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="73"/>
+      <c r="A66" s="72"/>
       <c r="B66" s="51" t="s">
         <v>551</v>
       </c>
@@ -33595,7 +33595,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="73"/>
+      <c r="A67" s="72"/>
       <c r="B67" s="51" t="s">
         <v>577</v>
       </c>
@@ -33621,7 +33621,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="73"/>
+      <c r="A68" s="72"/>
       <c r="B68" s="56"/>
       <c r="C68" s="51"/>
       <c r="D68" s="52"/>
@@ -33639,7 +33639,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="73"/>
+      <c r="A69" s="72"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -33657,7 +33657,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="73"/>
+      <c r="A70" s="72"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -33669,7 +33669,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="73"/>
+      <c r="A71" s="72"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -33681,7 +33681,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="73"/>
+      <c r="A72" s="72"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -33692,7 +33692,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="73"/>
+      <c r="A73" s="72"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -33703,7 +33703,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="73"/>
+      <c r="A74" s="72"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -33714,7 +33714,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="73"/>
+      <c r="A75" s="72"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -33725,7 +33725,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="73"/>
+      <c r="A76" s="72"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -33736,7 +33736,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="73" t="s">
+      <c r="A77" s="72" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -33763,7 +33763,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="73"/>
+      <c r="A78" s="72"/>
       <c r="B78" s="51" t="s">
         <v>579</v>
       </c>
@@ -33789,7 +33789,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="73"/>
+      <c r="A79" s="72"/>
       <c r="B79" s="51" t="s">
         <v>580</v>
       </c>
@@ -33815,7 +33815,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="73"/>
+      <c r="A80" s="72"/>
       <c r="B80" s="51" t="s">
         <v>581</v>
       </c>
@@ -33841,7 +33841,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="73"/>
+      <c r="A81" s="72"/>
       <c r="B81" s="51" t="s">
         <v>582</v>
       </c>
@@ -33867,7 +33867,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="73"/>
+      <c r="A82" s="72"/>
       <c r="B82" s="51" t="s">
         <v>583</v>
       </c>
@@ -33893,7 +33893,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="73"/>
+      <c r="A83" s="72"/>
       <c r="B83" s="51" t="s">
         <v>584</v>
       </c>
@@ -33919,7 +33919,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="73"/>
+      <c r="A84" s="72"/>
       <c r="B84" s="51" t="s">
         <v>585</v>
       </c>
@@ -33945,7 +33945,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="73"/>
+      <c r="A85" s="72"/>
       <c r="B85" s="51" t="s">
         <v>586</v>
       </c>
@@ -33965,7 +33965,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="73"/>
+      <c r="A86" s="72"/>
       <c r="B86" s="51" t="s">
         <v>551</v>
       </c>
@@ -33985,7 +33985,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="73"/>
+      <c r="A87" s="72"/>
       <c r="B87" s="51" t="s">
         <v>587</v>
       </c>
@@ -34004,7 +34004,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="73"/>
+      <c r="A88" s="72"/>
       <c r="B88" s="51" t="s">
         <v>588</v>
       </c>
@@ -34023,7 +34023,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="73"/>
+      <c r="A89" s="72"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -34034,7 +34034,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="73"/>
+      <c r="A90" s="72"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -34045,7 +34045,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="76"/>
+      <c r="A91" s="73"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -34056,7 +34056,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="72" t="s">
+      <c r="A92" s="76" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -34083,7 +34083,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="73"/>
+      <c r="A93" s="72"/>
       <c r="B93" s="51" t="s">
         <v>589</v>
       </c>
@@ -34109,7 +34109,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="73"/>
+      <c r="A94" s="72"/>
       <c r="B94" s="56" t="s">
         <v>590</v>
       </c>
@@ -34135,7 +34135,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="73"/>
+      <c r="A95" s="72"/>
       <c r="B95" s="51" t="s">
         <v>591</v>
       </c>
@@ -34161,7 +34161,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="73"/>
+      <c r="A96" s="72"/>
       <c r="B96" s="51" t="s">
         <v>465</v>
       </c>
@@ -34187,7 +34187,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="73"/>
+      <c r="A97" s="72"/>
       <c r="B97" s="51" t="s">
         <v>592</v>
       </c>
@@ -34213,7 +34213,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="73"/>
+      <c r="A98" s="72"/>
       <c r="B98" s="51" t="s">
         <v>593</v>
       </c>
@@ -34239,7 +34239,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="73"/>
+      <c r="A99" s="72"/>
       <c r="B99" s="51" t="s">
         <v>309</v>
       </c>
@@ -34265,7 +34265,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="73"/>
+      <c r="A100" s="72"/>
       <c r="B100" s="51" t="s">
         <v>594</v>
       </c>
@@ -34285,7 +34285,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="73"/>
+      <c r="A101" s="72"/>
       <c r="B101" s="51" t="s">
         <v>595</v>
       </c>
@@ -34305,7 +34305,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="73"/>
+      <c r="A102" s="72"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -34322,7 +34322,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="73"/>
+      <c r="A103" s="72"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -34339,7 +34339,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="73"/>
+      <c r="A104" s="72"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -34356,7 +34356,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="73"/>
+      <c r="A105" s="72"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -34614,7 +34614,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="72" t="s">
+      <c r="A122" s="76" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51"/>
@@ -34633,7 +34633,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="73"/>
+      <c r="A123" s="72"/>
       <c r="B123" s="51"/>
       <c r="C123" s="51"/>
       <c r="D123" s="52"/>
@@ -34651,7 +34651,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="73"/>
+      <c r="A124" s="72"/>
       <c r="B124" s="51"/>
       <c r="C124" s="51"/>
       <c r="D124" s="52"/>
@@ -34669,7 +34669,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="73"/>
+      <c r="A125" s="72"/>
       <c r="B125" s="51"/>
       <c r="C125" s="51"/>
       <c r="D125" s="52"/>
@@ -34687,7 +34687,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="73"/>
+      <c r="A126" s="72"/>
       <c r="B126" s="58"/>
       <c r="C126" s="51"/>
       <c r="D126" s="52"/>
@@ -34767,7 +34767,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="73"/>
+      <c r="A131" s="72"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -34776,7 +34776,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="73"/>
+      <c r="A132" s="72"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -34784,7 +34784,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="73"/>
+      <c r="A133" s="72"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -34792,7 +34792,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="73"/>
+      <c r="A134" s="72"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -34800,7 +34800,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="73"/>
+      <c r="A135" s="72"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -35234,7 +35234,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="72" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -35264,7 +35264,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="73"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="51" t="s">
         <v>604</v>
       </c>
@@ -35293,7 +35293,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="73"/>
+      <c r="A4" s="72"/>
       <c r="B4" s="51" t="s">
         <v>605</v>
       </c>
@@ -35322,7 +35322,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="73"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -35351,7 +35351,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="73"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="51" t="s">
         <v>606</v>
       </c>
@@ -35380,7 +35380,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="73"/>
+      <c r="A7" s="72"/>
       <c r="B7" t="s">
         <v>607</v>
       </c>
@@ -35409,7 +35409,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="73"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="51" t="s">
         <v>608</v>
       </c>
@@ -35435,7 +35435,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="73"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="51" t="s">
         <v>329</v>
       </c>
@@ -35461,7 +35461,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="73"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="51" t="s">
         <v>608</v>
       </c>
@@ -35481,7 +35481,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="73"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="51" t="s">
         <v>609</v>
       </c>
@@ -35501,7 +35501,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="73"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="51" t="s">
         <v>610</v>
       </c>
@@ -35520,7 +35520,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="73"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -35539,7 +35539,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="73"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="51" t="s">
         <v>611</v>
       </c>
@@ -35558,7 +35558,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="73"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="51" t="s">
         <v>612</v>
       </c>
@@ -35577,7 +35577,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="73"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -35590,7 +35590,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="72" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -35617,7 +35617,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="73"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="51" t="s">
         <v>614</v>
       </c>
@@ -35643,7 +35643,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="73"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="51" t="s">
         <v>309</v>
       </c>
@@ -35669,7 +35669,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="73"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="51" t="s">
         <v>615</v>
       </c>
@@ -35695,7 +35695,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="73"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="51" t="s">
         <v>616</v>
       </c>
@@ -35721,7 +35721,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="73"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -35747,7 +35747,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="73"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="51" t="s">
         <v>617</v>
       </c>
@@ -35773,7 +35773,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="73"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="51" t="s">
         <v>618</v>
       </c>
@@ -35799,7 +35799,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="73"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="51" t="s">
         <v>309</v>
       </c>
@@ -35819,7 +35819,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="73"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="51" t="s">
         <v>617</v>
       </c>
@@ -35839,7 +35839,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="73"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="51" t="s">
         <v>619</v>
       </c>
@@ -35858,7 +35858,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="73"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -35869,7 +35869,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="73"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -35880,7 +35880,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="73"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -35891,7 +35891,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="73"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -35902,7 +35902,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="72" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -35929,7 +35929,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="73"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="51" t="s">
         <v>620</v>
       </c>
@@ -35955,7 +35955,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="73"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="51" t="s">
         <v>621</v>
       </c>
@@ -35981,7 +35981,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="73"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="51" t="s">
         <v>622</v>
       </c>
@@ -36007,7 +36007,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="73"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="51" t="s">
         <v>623</v>
       </c>
@@ -36033,7 +36033,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="73"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="51" t="s">
         <v>607</v>
       </c>
@@ -36059,7 +36059,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="73"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="51" t="s">
         <v>624</v>
       </c>
@@ -36085,7 +36085,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="73"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -36111,7 +36111,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="73"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="51" t="s">
         <v>625</v>
       </c>
@@ -36131,7 +36131,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="73"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="51" t="s">
         <v>626</v>
       </c>
@@ -36151,7 +36151,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="73"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="51" t="s">
         <v>309</v>
       </c>
@@ -36170,7 +36170,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="73"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="51" t="s">
         <v>627</v>
       </c>
@@ -36189,7 +36189,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="73"/>
+      <c r="A44" s="72"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -36200,7 +36200,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="73"/>
+      <c r="A45" s="72"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -36470,7 +36470,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="76" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -36497,7 +36497,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="73"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="51" t="s">
         <v>635</v>
       </c>
@@ -36522,7 +36522,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="73"/>
+      <c r="A64" s="72"/>
       <c r="B64" s="51" t="s">
         <v>636</v>
       </c>
@@ -36548,7 +36548,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="73"/>
+      <c r="A65" s="72"/>
       <c r="B65" s="51" t="s">
         <v>637</v>
       </c>
@@ -36574,7 +36574,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="73"/>
+      <c r="A66" s="72"/>
       <c r="B66" s="51" t="s">
         <v>638</v>
       </c>
@@ -36600,7 +36600,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="73"/>
+      <c r="A67" s="72"/>
       <c r="B67" s="51" t="s">
         <v>599</v>
       </c>
@@ -36626,7 +36626,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="73"/>
+      <c r="A68" s="72"/>
       <c r="B68" s="56" t="s">
         <v>639</v>
       </c>
@@ -36652,7 +36652,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="73"/>
+      <c r="A69" s="72"/>
       <c r="B69" s="51" t="s">
         <v>342</v>
       </c>
@@ -36678,7 +36678,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="73"/>
+      <c r="A70" s="72"/>
       <c r="B70" s="51" t="s">
         <v>640</v>
       </c>
@@ -36698,7 +36698,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="73"/>
+      <c r="A71" s="72"/>
       <c r="B71" s="51" t="s">
         <v>641</v>
       </c>
@@ -36718,7 +36718,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="73"/>
+      <c r="A72" s="72"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -36729,7 +36729,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="73"/>
+      <c r="A73" s="72"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -36740,7 +36740,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="73"/>
+      <c r="A74" s="72"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -36751,7 +36751,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="73"/>
+      <c r="A75" s="72"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -36762,7 +36762,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="73"/>
+      <c r="A76" s="72"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -36773,7 +36773,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="73" t="s">
+      <c r="A77" s="72" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -36800,7 +36800,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="73"/>
+      <c r="A78" s="72"/>
       <c r="B78" s="51" t="s">
         <v>643</v>
       </c>
@@ -36826,7 +36826,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="73"/>
+      <c r="A79" s="72"/>
       <c r="B79" s="51" t="s">
         <v>309</v>
       </c>
@@ -36852,7 +36852,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="73"/>
+      <c r="A80" s="72"/>
       <c r="B80" s="51" t="s">
         <v>644</v>
       </c>
@@ -36878,7 +36878,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="73"/>
+      <c r="A81" s="72"/>
       <c r="B81" s="51" t="s">
         <v>645</v>
       </c>
@@ -36904,7 +36904,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="73"/>
+      <c r="A82" s="72"/>
       <c r="B82" s="51" t="s">
         <v>646</v>
       </c>
@@ -36930,7 +36930,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="73"/>
+      <c r="A83" s="72"/>
       <c r="B83" s="51" t="s">
         <v>647</v>
       </c>
@@ -36956,7 +36956,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="73"/>
+      <c r="A84" s="72"/>
       <c r="B84" s="51" t="s">
         <v>580</v>
       </c>
@@ -36982,7 +36982,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="73"/>
+      <c r="A85" s="72"/>
       <c r="B85" s="51" t="s">
         <v>648</v>
       </c>
@@ -37002,7 +37002,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="73"/>
+      <c r="A86" s="72"/>
       <c r="B86" s="51" t="s">
         <v>649</v>
       </c>
@@ -37022,7 +37022,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="73"/>
+      <c r="A87" s="72"/>
       <c r="B87" s="51" t="s">
         <v>650</v>
       </c>
@@ -37042,7 +37042,7 @@
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="73"/>
+      <c r="A88" s="72"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -37053,7 +37053,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="73"/>
+      <c r="A89" s="72"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -37064,7 +37064,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="73"/>
+      <c r="A90" s="72"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -37075,7 +37075,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="73"/>
+      <c r="A91" s="72"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -37086,7 +37086,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="76"/>
+      <c r="A92" s="73"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -37097,7 +37097,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="72" t="s">
+      <c r="A93" s="76" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -37124,7 +37124,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="73"/>
+      <c r="A94" s="72"/>
       <c r="B94" s="51" t="s">
         <v>651</v>
       </c>
@@ -37150,7 +37150,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="73"/>
+      <c r="A95" s="72"/>
       <c r="B95" s="56" t="s">
         <v>586</v>
       </c>
@@ -37176,7 +37176,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="73"/>
+      <c r="A96" s="72"/>
       <c r="B96" s="51" t="s">
         <v>652</v>
       </c>
@@ -37202,7 +37202,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="73"/>
+      <c r="A97" s="72"/>
       <c r="B97" s="51" t="s">
         <v>653</v>
       </c>
@@ -37228,7 +37228,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="73"/>
+      <c r="A98" s="72"/>
       <c r="B98" s="51" t="s">
         <v>654</v>
       </c>
@@ -37254,7 +37254,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="73"/>
+      <c r="A99" s="72"/>
       <c r="B99" s="51" t="s">
         <v>342</v>
       </c>
@@ -37280,7 +37280,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="73"/>
+      <c r="A100" s="72"/>
       <c r="B100" s="51" t="s">
         <v>655</v>
       </c>
@@ -37306,7 +37306,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="73"/>
+      <c r="A101" s="72"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>288</v>
@@ -37324,7 +37324,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="73"/>
+      <c r="A102" s="72"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>295</v>
@@ -37342,7 +37342,7 @@
       <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="73"/>
+      <c r="A103" s="72"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>288</v>
@@ -37359,7 +37359,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="73"/>
+      <c r="A104" s="72"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>296</v>
@@ -37376,7 +37376,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="73"/>
+      <c r="A105" s="72"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>295</v>
@@ -37393,7 +37393,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="73"/>
+      <c r="A106" s="72"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51" t="s">
         <v>288</v>
@@ -37755,7 +37755,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="72" t="s">
+      <c r="A123" s="76" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
@@ -37782,7 +37782,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="73"/>
+      <c r="A124" s="72"/>
       <c r="B124" s="51" t="s">
         <v>665</v>
       </c>
@@ -37808,7 +37808,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="73"/>
+      <c r="A125" s="72"/>
       <c r="B125" s="51" t="s">
         <v>342</v>
       </c>
@@ -37834,7 +37834,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="73"/>
+      <c r="A126" s="72"/>
       <c r="B126" s="51" t="s">
         <v>666</v>
       </c>
@@ -37860,7 +37860,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="73"/>
+      <c r="A127" s="72"/>
       <c r="B127" s="58" t="s">
         <v>645</v>
       </c>
@@ -37982,7 +37982,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="73"/>
+      <c r="A132" s="72"/>
       <c r="B132" s="59" t="s">
         <v>669</v>
       </c>
@@ -38001,7 +38001,7 @@
       <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="73"/>
+      <c r="A133" s="72"/>
       <c r="B133" s="51" t="s">
         <v>670</v>
       </c>
@@ -38019,7 +38019,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="73"/>
+      <c r="A134" s="72"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -38027,7 +38027,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="73"/>
+      <c r="A135" s="72"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -38035,7 +38035,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="73"/>
+      <c r="A136" s="72"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -38819,7 +38819,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="72" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="59" t="s">
@@ -38846,7 +38846,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="73"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="51" t="s">
         <v>689</v>
       </c>
@@ -38872,7 +38872,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="73"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="51" t="s">
         <v>690</v>
       </c>
@@ -38898,7 +38898,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="73"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="51" t="s">
         <v>691</v>
       </c>
@@ -38924,7 +38924,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="73"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="51" t="s">
         <v>309</v>
       </c>
@@ -38950,7 +38950,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="73"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="51" t="s">
         <v>692</v>
       </c>
@@ -38976,7 +38976,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="73"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="51" t="s">
         <v>329</v>
       </c>
@@ -39002,7 +39002,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="73"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="51" t="s">
         <v>693</v>
       </c>
@@ -39028,7 +39028,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="73"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="51" t="s">
         <v>694</v>
       </c>
@@ -39048,7 +39048,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="73"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="51" t="s">
         <v>695</v>
       </c>
@@ -39068,7 +39068,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="73"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="51" t="s">
         <v>296</v>
       </c>
@@ -39087,7 +39087,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="73"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="51" t="s">
         <v>696</v>
       </c>
@@ -39106,7 +39106,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="73"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="51" t="s">
         <v>309</v>
       </c>
@@ -39125,7 +39125,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="73"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="51" t="s">
         <v>697</v>
       </c>
@@ -39144,7 +39144,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="73"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="51" t="s">
         <v>698</v>
       </c>
@@ -39163,7 +39163,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="72" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -39190,7 +39190,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="73"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="51" t="s">
         <v>699</v>
       </c>
@@ -39216,7 +39216,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="73"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="51" t="s">
         <v>309</v>
       </c>
@@ -39242,7 +39242,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="73"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="51" t="s">
         <v>700</v>
       </c>
@@ -39268,7 +39268,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="73"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="51" t="s">
         <v>311</v>
       </c>
@@ -39294,7 +39294,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="73"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="51" t="s">
         <v>701</v>
       </c>
@@ -39320,7 +39320,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="73"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="51" t="s">
         <v>329</v>
       </c>
@@ -39346,7 +39346,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="73"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="51" t="s">
         <v>702</v>
       </c>
@@ -39372,7 +39372,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="73"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="51" t="s">
         <v>703</v>
       </c>
@@ -39392,7 +39392,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="73"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="51" t="s">
         <v>695</v>
       </c>
@@ -39412,7 +39412,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="73"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="51" t="s">
         <v>454</v>
       </c>
@@ -39431,7 +39431,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="73"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="51" t="s">
         <v>309</v>
       </c>
@@ -39450,7 +39450,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="73"/>
+      <c r="A44" s="72"/>
       <c r="B44" t="s">
         <v>704</v>
       </c>
@@ -39469,7 +39469,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="73"/>
+      <c r="A45" s="72"/>
       <c r="B45" s="51" t="s">
         <v>705</v>
       </c>
@@ -39817,7 +39817,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="76" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -39844,7 +39844,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="73"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="51" t="s">
         <v>717</v>
       </c>
@@ -39870,7 +39870,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="73"/>
+      <c r="A64" s="72"/>
       <c r="B64" s="51" t="s">
         <v>718</v>
       </c>
@@ -39896,7 +39896,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="73"/>
+      <c r="A65" s="72"/>
       <c r="B65" s="51" t="s">
         <v>342</v>
       </c>
@@ -39922,7 +39922,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="73"/>
+      <c r="A66" s="72"/>
       <c r="B66" s="51" t="s">
         <v>719</v>
       </c>
@@ -39948,7 +39948,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="73"/>
+      <c r="A67" s="72"/>
       <c r="B67" s="51" t="s">
         <v>329</v>
       </c>
@@ -39974,7 +39974,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="73"/>
+      <c r="A68" s="72"/>
       <c r="B68" s="56" t="s">
         <v>720</v>
       </c>
@@ -40000,7 +40000,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="73"/>
+      <c r="A69" s="72"/>
       <c r="B69" s="51" t="s">
         <v>342</v>
       </c>
@@ -40026,7 +40026,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="73"/>
+      <c r="A70" s="72"/>
       <c r="B70" s="51" t="s">
         <v>721</v>
       </c>
@@ -40046,7 +40046,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="73"/>
+      <c r="A71" s="72"/>
       <c r="B71" s="51" t="s">
         <v>685</v>
       </c>
@@ -40066,7 +40066,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="73"/>
+      <c r="A72" s="72"/>
       <c r="B72" s="51" t="s">
         <v>722</v>
       </c>
@@ -40085,7 +40085,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="73"/>
+      <c r="A73" s="72"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -40096,7 +40096,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="73"/>
+      <c r="A74" s="72"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -40107,7 +40107,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="73"/>
+      <c r="A75" s="72"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -40118,7 +40118,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="73"/>
+      <c r="A76" s="72"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -40129,7 +40129,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="73" t="s">
+      <c r="A77" s="72" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -40156,7 +40156,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="73"/>
+      <c r="A78" s="72"/>
       <c r="B78" s="51" t="s">
         <v>724</v>
       </c>
@@ -40182,7 +40182,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="73"/>
+      <c r="A79" s="72"/>
       <c r="B79" s="51" t="s">
         <v>725</v>
       </c>
@@ -40208,7 +40208,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="73"/>
+      <c r="A80" s="72"/>
       <c r="B80" s="65" t="s">
         <v>342</v>
       </c>
@@ -40234,7 +40234,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="73"/>
+      <c r="A81" s="72"/>
       <c r="B81" s="59" t="s">
         <v>726</v>
       </c>
@@ -40260,7 +40260,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="73"/>
+      <c r="A82" s="72"/>
       <c r="B82" s="58" t="s">
         <v>727</v>
       </c>
@@ -40312,7 +40312,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="73"/>
+      <c r="A84" s="72"/>
       <c r="B84" t="s">
         <v>728</v>
       </c>
@@ -40338,7 +40338,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="73"/>
+      <c r="A85" s="72"/>
       <c r="B85" s="51" t="s">
         <v>727</v>
       </c>
@@ -40358,7 +40358,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="73"/>
+      <c r="A86" s="72"/>
       <c r="B86" s="51" t="s">
         <v>729</v>
       </c>
@@ -40378,7 +40378,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="73"/>
+      <c r="A87" s="72"/>
       <c r="B87" s="51" t="s">
         <v>394</v>
       </c>
@@ -40398,7 +40398,7 @@
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="73"/>
+      <c r="A88" s="72"/>
       <c r="B88" s="51" t="s">
         <v>730</v>
       </c>
@@ -40417,7 +40417,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="73"/>
+      <c r="A89" s="72"/>
       <c r="B89" s="51" t="s">
         <v>731</v>
       </c>
@@ -40436,7 +40436,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="73"/>
+      <c r="A90" s="72"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -40447,7 +40447,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="73"/>
+      <c r="A91" s="72"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -40458,7 +40458,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="76"/>
+      <c r="A92" s="73"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -40469,7 +40469,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="72" t="s">
+      <c r="A93" s="76" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -40496,7 +40496,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="73"/>
+      <c r="A94" s="72"/>
       <c r="B94" s="51" t="s">
         <v>732</v>
       </c>
@@ -40522,7 +40522,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="73"/>
+      <c r="A95" s="72"/>
       <c r="B95" s="56" t="s">
         <v>309</v>
       </c>
@@ -40548,7 +40548,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="73"/>
+      <c r="A96" s="72"/>
       <c r="B96" s="51" t="s">
         <v>733</v>
       </c>
@@ -40574,7 +40574,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="73"/>
+      <c r="A97" s="72"/>
       <c r="B97" s="51" t="s">
         <v>653</v>
       </c>
@@ -40600,7 +40600,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="73"/>
+      <c r="A98" s="72"/>
       <c r="B98" s="51" t="s">
         <v>734</v>
       </c>
@@ -40626,7 +40626,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="73"/>
+      <c r="A99" s="72"/>
       <c r="B99" s="51" t="s">
         <v>735</v>
       </c>
@@ -40652,7 +40652,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="73"/>
+      <c r="A100" s="72"/>
       <c r="B100" s="51" t="s">
         <v>736</v>
       </c>
@@ -40678,7 +40678,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="73"/>
+      <c r="A101" s="72"/>
       <c r="B101" s="51" t="s">
         <v>737</v>
       </c>
@@ -40698,7 +40698,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="73"/>
+      <c r="A102" s="72"/>
       <c r="B102" s="51" t="s">
         <v>738</v>
       </c>
@@ -40718,7 +40718,7 @@
       <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="73"/>
+      <c r="A103" s="72"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>288</v>
@@ -40735,7 +40735,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="73"/>
+      <c r="A104" s="72"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>296</v>
@@ -40752,7 +40752,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="73"/>
+      <c r="A105" s="72"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>295</v>
@@ -40769,7 +40769,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="73"/>
+      <c r="A106" s="72"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51" t="s">
         <v>288</v>
@@ -41133,7 +41133,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="72" t="s">
+      <c r="A123" s="76" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
@@ -41160,7 +41160,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="73"/>
+      <c r="A124" s="72"/>
       <c r="B124" s="51" t="s">
         <v>665</v>
       </c>
@@ -41186,7 +41186,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="73"/>
+      <c r="A125" s="72"/>
       <c r="B125" s="51" t="s">
         <v>342</v>
       </c>
@@ -41212,7 +41212,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="73"/>
+      <c r="A126" s="72"/>
       <c r="B126" s="51" t="s">
         <v>666</v>
       </c>
@@ -41238,7 +41238,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="73"/>
+      <c r="A127" s="72"/>
       <c r="B127" s="58" t="s">
         <v>645</v>
       </c>
@@ -41360,7 +41360,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="73"/>
+      <c r="A132" s="72"/>
       <c r="B132" s="59" t="s">
         <v>669</v>
       </c>
@@ -41379,7 +41379,7 @@
       <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="73"/>
+      <c r="A133" s="72"/>
       <c r="B133" s="51" t="s">
         <v>670</v>
       </c>
@@ -41397,7 +41397,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="73"/>
+      <c r="A134" s="72"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -41405,7 +41405,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="73"/>
+      <c r="A135" s="72"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -41413,7 +41413,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="73"/>
+      <c r="A136" s="72"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -42197,7 +42197,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="72" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="59" t="s">
@@ -42224,7 +42224,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="73"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="51" t="s">
         <v>342</v>
       </c>
@@ -42250,7 +42250,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="73"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="51" t="s">
         <v>690</v>
       </c>
@@ -42276,7 +42276,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="73"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="51" t="s">
         <v>762</v>
       </c>
@@ -42302,7 +42302,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="73"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="51" t="s">
         <v>313</v>
       </c>
@@ -42328,7 +42328,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="73"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="51" t="s">
         <v>763</v>
       </c>
@@ -42354,7 +42354,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="73"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="51" t="s">
         <v>309</v>
       </c>
@@ -42380,7 +42380,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="73"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="51" t="s">
         <v>296</v>
       </c>
@@ -42406,7 +42406,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="73"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="51" t="s">
         <v>764</v>
       </c>
@@ -42426,7 +42426,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="73"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -42435,7 +42435,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="73"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -42443,7 +42443,7 @@
       <c r="F27" s="52"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="73"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -42451,7 +42451,7 @@
       <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="73"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -42459,7 +42459,7 @@
       <c r="F29" s="52"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="73"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -42467,7 +42467,7 @@
       <c r="F30" s="52"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="73"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -42475,7 +42475,7 @@
       <c r="F31" s="52"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="72" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -42502,7 +42502,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="73"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="51" t="s">
         <v>765</v>
       </c>
@@ -42528,7 +42528,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="73"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="51" t="s">
         <v>309</v>
       </c>
@@ -42554,7 +42554,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="73"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="51" t="s">
         <v>766</v>
       </c>
@@ -42580,7 +42580,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="73"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="51" t="s">
         <v>767</v>
       </c>
@@ -42606,7 +42606,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="73"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="51" t="s">
         <v>301</v>
       </c>
@@ -42632,7 +42632,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="73"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="51" t="s">
         <v>768</v>
       </c>
@@ -42658,7 +42658,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="73"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="51" t="s">
         <v>769</v>
       </c>
@@ -42684,7 +42684,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="73"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="51" t="s">
         <v>454</v>
       </c>
@@ -42704,7 +42704,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="73"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="51" t="s">
         <v>309</v>
       </c>
@@ -42724,7 +42724,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="73"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -42735,7 +42735,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="73"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -42746,7 +42746,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="73"/>
+      <c r="A44" s="72"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
       <c r="E44" s="52"/>
@@ -42756,7 +42756,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="73"/>
+      <c r="A45" s="72"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -43086,7 +43086,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="76" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -43113,7 +43113,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="73"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="51" t="s">
         <v>778</v>
       </c>
@@ -43139,7 +43139,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="73"/>
+      <c r="A64" s="72"/>
       <c r="B64" s="51" t="s">
         <v>779</v>
       </c>
@@ -43165,7 +43165,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="73"/>
+      <c r="A65" s="72"/>
       <c r="B65" s="51" t="s">
         <v>342</v>
       </c>
@@ -43191,7 +43191,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="73"/>
+      <c r="A66" s="72"/>
       <c r="B66" s="51" t="s">
         <v>780</v>
       </c>
@@ -43217,7 +43217,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="73"/>
+      <c r="A67" s="72"/>
       <c r="B67" s="51" t="s">
         <v>329</v>
       </c>
@@ -43243,7 +43243,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="73"/>
+      <c r="A68" s="72"/>
       <c r="B68" s="56" t="s">
         <v>781</v>
       </c>
@@ -43269,7 +43269,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="73"/>
+      <c r="A69" s="72"/>
       <c r="B69" s="51" t="s">
         <v>342</v>
       </c>
@@ -43295,7 +43295,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="73"/>
+      <c r="A70" s="72"/>
       <c r="B70" s="51" t="s">
         <v>781</v>
       </c>
@@ -43315,7 +43315,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="73"/>
+      <c r="A71" s="72"/>
       <c r="B71" s="51" t="s">
         <v>685</v>
       </c>
@@ -43335,7 +43335,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="73"/>
+      <c r="A72" s="72"/>
       <c r="B72" s="51" t="s">
         <v>782</v>
       </c>
@@ -43354,7 +43354,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="73"/>
+      <c r="A73" s="72"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -43365,7 +43365,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="73"/>
+      <c r="A74" s="72"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -43376,7 +43376,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="73"/>
+      <c r="A75" s="72"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -43387,7 +43387,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="73"/>
+      <c r="A76" s="72"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -43398,7 +43398,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="73" t="s">
+      <c r="A77" s="72" t="s">
         <v>27</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -43425,7 +43425,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="73"/>
+      <c r="A78" s="72"/>
       <c r="B78" s="51" t="s">
         <v>783</v>
       </c>
@@ -43451,7 +43451,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="73"/>
+      <c r="A79" s="72"/>
       <c r="B79" s="51" t="s">
         <v>342</v>
       </c>
@@ -43477,7 +43477,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="73"/>
+      <c r="A80" s="72"/>
       <c r="B80" s="65" t="s">
         <v>784</v>
       </c>
@@ -43503,7 +43503,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="73"/>
+      <c r="A81" s="72"/>
       <c r="B81" s="65" t="s">
         <v>785</v>
       </c>
@@ -43529,7 +43529,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="73"/>
+      <c r="A82" s="72"/>
       <c r="B82" s="51" t="s">
         <v>342</v>
       </c>
@@ -43581,7 +43581,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="73"/>
+      <c r="A84" s="72"/>
       <c r="B84" s="51" t="s">
         <v>786</v>
       </c>
@@ -43607,7 +43607,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="73"/>
+      <c r="A85" s="72"/>
       <c r="B85" s="51" t="s">
         <v>685</v>
       </c>
@@ -43627,7 +43627,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="73"/>
+      <c r="A86" s="72"/>
       <c r="B86" s="51" t="s">
         <v>787</v>
       </c>
@@ -43647,7 +43647,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="73"/>
+      <c r="A87" s="72"/>
       <c r="B87" s="51" t="s">
         <v>788</v>
       </c>
@@ -43667,7 +43667,7 @@
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="73"/>
+      <c r="A88" s="72"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52">
@@ -43681,7 +43681,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="73"/>
+      <c r="A89" s="72"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52">
@@ -43695,7 +43695,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="73"/>
+      <c r="A90" s="72"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -43706,7 +43706,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="73"/>
+      <c r="A91" s="72"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -43717,7 +43717,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="76"/>
+      <c r="A92" s="73"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -43728,7 +43728,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="72" t="s">
+      <c r="A93" s="76" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -43755,7 +43755,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="73"/>
+      <c r="A94" s="72"/>
       <c r="B94" s="51" t="s">
         <v>789</v>
       </c>
@@ -43781,7 +43781,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="73"/>
+      <c r="A95" s="72"/>
       <c r="B95" s="56" t="s">
         <v>309</v>
       </c>
@@ -43807,7 +43807,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="73"/>
+      <c r="A96" s="72"/>
       <c r="B96" s="51" t="s">
         <v>790</v>
       </c>
@@ -43833,7 +43833,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="73"/>
+      <c r="A97" s="72"/>
       <c r="B97" s="51" t="s">
         <v>653</v>
       </c>
@@ -43859,7 +43859,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="73"/>
+      <c r="A98" s="72"/>
       <c r="B98" s="51" t="s">
         <v>791</v>
       </c>
@@ -43885,7 +43885,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="73"/>
+      <c r="A99" s="72"/>
       <c r="B99" s="51" t="s">
         <v>792</v>
       </c>
@@ -43911,7 +43911,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="73"/>
+      <c r="A100" s="72"/>
       <c r="B100" s="51" t="s">
         <v>736</v>
       </c>
@@ -43937,7 +43937,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="73"/>
+      <c r="A101" s="72"/>
       <c r="B101" s="51" t="s">
         <v>793</v>
       </c>
@@ -43957,7 +43957,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="73"/>
+      <c r="A102" s="72"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51"/>
       <c r="D102" s="52"/>
@@ -43966,7 +43966,7 @@
       <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="73"/>
+      <c r="A103" s="72"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -43974,7 +43974,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="73"/>
+      <c r="A104" s="72"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -43982,7 +43982,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="73"/>
+      <c r="A105" s="72"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -43990,7 +43990,7 @@
       <c r="F105" s="52"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="73"/>
+      <c r="A106" s="72"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51"/>
       <c r="D106" s="52"/>
@@ -44336,7 +44336,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="72" t="s">
+      <c r="A123" s="76" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
@@ -44363,7 +44363,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="73"/>
+      <c r="A124" s="72"/>
       <c r="B124" s="51" t="s">
         <v>799</v>
       </c>
@@ -44389,7 +44389,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="73"/>
+      <c r="A125" s="72"/>
       <c r="B125" s="51" t="s">
         <v>342</v>
       </c>
@@ -44415,7 +44415,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="73"/>
+      <c r="A126" s="72"/>
       <c r="B126" s="51" t="s">
         <v>800</v>
       </c>
@@ -44441,7 +44441,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="73"/>
+      <c r="A127" s="72"/>
       <c r="B127" s="58" t="s">
         <v>801</v>
       </c>
@@ -44563,7 +44563,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="73"/>
+      <c r="A132" s="72"/>
       <c r="B132" s="59" t="s">
         <v>804</v>
       </c>
@@ -44582,7 +44582,7 @@
       <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="73"/>
+      <c r="A133" s="72"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -44590,7 +44590,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="73"/>
+      <c r="A134" s="72"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -44598,7 +44598,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="73"/>
+      <c r="A135" s="72"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -44606,7 +44606,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="73"/>
+      <c r="A136" s="72"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -45342,7 +45342,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="72" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="59" t="s">
@@ -45369,7 +45369,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="73"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="51" t="s">
         <v>342</v>
       </c>
@@ -45395,7 +45395,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="73"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="51" t="s">
         <v>809</v>
       </c>
@@ -45421,7 +45421,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="73"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="51" t="s">
         <v>810</v>
       </c>
@@ -45447,7 +45447,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="73"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="51" t="s">
         <v>309</v>
       </c>
@@ -45473,7 +45473,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="73"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="51" t="s">
         <v>811</v>
       </c>
@@ -45499,7 +45499,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="73"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52">
@@ -45521,7 +45521,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="73"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52">
@@ -45543,7 +45543,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="73"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52">
@@ -45559,7 +45559,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="73"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52">
@@ -45575,7 +45575,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="73"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52">
@@ -45590,7 +45590,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="73"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52">
@@ -45605,7 +45605,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="73"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52">
@@ -45620,7 +45620,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="73"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52">
@@ -45635,7 +45635,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="73"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52">
@@ -45650,7 +45650,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="72" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -45677,7 +45677,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="73"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="51" t="s">
         <v>812</v>
       </c>
@@ -45703,7 +45703,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="73"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="51" t="s">
         <v>309</v>
       </c>
@@ -45729,7 +45729,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="73"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="51" t="s">
         <v>813</v>
       </c>
@@ -45755,7 +45755,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="73"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="51" t="s">
         <v>814</v>
       </c>
@@ -45781,7 +45781,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="73"/>
+      <c r="A37" s="72"/>
       <c r="B37" t="s">
         <v>313</v>
       </c>
@@ -45807,7 +45807,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="73"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="51" t="s">
         <v>815</v>
       </c>
@@ -45833,7 +45833,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="73"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="51" t="s">
         <v>816</v>
       </c>
@@ -45859,7 +45859,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="73"/>
+      <c r="A40" s="72"/>
       <c r="B40" t="s">
         <v>342</v>
       </c>
@@ -45879,7 +45879,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="73"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="51" t="s">
         <v>817</v>
       </c>
@@ -45899,7 +45899,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="73"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -45910,7 +45910,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="73"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -45921,7 +45921,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="73"/>
+      <c r="A44" s="72"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
       <c r="E44" s="52"/>
@@ -45931,7 +45931,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="73"/>
+      <c r="A45" s="72"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -46247,7 +46247,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="76" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -46274,7 +46274,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="73"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="51" t="s">
         <v>823</v>
       </c>
@@ -46300,7 +46300,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="73"/>
+      <c r="A64" s="72"/>
       <c r="B64" s="51" t="s">
         <v>824</v>
       </c>
@@ -46326,7 +46326,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="73"/>
+      <c r="A65" s="72"/>
       <c r="B65" s="51" t="s">
         <v>342</v>
       </c>
@@ -46352,7 +46352,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="73"/>
+      <c r="A66" s="72"/>
       <c r="B66" s="51" t="s">
         <v>720</v>
       </c>
@@ -46378,7 +46378,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="73"/>
+      <c r="A67" s="72"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="51"/>
@@ -46396,7 +46396,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="73"/>
+      <c r="A68" s="72"/>
       <c r="B68" s="51"/>
       <c r="C68" s="51"/>
       <c r="D68" s="52"/>
@@ -46414,7 +46414,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="73"/>
+      <c r="A69" s="72"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -46426,7 +46426,7 @@
       <c r="I69" s="54"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="73"/>
+      <c r="A70" s="72"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -46438,7 +46438,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="73"/>
+      <c r="A71" s="72"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -46449,7 +46449,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="73"/>
+      <c r="A72" s="72"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -46460,7 +46460,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="73"/>
+      <c r="A73" s="72"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -46471,7 +46471,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="73"/>
+      <c r="A74" s="72"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -46482,7 +46482,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="73"/>
+      <c r="A75" s="72"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -46493,7 +46493,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="73" t="s">
+      <c r="A76" s="72" t="s">
         <v>269</v>
       </c>
       <c r="B76" s="51" t="s">
@@ -46520,7 +46520,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="73"/>
+      <c r="A77" s="72"/>
       <c r="B77" s="51" t="s">
         <v>825</v>
       </c>
@@ -46546,7 +46546,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="73"/>
+      <c r="A78" s="72"/>
       <c r="B78" s="51" t="s">
         <v>826</v>
       </c>
@@ -46572,7 +46572,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="73"/>
+      <c r="A79" s="72"/>
       <c r="B79" s="65" t="s">
         <v>342</v>
       </c>
@@ -46598,7 +46598,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="73"/>
+      <c r="A80" s="72"/>
       <c r="B80" s="56" t="s">
         <v>827</v>
       </c>
@@ -46624,7 +46624,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="73"/>
+      <c r="A81" s="72"/>
       <c r="B81" s="51" t="s">
         <v>828</v>
       </c>
@@ -46676,7 +46676,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="73"/>
+      <c r="A83" s="72"/>
       <c r="B83" s="51"/>
       <c r="C83" s="55" t="s">
         <v>295</v>
@@ -46700,7 +46700,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="73"/>
+      <c r="A84" s="72"/>
       <c r="B84" s="51" t="s">
         <v>830</v>
       </c>
@@ -46720,7 +46720,7 @@
       <c r="I84" s="54"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="73"/>
+      <c r="A85" s="72"/>
       <c r="B85" s="51"/>
       <c r="C85" s="55" t="s">
         <v>295</v>
@@ -46738,7 +46738,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="73"/>
+      <c r="A86" s="72"/>
       <c r="B86" s="51"/>
       <c r="C86" s="55" t="s">
         <v>295</v>
@@ -46756,7 +46756,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="73"/>
+      <c r="A87" s="72"/>
       <c r="B87" s="51"/>
       <c r="C87" s="55" t="s">
         <v>295</v>
@@ -46773,7 +46773,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="73"/>
+      <c r="A88" s="72"/>
       <c r="B88" s="51"/>
       <c r="C88" s="55" t="s">
         <v>295</v>
@@ -46790,7 +46790,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="73"/>
+      <c r="A89" s="72"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -46801,7 +46801,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="73"/>
+      <c r="A90" s="72"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -46812,7 +46812,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="76"/>
+      <c r="A91" s="73"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -46823,7 +46823,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="72" t="s">
+      <c r="A92" s="76" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -46850,7 +46850,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="73"/>
+      <c r="A93" s="72"/>
       <c r="B93" s="51" t="s">
         <v>831</v>
       </c>
@@ -46876,7 +46876,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="73"/>
+      <c r="A94" s="72"/>
       <c r="B94" s="56" t="s">
         <v>309</v>
       </c>
@@ -46902,7 +46902,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="73"/>
+      <c r="A95" s="72"/>
       <c r="B95" s="51" t="s">
         <v>832</v>
       </c>
@@ -46928,7 +46928,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="73"/>
+      <c r="A96" s="72"/>
       <c r="B96" s="51" t="s">
         <v>833</v>
       </c>
@@ -46954,7 +46954,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="73"/>
+      <c r="A97" s="72"/>
       <c r="B97" s="51" t="s">
         <v>834</v>
       </c>
@@ -46980,7 +46980,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="73"/>
+      <c r="A98" s="72"/>
       <c r="B98" s="51" t="s">
         <v>835</v>
       </c>
@@ -47006,7 +47006,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="73"/>
+      <c r="A99" s="72"/>
       <c r="B99" s="51"/>
       <c r="C99" s="51" t="s">
         <v>296</v>
@@ -47030,7 +47030,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="73"/>
+      <c r="A100" s="72"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>288</v>
@@ -47048,7 +47048,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="73"/>
+      <c r="A101" s="72"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51"/>
       <c r="D101" s="52"/>
@@ -47057,7 +47057,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="73"/>
+      <c r="A102" s="72"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51"/>
       <c r="D102" s="52"/>
@@ -47065,7 +47065,7 @@
       <c r="F102" s="52"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="73"/>
+      <c r="A103" s="72"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -47073,7 +47073,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="73"/>
+      <c r="A104" s="72"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -47081,7 +47081,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="73"/>
+      <c r="A105" s="72"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -47394,7 +47394,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="72" t="s">
+      <c r="A122" s="76" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -47421,7 +47421,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="73"/>
+      <c r="A123" s="72"/>
       <c r="B123" s="51" t="s">
         <v>843</v>
       </c>
@@ -47447,7 +47447,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="73"/>
+      <c r="A124" s="72"/>
       <c r="B124" s="51" t="s">
         <v>342</v>
       </c>
@@ -47473,7 +47473,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="73"/>
+      <c r="A125" s="72"/>
       <c r="B125" s="51" t="s">
         <v>844</v>
       </c>
@@ -47499,7 +47499,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="73"/>
+      <c r="A126" s="72"/>
       <c r="B126" s="58" t="s">
         <v>845</v>
       </c>
@@ -47611,7 +47611,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="73"/>
+      <c r="A131" s="72"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -47620,7 +47620,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="73"/>
+      <c r="A132" s="72"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -47628,7 +47628,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="73"/>
+      <c r="A133" s="72"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -47636,7 +47636,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="73"/>
+      <c r="A134" s="72"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -47644,7 +47644,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="73"/>
+      <c r="A135" s="72"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -48382,7 +48382,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="72" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -48409,7 +48409,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="73"/>
+      <c r="A18" s="72"/>
       <c r="B18" t="s">
         <v>849</v>
       </c>
@@ -48435,7 +48435,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="73"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="51" t="s">
         <v>850</v>
       </c>
@@ -48461,7 +48461,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="73"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="51" t="s">
         <v>342</v>
       </c>
@@ -48487,7 +48487,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="73"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="51" t="s">
         <v>851</v>
       </c>
@@ -48513,7 +48513,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="73"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="58" t="s">
         <v>329</v>
       </c>
@@ -48539,7 +48539,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="73"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="57" t="s">
         <v>852</v>
       </c>
@@ -48565,7 +48565,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="73"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="57" t="s">
         <v>853</v>
       </c>
@@ -48591,7 +48591,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="73"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="57" t="s">
         <v>854</v>
       </c>
@@ -48611,7 +48611,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="73"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="57" t="s">
         <v>855</v>
       </c>
@@ -48631,7 +48631,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="73"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="59" t="s">
         <v>856</v>
       </c>
@@ -48650,7 +48650,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="73"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="51" t="s">
         <v>342</v>
       </c>
@@ -48669,7 +48669,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="73"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="51" t="s">
         <v>857</v>
       </c>
@@ -48688,7 +48688,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="73"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="51" t="s">
         <v>356</v>
       </c>
@@ -48707,7 +48707,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="73"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="51" t="s">
         <v>858</v>
       </c>
@@ -48726,7 +48726,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="72" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -48753,7 +48753,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="73"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="51" t="s">
         <v>812</v>
       </c>
@@ -48779,7 +48779,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="73"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="51" t="s">
         <v>309</v>
       </c>
@@ -48805,7 +48805,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="73"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="51" t="s">
         <v>813</v>
       </c>
@@ -48831,7 +48831,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="73"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="51" t="s">
         <v>814</v>
       </c>
@@ -48857,7 +48857,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="73"/>
+      <c r="A37" s="72"/>
       <c r="B37" t="s">
         <v>313</v>
       </c>
@@ -48883,7 +48883,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="73"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="51" t="s">
         <v>815</v>
       </c>
@@ -48909,7 +48909,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="73"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="51" t="s">
         <v>816</v>
       </c>
@@ -48935,7 +48935,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="73"/>
+      <c r="A40" s="72"/>
       <c r="B40" t="s">
         <v>342</v>
       </c>
@@ -48955,7 +48955,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="73"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="51" t="s">
         <v>817</v>
       </c>
@@ -48975,7 +48975,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="73"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -48986,7 +48986,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="73"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -48997,7 +48997,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="73"/>
+      <c r="A44" s="72"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
       <c r="E44" s="52"/>
@@ -49007,7 +49007,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="73"/>
+      <c r="A45" s="72"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -49323,7 +49323,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="76" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -49350,7 +49350,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="73"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="51" t="s">
         <v>823</v>
       </c>
@@ -49376,7 +49376,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="73"/>
+      <c r="A64" s="72"/>
       <c r="B64" s="51" t="s">
         <v>824</v>
       </c>
@@ -49402,7 +49402,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="73"/>
+      <c r="A65" s="72"/>
       <c r="B65" s="51" t="s">
         <v>342</v>
       </c>
@@ -49428,7 +49428,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="73"/>
+      <c r="A66" s="72"/>
       <c r="B66" s="51" t="s">
         <v>720</v>
       </c>
@@ -49454,7 +49454,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="73"/>
+      <c r="A67" s="72"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="51"/>
@@ -49472,7 +49472,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="73"/>
+      <c r="A68" s="72"/>
       <c r="B68" s="51"/>
       <c r="C68" s="51"/>
       <c r="D68" s="52"/>
@@ -49490,7 +49490,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="73"/>
+      <c r="A69" s="72"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -49502,7 +49502,7 @@
       <c r="I69" s="54"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="73"/>
+      <c r="A70" s="72"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -49514,7 +49514,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="73"/>
+      <c r="A71" s="72"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -49525,7 +49525,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="73"/>
+      <c r="A72" s="72"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -49536,7 +49536,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="73"/>
+      <c r="A73" s="72"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -49547,7 +49547,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="73"/>
+      <c r="A74" s="72"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -49558,7 +49558,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="73"/>
+      <c r="A75" s="72"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -49569,7 +49569,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="73" t="s">
+      <c r="A76" s="72" t="s">
         <v>269</v>
       </c>
       <c r="B76" s="51" t="s">
@@ -49596,7 +49596,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="73"/>
+      <c r="A77" s="72"/>
       <c r="B77" s="51" t="s">
         <v>825</v>
       </c>
@@ -49622,7 +49622,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="73"/>
+      <c r="A78" s="72"/>
       <c r="B78" s="51" t="s">
         <v>826</v>
       </c>
@@ -49648,7 +49648,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="73"/>
+      <c r="A79" s="72"/>
       <c r="B79" s="65" t="s">
         <v>342</v>
       </c>
@@ -49674,7 +49674,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="73"/>
+      <c r="A80" s="72"/>
       <c r="B80" s="56" t="s">
         <v>827</v>
       </c>
@@ -49700,7 +49700,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="73"/>
+      <c r="A81" s="72"/>
       <c r="B81" s="51" t="s">
         <v>828</v>
       </c>
@@ -49752,7 +49752,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="73"/>
+      <c r="A83" s="72"/>
       <c r="B83" s="51"/>
       <c r="C83" s="55" t="s">
         <v>295</v>
@@ -49776,7 +49776,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="73"/>
+      <c r="A84" s="72"/>
       <c r="B84" s="51" t="s">
         <v>830</v>
       </c>
@@ -49796,7 +49796,7 @@
       <c r="I84" s="54"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="73"/>
+      <c r="A85" s="72"/>
       <c r="B85" s="51"/>
       <c r="C85" s="55" t="s">
         <v>295</v>
@@ -49814,7 +49814,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="73"/>
+      <c r="A86" s="72"/>
       <c r="B86" s="51"/>
       <c r="C86" s="55" t="s">
         <v>295</v>
@@ -49832,7 +49832,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="73"/>
+      <c r="A87" s="72"/>
       <c r="B87" s="51"/>
       <c r="C87" s="55" t="s">
         <v>295</v>
@@ -49849,7 +49849,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="73"/>
+      <c r="A88" s="72"/>
       <c r="B88" s="51"/>
       <c r="C88" s="55" t="s">
         <v>295</v>
@@ -49866,7 +49866,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="73"/>
+      <c r="A89" s="72"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -49877,7 +49877,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="73"/>
+      <c r="A90" s="72"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -49888,7 +49888,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="76"/>
+      <c r="A91" s="73"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -49899,7 +49899,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="72" t="s">
+      <c r="A92" s="76" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -49926,7 +49926,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="73"/>
+      <c r="A93" s="72"/>
       <c r="B93" s="51" t="s">
         <v>831</v>
       </c>
@@ -49952,7 +49952,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="73"/>
+      <c r="A94" s="72"/>
       <c r="B94" s="56" t="s">
         <v>309</v>
       </c>
@@ -49978,7 +49978,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="73"/>
+      <c r="A95" s="72"/>
       <c r="B95" s="51" t="s">
         <v>832</v>
       </c>
@@ -50004,7 +50004,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="73"/>
+      <c r="A96" s="72"/>
       <c r="B96" s="51" t="s">
         <v>833</v>
       </c>
@@ -50030,7 +50030,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="73"/>
+      <c r="A97" s="72"/>
       <c r="B97" s="51" t="s">
         <v>834</v>
       </c>
@@ -50056,7 +50056,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="73"/>
+      <c r="A98" s="72"/>
       <c r="B98" s="51" t="s">
         <v>835</v>
       </c>
@@ -50082,7 +50082,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="73"/>
+      <c r="A99" s="72"/>
       <c r="B99" s="51"/>
       <c r="C99" s="51" t="s">
         <v>296</v>
@@ -50106,7 +50106,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="73"/>
+      <c r="A100" s="72"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>288</v>
@@ -50124,7 +50124,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="73"/>
+      <c r="A101" s="72"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51"/>
       <c r="D101" s="52"/>
@@ -50133,7 +50133,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="73"/>
+      <c r="A102" s="72"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51"/>
       <c r="D102" s="52"/>
@@ -50141,7 +50141,7 @@
       <c r="F102" s="52"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="73"/>
+      <c r="A103" s="72"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -50149,7 +50149,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="73"/>
+      <c r="A104" s="72"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -50157,7 +50157,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="73"/>
+      <c r="A105" s="72"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -50504,7 +50504,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="72" t="s">
+      <c r="A122" s="76" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -50531,7 +50531,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="73"/>
+      <c r="A123" s="72"/>
       <c r="B123" s="51" t="s">
         <v>868</v>
       </c>
@@ -50557,7 +50557,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="73"/>
+      <c r="A124" s="72"/>
       <c r="B124" s="51" t="s">
         <v>342</v>
       </c>
@@ -50583,7 +50583,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="73"/>
+      <c r="A125" s="72"/>
       <c r="B125" s="51" t="s">
         <v>869</v>
       </c>
@@ -50609,7 +50609,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="73"/>
+      <c r="A126" s="72"/>
       <c r="B126" s="58" t="s">
         <v>329</v>
       </c>
@@ -50733,7 +50733,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="73"/>
+      <c r="A131" s="72"/>
       <c r="B131" s="59" t="s">
         <v>333</v>
       </c>
@@ -50753,7 +50753,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="73"/>
+      <c r="A132" s="72"/>
       <c r="B132" s="51" t="s">
         <v>342</v>
       </c>
@@ -50772,7 +50772,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="73"/>
+      <c r="A133" s="72"/>
       <c r="B133" s="51" t="s">
         <v>857</v>
       </c>
@@ -50791,7 +50791,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="73"/>
+      <c r="A134" s="72"/>
       <c r="B134" s="51" t="s">
         <v>356</v>
       </c>
@@ -50810,7 +50810,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="73"/>
+      <c r="A135" s="72"/>
       <c r="B135" s="51" t="s">
         <v>871</v>
       </c>

--- a/Process/Timesheet/Timesheet.xlsx
+++ b/Process/Timesheet/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vinoth\GIT\TeamProject\Project\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAEE8F28-25E3-49C9-9F7F-B05FAF27E83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D30622E4-5189-4CC1-90C0-EDB10D6D952F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19414" windowHeight="10303" firstSheet="26" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4223" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4233" uniqueCount="899">
   <si>
     <t>Column1</t>
   </si>
@@ -3137,6 +3137,36 @@
   </si>
   <si>
     <t>Team Meating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking mails. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">College - Webinar about Development Life cycle of mobile applications. </t>
+  </si>
+  <si>
+    <t>Admin's view-Department Nav bar and Item Name (function)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning how to route files in Angular and set path </t>
+  </si>
+  <si>
+    <t>Admin's view-Location Nav bar and Item Name (function)</t>
+  </si>
+  <si>
+    <t>Fixing HTTP and HTTP Client Module, Re-defining on component File (Angular)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular session by Saraswathi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client meeting with Rafi </t>
+  </si>
+  <si>
+    <t>Performance Discussion .</t>
+  </si>
+  <si>
+    <t>Team meeting</t>
   </si>
   <si>
     <t xml:space="preserve"> Interating the view Location Page </t>
@@ -3708,10 +3738,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3720,7 +3750,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -16818,7 +16848,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -16848,7 +16878,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="79"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="51" t="s">
         <v>289</v>
       </c>
@@ -16877,7 +16907,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="79"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="51" t="s">
         <v>291</v>
       </c>
@@ -16906,7 +16936,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="79"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="51" t="s">
         <v>292</v>
       </c>
@@ -16935,7 +16965,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="79"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="51" t="s">
         <v>294</v>
       </c>
@@ -16964,7 +16994,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="79"/>
+      <c r="A7" s="80"/>
       <c r="B7" t="s">
         <v>297</v>
       </c>
@@ -16993,7 +17023,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="79"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="51" t="s">
         <v>298</v>
       </c>
@@ -17019,7 +17049,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="79"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="51" t="s">
         <v>299</v>
       </c>
@@ -17045,7 +17075,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="79"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="51" t="s">
         <v>301</v>
       </c>
@@ -17065,7 +17095,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="79"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="51" t="s">
         <v>302</v>
       </c>
@@ -17085,7 +17115,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="79"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="51" t="s">
         <v>303</v>
       </c>
@@ -17104,7 +17134,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="79"/>
+      <c r="A13" s="80"/>
       <c r="B13" s="51" t="s">
         <v>304</v>
       </c>
@@ -17123,7 +17153,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="79"/>
+      <c r="A14" s="80"/>
       <c r="B14" s="51" t="s">
         <v>305</v>
       </c>
@@ -17142,7 +17172,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="79"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="51" t="s">
         <v>306</v>
       </c>
@@ -17161,7 +17191,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="79"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="52"/>
@@ -17172,7 +17202,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="80" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51"/>
@@ -17195,7 +17225,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="79"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="52">
@@ -17217,7 +17247,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="79"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="52">
@@ -17239,7 +17269,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="79"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
       <c r="D20" s="52">
@@ -17261,7 +17291,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="79"/>
+      <c r="A21" s="80"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="52">
@@ -17283,7 +17313,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="79"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52">
@@ -17305,7 +17335,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="79"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="51" t="s">
         <v>73</v>
       </c>
@@ -17329,7 +17359,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="79"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52">
@@ -17351,7 +17381,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="79"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52">
@@ -17367,7 +17397,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="79"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -17379,7 +17409,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="79"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -17390,7 +17420,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="79"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -17401,7 +17431,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="79"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -17412,7 +17442,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="79"/>
+      <c r="A30" s="80"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -17423,7 +17453,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="79"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -17434,7 +17464,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="80" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -17461,7 +17491,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="79"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="51" t="s">
         <v>307</v>
       </c>
@@ -17487,7 +17517,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="79"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="51" t="s">
         <v>308</v>
       </c>
@@ -17513,7 +17543,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="79"/>
+      <c r="A35" s="80"/>
       <c r="B35" s="51" t="s">
         <v>309</v>
       </c>
@@ -17539,7 +17569,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="79"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="51" t="s">
         <v>310</v>
       </c>
@@ -17565,7 +17595,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="79"/>
+      <c r="A37" s="80"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -17591,7 +17621,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="79"/>
+      <c r="A38" s="80"/>
       <c r="B38" s="51" t="s">
         <v>312</v>
       </c>
@@ -17617,7 +17647,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="79"/>
+      <c r="A39" s="80"/>
       <c r="B39" s="51" t="s">
         <v>313</v>
       </c>
@@ -17643,7 +17673,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="79"/>
+      <c r="A40" s="80"/>
       <c r="B40" s="51" t="s">
         <v>314</v>
       </c>
@@ -17663,7 +17693,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="79"/>
+      <c r="A41" s="80"/>
       <c r="B41" s="51" t="s">
         <v>312</v>
       </c>
@@ -17683,7 +17713,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="79"/>
+      <c r="A42" s="80"/>
       <c r="B42" s="51" t="s">
         <v>315</v>
       </c>
@@ -17702,7 +17732,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="79"/>
+      <c r="A43" s="80"/>
       <c r="B43" s="51" t="s">
         <v>309</v>
       </c>
@@ -17721,7 +17751,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="79"/>
+      <c r="A44" s="80"/>
       <c r="B44" s="51" t="s">
         <v>316</v>
       </c>
@@ -17740,7 +17770,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="79"/>
+      <c r="A45" s="80"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -17986,7 +18016,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="79" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -18013,7 +18043,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="79"/>
+      <c r="A63" s="80"/>
       <c r="B63" s="51" t="s">
         <v>284</v>
       </c>
@@ -18038,7 +18068,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="79"/>
+      <c r="A64" s="80"/>
       <c r="B64" s="51" t="s">
         <v>318</v>
       </c>
@@ -18064,7 +18094,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="79"/>
+      <c r="A65" s="80"/>
       <c r="B65" s="51" t="s">
         <v>313</v>
       </c>
@@ -18090,7 +18120,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="79"/>
+      <c r="A66" s="80"/>
       <c r="B66" s="51" t="s">
         <v>319</v>
       </c>
@@ -18116,7 +18146,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="79"/>
+      <c r="A67" s="80"/>
       <c r="B67" s="51" t="s">
         <v>302</v>
       </c>
@@ -18142,7 +18172,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="79"/>
+      <c r="A68" s="80"/>
       <c r="B68" s="51" t="s">
         <v>304</v>
       </c>
@@ -18168,7 +18198,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="79"/>
+      <c r="A69" s="80"/>
       <c r="B69" s="51" t="s">
         <v>315</v>
       </c>
@@ -18194,7 +18224,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="79"/>
+      <c r="A70" s="80"/>
       <c r="B70" s="51" t="s">
         <v>320</v>
       </c>
@@ -18214,7 +18244,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="79"/>
+      <c r="A71" s="80"/>
       <c r="B71" s="51" t="s">
         <v>306</v>
       </c>
@@ -18234,7 +18264,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="79"/>
+      <c r="A72" s="80"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -18245,7 +18275,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="79"/>
+      <c r="A73" s="80"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -18256,7 +18286,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="79"/>
+      <c r="A74" s="80"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -18267,7 +18297,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="79"/>
+      <c r="A75" s="80"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -18278,7 +18308,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="79"/>
+      <c r="A76" s="80"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -18289,7 +18319,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="79" t="s">
+      <c r="A77" s="80" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -18316,7 +18346,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="79"/>
+      <c r="A78" s="80"/>
       <c r="B78" s="51" t="s">
         <v>322</v>
       </c>
@@ -18342,7 +18372,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="79"/>
+      <c r="A79" s="80"/>
       <c r="B79" s="51" t="s">
         <v>323</v>
       </c>
@@ -18368,7 +18398,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="79"/>
+      <c r="A80" s="80"/>
       <c r="B80" s="51" t="s">
         <v>324</v>
       </c>
@@ -18394,7 +18424,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="79"/>
+      <c r="A81" s="80"/>
       <c r="B81" s="51" t="s">
         <v>325</v>
       </c>
@@ -18420,7 +18450,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="79"/>
+      <c r="A82" s="80"/>
       <c r="B82" s="51" t="s">
         <v>326</v>
       </c>
@@ -18446,7 +18476,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="79"/>
+      <c r="A83" s="80"/>
       <c r="B83" s="51" t="s">
         <v>327</v>
       </c>
@@ -18472,7 +18502,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="79"/>
+      <c r="A84" s="80"/>
       <c r="B84" s="51" t="s">
         <v>328</v>
       </c>
@@ -18498,7 +18528,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="79"/>
+      <c r="A85" s="80"/>
       <c r="B85" s="51" t="s">
         <v>294</v>
       </c>
@@ -18518,7 +18548,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="79"/>
+      <c r="A86" s="80"/>
       <c r="B86" s="51" t="s">
         <v>329</v>
       </c>
@@ -18538,7 +18568,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="79"/>
+      <c r="A87" s="80"/>
       <c r="B87" s="51" t="s">
         <v>304</v>
       </c>
@@ -18557,7 +18587,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="79"/>
+      <c r="A88" s="80"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -18568,7 +18598,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="79"/>
+      <c r="A89" s="80"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -18579,7 +18609,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="79"/>
+      <c r="A90" s="80"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -18590,7 +18620,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="80"/>
+      <c r="A91" s="83"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -18601,7 +18631,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="83" t="s">
+      <c r="A92" s="79" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -18628,7 +18658,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="79"/>
+      <c r="A93" s="80"/>
       <c r="B93" s="51" t="s">
         <v>330</v>
       </c>
@@ -18654,7 +18684,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="79"/>
+      <c r="A94" s="80"/>
       <c r="B94" s="56" t="s">
         <v>331</v>
       </c>
@@ -18680,7 +18710,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="79"/>
+      <c r="A95" s="80"/>
       <c r="B95" s="51" t="s">
         <v>309</v>
       </c>
@@ -18706,7 +18736,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="79"/>
+      <c r="A96" s="80"/>
       <c r="B96" s="51" t="s">
         <v>332</v>
       </c>
@@ -18732,7 +18762,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="79"/>
+      <c r="A97" s="80"/>
       <c r="B97" s="51" t="s">
         <v>311</v>
       </c>
@@ -18758,7 +18788,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="79"/>
+      <c r="A98" s="80"/>
       <c r="B98" s="51" t="s">
         <v>313</v>
       </c>
@@ -18784,7 +18814,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="79"/>
+      <c r="A99" s="80"/>
       <c r="B99" s="51" t="s">
         <v>333</v>
       </c>
@@ -18810,7 +18840,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="79"/>
+      <c r="A100" s="80"/>
       <c r="B100" s="51" t="s">
         <v>334</v>
       </c>
@@ -18830,7 +18860,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="79"/>
+      <c r="A101" s="80"/>
       <c r="B101" s="51" t="s">
         <v>309</v>
       </c>
@@ -18850,7 +18880,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="79"/>
+      <c r="A102" s="80"/>
       <c r="B102" s="51" t="s">
         <v>316</v>
       </c>
@@ -18869,7 +18899,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="79"/>
+      <c r="A103" s="80"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -18877,7 +18907,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="79"/>
+      <c r="A104" s="80"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -18885,7 +18915,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="79"/>
+      <c r="A105" s="80"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -19213,7 +19243,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="83" t="s">
+      <c r="A122" s="79" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -19240,7 +19270,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="79"/>
+      <c r="A123" s="80"/>
       <c r="B123" s="51" t="s">
         <v>322</v>
       </c>
@@ -19266,7 +19296,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="79"/>
+      <c r="A124" s="80"/>
       <c r="B124" s="51" t="s">
         <v>294</v>
       </c>
@@ -19292,7 +19322,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="79"/>
+      <c r="A125" s="80"/>
       <c r="B125" s="51" t="s">
         <v>344</v>
       </c>
@@ -19318,7 +19348,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="79"/>
+      <c r="A126" s="80"/>
       <c r="B126" s="51" t="s">
         <v>329</v>
       </c>
@@ -19344,7 +19374,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="79"/>
+      <c r="A127" s="80"/>
       <c r="B127" s="56" t="s">
         <v>345</v>
       </c>
@@ -19370,7 +19400,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="79"/>
+      <c r="A128" s="80"/>
       <c r="B128" s="51" t="s">
         <v>346</v>
       </c>
@@ -19396,7 +19426,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="79"/>
+      <c r="A129" s="80"/>
       <c r="B129" s="56" t="s">
         <v>304</v>
       </c>
@@ -19422,7 +19452,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="79"/>
+      <c r="A130" s="80"/>
       <c r="B130" s="56" t="s">
         <v>304</v>
       </c>
@@ -19442,7 +19472,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="79"/>
+      <c r="A131" s="80"/>
       <c r="B131" s="51" t="s">
         <v>347</v>
       </c>
@@ -19462,7 +19492,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="79"/>
+      <c r="A132" s="80"/>
       <c r="B132" s="51" t="s">
         <v>348</v>
       </c>
@@ -19481,7 +19511,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="79"/>
+      <c r="A133" s="80"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -19492,7 +19522,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="79"/>
+      <c r="A134" s="80"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -19503,7 +19533,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="79"/>
+      <c r="A135" s="80"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -19829,7 +19859,7 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="83" t="s">
+      <c r="A152" s="79" t="s">
         <v>355</v>
       </c>
       <c r="B152" s="51" t="s">
@@ -19856,7 +19886,7 @@
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="79"/>
+      <c r="A153" s="80"/>
       <c r="B153" s="51" t="s">
         <v>357</v>
       </c>
@@ -19882,7 +19912,7 @@
       </c>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="79"/>
+      <c r="A154" s="80"/>
       <c r="B154" s="51" t="s">
         <v>341</v>
       </c>
@@ -19908,7 +19938,7 @@
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="79"/>
+      <c r="A155" s="80"/>
       <c r="B155" s="51" t="s">
         <v>357</v>
       </c>
@@ -19934,7 +19964,7 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="79"/>
+      <c r="A156" s="80"/>
       <c r="B156" s="51" t="s">
         <v>301</v>
       </c>
@@ -19960,7 +19990,7 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="79"/>
+      <c r="A157" s="80"/>
       <c r="B157" s="51" t="s">
         <v>294</v>
       </c>
@@ -19986,7 +20016,7 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="79"/>
+      <c r="A158" s="80"/>
       <c r="B158" s="51" t="s">
         <v>304</v>
       </c>
@@ -20012,7 +20042,7 @@
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="79"/>
+      <c r="A159" s="80"/>
       <c r="B159" s="51" t="s">
         <v>358</v>
       </c>
@@ -20038,7 +20068,7 @@
       </c>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="79"/>
+      <c r="A160" s="80"/>
       <c r="B160" s="51" t="s">
         <v>359</v>
       </c>
@@ -20058,7 +20088,7 @@
       <c r="I160" s="54"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="79"/>
+      <c r="A161" s="80"/>
       <c r="B161" s="51"/>
       <c r="C161" s="51"/>
       <c r="D161" s="52"/>
@@ -20070,7 +20100,7 @@
       <c r="I161" s="54"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="79"/>
+      <c r="A162" s="80"/>
       <c r="B162" s="51"/>
       <c r="C162" s="51"/>
       <c r="D162" s="52"/>
@@ -20081,7 +20111,7 @@
       </c>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="79"/>
+      <c r="A163" s="80"/>
       <c r="B163" s="51"/>
       <c r="C163" s="51"/>
       <c r="D163" s="52"/>
@@ -20092,7 +20122,7 @@
       </c>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="79"/>
+      <c r="A164" s="80"/>
       <c r="B164" s="51"/>
       <c r="C164" s="51"/>
       <c r="D164" s="52"/>
@@ -20103,7 +20133,7 @@
       </c>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="79"/>
+      <c r="A165" s="80"/>
       <c r="B165" s="51"/>
       <c r="C165" s="51"/>
       <c r="D165" s="52"/>
@@ -20114,7 +20144,7 @@
       </c>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="79"/>
+      <c r="A166" s="80"/>
       <c r="B166" s="51"/>
       <c r="C166" s="51"/>
       <c r="D166" s="52"/>
@@ -20126,17 +20156,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="142" priority="12" operator="greaterThan">
@@ -20242,7 +20272,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -20272,7 +20302,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="79"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="51" t="s">
         <v>360</v>
       </c>
@@ -20301,7 +20331,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="79"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="51" t="s">
         <v>361</v>
       </c>
@@ -20330,7 +20360,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="79"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -20359,7 +20389,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="79"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="51" t="s">
         <v>311</v>
       </c>
@@ -20388,7 +20418,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="79"/>
+      <c r="A7" s="80"/>
       <c r="B7" t="s">
         <v>362</v>
       </c>
@@ -20417,7 +20447,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="79"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="51" t="s">
         <v>363</v>
       </c>
@@ -20443,7 +20473,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="79"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="51" t="s">
         <v>364</v>
       </c>
@@ -20469,7 +20499,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="79"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="51" t="s">
         <v>329</v>
       </c>
@@ -20489,7 +20519,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="79"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="51" t="s">
         <v>365</v>
       </c>
@@ -20509,7 +20539,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="79"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="51" t="s">
         <v>345</v>
       </c>
@@ -20528,7 +20558,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="79"/>
+      <c r="A13" s="80"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -20547,7 +20577,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="79"/>
+      <c r="A14" s="80"/>
       <c r="B14" s="51" t="s">
         <v>366</v>
       </c>
@@ -20566,7 +20596,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="79"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="51" t="s">
         <v>367</v>
       </c>
@@ -20585,7 +20615,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="79"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="51" t="s">
         <v>368</v>
       </c>
@@ -20604,7 +20634,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="80" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -20631,7 +20661,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="79"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="51" t="s">
         <v>370</v>
       </c>
@@ -20657,7 +20687,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="79"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="51" t="s">
         <v>342</v>
       </c>
@@ -20683,7 +20713,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="79"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="51" t="s">
         <v>371</v>
       </c>
@@ -20709,7 +20739,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="79"/>
+      <c r="A21" s="80"/>
       <c r="B21" s="51" t="s">
         <v>372</v>
       </c>
@@ -20735,7 +20765,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="79"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -20761,7 +20791,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="79"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="51" t="s">
         <v>373</v>
       </c>
@@ -20787,7 +20817,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="79"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="51" t="s">
         <v>374</v>
       </c>
@@ -20813,7 +20843,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="79"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="51" t="s">
         <v>304</v>
       </c>
@@ -20833,7 +20863,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="79"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="51" t="s">
         <v>375</v>
       </c>
@@ -20853,7 +20883,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="79"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="51" t="s">
         <v>376</v>
       </c>
@@ -20872,7 +20902,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="79"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="51" t="s">
         <v>377</v>
       </c>
@@ -20891,7 +20921,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="79"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="51" t="s">
         <v>378</v>
       </c>
@@ -20910,7 +20940,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="79"/>
+      <c r="A30" s="80"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -20921,7 +20951,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="79"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -20932,7 +20962,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="80" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -20959,7 +20989,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="79"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="51" t="s">
         <v>380</v>
       </c>
@@ -20985,7 +21015,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="79"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="51" t="s">
         <v>370</v>
       </c>
@@ -21011,7 +21041,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="79"/>
+      <c r="A35" s="80"/>
       <c r="B35" s="51" t="s">
         <v>294</v>
       </c>
@@ -21037,7 +21067,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="79"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="51" t="s">
         <v>381</v>
       </c>
@@ -21063,7 +21093,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="79"/>
+      <c r="A37" s="80"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -21089,7 +21119,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="79"/>
+      <c r="A38" s="80"/>
       <c r="B38" s="51" t="s">
         <v>382</v>
       </c>
@@ -21115,7 +21145,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="79"/>
+      <c r="A39" s="80"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -21141,7 +21171,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="79"/>
+      <c r="A40" s="80"/>
       <c r="B40" s="51" t="s">
         <v>383</v>
       </c>
@@ -21161,7 +21191,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="79"/>
+      <c r="A41" s="80"/>
       <c r="B41" s="51" t="s">
         <v>374</v>
       </c>
@@ -21181,7 +21211,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="79"/>
+      <c r="A42" s="80"/>
       <c r="B42" s="51" t="s">
         <v>304</v>
       </c>
@@ -21200,7 +21230,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="79"/>
+      <c r="A43" s="80"/>
       <c r="B43" s="51" t="s">
         <v>384</v>
       </c>
@@ -21219,7 +21249,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="79"/>
+      <c r="A44" s="80"/>
       <c r="B44" s="51" t="s">
         <v>385</v>
       </c>
@@ -21238,7 +21268,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="79"/>
+      <c r="A45" s="80"/>
       <c r="B45" s="51" t="s">
         <v>386</v>
       </c>
@@ -21502,7 +21532,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="79" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -21529,7 +21559,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="79"/>
+      <c r="A63" s="80"/>
       <c r="B63" s="51" t="s">
         <v>390</v>
       </c>
@@ -21554,7 +21584,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="79"/>
+      <c r="A64" s="80"/>
       <c r="B64" s="51" t="s">
         <v>370</v>
       </c>
@@ -21580,7 +21610,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="79"/>
+      <c r="A65" s="80"/>
       <c r="B65" s="51" t="s">
         <v>309</v>
       </c>
@@ -21606,7 +21636,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="79"/>
+      <c r="A66" s="80"/>
       <c r="B66" s="51" t="s">
         <v>391</v>
       </c>
@@ -21632,7 +21662,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="79"/>
+      <c r="A67" s="80"/>
       <c r="B67" s="51" t="s">
         <v>392</v>
       </c>
@@ -21658,7 +21688,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="79"/>
+      <c r="A68" s="80"/>
       <c r="B68" s="56" t="s">
         <v>313</v>
       </c>
@@ -21684,7 +21714,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="79"/>
+      <c r="A69" s="80"/>
       <c r="B69" s="51" t="s">
         <v>393</v>
       </c>
@@ -21710,7 +21740,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="79"/>
+      <c r="A70" s="80"/>
       <c r="B70" s="51" t="s">
         <v>394</v>
       </c>
@@ -21730,7 +21760,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="79"/>
+      <c r="A71" s="80"/>
       <c r="B71" s="51" t="s">
         <v>342</v>
       </c>
@@ -21750,7 +21780,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="79"/>
+      <c r="A72" s="80"/>
       <c r="B72" s="51" t="s">
         <v>385</v>
       </c>
@@ -21769,7 +21799,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="79"/>
+      <c r="A73" s="80"/>
       <c r="B73" s="51" t="s">
         <v>395</v>
       </c>
@@ -21788,7 +21818,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="79"/>
+      <c r="A74" s="80"/>
       <c r="B74" s="51" t="s">
         <v>396</v>
       </c>
@@ -21807,7 +21837,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="79"/>
+      <c r="A75" s="80"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -21818,7 +21848,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="79"/>
+      <c r="A76" s="80"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -21829,7 +21859,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="79" t="s">
+      <c r="A77" s="80" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -21856,7 +21886,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="79"/>
+      <c r="A78" s="80"/>
       <c r="B78" s="51" t="s">
         <v>397</v>
       </c>
@@ -21882,7 +21912,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="79"/>
+      <c r="A79" s="80"/>
       <c r="B79" s="51" t="s">
         <v>398</v>
       </c>
@@ -21908,7 +21938,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="79"/>
+      <c r="A80" s="80"/>
       <c r="B80" s="51" t="s">
         <v>309</v>
       </c>
@@ -21934,7 +21964,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="79"/>
+      <c r="A81" s="80"/>
       <c r="B81" s="51" t="s">
         <v>399</v>
       </c>
@@ -21960,7 +21990,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="79"/>
+      <c r="A82" s="80"/>
       <c r="B82" s="51" t="s">
         <v>400</v>
       </c>
@@ -21986,7 +22016,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="79"/>
+      <c r="A83" s="80"/>
       <c r="B83" s="51" t="s">
         <v>329</v>
       </c>
@@ -22012,7 +22042,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="79"/>
+      <c r="A84" s="80"/>
       <c r="B84" s="51" t="s">
         <v>401</v>
       </c>
@@ -22038,7 +22068,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="79"/>
+      <c r="A85" s="80"/>
       <c r="B85" s="51" t="s">
         <v>394</v>
       </c>
@@ -22058,7 +22088,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="79"/>
+      <c r="A86" s="80"/>
       <c r="B86" s="51" t="s">
         <v>309</v>
       </c>
@@ -22078,7 +22108,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="79"/>
+      <c r="A87" s="80"/>
       <c r="B87" s="51" t="s">
         <v>385</v>
       </c>
@@ -22097,7 +22127,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="79"/>
+      <c r="A88" s="80"/>
       <c r="B88" s="51" t="s">
         <v>402</v>
       </c>
@@ -22116,7 +22146,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="79"/>
+      <c r="A89" s="80"/>
       <c r="B89" s="51" t="s">
         <v>403</v>
       </c>
@@ -22135,7 +22165,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="79"/>
+      <c r="A90" s="80"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -22146,7 +22176,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="80"/>
+      <c r="A91" s="83"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -22157,7 +22187,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="83" t="s">
+      <c r="A92" s="79" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -22184,7 +22214,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="79"/>
+      <c r="A93" s="80"/>
       <c r="B93" s="51" t="s">
         <v>405</v>
       </c>
@@ -22210,7 +22240,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="79"/>
+      <c r="A94" s="80"/>
       <c r="B94" s="56" t="s">
         <v>406</v>
       </c>
@@ -22236,7 +22266,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="79"/>
+      <c r="A95" s="80"/>
       <c r="B95" s="51" t="s">
         <v>407</v>
       </c>
@@ -22262,7 +22292,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="79"/>
+      <c r="A96" s="80"/>
       <c r="B96" s="51" t="s">
         <v>342</v>
       </c>
@@ -22288,7 +22318,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="79"/>
+      <c r="A97" s="80"/>
       <c r="B97" s="51" t="s">
         <v>408</v>
       </c>
@@ -22314,7 +22344,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="79"/>
+      <c r="A98" s="80"/>
       <c r="B98" s="51" t="s">
         <v>409</v>
       </c>
@@ -22340,7 +22370,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="79"/>
+      <c r="A99" s="80"/>
       <c r="B99" s="51" t="s">
         <v>410</v>
       </c>
@@ -22366,7 +22396,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="79"/>
+      <c r="A100" s="80"/>
       <c r="B100" s="51" t="s">
         <v>411</v>
       </c>
@@ -22386,7 +22416,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="79"/>
+      <c r="A101" s="80"/>
       <c r="B101" s="51" t="s">
         <v>412</v>
       </c>
@@ -22406,7 +22436,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="79"/>
+      <c r="A102" s="80"/>
       <c r="B102" s="51" t="s">
         <v>413</v>
       </c>
@@ -22425,7 +22455,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="79"/>
+      <c r="A103" s="80"/>
       <c r="B103" s="51" t="s">
         <v>414</v>
       </c>
@@ -22444,7 +22474,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="79"/>
+      <c r="A104" s="80"/>
       <c r="B104" s="51" t="s">
         <v>304</v>
       </c>
@@ -22463,7 +22493,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="79"/>
+      <c r="A105" s="80"/>
       <c r="B105" s="51" t="s">
         <v>415</v>
       </c>
@@ -22825,7 +22855,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="83" t="s">
+      <c r="A122" s="79" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -22852,7 +22882,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="79"/>
+      <c r="A123" s="80"/>
       <c r="B123" s="51" t="s">
         <v>426</v>
       </c>
@@ -22878,7 +22908,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="79"/>
+      <c r="A124" s="80"/>
       <c r="B124" s="51" t="s">
         <v>427</v>
       </c>
@@ -22904,7 +22934,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="79"/>
+      <c r="A125" s="80"/>
       <c r="B125" s="51" t="s">
         <v>428</v>
       </c>
@@ -22930,7 +22960,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="79"/>
+      <c r="A126" s="80"/>
       <c r="B126" s="51" t="s">
         <v>429</v>
       </c>
@@ -22956,7 +22986,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="79"/>
+      <c r="A127" s="80"/>
       <c r="B127" s="56" t="s">
         <v>430</v>
       </c>
@@ -22982,7 +23012,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="79"/>
+      <c r="A128" s="80"/>
       <c r="B128" s="51" t="s">
         <v>431</v>
       </c>
@@ -23008,7 +23038,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="79"/>
+      <c r="A129" s="80"/>
       <c r="B129" s="56" t="s">
         <v>432</v>
       </c>
@@ -23034,7 +23064,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="79"/>
+      <c r="A130" s="80"/>
       <c r="B130" s="56" t="s">
         <v>433</v>
       </c>
@@ -23054,7 +23084,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="79"/>
+      <c r="A131" s="80"/>
       <c r="B131" s="51" t="s">
         <v>294</v>
       </c>
@@ -23074,7 +23104,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="79"/>
+      <c r="A132" s="80"/>
       <c r="B132" s="51" t="s">
         <v>329</v>
       </c>
@@ -23093,7 +23123,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="79"/>
+      <c r="A133" s="80"/>
       <c r="B133" s="51" t="s">
         <v>304</v>
       </c>
@@ -23112,7 +23142,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="79"/>
+      <c r="A134" s="80"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -23123,7 +23153,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="79"/>
+      <c r="A135" s="80"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -23581,7 +23611,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -23611,7 +23641,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="79"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="51" t="s">
         <v>311</v>
       </c>
@@ -23640,7 +23670,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="79"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="51" t="s">
         <v>440</v>
       </c>
@@ -23669,7 +23699,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="79"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="56" t="s">
         <v>441</v>
       </c>
@@ -23698,7 +23728,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="79"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="51" t="s">
         <v>342</v>
       </c>
@@ -23727,7 +23757,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="79"/>
+      <c r="A7" s="80"/>
       <c r="B7" t="s">
         <v>442</v>
       </c>
@@ -23756,7 +23786,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="79"/>
+      <c r="A8" s="80"/>
       <c r="B8" t="s">
         <v>443</v>
       </c>
@@ -23782,7 +23812,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="79"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="51" t="s">
         <v>329</v>
       </c>
@@ -23808,7 +23838,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="79"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="51" t="s">
         <v>444</v>
       </c>
@@ -23828,7 +23858,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="79"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="51" t="s">
         <v>445</v>
       </c>
@@ -23848,7 +23878,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="79"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="51" t="s">
         <v>446</v>
       </c>
@@ -23867,7 +23897,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="79"/>
+      <c r="A13" s="80"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -23880,7 +23910,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="79"/>
+      <c r="A14" s="80"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -23893,7 +23923,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="79"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -23906,7 +23936,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="79"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -23919,7 +23949,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="80" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -23946,7 +23976,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="79"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="51" t="s">
         <v>447</v>
       </c>
@@ -23972,7 +24002,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="79"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="51" t="s">
         <v>342</v>
       </c>
@@ -23998,7 +24028,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="79"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="51" t="s">
         <v>371</v>
       </c>
@@ -24024,7 +24054,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="79"/>
+      <c r="A21" s="80"/>
       <c r="B21" s="51" t="s">
         <v>372</v>
       </c>
@@ -24050,7 +24080,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="79"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -24076,7 +24106,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="79"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="51" t="s">
         <v>373</v>
       </c>
@@ -24102,7 +24132,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="79"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="51" t="s">
         <v>374</v>
       </c>
@@ -24128,7 +24158,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="79"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="51" t="s">
         <v>304</v>
       </c>
@@ -24148,7 +24178,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="79"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="51" t="s">
         <v>375</v>
       </c>
@@ -24168,7 +24198,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="79"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="51" t="s">
         <v>376</v>
       </c>
@@ -24187,7 +24217,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="79"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="51" t="s">
         <v>377</v>
       </c>
@@ -24206,7 +24236,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="79"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="51" t="s">
         <v>378</v>
       </c>
@@ -24225,7 +24255,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="79"/>
+      <c r="A30" s="80"/>
       <c r="B30" s="51" t="s">
         <v>448</v>
       </c>
@@ -24244,7 +24274,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="79"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -24255,7 +24285,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="80" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -24282,7 +24312,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="79"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="51" t="s">
         <v>449</v>
       </c>
@@ -24308,7 +24338,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="79"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="51" t="s">
         <v>450</v>
       </c>
@@ -24334,7 +24364,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="79"/>
+      <c r="A35" s="80"/>
       <c r="B35" s="51" t="s">
         <v>294</v>
       </c>
@@ -24360,7 +24390,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="79"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="51" t="s">
         <v>451</v>
       </c>
@@ -24386,7 +24416,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="79"/>
+      <c r="A37" s="80"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -24412,7 +24442,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="79"/>
+      <c r="A38" s="80"/>
       <c r="B38" s="51" t="s">
         <v>452</v>
       </c>
@@ -24438,7 +24468,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="79"/>
+      <c r="A39" s="80"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -24464,7 +24494,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="79"/>
+      <c r="A40" s="80"/>
       <c r="B40" s="51" t="s">
         <v>453</v>
       </c>
@@ -24484,7 +24514,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="79"/>
+      <c r="A41" s="80"/>
       <c r="B41" s="51" t="s">
         <v>454</v>
       </c>
@@ -24504,7 +24534,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="79"/>
+      <c r="A42" s="80"/>
       <c r="B42" s="51" t="s">
         <v>304</v>
       </c>
@@ -24523,7 +24553,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="79"/>
+      <c r="A43" s="80"/>
       <c r="B43" s="51" t="s">
         <v>455</v>
       </c>
@@ -24542,7 +24572,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="79"/>
+      <c r="A44" s="80"/>
       <c r="B44" s="51" t="s">
         <v>448</v>
       </c>
@@ -24561,7 +24591,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="79"/>
+      <c r="A45" s="80"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
       <c r="E45" s="52"/>
@@ -24808,7 +24838,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="79" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -24827,7 +24857,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="79"/>
+      <c r="A63" s="80"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -24844,7 +24874,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="79"/>
+      <c r="A64" s="80"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -24862,7 +24892,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="79"/>
+      <c r="A65" s="80"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -24880,7 +24910,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="79"/>
+      <c r="A66" s="80"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -24898,7 +24928,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="79"/>
+      <c r="A67" s="80"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -24916,7 +24946,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="79"/>
+      <c r="A68" s="80"/>
       <c r="B68" s="56" t="s">
         <v>456</v>
       </c>
@@ -24936,7 +24966,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="79"/>
+      <c r="A69" s="80"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -24954,7 +24984,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="79"/>
+      <c r="A70" s="80"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -24966,7 +24996,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="79"/>
+      <c r="A71" s="80"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -24978,7 +25008,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="79"/>
+      <c r="A72" s="80"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -24989,7 +25019,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="79"/>
+      <c r="A73" s="80"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -25000,7 +25030,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="79"/>
+      <c r="A74" s="80"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -25011,7 +25041,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="79"/>
+      <c r="A75" s="80"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -25022,7 +25052,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="79"/>
+      <c r="A76" s="80"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -25033,7 +25063,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="79" t="s">
+      <c r="A77" s="80" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -25060,7 +25090,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="79"/>
+      <c r="A78" s="80"/>
       <c r="B78" s="51" t="s">
         <v>457</v>
       </c>
@@ -25086,7 +25116,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="79"/>
+      <c r="A79" s="80"/>
       <c r="B79" s="51" t="s">
         <v>458</v>
       </c>
@@ -25112,7 +25142,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="79"/>
+      <c r="A80" s="80"/>
       <c r="B80" s="51" t="s">
         <v>309</v>
       </c>
@@ -25138,7 +25168,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="79"/>
+      <c r="A81" s="80"/>
       <c r="B81" s="51" t="s">
         <v>459</v>
       </c>
@@ -25164,7 +25194,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="79"/>
+      <c r="A82" s="80"/>
       <c r="B82" s="51" t="s">
         <v>400</v>
       </c>
@@ -25190,7 +25220,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="79"/>
+      <c r="A83" s="80"/>
       <c r="B83" s="51" t="s">
         <v>329</v>
       </c>
@@ -25216,7 +25246,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="79"/>
+      <c r="A84" s="80"/>
       <c r="B84" s="51" t="s">
         <v>401</v>
       </c>
@@ -25242,7 +25272,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="79"/>
+      <c r="A85" s="80"/>
       <c r="B85" s="51" t="s">
         <v>394</v>
       </c>
@@ -25262,7 +25292,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="79"/>
+      <c r="A86" s="80"/>
       <c r="B86" s="51" t="s">
         <v>309</v>
       </c>
@@ -25282,7 +25312,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="79"/>
+      <c r="A87" s="80"/>
       <c r="B87" s="51" t="s">
         <v>385</v>
       </c>
@@ -25301,7 +25331,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="79"/>
+      <c r="A88" s="80"/>
       <c r="B88" s="51" t="s">
         <v>402</v>
       </c>
@@ -25320,7 +25350,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="79"/>
+      <c r="A89" s="80"/>
       <c r="B89" s="51" t="s">
         <v>403</v>
       </c>
@@ -25339,7 +25369,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="79"/>
+      <c r="A90" s="80"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -25350,7 +25380,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="80"/>
+      <c r="A91" s="83"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -25361,7 +25391,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="83" t="s">
+      <c r="A92" s="79" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -25388,7 +25418,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="79"/>
+      <c r="A93" s="80"/>
       <c r="B93" s="51" t="s">
         <v>461</v>
       </c>
@@ -25414,7 +25444,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="79"/>
+      <c r="A94" s="80"/>
       <c r="B94" s="56" t="s">
         <v>309</v>
       </c>
@@ -25440,7 +25470,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="79"/>
+      <c r="A95" s="80"/>
       <c r="B95" s="51" t="s">
         <v>462</v>
       </c>
@@ -25466,7 +25496,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="79"/>
+      <c r="A96" s="80"/>
       <c r="B96" s="51" t="s">
         <v>463</v>
       </c>
@@ -25492,7 +25522,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="79"/>
+      <c r="A97" s="80"/>
       <c r="B97" s="51" t="s">
         <v>464</v>
       </c>
@@ -25518,7 +25548,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="79"/>
+      <c r="A98" s="80"/>
       <c r="B98" s="51" t="s">
         <v>465</v>
       </c>
@@ -25544,7 +25574,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="79"/>
+      <c r="A99" s="80"/>
       <c r="B99" s="51" t="s">
         <v>466</v>
       </c>
@@ -25570,7 +25600,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="79"/>
+      <c r="A100" s="80"/>
       <c r="B100" s="51" t="s">
         <v>421</v>
       </c>
@@ -25590,7 +25620,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="79"/>
+      <c r="A101" s="80"/>
       <c r="B101" s="51" t="s">
         <v>467</v>
       </c>
@@ -25610,7 +25640,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="79"/>
+      <c r="A102" s="80"/>
       <c r="B102" s="51" t="s">
         <v>468</v>
       </c>
@@ -25629,7 +25659,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="79"/>
+      <c r="A103" s="80"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -25646,7 +25676,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="79"/>
+      <c r="A104" s="80"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -25663,7 +25693,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="79"/>
+      <c r="A105" s="80"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -25923,7 +25953,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="83" t="s">
+      <c r="A122" s="79" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51"/>
@@ -25948,7 +25978,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="79"/>
+      <c r="A123" s="80"/>
       <c r="B123" s="51"/>
       <c r="C123" s="51" t="s">
         <v>295</v>
@@ -25972,7 +26002,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="79"/>
+      <c r="A124" s="80"/>
       <c r="B124" s="51"/>
       <c r="C124" s="51" t="s">
         <v>288</v>
@@ -25996,7 +26026,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="79"/>
+      <c r="A125" s="80"/>
       <c r="B125" s="51"/>
       <c r="C125" s="51" t="s">
         <v>295</v>
@@ -26020,7 +26050,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="79"/>
+      <c r="A126" s="80"/>
       <c r="B126" s="58"/>
       <c r="C126" s="51" t="s">
         <v>288</v>
@@ -26116,7 +26146,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="79"/>
+      <c r="A131" s="80"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -26125,7 +26155,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="79"/>
+      <c r="A132" s="80"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -26133,7 +26163,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="79"/>
+      <c r="A133" s="80"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -26141,7 +26171,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="79"/>
+      <c r="A134" s="80"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -26149,7 +26179,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="79"/>
+      <c r="A135" s="80"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -26911,7 +26941,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -26941,7 +26971,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="79"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="51" t="s">
         <v>470</v>
       </c>
@@ -26970,7 +27000,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="79"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="51" t="s">
         <v>471</v>
       </c>
@@ -26999,7 +27029,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="79"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="51" t="s">
         <v>472</v>
       </c>
@@ -27028,7 +27058,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="79"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="51" t="s">
         <v>329</v>
       </c>
@@ -27057,7 +27087,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="79"/>
+      <c r="A7" s="80"/>
       <c r="B7" t="s">
         <v>473</v>
       </c>
@@ -27086,7 +27116,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="79"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="51" t="s">
         <v>474</v>
       </c>
@@ -27112,7 +27142,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="79"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
         <v>288</v>
@@ -27132,7 +27162,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="79"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
         <v>295</v>
@@ -27146,7 +27176,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="79"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -27160,7 +27190,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="79"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -27173,7 +27203,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="79"/>
+      <c r="A13" s="80"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -27186,7 +27216,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="79"/>
+      <c r="A14" s="80"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -27199,7 +27229,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="79"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -27212,7 +27242,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="79"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -27225,7 +27255,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="80" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -27252,7 +27282,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="79"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="51" t="s">
         <v>476</v>
       </c>
@@ -27278,7 +27308,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="79"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -27304,7 +27334,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="79"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="51" t="s">
         <v>477</v>
       </c>
@@ -27330,7 +27360,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="79"/>
+      <c r="A21" s="80"/>
       <c r="B21" s="51" t="s">
         <v>309</v>
       </c>
@@ -27356,7 +27386,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="79"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="51" t="s">
         <v>478</v>
       </c>
@@ -27382,7 +27412,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="79"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
@@ -27397,7 +27427,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="79"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
@@ -27412,7 +27442,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="79"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -27421,7 +27451,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="79"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -27433,7 +27463,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="79"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -27444,7 +27474,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="79"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -27455,7 +27485,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="79"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -27466,7 +27496,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="79"/>
+      <c r="A30" s="80"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -27477,7 +27507,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="79"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -27488,7 +27518,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="80" t="s">
         <v>263</v>
       </c>
       <c r="C32" s="51"/>
@@ -27506,7 +27536,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="79"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -27524,7 +27554,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="79"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -27542,7 +27572,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="79"/>
+      <c r="A35" s="80"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="52"/>
@@ -27560,7 +27590,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="79"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -27578,7 +27608,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="79"/>
+      <c r="A37" s="80"/>
       <c r="B37" s="51" t="s">
         <v>479</v>
       </c>
@@ -27598,7 +27628,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="79"/>
+      <c r="A38" s="80"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -27616,7 +27646,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="79"/>
+      <c r="A39" s="80"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -27634,7 +27664,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="79"/>
+      <c r="A40" s="80"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -27646,7 +27676,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="79"/>
+      <c r="A41" s="80"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -27658,7 +27688,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="79"/>
+      <c r="A42" s="80"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -27669,7 +27699,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="79"/>
+      <c r="A43" s="80"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -27680,7 +27710,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="79"/>
+      <c r="A44" s="80"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -27691,7 +27721,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="79"/>
+      <c r="A45" s="80"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -27983,7 +28013,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="79" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -28002,7 +28032,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="79"/>
+      <c r="A63" s="80"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -28019,7 +28049,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="79"/>
+      <c r="A64" s="80"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -28037,7 +28067,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="79"/>
+      <c r="A65" s="80"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -28055,7 +28085,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="79"/>
+      <c r="A66" s="80"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -28073,7 +28103,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="79"/>
+      <c r="A67" s="80"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -28091,7 +28121,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="79"/>
+      <c r="A68" s="80"/>
       <c r="B68" s="56" t="s">
         <v>488</v>
       </c>
@@ -28111,7 +28141,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="79"/>
+      <c r="A69" s="80"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -28129,7 +28159,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="79"/>
+      <c r="A70" s="80"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -28141,7 +28171,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="79"/>
+      <c r="A71" s="80"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -28153,7 +28183,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="79"/>
+      <c r="A72" s="80"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -28164,7 +28194,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="79"/>
+      <c r="A73" s="80"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -28175,7 +28205,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="79"/>
+      <c r="A74" s="80"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -28186,7 +28216,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="79"/>
+      <c r="A75" s="80"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -28197,7 +28227,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="79"/>
+      <c r="A76" s="80"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -28208,7 +28238,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="79" t="s">
+      <c r="A77" s="80" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -28229,7 +28259,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="79"/>
+      <c r="A78" s="80"/>
       <c r="B78" s="51"/>
       <c r="C78" s="51"/>
       <c r="D78" s="52"/>
@@ -28247,7 +28277,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="79"/>
+      <c r="A79" s="80"/>
       <c r="B79" s="51"/>
       <c r="C79" s="51"/>
       <c r="D79" s="52"/>
@@ -28265,7 +28295,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="79"/>
+      <c r="A80" s="80"/>
       <c r="B80" s="51"/>
       <c r="C80" s="51"/>
       <c r="D80" s="52"/>
@@ -28283,7 +28313,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="79"/>
+      <c r="A81" s="80"/>
       <c r="B81" s="51"/>
       <c r="C81" s="51"/>
       <c r="D81" s="52"/>
@@ -28301,7 +28331,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="79"/>
+      <c r="A82" s="80"/>
       <c r="B82" s="51"/>
       <c r="C82" s="51"/>
       <c r="D82" s="52"/>
@@ -28319,7 +28349,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="79"/>
+      <c r="A83" s="80"/>
       <c r="B83" s="51"/>
       <c r="C83" s="51"/>
       <c r="D83" s="52"/>
@@ -28337,7 +28367,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="79"/>
+      <c r="A84" s="80"/>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
@@ -28355,7 +28385,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="79"/>
+      <c r="A85" s="80"/>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
@@ -28367,7 +28397,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="79"/>
+      <c r="A86" s="80"/>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
@@ -28379,7 +28409,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="79"/>
+      <c r="A87" s="80"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
       <c r="D87" s="52"/>
@@ -28390,7 +28420,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="79"/>
+      <c r="A88" s="80"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -28401,7 +28431,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="79"/>
+      <c r="A89" s="80"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -28412,7 +28442,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="79"/>
+      <c r="A90" s="80"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -28423,7 +28453,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="80"/>
+      <c r="A91" s="83"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -28434,7 +28464,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="83" t="s">
+      <c r="A92" s="79" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -28461,7 +28491,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="79"/>
+      <c r="A93" s="80"/>
       <c r="B93" s="51" t="s">
         <v>491</v>
       </c>
@@ -28487,7 +28517,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="79"/>
+      <c r="A94" s="80"/>
       <c r="B94" s="56" t="s">
         <v>492</v>
       </c>
@@ -28513,7 +28543,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="79"/>
+      <c r="A95" s="80"/>
       <c r="B95" s="51"/>
       <c r="C95" s="51" t="s">
         <v>293</v>
@@ -28537,7 +28567,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="79"/>
+      <c r="A96" s="80"/>
       <c r="B96" s="51"/>
       <c r="C96" s="51" t="s">
         <v>295</v>
@@ -28561,7 +28591,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="79"/>
+      <c r="A97" s="80"/>
       <c r="B97" s="51"/>
       <c r="C97" s="51" t="s">
         <v>288</v>
@@ -28585,7 +28615,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="79"/>
+      <c r="A98" s="80"/>
       <c r="B98" s="51"/>
       <c r="C98" s="51" t="s">
         <v>285</v>
@@ -28609,7 +28639,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="79"/>
+      <c r="A99" s="80"/>
       <c r="B99" s="51"/>
       <c r="C99" s="51" t="s">
         <v>290</v>
@@ -28633,7 +28663,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="79"/>
+      <c r="A100" s="80"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>288</v>
@@ -28651,7 +28681,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="79"/>
+      <c r="A101" s="80"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>295</v>
@@ -28669,7 +28699,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="79"/>
+      <c r="A102" s="80"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -28686,7 +28716,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="79"/>
+      <c r="A103" s="80"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -28703,7 +28733,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="79"/>
+      <c r="A104" s="80"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -28720,7 +28750,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="79"/>
+      <c r="A105" s="80"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -28980,7 +29010,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="83" t="s">
+      <c r="A122" s="79" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -29007,7 +29037,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="79"/>
+      <c r="A123" s="80"/>
       <c r="B123" s="51" t="s">
         <v>494</v>
       </c>
@@ -29033,7 +29063,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="79"/>
+      <c r="A124" s="80"/>
       <c r="B124" s="51" t="s">
         <v>495</v>
       </c>
@@ -29059,7 +29089,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="79"/>
+      <c r="A125" s="80"/>
       <c r="B125" s="51" t="s">
         <v>496</v>
       </c>
@@ -29085,7 +29115,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="79"/>
+      <c r="A126" s="80"/>
       <c r="B126" s="58" t="s">
         <v>497</v>
       </c>
@@ -29207,7 +29237,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="79"/>
+      <c r="A131" s="80"/>
       <c r="B131" s="59" t="s">
         <v>502</v>
       </c>
@@ -29226,7 +29256,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="79"/>
+      <c r="A132" s="80"/>
       <c r="B132" s="51" t="s">
         <v>503</v>
       </c>
@@ -29244,7 +29274,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="79"/>
+      <c r="A133" s="80"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -29252,7 +29282,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="79"/>
+      <c r="A134" s="80"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -29260,7 +29290,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="79"/>
+      <c r="A135" s="80"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -29680,7 +29710,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51"/>
@@ -29704,7 +29734,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="79"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51" t="s">
         <v>288</v>
@@ -29727,7 +29757,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="79"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51" t="s">
         <v>285</v>
@@ -29750,7 +29780,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="79"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51" t="s">
         <v>295</v>
@@ -29773,7 +29803,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="79"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51" t="s">
         <v>285</v>
@@ -29796,7 +29826,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="79"/>
+      <c r="A7" s="80"/>
       <c r="C7" s="51" t="s">
         <v>288</v>
       </c>
@@ -29818,7 +29848,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="79"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51" t="s">
         <v>288</v>
@@ -29838,7 +29868,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="79"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="51" t="s">
         <v>388</v>
       </c>
@@ -29860,7 +29890,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="79"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
         <v>295</v>
@@ -29874,7 +29904,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="79"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -29888,7 +29918,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="79"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -29901,7 +29931,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="79"/>
+      <c r="A13" s="80"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -29914,7 +29944,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="79"/>
+      <c r="A14" s="80"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -29927,7 +29957,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="79"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -29940,7 +29970,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="79"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -29953,7 +29983,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="80" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -29980,7 +30010,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="79"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="51" t="s">
         <v>510</v>
       </c>
@@ -30006,7 +30036,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="79"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -30032,7 +30062,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="79"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="51" t="s">
         <v>477</v>
       </c>
@@ -30058,7 +30088,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="79"/>
+      <c r="A21" s="80"/>
       <c r="B21" s="51" t="s">
         <v>511</v>
       </c>
@@ -30084,7 +30114,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="79"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52"/>
@@ -30102,7 +30132,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="79"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
@@ -30117,7 +30147,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="79"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
@@ -30132,7 +30162,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="79"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -30141,7 +30171,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="79"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -30153,7 +30183,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="79"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -30164,7 +30194,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="79"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -30175,7 +30205,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="79"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -30186,7 +30216,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="79"/>
+      <c r="A30" s="80"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -30197,7 +30227,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="79"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -30208,7 +30238,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="80" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -30229,7 +30259,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="79"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -30247,7 +30277,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="79"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -30265,7 +30295,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="79"/>
+      <c r="A35" s="80"/>
       <c r="B35" s="51" t="s">
         <v>513</v>
       </c>
@@ -30291,7 +30321,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="79"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -30309,7 +30339,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="79"/>
+      <c r="A37" s="80"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
       <c r="D37" s="52"/>
@@ -30327,7 +30357,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="79"/>
+      <c r="A38" s="80"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -30345,7 +30375,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="79"/>
+      <c r="A39" s="80"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -30363,7 +30393,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="79"/>
+      <c r="A40" s="80"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -30375,7 +30405,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="79"/>
+      <c r="A41" s="80"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -30387,7 +30417,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="79"/>
+      <c r="A42" s="80"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -30398,7 +30428,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="79"/>
+      <c r="A43" s="80"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -30409,7 +30439,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="79"/>
+      <c r="A44" s="80"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -30420,7 +30450,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="79"/>
+      <c r="A45" s="80"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -30680,7 +30710,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="79" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -30699,7 +30729,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="79"/>
+      <c r="A63" s="80"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -30716,7 +30746,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="79"/>
+      <c r="A64" s="80"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -30734,7 +30764,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="79"/>
+      <c r="A65" s="80"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -30752,7 +30782,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="79"/>
+      <c r="A66" s="80"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -30770,7 +30800,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="79"/>
+      <c r="A67" s="80"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -30788,7 +30818,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="79"/>
+      <c r="A68" s="80"/>
       <c r="B68" s="56" t="s">
         <v>520</v>
       </c>
@@ -30808,7 +30838,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="79"/>
+      <c r="A69" s="80"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -30826,7 +30856,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="79"/>
+      <c r="A70" s="80"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -30838,7 +30868,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="79"/>
+      <c r="A71" s="80"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -30850,7 +30880,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="79"/>
+      <c r="A72" s="80"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -30861,7 +30891,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="79"/>
+      <c r="A73" s="80"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -30872,7 +30902,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="79"/>
+      <c r="A74" s="80"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -30883,7 +30913,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="79"/>
+      <c r="A75" s="80"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -30894,7 +30924,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="79"/>
+      <c r="A76" s="80"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -30905,7 +30935,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="79" t="s">
+      <c r="A77" s="80" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -30932,7 +30962,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="79"/>
+      <c r="A78" s="80"/>
       <c r="B78" s="56" t="s">
         <v>522</v>
       </c>
@@ -30958,7 +30988,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="79"/>
+      <c r="A79" s="80"/>
       <c r="B79" s="51" t="s">
         <v>523</v>
       </c>
@@ -30984,7 +31014,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="79"/>
+      <c r="A80" s="80"/>
       <c r="B80" s="51" t="s">
         <v>524</v>
       </c>
@@ -31010,7 +31040,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="79"/>
+      <c r="A81" s="80"/>
       <c r="B81" s="51" t="s">
         <v>525</v>
       </c>
@@ -31036,7 +31066,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="79"/>
+      <c r="A82" s="80"/>
       <c r="B82" s="51" t="s">
         <v>329</v>
       </c>
@@ -31062,7 +31092,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="79"/>
+      <c r="A83" s="80"/>
       <c r="B83" s="56" t="s">
         <v>526</v>
       </c>
@@ -31088,7 +31118,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="79"/>
+      <c r="A84" s="80"/>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
@@ -31106,7 +31136,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="79"/>
+      <c r="A85" s="80"/>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
@@ -31118,7 +31148,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="79"/>
+      <c r="A86" s="80"/>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
@@ -31130,7 +31160,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="79"/>
+      <c r="A87" s="80"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
       <c r="D87" s="52"/>
@@ -31141,7 +31171,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="79"/>
+      <c r="A88" s="80"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -31152,7 +31182,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="79"/>
+      <c r="A89" s="80"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -31163,7 +31193,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="79"/>
+      <c r="A90" s="80"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -31174,7 +31204,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="80"/>
+      <c r="A91" s="83"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -31185,7 +31215,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="83" t="s">
+      <c r="A92" s="79" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51"/>
@@ -31210,7 +31240,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="79"/>
+      <c r="A93" s="80"/>
       <c r="B93" s="51"/>
       <c r="C93" s="51" t="s">
         <v>288</v>
@@ -31234,7 +31264,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="79"/>
+      <c r="A94" s="80"/>
       <c r="B94" s="56"/>
       <c r="C94" s="51" t="s">
         <v>288</v>
@@ -31258,7 +31288,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="79"/>
+      <c r="A95" s="80"/>
       <c r="B95" s="51"/>
       <c r="C95" s="51" t="s">
         <v>293</v>
@@ -31282,7 +31312,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="79"/>
+      <c r="A96" s="80"/>
       <c r="B96" s="51"/>
       <c r="C96" s="51" t="s">
         <v>295</v>
@@ -31306,7 +31336,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="79"/>
+      <c r="A97" s="80"/>
       <c r="B97" s="51"/>
       <c r="C97" s="51" t="s">
         <v>288</v>
@@ -31330,7 +31360,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="79"/>
+      <c r="A98" s="80"/>
       <c r="B98" s="51"/>
       <c r="C98" s="51" t="s">
         <v>285</v>
@@ -31354,7 +31384,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="79"/>
+      <c r="A99" s="80"/>
       <c r="B99" s="51" t="s">
         <v>388</v>
       </c>
@@ -31380,7 +31410,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="79"/>
+      <c r="A100" s="80"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>288</v>
@@ -31398,7 +31428,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="79"/>
+      <c r="A101" s="80"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>295</v>
@@ -31416,7 +31446,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="79"/>
+      <c r="A102" s="80"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -31433,7 +31463,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="79"/>
+      <c r="A103" s="80"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -31450,7 +31480,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="79"/>
+      <c r="A104" s="80"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -31467,7 +31497,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="79"/>
+      <c r="A105" s="80"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -31727,7 +31757,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="83" t="s">
+      <c r="A122" s="79" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -31754,7 +31784,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="79"/>
+      <c r="A123" s="80"/>
       <c r="B123" s="51" t="s">
         <v>529</v>
       </c>
@@ -31780,7 +31810,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="79"/>
+      <c r="A124" s="80"/>
       <c r="B124" s="51" t="s">
         <v>530</v>
       </c>
@@ -31806,7 +31836,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="79"/>
+      <c r="A125" s="80"/>
       <c r="B125" s="51" t="s">
         <v>313</v>
       </c>
@@ -31832,7 +31862,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="79"/>
+      <c r="A126" s="80"/>
       <c r="B126" s="58" t="s">
         <v>531</v>
       </c>
@@ -31954,7 +31984,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="79"/>
+      <c r="A131" s="80"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -31963,7 +31993,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="79"/>
+      <c r="A132" s="80"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -31971,7 +32001,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="79"/>
+      <c r="A133" s="80"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -31979,7 +32009,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="79"/>
+      <c r="A134" s="80"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -31987,7 +32017,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="79"/>
+      <c r="A135" s="80"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -32415,7 +32445,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -32445,7 +32475,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="79"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="51" t="s">
         <v>545</v>
       </c>
@@ -32474,7 +32504,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="79"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="51" t="s">
         <v>546</v>
       </c>
@@ -32503,7 +32533,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="79"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="51" t="s">
         <v>547</v>
       </c>
@@ -32532,7 +32562,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="79"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="51" t="s">
         <v>342</v>
       </c>
@@ -32561,7 +32591,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="79"/>
+      <c r="A7" s="80"/>
       <c r="C7" s="51" t="s">
         <v>288</v>
       </c>
@@ -32583,7 +32613,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="79"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="51" t="s">
         <v>465</v>
       </c>
@@ -32609,7 +32639,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="79"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
         <v>288</v>
@@ -32629,7 +32659,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="79"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="51" t="s">
         <v>548</v>
       </c>
@@ -32649,7 +32679,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="79"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -32663,7 +32693,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="79"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -32676,7 +32706,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="79"/>
+      <c r="A13" s="80"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -32689,7 +32719,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="79"/>
+      <c r="A14" s="80"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -32702,7 +32732,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="79"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -32715,7 +32745,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="79"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -32728,7 +32758,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="80" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -32755,7 +32785,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="79"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="51" t="s">
         <v>549</v>
       </c>
@@ -32781,7 +32811,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="79"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -32807,7 +32837,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="79"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="51" t="s">
         <v>550</v>
       </c>
@@ -32833,7 +32863,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="79"/>
+      <c r="A21" s="80"/>
       <c r="B21" s="51" t="s">
         <v>550</v>
       </c>
@@ -32859,7 +32889,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="79"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="58" t="s">
         <v>551</v>
       </c>
@@ -32903,7 +32933,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="79"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
       <c r="D24" s="63"/>
@@ -32921,7 +32951,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="79"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -32933,7 +32963,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="79"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -32945,7 +32975,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="79"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -32956,7 +32986,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="79"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -32967,7 +32997,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="79"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -32978,7 +33008,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="79"/>
+      <c r="A30" s="80"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -32989,7 +33019,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="79"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -33000,7 +33030,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="80" t="s">
         <v>263</v>
       </c>
       <c r="C32" s="51"/>
@@ -33018,7 +33048,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="79"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -33036,7 +33066,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="79"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -33054,7 +33084,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="79"/>
+      <c r="A35" s="80"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="52"/>
@@ -33072,7 +33102,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="79"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -33090,7 +33120,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="79"/>
+      <c r="A37" s="80"/>
       <c r="B37" s="51" t="s">
         <v>73</v>
       </c>
@@ -33110,7 +33140,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="79"/>
+      <c r="A38" s="80"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -33128,7 +33158,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="79"/>
+      <c r="A39" s="80"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -33146,7 +33176,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="79"/>
+      <c r="A40" s="80"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -33158,7 +33188,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="79"/>
+      <c r="A41" s="80"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -33170,7 +33200,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="79"/>
+      <c r="A42" s="80"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -33181,7 +33211,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="79"/>
+      <c r="A43" s="80"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -33192,7 +33222,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="79"/>
+      <c r="A44" s="80"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -33203,7 +33233,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="79"/>
+      <c r="A45" s="80"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -33522,7 +33552,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="79" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -33549,7 +33579,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="79"/>
+      <c r="A63" s="80"/>
       <c r="B63" s="51" t="s">
         <v>575</v>
       </c>
@@ -33575,7 +33605,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="79"/>
+      <c r="A64" s="80"/>
       <c r="B64" s="51" t="s">
         <v>576</v>
       </c>
@@ -33601,7 +33631,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="79"/>
+      <c r="A65" s="80"/>
       <c r="B65" s="51" t="s">
         <v>309</v>
       </c>
@@ -33627,7 +33657,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="79"/>
+      <c r="A66" s="80"/>
       <c r="B66" s="51" t="s">
         <v>551</v>
       </c>
@@ -33653,7 +33683,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="79"/>
+      <c r="A67" s="80"/>
       <c r="B67" s="51" t="s">
         <v>577</v>
       </c>
@@ -33679,7 +33709,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="79"/>
+      <c r="A68" s="80"/>
       <c r="B68" s="56"/>
       <c r="C68" s="51"/>
       <c r="D68" s="52"/>
@@ -33697,7 +33727,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="79"/>
+      <c r="A69" s="80"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -33715,7 +33745,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="79"/>
+      <c r="A70" s="80"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -33727,7 +33757,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="79"/>
+      <c r="A71" s="80"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -33739,7 +33769,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="79"/>
+      <c r="A72" s="80"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -33750,7 +33780,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="79"/>
+      <c r="A73" s="80"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -33761,7 +33791,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="79"/>
+      <c r="A74" s="80"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -33772,7 +33802,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="79"/>
+      <c r="A75" s="80"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -33783,7 +33813,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="79"/>
+      <c r="A76" s="80"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -33794,7 +33824,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="79" t="s">
+      <c r="A77" s="80" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -33821,7 +33851,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="79"/>
+      <c r="A78" s="80"/>
       <c r="B78" s="51" t="s">
         <v>579</v>
       </c>
@@ -33847,7 +33877,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="79"/>
+      <c r="A79" s="80"/>
       <c r="B79" s="51" t="s">
         <v>580</v>
       </c>
@@ -33873,7 +33903,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="79"/>
+      <c r="A80" s="80"/>
       <c r="B80" s="51" t="s">
         <v>581</v>
       </c>
@@ -33899,7 +33929,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="79"/>
+      <c r="A81" s="80"/>
       <c r="B81" s="51" t="s">
         <v>582</v>
       </c>
@@ -33925,7 +33955,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="79"/>
+      <c r="A82" s="80"/>
       <c r="B82" s="51" t="s">
         <v>583</v>
       </c>
@@ -33951,7 +33981,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="79"/>
+      <c r="A83" s="80"/>
       <c r="B83" s="51" t="s">
         <v>584</v>
       </c>
@@ -33977,7 +34007,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="79"/>
+      <c r="A84" s="80"/>
       <c r="B84" s="51" t="s">
         <v>585</v>
       </c>
@@ -34003,7 +34033,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="79"/>
+      <c r="A85" s="80"/>
       <c r="B85" s="51" t="s">
         <v>586</v>
       </c>
@@ -34023,7 +34053,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="79"/>
+      <c r="A86" s="80"/>
       <c r="B86" s="51" t="s">
         <v>551</v>
       </c>
@@ -34043,7 +34073,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="79"/>
+      <c r="A87" s="80"/>
       <c r="B87" s="51" t="s">
         <v>587</v>
       </c>
@@ -34062,7 +34092,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="79"/>
+      <c r="A88" s="80"/>
       <c r="B88" s="51" t="s">
         <v>588</v>
       </c>
@@ -34081,7 +34111,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="79"/>
+      <c r="A89" s="80"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -34092,7 +34122,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="79"/>
+      <c r="A90" s="80"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -34103,7 +34133,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="80"/>
+      <c r="A91" s="83"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -34114,7 +34144,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="83" t="s">
+      <c r="A92" s="79" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -34141,7 +34171,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="79"/>
+      <c r="A93" s="80"/>
       <c r="B93" s="51" t="s">
         <v>589</v>
       </c>
@@ -34167,7 +34197,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="79"/>
+      <c r="A94" s="80"/>
       <c r="B94" s="56" t="s">
         <v>590</v>
       </c>
@@ -34193,7 +34223,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="79"/>
+      <c r="A95" s="80"/>
       <c r="B95" s="51" t="s">
         <v>591</v>
       </c>
@@ -34219,7 +34249,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="79"/>
+      <c r="A96" s="80"/>
       <c r="B96" s="51" t="s">
         <v>465</v>
       </c>
@@ -34245,7 +34275,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="79"/>
+      <c r="A97" s="80"/>
       <c r="B97" s="51" t="s">
         <v>592</v>
       </c>
@@ -34271,7 +34301,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="79"/>
+      <c r="A98" s="80"/>
       <c r="B98" s="51" t="s">
         <v>593</v>
       </c>
@@ -34297,7 +34327,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="79"/>
+      <c r="A99" s="80"/>
       <c r="B99" s="51" t="s">
         <v>309</v>
       </c>
@@ -34323,7 +34353,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="79"/>
+      <c r="A100" s="80"/>
       <c r="B100" s="51" t="s">
         <v>594</v>
       </c>
@@ -34343,7 +34373,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="79"/>
+      <c r="A101" s="80"/>
       <c r="B101" s="51" t="s">
         <v>595</v>
       </c>
@@ -34363,7 +34393,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="79"/>
+      <c r="A102" s="80"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -34380,7 +34410,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="79"/>
+      <c r="A103" s="80"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -34397,7 +34427,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="79"/>
+      <c r="A104" s="80"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -34414,7 +34444,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="79"/>
+      <c r="A105" s="80"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -34672,7 +34702,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="83" t="s">
+      <c r="A122" s="79" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51"/>
@@ -34691,7 +34721,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="79"/>
+      <c r="A123" s="80"/>
       <c r="B123" s="51"/>
       <c r="C123" s="51"/>
       <c r="D123" s="52"/>
@@ -34709,7 +34739,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="79"/>
+      <c r="A124" s="80"/>
       <c r="B124" s="51"/>
       <c r="C124" s="51"/>
       <c r="D124" s="52"/>
@@ -34727,7 +34757,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="79"/>
+      <c r="A125" s="80"/>
       <c r="B125" s="51"/>
       <c r="C125" s="51"/>
       <c r="D125" s="52"/>
@@ -34745,7 +34775,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="79"/>
+      <c r="A126" s="80"/>
       <c r="B126" s="58"/>
       <c r="C126" s="51"/>
       <c r="D126" s="52"/>
@@ -34825,7 +34855,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="79"/>
+      <c r="A131" s="80"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -34834,7 +34864,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="79"/>
+      <c r="A132" s="80"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -34842,7 +34872,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="79"/>
+      <c r="A133" s="80"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -34850,7 +34880,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="79"/>
+      <c r="A134" s="80"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -34858,7 +34888,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="79"/>
+      <c r="A135" s="80"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -35292,7 +35322,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -35322,7 +35352,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="79"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="51" t="s">
         <v>604</v>
       </c>
@@ -35351,7 +35381,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="79"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="51" t="s">
         <v>605</v>
       </c>
@@ -35380,7 +35410,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="79"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -35409,7 +35439,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="79"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="51" t="s">
         <v>606</v>
       </c>
@@ -35438,7 +35468,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="79"/>
+      <c r="A7" s="80"/>
       <c r="B7" t="s">
         <v>607</v>
       </c>
@@ -35467,7 +35497,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="79"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="51" t="s">
         <v>608</v>
       </c>
@@ -35493,7 +35523,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="79"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="51" t="s">
         <v>329</v>
       </c>
@@ -35519,7 +35549,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="79"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="51" t="s">
         <v>608</v>
       </c>
@@ -35539,7 +35569,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="79"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="51" t="s">
         <v>609</v>
       </c>
@@ -35559,7 +35589,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="79"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="51" t="s">
         <v>610</v>
       </c>
@@ -35578,7 +35608,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="79"/>
+      <c r="A13" s="80"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -35597,7 +35627,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="79"/>
+      <c r="A14" s="80"/>
       <c r="B14" s="51" t="s">
         <v>611</v>
       </c>
@@ -35616,7 +35646,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="79"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="51" t="s">
         <v>612</v>
       </c>
@@ -35635,7 +35665,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="79"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -35648,7 +35678,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="80" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -35675,7 +35705,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="79"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="51" t="s">
         <v>614</v>
       </c>
@@ -35701,7 +35731,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="79"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="51" t="s">
         <v>309</v>
       </c>
@@ -35727,7 +35757,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="79"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="51" t="s">
         <v>615</v>
       </c>
@@ -35753,7 +35783,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="79"/>
+      <c r="A21" s="80"/>
       <c r="B21" s="51" t="s">
         <v>616</v>
       </c>
@@ -35779,7 +35809,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="79"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -35805,7 +35835,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="79"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="51" t="s">
         <v>617</v>
       </c>
@@ -35831,7 +35861,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="79"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="51" t="s">
         <v>618</v>
       </c>
@@ -35857,7 +35887,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="79"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="51" t="s">
         <v>309</v>
       </c>
@@ -35877,7 +35907,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="79"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="51" t="s">
         <v>617</v>
       </c>
@@ -35897,7 +35927,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="79"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="51" t="s">
         <v>619</v>
       </c>
@@ -35916,7 +35946,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="79"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -35927,7 +35957,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="79"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -35938,7 +35968,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="79"/>
+      <c r="A30" s="80"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -35949,7 +35979,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="79"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -35960,7 +35990,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="80" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -35987,7 +36017,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="79"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="51" t="s">
         <v>620</v>
       </c>
@@ -36013,7 +36043,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="79"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="51" t="s">
         <v>621</v>
       </c>
@@ -36039,7 +36069,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="79"/>
+      <c r="A35" s="80"/>
       <c r="B35" s="51" t="s">
         <v>622</v>
       </c>
@@ -36065,7 +36095,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="79"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="51" t="s">
         <v>623</v>
       </c>
@@ -36091,7 +36121,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="79"/>
+      <c r="A37" s="80"/>
       <c r="B37" s="51" t="s">
         <v>607</v>
       </c>
@@ -36117,7 +36147,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="79"/>
+      <c r="A38" s="80"/>
       <c r="B38" s="51" t="s">
         <v>624</v>
       </c>
@@ -36143,7 +36173,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="79"/>
+      <c r="A39" s="80"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -36169,7 +36199,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="79"/>
+      <c r="A40" s="80"/>
       <c r="B40" s="51" t="s">
         <v>625</v>
       </c>
@@ -36189,7 +36219,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="79"/>
+      <c r="A41" s="80"/>
       <c r="B41" s="51" t="s">
         <v>626</v>
       </c>
@@ -36209,7 +36239,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="79"/>
+      <c r="A42" s="80"/>
       <c r="B42" s="51" t="s">
         <v>309</v>
       </c>
@@ -36228,7 +36258,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="79"/>
+      <c r="A43" s="80"/>
       <c r="B43" s="51" t="s">
         <v>627</v>
       </c>
@@ -36247,7 +36277,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="79"/>
+      <c r="A44" s="80"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -36258,7 +36288,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="79"/>
+      <c r="A45" s="80"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -36528,7 +36558,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="79" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -36555,7 +36585,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="79"/>
+      <c r="A63" s="80"/>
       <c r="B63" s="51" t="s">
         <v>635</v>
       </c>
@@ -36580,7 +36610,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="79"/>
+      <c r="A64" s="80"/>
       <c r="B64" s="51" t="s">
         <v>636</v>
       </c>
@@ -36606,7 +36636,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="79"/>
+      <c r="A65" s="80"/>
       <c r="B65" s="51" t="s">
         <v>637</v>
       </c>
@@ -36632,7 +36662,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="79"/>
+      <c r="A66" s="80"/>
       <c r="B66" s="51" t="s">
         <v>638</v>
       </c>
@@ -36658,7 +36688,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="79"/>
+      <c r="A67" s="80"/>
       <c r="B67" s="51" t="s">
         <v>599</v>
       </c>
@@ -36684,7 +36714,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="79"/>
+      <c r="A68" s="80"/>
       <c r="B68" s="56" t="s">
         <v>639</v>
       </c>
@@ -36710,7 +36740,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="79"/>
+      <c r="A69" s="80"/>
       <c r="B69" s="51" t="s">
         <v>342</v>
       </c>
@@ -36736,7 +36766,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="79"/>
+      <c r="A70" s="80"/>
       <c r="B70" s="51" t="s">
         <v>640</v>
       </c>
@@ -36756,7 +36786,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="79"/>
+      <c r="A71" s="80"/>
       <c r="B71" s="51" t="s">
         <v>641</v>
       </c>
@@ -36776,7 +36806,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="79"/>
+      <c r="A72" s="80"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -36787,7 +36817,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="79"/>
+      <c r="A73" s="80"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -36798,7 +36828,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="79"/>
+      <c r="A74" s="80"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -36809,7 +36839,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="79"/>
+      <c r="A75" s="80"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -36820,7 +36850,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="79"/>
+      <c r="A76" s="80"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -36831,7 +36861,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="79" t="s">
+      <c r="A77" s="80" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -36858,7 +36888,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="79"/>
+      <c r="A78" s="80"/>
       <c r="B78" s="51" t="s">
         <v>643</v>
       </c>
@@ -36884,7 +36914,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="79"/>
+      <c r="A79" s="80"/>
       <c r="B79" s="51" t="s">
         <v>309</v>
       </c>
@@ -36910,7 +36940,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="79"/>
+      <c r="A80" s="80"/>
       <c r="B80" s="51" t="s">
         <v>644</v>
       </c>
@@ -36936,7 +36966,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="79"/>
+      <c r="A81" s="80"/>
       <c r="B81" s="51" t="s">
         <v>645</v>
       </c>
@@ -36962,7 +36992,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="79"/>
+      <c r="A82" s="80"/>
       <c r="B82" s="51" t="s">
         <v>646</v>
       </c>
@@ -36988,7 +37018,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="79"/>
+      <c r="A83" s="80"/>
       <c r="B83" s="51" t="s">
         <v>647</v>
       </c>
@@ -37014,7 +37044,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="79"/>
+      <c r="A84" s="80"/>
       <c r="B84" s="51" t="s">
         <v>580</v>
       </c>
@@ -37040,7 +37070,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="79"/>
+      <c r="A85" s="80"/>
       <c r="B85" s="51" t="s">
         <v>648</v>
       </c>
@@ -37060,7 +37090,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="79"/>
+      <c r="A86" s="80"/>
       <c r="B86" s="51" t="s">
         <v>649</v>
       </c>
@@ -37080,7 +37110,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="79"/>
+      <c r="A87" s="80"/>
       <c r="B87" s="51" t="s">
         <v>650</v>
       </c>
@@ -37100,7 +37130,7 @@
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="79"/>
+      <c r="A88" s="80"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -37111,7 +37141,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="79"/>
+      <c r="A89" s="80"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -37122,7 +37152,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="79"/>
+      <c r="A90" s="80"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -37133,7 +37163,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="79"/>
+      <c r="A91" s="80"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -37144,7 +37174,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="80"/>
+      <c r="A92" s="83"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -37155,7 +37185,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="83" t="s">
+      <c r="A93" s="79" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -37182,7 +37212,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="79"/>
+      <c r="A94" s="80"/>
       <c r="B94" s="51" t="s">
         <v>651</v>
       </c>
@@ -37208,7 +37238,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="79"/>
+      <c r="A95" s="80"/>
       <c r="B95" s="56" t="s">
         <v>586</v>
       </c>
@@ -37234,7 +37264,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="79"/>
+      <c r="A96" s="80"/>
       <c r="B96" s="51" t="s">
         <v>652</v>
       </c>
@@ -37260,7 +37290,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="79"/>
+      <c r="A97" s="80"/>
       <c r="B97" s="51" t="s">
         <v>653</v>
       </c>
@@ -37286,7 +37316,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="79"/>
+      <c r="A98" s="80"/>
       <c r="B98" s="51" t="s">
         <v>654</v>
       </c>
@@ -37312,7 +37342,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="79"/>
+      <c r="A99" s="80"/>
       <c r="B99" s="51" t="s">
         <v>342</v>
       </c>
@@ -37338,7 +37368,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="79"/>
+      <c r="A100" s="80"/>
       <c r="B100" s="51" t="s">
         <v>655</v>
       </c>
@@ -37364,7 +37394,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="79"/>
+      <c r="A101" s="80"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>288</v>
@@ -37382,7 +37412,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="79"/>
+      <c r="A102" s="80"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>295</v>
@@ -37400,7 +37430,7 @@
       <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="79"/>
+      <c r="A103" s="80"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>288</v>
@@ -37417,7 +37447,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="79"/>
+      <c r="A104" s="80"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>296</v>
@@ -37434,7 +37464,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="79"/>
+      <c r="A105" s="80"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>295</v>
@@ -37451,7 +37481,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="79"/>
+      <c r="A106" s="80"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51" t="s">
         <v>288</v>
@@ -37813,7 +37843,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="83" t="s">
+      <c r="A123" s="79" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
@@ -37840,7 +37870,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="79"/>
+      <c r="A124" s="80"/>
       <c r="B124" s="51" t="s">
         <v>665</v>
       </c>
@@ -37866,7 +37896,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="79"/>
+      <c r="A125" s="80"/>
       <c r="B125" s="51" t="s">
         <v>342</v>
       </c>
@@ -37892,7 +37922,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="79"/>
+      <c r="A126" s="80"/>
       <c r="B126" s="51" t="s">
         <v>666</v>
       </c>
@@ -37918,7 +37948,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="79"/>
+      <c r="A127" s="80"/>
       <c r="B127" s="58" t="s">
         <v>645</v>
       </c>
@@ -38040,7 +38070,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="79"/>
+      <c r="A132" s="80"/>
       <c r="B132" s="59" t="s">
         <v>669</v>
       </c>
@@ -38059,7 +38089,7 @@
       <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="79"/>
+      <c r="A133" s="80"/>
       <c r="B133" s="51" t="s">
         <v>670</v>
       </c>
@@ -38077,7 +38107,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="79"/>
+      <c r="A134" s="80"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -38085,7 +38115,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="79"/>
+      <c r="A135" s="80"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -38093,7 +38123,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="79"/>
+      <c r="A136" s="80"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -38877,7 +38907,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="80" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="59" t="s">
@@ -38904,7 +38934,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="79"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="51" t="s">
         <v>689</v>
       </c>
@@ -38930,7 +38960,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="79"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="51" t="s">
         <v>690</v>
       </c>
@@ -38956,7 +38986,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="79"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="51" t="s">
         <v>691</v>
       </c>
@@ -38982,7 +39012,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="79"/>
+      <c r="A21" s="80"/>
       <c r="B21" s="51" t="s">
         <v>309</v>
       </c>
@@ -39008,7 +39038,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="79"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="51" t="s">
         <v>692</v>
       </c>
@@ -39034,7 +39064,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="79"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="51" t="s">
         <v>329</v>
       </c>
@@ -39060,7 +39090,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="79"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="51" t="s">
         <v>693</v>
       </c>
@@ -39086,7 +39116,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="79"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="51" t="s">
         <v>694</v>
       </c>
@@ -39106,7 +39136,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="79"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="51" t="s">
         <v>695</v>
       </c>
@@ -39126,7 +39156,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="79"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="51" t="s">
         <v>296</v>
       </c>
@@ -39145,7 +39175,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="79"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="51" t="s">
         <v>696</v>
       </c>
@@ -39164,7 +39194,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="79"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="51" t="s">
         <v>309</v>
       </c>
@@ -39183,7 +39213,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="79"/>
+      <c r="A30" s="80"/>
       <c r="B30" s="51" t="s">
         <v>697</v>
       </c>
@@ -39202,7 +39232,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="79"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="51" t="s">
         <v>698</v>
       </c>
@@ -39221,7 +39251,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="80" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -39248,7 +39278,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="79"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="51" t="s">
         <v>699</v>
       </c>
@@ -39274,7 +39304,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="79"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="51" t="s">
         <v>309</v>
       </c>
@@ -39300,7 +39330,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="79"/>
+      <c r="A35" s="80"/>
       <c r="B35" s="51" t="s">
         <v>700</v>
       </c>
@@ -39326,7 +39356,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="79"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="51" t="s">
         <v>311</v>
       </c>
@@ -39352,7 +39382,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="79"/>
+      <c r="A37" s="80"/>
       <c r="B37" s="51" t="s">
         <v>701</v>
       </c>
@@ -39378,7 +39408,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="79"/>
+      <c r="A38" s="80"/>
       <c r="B38" s="51" t="s">
         <v>329</v>
       </c>
@@ -39404,7 +39434,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="79"/>
+      <c r="A39" s="80"/>
       <c r="B39" s="51" t="s">
         <v>702</v>
       </c>
@@ -39430,7 +39460,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="79"/>
+      <c r="A40" s="80"/>
       <c r="B40" s="51" t="s">
         <v>703</v>
       </c>
@@ -39450,7 +39480,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="79"/>
+      <c r="A41" s="80"/>
       <c r="B41" s="51" t="s">
         <v>695</v>
       </c>
@@ -39470,7 +39500,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="79"/>
+      <c r="A42" s="80"/>
       <c r="B42" s="51" t="s">
         <v>454</v>
       </c>
@@ -39489,7 +39519,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="79"/>
+      <c r="A43" s="80"/>
       <c r="B43" s="51" t="s">
         <v>309</v>
       </c>
@@ -39508,7 +39538,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="79"/>
+      <c r="A44" s="80"/>
       <c r="B44" t="s">
         <v>704</v>
       </c>
@@ -39527,7 +39557,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="79"/>
+      <c r="A45" s="80"/>
       <c r="B45" s="51" t="s">
         <v>705</v>
       </c>
@@ -39875,7 +39905,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="79" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -39902,7 +39932,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="79"/>
+      <c r="A63" s="80"/>
       <c r="B63" s="51" t="s">
         <v>717</v>
       </c>
@@ -39928,7 +39958,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="79"/>
+      <c r="A64" s="80"/>
       <c r="B64" s="51" t="s">
         <v>718</v>
       </c>
@@ -39954,7 +39984,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="79"/>
+      <c r="A65" s="80"/>
       <c r="B65" s="51" t="s">
         <v>342</v>
       </c>
@@ -39980,7 +40010,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="79"/>
+      <c r="A66" s="80"/>
       <c r="B66" s="51" t="s">
         <v>719</v>
       </c>
@@ -40006,7 +40036,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="79"/>
+      <c r="A67" s="80"/>
       <c r="B67" s="51" t="s">
         <v>329</v>
       </c>
@@ -40032,7 +40062,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="79"/>
+      <c r="A68" s="80"/>
       <c r="B68" s="56" t="s">
         <v>720</v>
       </c>
@@ -40058,7 +40088,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="79"/>
+      <c r="A69" s="80"/>
       <c r="B69" s="51" t="s">
         <v>342</v>
       </c>
@@ -40084,7 +40114,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="79"/>
+      <c r="A70" s="80"/>
       <c r="B70" s="51" t="s">
         <v>721</v>
       </c>
@@ -40104,7 +40134,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="79"/>
+      <c r="A71" s="80"/>
       <c r="B71" s="51" t="s">
         <v>685</v>
       </c>
@@ -40124,7 +40154,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="79"/>
+      <c r="A72" s="80"/>
       <c r="B72" s="51" t="s">
         <v>722</v>
       </c>
@@ -40143,7 +40173,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="79"/>
+      <c r="A73" s="80"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -40154,7 +40184,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="79"/>
+      <c r="A74" s="80"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -40165,7 +40195,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="79"/>
+      <c r="A75" s="80"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -40176,7 +40206,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="79"/>
+      <c r="A76" s="80"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -40187,7 +40217,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="79" t="s">
+      <c r="A77" s="80" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -40214,7 +40244,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="79"/>
+      <c r="A78" s="80"/>
       <c r="B78" s="51" t="s">
         <v>724</v>
       </c>
@@ -40240,7 +40270,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="79"/>
+      <c r="A79" s="80"/>
       <c r="B79" s="51" t="s">
         <v>725</v>
       </c>
@@ -40266,7 +40296,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="79"/>
+      <c r="A80" s="80"/>
       <c r="B80" s="65" t="s">
         <v>342</v>
       </c>
@@ -40292,7 +40322,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="79"/>
+      <c r="A81" s="80"/>
       <c r="B81" s="59" t="s">
         <v>726</v>
       </c>
@@ -40318,7 +40348,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="79"/>
+      <c r="A82" s="80"/>
       <c r="B82" s="58" t="s">
         <v>727</v>
       </c>
@@ -40370,7 +40400,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="79"/>
+      <c r="A84" s="80"/>
       <c r="B84" t="s">
         <v>728</v>
       </c>
@@ -40396,7 +40426,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="79"/>
+      <c r="A85" s="80"/>
       <c r="B85" s="51" t="s">
         <v>727</v>
       </c>
@@ -40416,7 +40446,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="79"/>
+      <c r="A86" s="80"/>
       <c r="B86" s="51" t="s">
         <v>729</v>
       </c>
@@ -40436,7 +40466,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="79"/>
+      <c r="A87" s="80"/>
       <c r="B87" s="51" t="s">
         <v>394</v>
       </c>
@@ -40456,7 +40486,7 @@
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="79"/>
+      <c r="A88" s="80"/>
       <c r="B88" s="51" t="s">
         <v>730</v>
       </c>
@@ -40475,7 +40505,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="79"/>
+      <c r="A89" s="80"/>
       <c r="B89" s="51" t="s">
         <v>731</v>
       </c>
@@ -40494,7 +40524,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="79"/>
+      <c r="A90" s="80"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -40505,7 +40535,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="79"/>
+      <c r="A91" s="80"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -40516,7 +40546,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="80"/>
+      <c r="A92" s="83"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -40527,7 +40557,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="83" t="s">
+      <c r="A93" s="79" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -40554,7 +40584,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="79"/>
+      <c r="A94" s="80"/>
       <c r="B94" s="51" t="s">
         <v>732</v>
       </c>
@@ -40580,7 +40610,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="79"/>
+      <c r="A95" s="80"/>
       <c r="B95" s="56" t="s">
         <v>309</v>
       </c>
@@ -40606,7 +40636,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="79"/>
+      <c r="A96" s="80"/>
       <c r="B96" s="51" t="s">
         <v>733</v>
       </c>
@@ -40632,7 +40662,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="79"/>
+      <c r="A97" s="80"/>
       <c r="B97" s="51" t="s">
         <v>653</v>
       </c>
@@ -40658,7 +40688,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="79"/>
+      <c r="A98" s="80"/>
       <c r="B98" s="51" t="s">
         <v>734</v>
       </c>
@@ -40684,7 +40714,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="79"/>
+      <c r="A99" s="80"/>
       <c r="B99" s="51" t="s">
         <v>735</v>
       </c>
@@ -40710,7 +40740,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="79"/>
+      <c r="A100" s="80"/>
       <c r="B100" s="51" t="s">
         <v>736</v>
       </c>
@@ -40736,7 +40766,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="79"/>
+      <c r="A101" s="80"/>
       <c r="B101" s="51" t="s">
         <v>737</v>
       </c>
@@ -40756,7 +40786,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="79"/>
+      <c r="A102" s="80"/>
       <c r="B102" s="51" t="s">
         <v>738</v>
       </c>
@@ -40776,7 +40806,7 @@
       <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="79"/>
+      <c r="A103" s="80"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>288</v>
@@ -40793,7 +40823,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="79"/>
+      <c r="A104" s="80"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>296</v>
@@ -40810,7 +40840,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="79"/>
+      <c r="A105" s="80"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>295</v>
@@ -40827,7 +40857,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="79"/>
+      <c r="A106" s="80"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51" t="s">
         <v>288</v>
@@ -41191,7 +41221,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="83" t="s">
+      <c r="A123" s="79" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
@@ -41218,7 +41248,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="79"/>
+      <c r="A124" s="80"/>
       <c r="B124" s="51" t="s">
         <v>665</v>
       </c>
@@ -41244,7 +41274,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="79"/>
+      <c r="A125" s="80"/>
       <c r="B125" s="51" t="s">
         <v>342</v>
       </c>
@@ -41270,7 +41300,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="79"/>
+      <c r="A126" s="80"/>
       <c r="B126" s="51" t="s">
         <v>666</v>
       </c>
@@ -41296,7 +41326,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="79"/>
+      <c r="A127" s="80"/>
       <c r="B127" s="58" t="s">
         <v>645</v>
       </c>
@@ -41418,7 +41448,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="79"/>
+      <c r="A132" s="80"/>
       <c r="B132" s="59" t="s">
         <v>669</v>
       </c>
@@ -41437,7 +41467,7 @@
       <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="79"/>
+      <c r="A133" s="80"/>
       <c r="B133" s="51" t="s">
         <v>670</v>
       </c>
@@ -41455,7 +41485,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="79"/>
+      <c r="A134" s="80"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -41463,7 +41493,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="79"/>
+      <c r="A135" s="80"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -41471,7 +41501,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="79"/>
+      <c r="A136" s="80"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -42255,7 +42285,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="80" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="59" t="s">
@@ -42282,7 +42312,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="79"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="51" t="s">
         <v>342</v>
       </c>
@@ -42308,7 +42338,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="79"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="51" t="s">
         <v>690</v>
       </c>
@@ -42334,7 +42364,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="79"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="51" t="s">
         <v>762</v>
       </c>
@@ -42360,7 +42390,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="79"/>
+      <c r="A21" s="80"/>
       <c r="B21" s="51" t="s">
         <v>313</v>
       </c>
@@ -42386,7 +42416,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="79"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="51" t="s">
         <v>763</v>
       </c>
@@ -42412,7 +42442,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="79"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="51" t="s">
         <v>309</v>
       </c>
@@ -42438,7 +42468,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="79"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="51" t="s">
         <v>296</v>
       </c>
@@ -42464,7 +42494,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="79"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="51" t="s">
         <v>764</v>
       </c>
@@ -42484,7 +42514,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="79"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -42493,7 +42523,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="79"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -42501,7 +42531,7 @@
       <c r="F27" s="52"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="79"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -42509,7 +42539,7 @@
       <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="79"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -42517,7 +42547,7 @@
       <c r="F29" s="52"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="79"/>
+      <c r="A30" s="80"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -42525,7 +42555,7 @@
       <c r="F30" s="52"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="79"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -42533,7 +42563,7 @@
       <c r="F31" s="52"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="80" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -42560,7 +42590,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="79"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="51" t="s">
         <v>765</v>
       </c>
@@ -42586,7 +42616,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="79"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="51" t="s">
         <v>309</v>
       </c>
@@ -42612,7 +42642,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="79"/>
+      <c r="A35" s="80"/>
       <c r="B35" s="51" t="s">
         <v>766</v>
       </c>
@@ -42638,7 +42668,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="79"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="51" t="s">
         <v>767</v>
       </c>
@@ -42664,7 +42694,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="79"/>
+      <c r="A37" s="80"/>
       <c r="B37" s="51" t="s">
         <v>301</v>
       </c>
@@ -42690,7 +42720,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="79"/>
+      <c r="A38" s="80"/>
       <c r="B38" s="51" t="s">
         <v>768</v>
       </c>
@@ -42716,7 +42746,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="79"/>
+      <c r="A39" s="80"/>
       <c r="B39" s="51" t="s">
         <v>769</v>
       </c>
@@ -42742,7 +42772,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="79"/>
+      <c r="A40" s="80"/>
       <c r="B40" s="51" t="s">
         <v>454</v>
       </c>
@@ -42762,7 +42792,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="79"/>
+      <c r="A41" s="80"/>
       <c r="B41" s="51" t="s">
         <v>309</v>
       </c>
@@ -42782,7 +42812,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="79"/>
+      <c r="A42" s="80"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -42793,7 +42823,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="79"/>
+      <c r="A43" s="80"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -42804,7 +42834,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="79"/>
+      <c r="A44" s="80"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
       <c r="E44" s="52"/>
@@ -42814,7 +42844,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="79"/>
+      <c r="A45" s="80"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -43144,7 +43174,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="79" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -43171,7 +43201,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="79"/>
+      <c r="A63" s="80"/>
       <c r="B63" s="51" t="s">
         <v>778</v>
       </c>
@@ -43197,7 +43227,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="79"/>
+      <c r="A64" s="80"/>
       <c r="B64" s="51" t="s">
         <v>779</v>
       </c>
@@ -43223,7 +43253,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="79"/>
+      <c r="A65" s="80"/>
       <c r="B65" s="51" t="s">
         <v>342</v>
       </c>
@@ -43249,7 +43279,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="79"/>
+      <c r="A66" s="80"/>
       <c r="B66" s="51" t="s">
         <v>780</v>
       </c>
@@ -43275,7 +43305,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="79"/>
+      <c r="A67" s="80"/>
       <c r="B67" s="51" t="s">
         <v>329</v>
       </c>
@@ -43301,7 +43331,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="79"/>
+      <c r="A68" s="80"/>
       <c r="B68" s="56" t="s">
         <v>781</v>
       </c>
@@ -43327,7 +43357,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="79"/>
+      <c r="A69" s="80"/>
       <c r="B69" s="51" t="s">
         <v>342</v>
       </c>
@@ -43353,7 +43383,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="79"/>
+      <c r="A70" s="80"/>
       <c r="B70" s="51" t="s">
         <v>781</v>
       </c>
@@ -43373,7 +43403,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="79"/>
+      <c r="A71" s="80"/>
       <c r="B71" s="51" t="s">
         <v>685</v>
       </c>
@@ -43393,7 +43423,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="79"/>
+      <c r="A72" s="80"/>
       <c r="B72" s="51" t="s">
         <v>782</v>
       </c>
@@ -43412,7 +43442,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="79"/>
+      <c r="A73" s="80"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -43423,7 +43453,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="79"/>
+      <c r="A74" s="80"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -43434,7 +43464,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="79"/>
+      <c r="A75" s="80"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -43445,7 +43475,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="79"/>
+      <c r="A76" s="80"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -43456,7 +43486,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="79" t="s">
+      <c r="A77" s="80" t="s">
         <v>27</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -43483,7 +43513,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="79"/>
+      <c r="A78" s="80"/>
       <c r="B78" s="51" t="s">
         <v>783</v>
       </c>
@@ -43509,7 +43539,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="79"/>
+      <c r="A79" s="80"/>
       <c r="B79" s="51" t="s">
         <v>342</v>
       </c>
@@ -43535,7 +43565,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="79"/>
+      <c r="A80" s="80"/>
       <c r="B80" s="65" t="s">
         <v>784</v>
       </c>
@@ -43561,7 +43591,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="79"/>
+      <c r="A81" s="80"/>
       <c r="B81" s="65" t="s">
         <v>785</v>
       </c>
@@ -43587,7 +43617,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="79"/>
+      <c r="A82" s="80"/>
       <c r="B82" s="51" t="s">
         <v>342</v>
       </c>
@@ -43639,7 +43669,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="79"/>
+      <c r="A84" s="80"/>
       <c r="B84" s="51" t="s">
         <v>786</v>
       </c>
@@ -43665,7 +43695,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="79"/>
+      <c r="A85" s="80"/>
       <c r="B85" s="51" t="s">
         <v>685</v>
       </c>
@@ -43685,7 +43715,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="79"/>
+      <c r="A86" s="80"/>
       <c r="B86" s="51" t="s">
         <v>787</v>
       </c>
@@ -43705,7 +43735,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="79"/>
+      <c r="A87" s="80"/>
       <c r="B87" s="51" t="s">
         <v>788</v>
       </c>
@@ -43725,7 +43755,7 @@
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="79"/>
+      <c r="A88" s="80"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52">
@@ -43739,7 +43769,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="79"/>
+      <c r="A89" s="80"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52">
@@ -43753,7 +43783,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="79"/>
+      <c r="A90" s="80"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -43764,7 +43794,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="79"/>
+      <c r="A91" s="80"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -43775,7 +43805,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="80"/>
+      <c r="A92" s="83"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -43786,7 +43816,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="83" t="s">
+      <c r="A93" s="79" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -43813,7 +43843,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="79"/>
+      <c r="A94" s="80"/>
       <c r="B94" s="51" t="s">
         <v>789</v>
       </c>
@@ -43839,7 +43869,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="79"/>
+      <c r="A95" s="80"/>
       <c r="B95" s="56" t="s">
         <v>309</v>
       </c>
@@ -43865,7 +43895,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="79"/>
+      <c r="A96" s="80"/>
       <c r="B96" s="51" t="s">
         <v>790</v>
       </c>
@@ -43891,7 +43921,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="79"/>
+      <c r="A97" s="80"/>
       <c r="B97" s="51" t="s">
         <v>653</v>
       </c>
@@ -43917,7 +43947,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="79"/>
+      <c r="A98" s="80"/>
       <c r="B98" s="51" t="s">
         <v>791</v>
       </c>
@@ -43943,7 +43973,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="79"/>
+      <c r="A99" s="80"/>
       <c r="B99" s="51" t="s">
         <v>792</v>
       </c>
@@ -43969,7 +43999,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="79"/>
+      <c r="A100" s="80"/>
       <c r="B100" s="51" t="s">
         <v>736</v>
       </c>
@@ -43995,7 +44025,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="79"/>
+      <c r="A101" s="80"/>
       <c r="B101" s="51" t="s">
         <v>793</v>
       </c>
@@ -44015,7 +44045,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="79"/>
+      <c r="A102" s="80"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51"/>
       <c r="D102" s="52"/>
@@ -44024,7 +44054,7 @@
       <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="79"/>
+      <c r="A103" s="80"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -44032,7 +44062,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="79"/>
+      <c r="A104" s="80"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -44040,7 +44070,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="79"/>
+      <c r="A105" s="80"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -44048,7 +44078,7 @@
       <c r="F105" s="52"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="79"/>
+      <c r="A106" s="80"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51"/>
       <c r="D106" s="52"/>
@@ -44394,7 +44424,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="83" t="s">
+      <c r="A123" s="79" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
@@ -44421,7 +44451,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="79"/>
+      <c r="A124" s="80"/>
       <c r="B124" s="51" t="s">
         <v>799</v>
       </c>
@@ -44447,7 +44477,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="79"/>
+      <c r="A125" s="80"/>
       <c r="B125" s="51" t="s">
         <v>342</v>
       </c>
@@ -44473,7 +44503,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="79"/>
+      <c r="A126" s="80"/>
       <c r="B126" s="51" t="s">
         <v>800</v>
       </c>
@@ -44499,7 +44529,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="79"/>
+      <c r="A127" s="80"/>
       <c r="B127" s="58" t="s">
         <v>801</v>
       </c>
@@ -44621,7 +44651,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="79"/>
+      <c r="A132" s="80"/>
       <c r="B132" s="59" t="s">
         <v>804</v>
       </c>
@@ -44640,7 +44670,7 @@
       <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="79"/>
+      <c r="A133" s="80"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -44648,7 +44678,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="79"/>
+      <c r="A134" s="80"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -44656,7 +44686,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="79"/>
+      <c r="A135" s="80"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -44664,7 +44694,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="79"/>
+      <c r="A136" s="80"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -45400,7 +45430,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="80" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="59" t="s">
@@ -45427,7 +45457,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="79"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="51" t="s">
         <v>342</v>
       </c>
@@ -45453,7 +45483,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="79"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="51" t="s">
         <v>809</v>
       </c>
@@ -45479,7 +45509,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="79"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="51" t="s">
         <v>810</v>
       </c>
@@ -45505,7 +45535,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="79"/>
+      <c r="A21" s="80"/>
       <c r="B21" s="51" t="s">
         <v>309</v>
       </c>
@@ -45531,7 +45561,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="79"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="51" t="s">
         <v>811</v>
       </c>
@@ -45557,7 +45587,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="79"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52">
@@ -45579,7 +45609,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="79"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52">
@@ -45601,7 +45631,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="79"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52">
@@ -45617,7 +45647,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="79"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52">
@@ -45633,7 +45663,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="79"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52">
@@ -45648,7 +45678,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="79"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52">
@@ -45663,7 +45693,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="79"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52">
@@ -45678,7 +45708,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="79"/>
+      <c r="A30" s="80"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52">
@@ -45693,7 +45723,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="79"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52">
@@ -45708,7 +45738,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="80" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -45735,7 +45765,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="79"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="51" t="s">
         <v>812</v>
       </c>
@@ -45761,7 +45791,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="79"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="51" t="s">
         <v>309</v>
       </c>
@@ -45787,7 +45817,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="79"/>
+      <c r="A35" s="80"/>
       <c r="B35" s="51" t="s">
         <v>813</v>
       </c>
@@ -45813,7 +45843,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="79"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="51" t="s">
         <v>814</v>
       </c>
@@ -45839,7 +45869,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="79"/>
+      <c r="A37" s="80"/>
       <c r="B37" t="s">
         <v>313</v>
       </c>
@@ -45865,7 +45895,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="79"/>
+      <c r="A38" s="80"/>
       <c r="B38" s="51" t="s">
         <v>815</v>
       </c>
@@ -45891,7 +45921,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="79"/>
+      <c r="A39" s="80"/>
       <c r="B39" s="51" t="s">
         <v>816</v>
       </c>
@@ -45917,7 +45947,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="79"/>
+      <c r="A40" s="80"/>
       <c r="B40" t="s">
         <v>342</v>
       </c>
@@ -45937,7 +45967,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="79"/>
+      <c r="A41" s="80"/>
       <c r="B41" s="51" t="s">
         <v>817</v>
       </c>
@@ -45957,7 +45987,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="79"/>
+      <c r="A42" s="80"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -45968,7 +45998,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="79"/>
+      <c r="A43" s="80"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -45979,7 +46009,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="79"/>
+      <c r="A44" s="80"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
       <c r="E44" s="52"/>
@@ -45989,7 +46019,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="79"/>
+      <c r="A45" s="80"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -46305,7 +46335,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="79" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -46332,7 +46362,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="79"/>
+      <c r="A63" s="80"/>
       <c r="B63" s="51" t="s">
         <v>823</v>
       </c>
@@ -46358,7 +46388,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="79"/>
+      <c r="A64" s="80"/>
       <c r="B64" s="51" t="s">
         <v>824</v>
       </c>
@@ -46384,7 +46414,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="79"/>
+      <c r="A65" s="80"/>
       <c r="B65" s="51" t="s">
         <v>342</v>
       </c>
@@ -46410,7 +46440,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="79"/>
+      <c r="A66" s="80"/>
       <c r="B66" s="51" t="s">
         <v>720</v>
       </c>
@@ -46436,7 +46466,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="79"/>
+      <c r="A67" s="80"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="51"/>
@@ -46454,7 +46484,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="79"/>
+      <c r="A68" s="80"/>
       <c r="B68" s="51"/>
       <c r="C68" s="51"/>
       <c r="D68" s="52"/>
@@ -46472,7 +46502,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="79"/>
+      <c r="A69" s="80"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -46484,7 +46514,7 @@
       <c r="I69" s="54"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="79"/>
+      <c r="A70" s="80"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -46496,7 +46526,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="79"/>
+      <c r="A71" s="80"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -46507,7 +46537,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="79"/>
+      <c r="A72" s="80"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -46518,7 +46548,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="79"/>
+      <c r="A73" s="80"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -46529,7 +46559,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="79"/>
+      <c r="A74" s="80"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -46540,7 +46570,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="79"/>
+      <c r="A75" s="80"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -46551,7 +46581,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="79" t="s">
+      <c r="A76" s="80" t="s">
         <v>269</v>
       </c>
       <c r="B76" s="51" t="s">
@@ -46578,7 +46608,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="79"/>
+      <c r="A77" s="80"/>
       <c r="B77" s="51" t="s">
         <v>825</v>
       </c>
@@ -46604,7 +46634,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="79"/>
+      <c r="A78" s="80"/>
       <c r="B78" s="51" t="s">
         <v>826</v>
       </c>
@@ -46630,7 +46660,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="79"/>
+      <c r="A79" s="80"/>
       <c r="B79" s="65" t="s">
         <v>342</v>
       </c>
@@ -46656,7 +46686,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="79"/>
+      <c r="A80" s="80"/>
       <c r="B80" s="56" t="s">
         <v>827</v>
       </c>
@@ -46682,7 +46712,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="79"/>
+      <c r="A81" s="80"/>
       <c r="B81" s="51" t="s">
         <v>828</v>
       </c>
@@ -46734,7 +46764,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="79"/>
+      <c r="A83" s="80"/>
       <c r="B83" s="51"/>
       <c r="C83" s="55" t="s">
         <v>295</v>
@@ -46758,7 +46788,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="79"/>
+      <c r="A84" s="80"/>
       <c r="B84" s="51" t="s">
         <v>830</v>
       </c>
@@ -46778,7 +46808,7 @@
       <c r="I84" s="54"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="79"/>
+      <c r="A85" s="80"/>
       <c r="B85" s="51"/>
       <c r="C85" s="55" t="s">
         <v>295</v>
@@ -46796,7 +46826,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="79"/>
+      <c r="A86" s="80"/>
       <c r="B86" s="51"/>
       <c r="C86" s="55" t="s">
         <v>295</v>
@@ -46814,7 +46844,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="79"/>
+      <c r="A87" s="80"/>
       <c r="B87" s="51"/>
       <c r="C87" s="55" t="s">
         <v>295</v>
@@ -46831,7 +46861,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="79"/>
+      <c r="A88" s="80"/>
       <c r="B88" s="51"/>
       <c r="C88" s="55" t="s">
         <v>295</v>
@@ -46848,7 +46878,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="79"/>
+      <c r="A89" s="80"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -46859,7 +46889,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="79"/>
+      <c r="A90" s="80"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -46870,7 +46900,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="80"/>
+      <c r="A91" s="83"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -46881,7 +46911,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="83" t="s">
+      <c r="A92" s="79" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -46908,7 +46938,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="79"/>
+      <c r="A93" s="80"/>
       <c r="B93" s="51" t="s">
         <v>831</v>
       </c>
@@ -46934,7 +46964,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="79"/>
+      <c r="A94" s="80"/>
       <c r="B94" s="56" t="s">
         <v>309</v>
       </c>
@@ -46960,7 +46990,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="79"/>
+      <c r="A95" s="80"/>
       <c r="B95" s="51" t="s">
         <v>832</v>
       </c>
@@ -46986,7 +47016,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="79"/>
+      <c r="A96" s="80"/>
       <c r="B96" s="51" t="s">
         <v>833</v>
       </c>
@@ -47012,7 +47042,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="79"/>
+      <c r="A97" s="80"/>
       <c r="B97" s="51" t="s">
         <v>834</v>
       </c>
@@ -47038,7 +47068,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="79"/>
+      <c r="A98" s="80"/>
       <c r="B98" s="51" t="s">
         <v>835</v>
       </c>
@@ -47064,7 +47094,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="79"/>
+      <c r="A99" s="80"/>
       <c r="B99" s="51"/>
       <c r="C99" s="51" t="s">
         <v>296</v>
@@ -47088,7 +47118,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="79"/>
+      <c r="A100" s="80"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>288</v>
@@ -47106,7 +47136,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="79"/>
+      <c r="A101" s="80"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51"/>
       <c r="D101" s="52"/>
@@ -47115,7 +47145,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="79"/>
+      <c r="A102" s="80"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51"/>
       <c r="D102" s="52"/>
@@ -47123,7 +47153,7 @@
       <c r="F102" s="52"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="79"/>
+      <c r="A103" s="80"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -47131,7 +47161,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="79"/>
+      <c r="A104" s="80"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -47139,7 +47169,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="79"/>
+      <c r="A105" s="80"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -47452,7 +47482,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="83" t="s">
+      <c r="A122" s="79" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -47479,7 +47509,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="79"/>
+      <c r="A123" s="80"/>
       <c r="B123" s="51" t="s">
         <v>843</v>
       </c>
@@ -47505,7 +47535,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="79"/>
+      <c r="A124" s="80"/>
       <c r="B124" s="51" t="s">
         <v>342</v>
       </c>
@@ -47531,7 +47561,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="79"/>
+      <c r="A125" s="80"/>
       <c r="B125" s="51" t="s">
         <v>844</v>
       </c>
@@ -47557,7 +47587,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="79"/>
+      <c r="A126" s="80"/>
       <c r="B126" s="58" t="s">
         <v>845</v>
       </c>
@@ -47669,7 +47699,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="79"/>
+      <c r="A131" s="80"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -47678,7 +47708,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="79"/>
+      <c r="A132" s="80"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -47686,7 +47716,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="79"/>
+      <c r="A133" s="80"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -47694,7 +47724,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="79"/>
+      <c r="A134" s="80"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -47702,7 +47732,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="79"/>
+      <c r="A135" s="80"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -48098,8 +48128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7764F1B-A8E7-4FBB-88CE-929509A01D8F}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="D79" workbookViewId="0">
+      <selection activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -48500,7 +48530,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="80" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -48527,7 +48557,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="79"/>
+      <c r="A18" s="80"/>
       <c r="B18" t="s">
         <v>858</v>
       </c>
@@ -48553,7 +48583,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="79"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="51" t="s">
         <v>859</v>
       </c>
@@ -48579,7 +48609,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="79"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="51" t="s">
         <v>342</v>
       </c>
@@ -48605,7 +48635,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="79"/>
+      <c r="A21" s="80"/>
       <c r="B21" s="51" t="s">
         <v>860</v>
       </c>
@@ -48631,7 +48661,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="79"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="58" t="s">
         <v>329</v>
       </c>
@@ -48657,7 +48687,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="79"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="57" t="s">
         <v>861</v>
       </c>
@@ -48683,7 +48713,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="79"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="57" t="s">
         <v>862</v>
       </c>
@@ -48709,7 +48739,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="79"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="57" t="s">
         <v>863</v>
       </c>
@@ -48729,7 +48759,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="79"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="57" t="s">
         <v>864</v>
       </c>
@@ -48749,7 +48779,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="79"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="59" t="s">
         <v>865</v>
       </c>
@@ -48768,7 +48798,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="79"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="51" t="s">
         <v>342</v>
       </c>
@@ -48787,7 +48817,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="79"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="51" t="s">
         <v>856</v>
       </c>
@@ -48806,7 +48836,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="79"/>
+      <c r="A30" s="80"/>
       <c r="B30" s="51" t="s">
         <v>356</v>
       </c>
@@ -48825,7 +48855,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="79"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="51" t="s">
         <v>866</v>
       </c>
@@ -48844,7 +48874,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="80" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -48871,7 +48901,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="79"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="51" t="s">
         <v>812</v>
       </c>
@@ -48897,7 +48927,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="79"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="51" t="s">
         <v>309</v>
       </c>
@@ -48923,7 +48953,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="79"/>
+      <c r="A35" s="80"/>
       <c r="B35" s="51" t="s">
         <v>813</v>
       </c>
@@ -48949,7 +48979,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="79"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="51" t="s">
         <v>814</v>
       </c>
@@ -48975,7 +49005,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="79"/>
+      <c r="A37" s="80"/>
       <c r="B37" t="s">
         <v>313</v>
       </c>
@@ -49001,7 +49031,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="79"/>
+      <c r="A38" s="80"/>
       <c r="B38" s="51" t="s">
         <v>815</v>
       </c>
@@ -49027,7 +49057,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="79"/>
+      <c r="A39" s="80"/>
       <c r="B39" s="51" t="s">
         <v>816</v>
       </c>
@@ -49053,7 +49083,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="79"/>
+      <c r="A40" s="80"/>
       <c r="B40" t="s">
         <v>342</v>
       </c>
@@ -49073,7 +49103,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="79"/>
+      <c r="A41" s="80"/>
       <c r="B41" s="51" t="s">
         <v>817</v>
       </c>
@@ -49093,7 +49123,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="79"/>
+      <c r="A42" s="80"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -49104,7 +49134,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="79"/>
+      <c r="A43" s="80"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -49115,7 +49145,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="79"/>
+      <c r="A44" s="80"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
       <c r="E44" s="52"/>
@@ -49125,7 +49155,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="79"/>
+      <c r="A45" s="80"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -49465,7 +49495,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="79" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -49492,7 +49522,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="79"/>
+      <c r="A63" s="80"/>
       <c r="B63" s="51" t="s">
         <v>823</v>
       </c>
@@ -49518,7 +49548,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="79"/>
+      <c r="A64" s="80"/>
       <c r="B64" s="51" t="s">
         <v>824</v>
       </c>
@@ -49544,7 +49574,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="79"/>
+      <c r="A65" s="80"/>
       <c r="B65" s="51" t="s">
         <v>342</v>
       </c>
@@ -49570,7 +49600,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="79"/>
+      <c r="A66" s="80"/>
       <c r="B66" s="51" t="s">
         <v>720</v>
       </c>
@@ -49596,7 +49626,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="79"/>
+      <c r="A67" s="80"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="51"/>
@@ -49614,7 +49644,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="79"/>
+      <c r="A68" s="80"/>
       <c r="B68" s="51"/>
       <c r="C68" s="51"/>
       <c r="D68" s="52"/>
@@ -49632,7 +49662,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="79"/>
+      <c r="A69" s="80"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -49644,7 +49674,7 @@
       <c r="I69" s="54"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="79"/>
+      <c r="A70" s="80"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -49656,7 +49686,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="79"/>
+      <c r="A71" s="80"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -49667,7 +49697,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="79"/>
+      <c r="A72" s="80"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -49678,7 +49708,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="79"/>
+      <c r="A73" s="80"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -49689,7 +49719,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="79"/>
+      <c r="A74" s="80"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -49700,7 +49730,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="79"/>
+      <c r="A75" s="80"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -49711,7 +49741,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="79" t="s">
+      <c r="A76" s="80" t="s">
         <v>269</v>
       </c>
       <c r="B76" s="51" t="s">
@@ -49738,7 +49768,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="79"/>
+      <c r="A77" s="80"/>
       <c r="B77" s="51" t="s">
         <v>825</v>
       </c>
@@ -49764,7 +49794,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="79"/>
+      <c r="A78" s="80"/>
       <c r="B78" s="51" t="s">
         <v>826</v>
       </c>
@@ -49790,7 +49820,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="79"/>
+      <c r="A79" s="80"/>
       <c r="B79" s="65" t="s">
         <v>342</v>
       </c>
@@ -49816,7 +49846,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="79"/>
+      <c r="A80" s="80"/>
       <c r="B80" s="56" t="s">
         <v>827</v>
       </c>
@@ -49842,7 +49872,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="79"/>
+      <c r="A81" s="80"/>
       <c r="B81" s="51" t="s">
         <v>828</v>
       </c>
@@ -49894,7 +49924,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="79"/>
+      <c r="A83" s="80"/>
       <c r="B83" s="51"/>
       <c r="C83" s="55" t="s">
         <v>295</v>
@@ -49918,7 +49948,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="79"/>
+      <c r="A84" s="80"/>
       <c r="B84" s="51" t="s">
         <v>830</v>
       </c>
@@ -49938,7 +49968,7 @@
       <c r="I84" s="54"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="79"/>
+      <c r="A85" s="80"/>
       <c r="B85" s="51"/>
       <c r="C85" s="55" t="s">
         <v>295</v>
@@ -49956,7 +49986,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="79"/>
+      <c r="A86" s="80"/>
       <c r="B86" s="51"/>
       <c r="C86" s="55" t="s">
         <v>295</v>
@@ -49974,7 +50004,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="79"/>
+      <c r="A87" s="80"/>
       <c r="B87" s="51"/>
       <c r="C87" s="55" t="s">
         <v>295</v>
@@ -49991,7 +50021,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="79"/>
+      <c r="A88" s="80"/>
       <c r="B88" s="51"/>
       <c r="C88" s="55" t="s">
         <v>295</v>
@@ -50008,7 +50038,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="79"/>
+      <c r="A89" s="80"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -50019,7 +50049,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="79"/>
+      <c r="A90" s="80"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -50030,7 +50060,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="80"/>
+      <c r="A91" s="83"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -50041,20 +50071,20 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="83" t="s">
+      <c r="A92" s="79" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
-        <v>603</v>
+        <v>876</v>
       </c>
       <c r="C92" s="51" t="s">
         <v>285</v>
       </c>
       <c r="D92" s="52">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E92" s="52">
         <v>0.375</v>
-      </c>
-      <c r="E92" s="52">
-        <v>0.38194444444444442</v>
       </c>
       <c r="F92" s="52">
         <f t="shared" si="1"/>
@@ -50068,238 +50098,286 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="79"/>
+      <c r="A93" s="80"/>
       <c r="B93" s="51" t="s">
-        <v>831</v>
+        <v>877</v>
       </c>
       <c r="C93" s="51" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D93" s="52">
-        <v>0.38541666666666669</v>
+        <v>0.37638888888888888</v>
       </c>
       <c r="E93" s="52">
-        <v>0.4548611111111111</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="F93" s="52">
         <f t="shared" si="1"/>
-        <v>6.944444444444442E-2</v>
+        <v>5.0694444444444431E-2</v>
       </c>
       <c r="H93" s="53" t="s">
         <v>288</v>
       </c>
       <c r="I93" s="52">
         <f>SUMIFS(F92:F106, C92:C106,H93)</f>
-        <v>0.14236111111111105</v>
+        <v>0.20902777777777781</v>
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="79"/>
+      <c r="A94" s="80"/>
       <c r="B94" s="56" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="C94" s="51" t="s">
         <v>295</v>
       </c>
       <c r="D94" s="52">
-        <v>0.45624999999999999</v>
+        <v>0.44097222222222227</v>
       </c>
       <c r="E94" s="52">
-        <v>0.47569444444444442</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="F94" s="52">
         <f t="shared" si="1"/>
-        <v>1.9444444444444431E-2</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H94" s="53" t="s">
         <v>285</v>
       </c>
       <c r="I94" s="52">
         <f>SUMIFS(F92:F106, C92:C106,H94)</f>
-        <v>6.9444444444444198E-3</v>
+        <v>5.7638888888888851E-2</v>
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="79"/>
+      <c r="A95" s="80"/>
       <c r="B95" s="51" t="s">
-        <v>832</v>
+        <v>878</v>
       </c>
       <c r="C95" s="51" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D95" s="52">
-        <v>0.47916666666666669</v>
+        <v>0.44861111111111113</v>
       </c>
       <c r="E95" s="52">
-        <v>0.51041666666666663</v>
+        <v>0.4993055555555555</v>
       </c>
       <c r="F95" s="52">
         <f t="shared" si="1"/>
-        <v>3.1249999999999944E-2</v>
+        <v>5.0694444444444375E-2</v>
       </c>
       <c r="H95" s="53" t="s">
         <v>290</v>
       </c>
       <c r="I95" s="52">
         <f>SUMIFS(F92:F106, C92:C106,H95)</f>
-        <v>4.1666666666666574E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="79"/>
+      <c r="A96" s="80"/>
       <c r="B96" s="51" t="s">
-        <v>833</v>
+        <v>879</v>
       </c>
       <c r="C96" s="51" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D96" s="52">
-        <v>0.52083333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="E96" s="52">
-        <v>0.58680555555555558</v>
+        <v>0.53125</v>
       </c>
       <c r="F96" s="52">
         <f t="shared" si="1"/>
-        <v>6.597222222222221E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H96" s="53" t="s">
         <v>293</v>
       </c>
       <c r="I96" s="52">
         <f>SUMIFS(F92:F106, C92:C106,H96)</f>
-        <v>0</v>
+        <v>4.0972222222222299E-2</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="79"/>
+      <c r="A97" s="80"/>
       <c r="B97" s="51" t="s">
-        <v>834</v>
+        <v>465</v>
       </c>
       <c r="C97" s="51" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D97" s="52">
-        <v>0.59027777777777779</v>
+        <v>0.53125</v>
       </c>
       <c r="E97" s="52">
-        <v>0.66319444444444442</v>
+        <v>0.55902777777777779</v>
       </c>
       <c r="F97" s="52">
         <f t="shared" si="1"/>
-        <v>7.291666666666663E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H97" s="53" t="s">
         <v>296</v>
       </c>
       <c r="I97" s="52">
         <f>SUMIFS(F92:F106, C92:C106,H97)</f>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="79"/>
+      <c r="A98" s="80"/>
       <c r="B98" s="51" t="s">
-        <v>835</v>
+        <v>880</v>
       </c>
       <c r="C98" s="51" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D98" s="52">
-        <v>0.67361111111111116</v>
+        <v>0.55972222222222223</v>
       </c>
       <c r="E98" s="52">
-        <v>0.68402777777777779</v>
+        <v>0.60902777777777783</v>
       </c>
       <c r="F98" s="52">
         <f t="shared" si="1"/>
-        <v>1.041666666666663E-2</v>
+        <v>4.9305555555555602E-2</v>
       </c>
       <c r="H98" s="53" t="s">
         <v>295</v>
       </c>
       <c r="I98" s="52">
         <f>SUMIFS(F92:F106, C92:C106,H98)</f>
-        <v>8.5416666666666641E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="79"/>
-      <c r="B99" s="51"/>
+      <c r="A99" s="80"/>
+      <c r="B99" s="51" t="s">
+        <v>881</v>
+      </c>
       <c r="C99" s="51" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D99" s="52">
-        <v>0</v>
+        <v>0.60972222222222217</v>
       </c>
       <c r="E99" s="52">
-        <v>0</v>
+        <v>0.65625</v>
       </c>
       <c r="F99" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.6527777777777835E-2</v>
       </c>
       <c r="H99" s="48" t="s">
         <v>300</v>
       </c>
       <c r="I99" s="49">
         <f>SUM(I93:I98)</f>
-        <v>0.27638888888888868</v>
+        <v>0.39097222222222222</v>
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="79"/>
-      <c r="B100" s="51"/>
+      <c r="A100" s="80"/>
+      <c r="B100" s="51" t="s">
+        <v>342</v>
+      </c>
       <c r="C100" s="51" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D100" s="52">
-        <v>0</v>
+        <v>0.65902777777777777</v>
       </c>
       <c r="E100" s="52">
-        <v>0</v>
+        <v>0.66597222222222219</v>
       </c>
       <c r="F100" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="79"/>
-      <c r="B101" s="51"/>
-      <c r="C101" s="51"/>
-      <c r="D101" s="52"/>
-      <c r="E101" s="52"/>
-      <c r="F101" s="52"/>
+      <c r="A101" s="80"/>
+      <c r="B101" s="51" t="s">
+        <v>882</v>
+      </c>
+      <c r="C101" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="D101" s="52">
+        <v>0.66736111111111107</v>
+      </c>
+      <c r="E101" s="52">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F101" s="52">
+        <f>E101-D101</f>
+        <v>4.0972222222222299E-2</v>
+      </c>
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="79"/>
-      <c r="B102" s="51"/>
-      <c r="C102" s="51"/>
-      <c r="D102" s="52"/>
-      <c r="E102" s="52"/>
-      <c r="F102" s="52"/>
+      <c r="A102" s="80"/>
+      <c r="B102" s="51" t="s">
+        <v>883</v>
+      </c>
+      <c r="C102" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="D102" s="52">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="E102" s="52">
+        <v>0.78125</v>
+      </c>
+      <c r="F102" s="52">
+        <f>E102-D102</f>
+        <v>4.166666666666663E-2</v>
+      </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="79"/>
-      <c r="B103" s="51"/>
-      <c r="C103" s="51"/>
-      <c r="D103" s="52"/>
-      <c r="E103" s="52"/>
-      <c r="F103" s="52"/>
+      <c r="A103" s="80"/>
+      <c r="B103" s="51" t="s">
+        <v>884</v>
+      </c>
+      <c r="C103" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D103" s="52">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="E103" s="52">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="F103" s="52">
+        <f>E103-D103</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="79"/>
-      <c r="B104" s="51"/>
-      <c r="C104" s="51"/>
-      <c r="D104" s="52"/>
-      <c r="E104" s="52"/>
-      <c r="F104" s="52"/>
+      <c r="A104" s="80"/>
+      <c r="B104" s="51" t="s">
+        <v>885</v>
+      </c>
+      <c r="C104" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D104" s="52">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="E104" s="52">
+        <v>0.85069444444444453</v>
+      </c>
+      <c r="F104" s="52">
+        <f>E104-D104</f>
+        <v>1.0416666666666741E-2</v>
+      </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="79"/>
+      <c r="A105" s="80"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -50369,7 +50447,7 @@
     <row r="109" spans="1:9">
       <c r="A109" s="82"/>
       <c r="B109" s="56" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
       <c r="C109" s="51" t="s">
         <v>288</v>
@@ -50421,7 +50499,7 @@
     <row r="111" spans="1:9">
       <c r="A111" s="82"/>
       <c r="B111" s="55" t="s">
-        <v>877</v>
+        <v>887</v>
       </c>
       <c r="C111" s="51" t="s">
         <v>288</v>
@@ -50473,7 +50551,7 @@
     <row r="113" spans="1:9">
       <c r="A113" s="82"/>
       <c r="B113" s="55" t="s">
-        <v>878</v>
+        <v>888</v>
       </c>
       <c r="C113" s="51" t="s">
         <v>288</v>
@@ -50524,7 +50602,7 @@
     <row r="115" spans="1:9">
       <c r="A115" s="82"/>
       <c r="B115" s="55" t="s">
-        <v>879</v>
+        <v>889</v>
       </c>
       <c r="C115" s="51" t="s">
         <v>290</v>
@@ -50543,7 +50621,7 @@
     <row r="116" spans="1:9">
       <c r="A116" s="82"/>
       <c r="B116" s="55" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="C116" s="51" t="s">
         <v>288</v>
@@ -50598,7 +50676,7 @@
     <row r="119" spans="1:9">
       <c r="A119" s="82"/>
       <c r="B119" s="55" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
       <c r="C119" s="51" t="s">
         <v>288</v>
@@ -50619,7 +50697,7 @@
     <row r="120" spans="1:9">
       <c r="A120" s="82"/>
       <c r="B120" s="55" t="s">
-        <v>882</v>
+        <v>892</v>
       </c>
       <c r="C120" s="51" t="s">
         <v>293</v>
@@ -50628,7 +50706,7 @@
         <v>0.81944444444444453</v>
       </c>
       <c r="E120" s="52" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="F120" s="52">
         <v>3.125E-2</v>
@@ -50646,11 +50724,11 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="83" t="s">
+      <c r="A122" s="79" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
       <c r="C122" s="51" t="s">
         <v>288</v>
@@ -50673,9 +50751,9 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="79"/>
+      <c r="A123" s="80"/>
       <c r="B123" s="51" t="s">
-        <v>885</v>
+        <v>895</v>
       </c>
       <c r="C123" s="51" t="s">
         <v>288</v>
@@ -50699,7 +50777,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="79"/>
+      <c r="A124" s="80"/>
       <c r="B124" s="51" t="s">
         <v>342</v>
       </c>
@@ -50725,9 +50803,9 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="79"/>
+      <c r="A125" s="80"/>
       <c r="B125" s="51" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
       <c r="C125" s="51" t="s">
         <v>288</v>
@@ -50751,7 +50829,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="79"/>
+      <c r="A126" s="80"/>
       <c r="B126" s="58" t="s">
         <v>329</v>
       </c>
@@ -50779,7 +50857,7 @@
     <row r="127" spans="1:9">
       <c r="A127" s="84"/>
       <c r="B127" s="57" t="s">
-        <v>887</v>
+        <v>897</v>
       </c>
       <c r="C127" s="55" t="s">
         <v>288</v>
@@ -50831,7 +50909,7 @@
     <row r="129" spans="1:9">
       <c r="A129" s="84"/>
       <c r="B129" s="57" t="s">
-        <v>879</v>
+        <v>889</v>
       </c>
       <c r="C129" s="55" t="s">
         <v>290</v>
@@ -50875,7 +50953,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="79"/>
+      <c r="A131" s="80"/>
       <c r="B131" s="59" t="s">
         <v>333</v>
       </c>
@@ -50895,7 +50973,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="79"/>
+      <c r="A132" s="80"/>
       <c r="B132" s="51" t="s">
         <v>342</v>
       </c>
@@ -50914,7 +50992,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="79"/>
+      <c r="A133" s="80"/>
       <c r="B133" s="51" t="s">
         <v>856</v>
       </c>
@@ -50933,7 +51011,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="79"/>
+      <c r="A134" s="80"/>
       <c r="B134" s="51" t="s">
         <v>356</v>
       </c>
@@ -50952,9 +51030,9 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="79"/>
+      <c r="A135" s="80"/>
       <c r="B135" s="51" t="s">
-        <v>888</v>
+        <v>898</v>
       </c>
       <c r="C135" s="51" t="s">
         <v>288</v>

--- a/Process/Timesheet/Timesheet.xlsx
+++ b/Process/Timesheet/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vinoth\GIT\TeamProject\Project\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D30622E4-5189-4CC1-90C0-EDB10D6D952F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E50676EE-BAD8-43DA-80E9-45C814EB2FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19414" windowHeight="10303" firstSheet="26" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4233" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4240" uniqueCount="903">
   <si>
     <t>Column1</t>
   </si>
@@ -3206,6 +3206,18 @@
   </si>
   <si>
     <t>Integrated Employee service with Prithvi &amp; Darshana</t>
+  </si>
+  <si>
+    <t>Started to write service in angular</t>
+  </si>
+  <si>
+    <t>Worked on navbar</t>
+  </si>
+  <si>
+    <t>Worked on add project page</t>
+  </si>
+  <si>
+    <t>Tired post operation in add role page</t>
   </si>
 </sst>
 </file>
@@ -3738,10 +3750,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3750,7 +3762,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -16848,7 +16860,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -16878,7 +16890,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="80"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="51" t="s">
         <v>289</v>
       </c>
@@ -16907,7 +16919,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="80"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="51" t="s">
         <v>291</v>
       </c>
@@ -16936,7 +16948,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="80"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="51" t="s">
         <v>292</v>
       </c>
@@ -16965,7 +16977,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="80"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="51" t="s">
         <v>294</v>
       </c>
@@ -16994,7 +17006,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="80"/>
+      <c r="A7" s="79"/>
       <c r="B7" t="s">
         <v>297</v>
       </c>
@@ -17023,7 +17035,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="80"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="51" t="s">
         <v>298</v>
       </c>
@@ -17049,7 +17061,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="80"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="51" t="s">
         <v>299</v>
       </c>
@@ -17075,7 +17087,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="80"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="51" t="s">
         <v>301</v>
       </c>
@@ -17095,7 +17107,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="80"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="51" t="s">
         <v>302</v>
       </c>
@@ -17115,7 +17127,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="80"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="51" t="s">
         <v>303</v>
       </c>
@@ -17134,7 +17146,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="80"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="51" t="s">
         <v>304</v>
       </c>
@@ -17153,7 +17165,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="80"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="51" t="s">
         <v>305</v>
       </c>
@@ -17172,7 +17184,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="80"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="51" t="s">
         <v>306</v>
       </c>
@@ -17191,7 +17203,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="80"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="52"/>
@@ -17202,7 +17214,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="79" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51"/>
@@ -17225,7 +17237,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="80"/>
+      <c r="A18" s="79"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="52">
@@ -17247,7 +17259,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="80"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="52">
@@ -17269,7 +17281,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="80"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
       <c r="D20" s="52">
@@ -17291,7 +17303,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="80"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="52">
@@ -17313,7 +17325,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="80"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52">
@@ -17335,7 +17347,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="80"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="51" t="s">
         <v>73</v>
       </c>
@@ -17359,7 +17371,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="80"/>
+      <c r="A24" s="79"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52">
@@ -17381,7 +17393,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="80"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52">
@@ -17397,7 +17409,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="80"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -17409,7 +17421,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="80"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -17420,7 +17432,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="80"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -17431,7 +17443,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="80"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -17442,7 +17454,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="80"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -17453,7 +17465,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="80"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -17464,7 +17476,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="79" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -17491,7 +17503,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="80"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="51" t="s">
         <v>307</v>
       </c>
@@ -17517,7 +17529,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="80"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="51" t="s">
         <v>308</v>
       </c>
@@ -17543,7 +17555,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="80"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="51" t="s">
         <v>309</v>
       </c>
@@ -17569,7 +17581,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="80"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="51" t="s">
         <v>310</v>
       </c>
@@ -17595,7 +17607,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="80"/>
+      <c r="A37" s="79"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -17621,7 +17633,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="80"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="51" t="s">
         <v>312</v>
       </c>
@@ -17647,7 +17659,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="80"/>
+      <c r="A39" s="79"/>
       <c r="B39" s="51" t="s">
         <v>313</v>
       </c>
@@ -17673,7 +17685,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="80"/>
+      <c r="A40" s="79"/>
       <c r="B40" s="51" t="s">
         <v>314</v>
       </c>
@@ -17693,7 +17705,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="80"/>
+      <c r="A41" s="79"/>
       <c r="B41" s="51" t="s">
         <v>312</v>
       </c>
@@ -17713,7 +17725,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="80"/>
+      <c r="A42" s="79"/>
       <c r="B42" s="51" t="s">
         <v>315</v>
       </c>
@@ -17732,7 +17744,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="80"/>
+      <c r="A43" s="79"/>
       <c r="B43" s="51" t="s">
         <v>309</v>
       </c>
@@ -17751,7 +17763,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="80"/>
+      <c r="A44" s="79"/>
       <c r="B44" s="51" t="s">
         <v>316</v>
       </c>
@@ -17770,7 +17782,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="80"/>
+      <c r="A45" s="79"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -18016,7 +18028,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="79" t="s">
+      <c r="A62" s="83" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -18043,7 +18055,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="80"/>
+      <c r="A63" s="79"/>
       <c r="B63" s="51" t="s">
         <v>284</v>
       </c>
@@ -18068,7 +18080,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="80"/>
+      <c r="A64" s="79"/>
       <c r="B64" s="51" t="s">
         <v>318</v>
       </c>
@@ -18094,7 +18106,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="80"/>
+      <c r="A65" s="79"/>
       <c r="B65" s="51" t="s">
         <v>313</v>
       </c>
@@ -18120,7 +18132,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="80"/>
+      <c r="A66" s="79"/>
       <c r="B66" s="51" t="s">
         <v>319</v>
       </c>
@@ -18146,7 +18158,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="80"/>
+      <c r="A67" s="79"/>
       <c r="B67" s="51" t="s">
         <v>302</v>
       </c>
@@ -18172,7 +18184,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="80"/>
+      <c r="A68" s="79"/>
       <c r="B68" s="51" t="s">
         <v>304</v>
       </c>
@@ -18198,7 +18210,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="80"/>
+      <c r="A69" s="79"/>
       <c r="B69" s="51" t="s">
         <v>315</v>
       </c>
@@ -18224,7 +18236,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="80"/>
+      <c r="A70" s="79"/>
       <c r="B70" s="51" t="s">
         <v>320</v>
       </c>
@@ -18244,7 +18256,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="80"/>
+      <c r="A71" s="79"/>
       <c r="B71" s="51" t="s">
         <v>306</v>
       </c>
@@ -18264,7 +18276,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="80"/>
+      <c r="A72" s="79"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -18275,7 +18287,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="80"/>
+      <c r="A73" s="79"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -18286,7 +18298,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="80"/>
+      <c r="A74" s="79"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -18297,7 +18309,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="80"/>
+      <c r="A75" s="79"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -18308,7 +18320,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="80"/>
+      <c r="A76" s="79"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -18319,7 +18331,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="80" t="s">
+      <c r="A77" s="79" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -18346,7 +18358,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="80"/>
+      <c r="A78" s="79"/>
       <c r="B78" s="51" t="s">
         <v>322</v>
       </c>
@@ -18372,7 +18384,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="80"/>
+      <c r="A79" s="79"/>
       <c r="B79" s="51" t="s">
         <v>323</v>
       </c>
@@ -18398,7 +18410,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="80"/>
+      <c r="A80" s="79"/>
       <c r="B80" s="51" t="s">
         <v>324</v>
       </c>
@@ -18424,7 +18436,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="80"/>
+      <c r="A81" s="79"/>
       <c r="B81" s="51" t="s">
         <v>325</v>
       </c>
@@ -18450,7 +18462,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="80"/>
+      <c r="A82" s="79"/>
       <c r="B82" s="51" t="s">
         <v>326</v>
       </c>
@@ -18476,7 +18488,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="80"/>
+      <c r="A83" s="79"/>
       <c r="B83" s="51" t="s">
         <v>327</v>
       </c>
@@ -18502,7 +18514,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="80"/>
+      <c r="A84" s="79"/>
       <c r="B84" s="51" t="s">
         <v>328</v>
       </c>
@@ -18528,7 +18540,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="80"/>
+      <c r="A85" s="79"/>
       <c r="B85" s="51" t="s">
         <v>294</v>
       </c>
@@ -18548,7 +18560,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="80"/>
+      <c r="A86" s="79"/>
       <c r="B86" s="51" t="s">
         <v>329</v>
       </c>
@@ -18568,7 +18580,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="80"/>
+      <c r="A87" s="79"/>
       <c r="B87" s="51" t="s">
         <v>304</v>
       </c>
@@ -18587,7 +18599,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="80"/>
+      <c r="A88" s="79"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -18598,7 +18610,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="80"/>
+      <c r="A89" s="79"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -18609,7 +18621,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="80"/>
+      <c r="A90" s="79"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -18620,7 +18632,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="83"/>
+      <c r="A91" s="80"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -18631,7 +18643,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="79" t="s">
+      <c r="A92" s="83" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -18658,7 +18670,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="80"/>
+      <c r="A93" s="79"/>
       <c r="B93" s="51" t="s">
         <v>330</v>
       </c>
@@ -18684,7 +18696,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="80"/>
+      <c r="A94" s="79"/>
       <c r="B94" s="56" t="s">
         <v>331</v>
       </c>
@@ -18710,7 +18722,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="80"/>
+      <c r="A95" s="79"/>
       <c r="B95" s="51" t="s">
         <v>309</v>
       </c>
@@ -18736,7 +18748,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="80"/>
+      <c r="A96" s="79"/>
       <c r="B96" s="51" t="s">
         <v>332</v>
       </c>
@@ -18762,7 +18774,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="80"/>
+      <c r="A97" s="79"/>
       <c r="B97" s="51" t="s">
         <v>311</v>
       </c>
@@ -18788,7 +18800,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="80"/>
+      <c r="A98" s="79"/>
       <c r="B98" s="51" t="s">
         <v>313</v>
       </c>
@@ -18814,7 +18826,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="80"/>
+      <c r="A99" s="79"/>
       <c r="B99" s="51" t="s">
         <v>333</v>
       </c>
@@ -18840,7 +18852,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="80"/>
+      <c r="A100" s="79"/>
       <c r="B100" s="51" t="s">
         <v>334</v>
       </c>
@@ -18860,7 +18872,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="80"/>
+      <c r="A101" s="79"/>
       <c r="B101" s="51" t="s">
         <v>309</v>
       </c>
@@ -18880,7 +18892,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="80"/>
+      <c r="A102" s="79"/>
       <c r="B102" s="51" t="s">
         <v>316</v>
       </c>
@@ -18899,7 +18911,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="80"/>
+      <c r="A103" s="79"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -18907,7 +18919,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="80"/>
+      <c r="A104" s="79"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -18915,7 +18927,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="80"/>
+      <c r="A105" s="79"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -19243,7 +19255,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="79" t="s">
+      <c r="A122" s="83" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -19270,7 +19282,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="80"/>
+      <c r="A123" s="79"/>
       <c r="B123" s="51" t="s">
         <v>322</v>
       </c>
@@ -19296,7 +19308,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="80"/>
+      <c r="A124" s="79"/>
       <c r="B124" s="51" t="s">
         <v>294</v>
       </c>
@@ -19322,7 +19334,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="80"/>
+      <c r="A125" s="79"/>
       <c r="B125" s="51" t="s">
         <v>344</v>
       </c>
@@ -19348,7 +19360,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="80"/>
+      <c r="A126" s="79"/>
       <c r="B126" s="51" t="s">
         <v>329</v>
       </c>
@@ -19374,7 +19386,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="80"/>
+      <c r="A127" s="79"/>
       <c r="B127" s="56" t="s">
         <v>345</v>
       </c>
@@ -19400,7 +19412,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="80"/>
+      <c r="A128" s="79"/>
       <c r="B128" s="51" t="s">
         <v>346</v>
       </c>
@@ -19426,7 +19438,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="80"/>
+      <c r="A129" s="79"/>
       <c r="B129" s="56" t="s">
         <v>304</v>
       </c>
@@ -19452,7 +19464,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="80"/>
+      <c r="A130" s="79"/>
       <c r="B130" s="56" t="s">
         <v>304</v>
       </c>
@@ -19472,7 +19484,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="80"/>
+      <c r="A131" s="79"/>
       <c r="B131" s="51" t="s">
         <v>347</v>
       </c>
@@ -19492,7 +19504,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="80"/>
+      <c r="A132" s="79"/>
       <c r="B132" s="51" t="s">
         <v>348</v>
       </c>
@@ -19511,7 +19523,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="80"/>
+      <c r="A133" s="79"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -19522,7 +19534,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="80"/>
+      <c r="A134" s="79"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -19533,7 +19545,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="80"/>
+      <c r="A135" s="79"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -19859,7 +19871,7 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="79" t="s">
+      <c r="A152" s="83" t="s">
         <v>355</v>
       </c>
       <c r="B152" s="51" t="s">
@@ -19886,7 +19898,7 @@
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="80"/>
+      <c r="A153" s="79"/>
       <c r="B153" s="51" t="s">
         <v>357</v>
       </c>
@@ -19912,7 +19924,7 @@
       </c>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="80"/>
+      <c r="A154" s="79"/>
       <c r="B154" s="51" t="s">
         <v>341</v>
       </c>
@@ -19938,7 +19950,7 @@
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="80"/>
+      <c r="A155" s="79"/>
       <c r="B155" s="51" t="s">
         <v>357</v>
       </c>
@@ -19964,7 +19976,7 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="80"/>
+      <c r="A156" s="79"/>
       <c r="B156" s="51" t="s">
         <v>301</v>
       </c>
@@ -19990,7 +20002,7 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="80"/>
+      <c r="A157" s="79"/>
       <c r="B157" s="51" t="s">
         <v>294</v>
       </c>
@@ -20016,7 +20028,7 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="80"/>
+      <c r="A158" s="79"/>
       <c r="B158" s="51" t="s">
         <v>304</v>
       </c>
@@ -20042,7 +20054,7 @@
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="80"/>
+      <c r="A159" s="79"/>
       <c r="B159" s="51" t="s">
         <v>358</v>
       </c>
@@ -20068,7 +20080,7 @@
       </c>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="80"/>
+      <c r="A160" s="79"/>
       <c r="B160" s="51" t="s">
         <v>359</v>
       </c>
@@ -20088,7 +20100,7 @@
       <c r="I160" s="54"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="80"/>
+      <c r="A161" s="79"/>
       <c r="B161" s="51"/>
       <c r="C161" s="51"/>
       <c r="D161" s="52"/>
@@ -20100,7 +20112,7 @@
       <c r="I161" s="54"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="80"/>
+      <c r="A162" s="79"/>
       <c r="B162" s="51"/>
       <c r="C162" s="51"/>
       <c r="D162" s="52"/>
@@ -20111,7 +20123,7 @@
       </c>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="80"/>
+      <c r="A163" s="79"/>
       <c r="B163" s="51"/>
       <c r="C163" s="51"/>
       <c r="D163" s="52"/>
@@ -20122,7 +20134,7 @@
       </c>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="80"/>
+      <c r="A164" s="79"/>
       <c r="B164" s="51"/>
       <c r="C164" s="51"/>
       <c r="D164" s="52"/>
@@ -20133,7 +20145,7 @@
       </c>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="80"/>
+      <c r="A165" s="79"/>
       <c r="B165" s="51"/>
       <c r="C165" s="51"/>
       <c r="D165" s="52"/>
@@ -20144,7 +20156,7 @@
       </c>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="80"/>
+      <c r="A166" s="79"/>
       <c r="B166" s="51"/>
       <c r="C166" s="51"/>
       <c r="D166" s="52"/>
@@ -20156,17 +20168,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="142" priority="12" operator="greaterThan">
@@ -20272,7 +20284,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -20302,7 +20314,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="80"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="51" t="s">
         <v>360</v>
       </c>
@@ -20331,7 +20343,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="80"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="51" t="s">
         <v>361</v>
       </c>
@@ -20360,7 +20372,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="80"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -20389,7 +20401,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="80"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="51" t="s">
         <v>311</v>
       </c>
@@ -20418,7 +20430,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="80"/>
+      <c r="A7" s="79"/>
       <c r="B7" t="s">
         <v>362</v>
       </c>
@@ -20447,7 +20459,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="80"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="51" t="s">
         <v>363</v>
       </c>
@@ -20473,7 +20485,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="80"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="51" t="s">
         <v>364</v>
       </c>
@@ -20499,7 +20511,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="80"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="51" t="s">
         <v>329</v>
       </c>
@@ -20519,7 +20531,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="80"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="51" t="s">
         <v>365</v>
       </c>
@@ -20539,7 +20551,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="80"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="51" t="s">
         <v>345</v>
       </c>
@@ -20558,7 +20570,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="80"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -20577,7 +20589,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="80"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="51" t="s">
         <v>366</v>
       </c>
@@ -20596,7 +20608,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="80"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="51" t="s">
         <v>367</v>
       </c>
@@ -20615,7 +20627,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="80"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="51" t="s">
         <v>368</v>
       </c>
@@ -20634,7 +20646,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="79" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -20661,7 +20673,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="80"/>
+      <c r="A18" s="79"/>
       <c r="B18" s="51" t="s">
         <v>370</v>
       </c>
@@ -20687,7 +20699,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="80"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="51" t="s">
         <v>342</v>
       </c>
@@ -20713,7 +20725,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="80"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="51" t="s">
         <v>371</v>
       </c>
@@ -20739,7 +20751,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="80"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="51" t="s">
         <v>372</v>
       </c>
@@ -20765,7 +20777,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="80"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -20791,7 +20803,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="80"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="51" t="s">
         <v>373</v>
       </c>
@@ -20817,7 +20829,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="80"/>
+      <c r="A24" s="79"/>
       <c r="B24" s="51" t="s">
         <v>374</v>
       </c>
@@ -20843,7 +20855,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="80"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="51" t="s">
         <v>304</v>
       </c>
@@ -20863,7 +20875,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="80"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="51" t="s">
         <v>375</v>
       </c>
@@ -20883,7 +20895,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="80"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="51" t="s">
         <v>376</v>
       </c>
@@ -20902,7 +20914,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="80"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="51" t="s">
         <v>377</v>
       </c>
@@ -20921,7 +20933,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="80"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="51" t="s">
         <v>378</v>
       </c>
@@ -20940,7 +20952,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="80"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -20951,7 +20963,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="80"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -20962,7 +20974,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="79" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -20989,7 +21001,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="80"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="51" t="s">
         <v>380</v>
       </c>
@@ -21015,7 +21027,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="80"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="51" t="s">
         <v>370</v>
       </c>
@@ -21041,7 +21053,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="80"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="51" t="s">
         <v>294</v>
       </c>
@@ -21067,7 +21079,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="80"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="51" t="s">
         <v>381</v>
       </c>
@@ -21093,7 +21105,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="80"/>
+      <c r="A37" s="79"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -21119,7 +21131,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="80"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="51" t="s">
         <v>382</v>
       </c>
@@ -21145,7 +21157,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="80"/>
+      <c r="A39" s="79"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -21171,7 +21183,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="80"/>
+      <c r="A40" s="79"/>
       <c r="B40" s="51" t="s">
         <v>383</v>
       </c>
@@ -21191,7 +21203,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="80"/>
+      <c r="A41" s="79"/>
       <c r="B41" s="51" t="s">
         <v>374</v>
       </c>
@@ -21211,7 +21223,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="80"/>
+      <c r="A42" s="79"/>
       <c r="B42" s="51" t="s">
         <v>304</v>
       </c>
@@ -21230,7 +21242,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="80"/>
+      <c r="A43" s="79"/>
       <c r="B43" s="51" t="s">
         <v>384</v>
       </c>
@@ -21249,7 +21261,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="80"/>
+      <c r="A44" s="79"/>
       <c r="B44" s="51" t="s">
         <v>385</v>
       </c>
@@ -21268,7 +21280,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="80"/>
+      <c r="A45" s="79"/>
       <c r="B45" s="51" t="s">
         <v>386</v>
       </c>
@@ -21532,7 +21544,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="79" t="s">
+      <c r="A62" s="83" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -21559,7 +21571,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="80"/>
+      <c r="A63" s="79"/>
       <c r="B63" s="51" t="s">
         <v>390</v>
       </c>
@@ -21584,7 +21596,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="80"/>
+      <c r="A64" s="79"/>
       <c r="B64" s="51" t="s">
         <v>370</v>
       </c>
@@ -21610,7 +21622,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="80"/>
+      <c r="A65" s="79"/>
       <c r="B65" s="51" t="s">
         <v>309</v>
       </c>
@@ -21636,7 +21648,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="80"/>
+      <c r="A66" s="79"/>
       <c r="B66" s="51" t="s">
         <v>391</v>
       </c>
@@ -21662,7 +21674,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="80"/>
+      <c r="A67" s="79"/>
       <c r="B67" s="51" t="s">
         <v>392</v>
       </c>
@@ -21688,7 +21700,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="80"/>
+      <c r="A68" s="79"/>
       <c r="B68" s="56" t="s">
         <v>313</v>
       </c>
@@ -21714,7 +21726,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="80"/>
+      <c r="A69" s="79"/>
       <c r="B69" s="51" t="s">
         <v>393</v>
       </c>
@@ -21740,7 +21752,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="80"/>
+      <c r="A70" s="79"/>
       <c r="B70" s="51" t="s">
         <v>394</v>
       </c>
@@ -21760,7 +21772,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="80"/>
+      <c r="A71" s="79"/>
       <c r="B71" s="51" t="s">
         <v>342</v>
       </c>
@@ -21780,7 +21792,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="80"/>
+      <c r="A72" s="79"/>
       <c r="B72" s="51" t="s">
         <v>385</v>
       </c>
@@ -21799,7 +21811,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="80"/>
+      <c r="A73" s="79"/>
       <c r="B73" s="51" t="s">
         <v>395</v>
       </c>
@@ -21818,7 +21830,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="80"/>
+      <c r="A74" s="79"/>
       <c r="B74" s="51" t="s">
         <v>396</v>
       </c>
@@ -21837,7 +21849,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="80"/>
+      <c r="A75" s="79"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -21848,7 +21860,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="80"/>
+      <c r="A76" s="79"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -21859,7 +21871,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="80" t="s">
+      <c r="A77" s="79" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -21886,7 +21898,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="80"/>
+      <c r="A78" s="79"/>
       <c r="B78" s="51" t="s">
         <v>397</v>
       </c>
@@ -21912,7 +21924,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="80"/>
+      <c r="A79" s="79"/>
       <c r="B79" s="51" t="s">
         <v>398</v>
       </c>
@@ -21938,7 +21950,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="80"/>
+      <c r="A80" s="79"/>
       <c r="B80" s="51" t="s">
         <v>309</v>
       </c>
@@ -21964,7 +21976,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="80"/>
+      <c r="A81" s="79"/>
       <c r="B81" s="51" t="s">
         <v>399</v>
       </c>
@@ -21990,7 +22002,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="80"/>
+      <c r="A82" s="79"/>
       <c r="B82" s="51" t="s">
         <v>400</v>
       </c>
@@ -22016,7 +22028,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="80"/>
+      <c r="A83" s="79"/>
       <c r="B83" s="51" t="s">
         <v>329</v>
       </c>
@@ -22042,7 +22054,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="80"/>
+      <c r="A84" s="79"/>
       <c r="B84" s="51" t="s">
         <v>401</v>
       </c>
@@ -22068,7 +22080,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="80"/>
+      <c r="A85" s="79"/>
       <c r="B85" s="51" t="s">
         <v>394</v>
       </c>
@@ -22088,7 +22100,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="80"/>
+      <c r="A86" s="79"/>
       <c r="B86" s="51" t="s">
         <v>309</v>
       </c>
@@ -22108,7 +22120,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="80"/>
+      <c r="A87" s="79"/>
       <c r="B87" s="51" t="s">
         <v>385</v>
       </c>
@@ -22127,7 +22139,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="80"/>
+      <c r="A88" s="79"/>
       <c r="B88" s="51" t="s">
         <v>402</v>
       </c>
@@ -22146,7 +22158,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="80"/>
+      <c r="A89" s="79"/>
       <c r="B89" s="51" t="s">
         <v>403</v>
       </c>
@@ -22165,7 +22177,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="80"/>
+      <c r="A90" s="79"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -22176,7 +22188,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="83"/>
+      <c r="A91" s="80"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -22187,7 +22199,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="79" t="s">
+      <c r="A92" s="83" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -22214,7 +22226,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="80"/>
+      <c r="A93" s="79"/>
       <c r="B93" s="51" t="s">
         <v>405</v>
       </c>
@@ -22240,7 +22252,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="80"/>
+      <c r="A94" s="79"/>
       <c r="B94" s="56" t="s">
         <v>406</v>
       </c>
@@ -22266,7 +22278,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="80"/>
+      <c r="A95" s="79"/>
       <c r="B95" s="51" t="s">
         <v>407</v>
       </c>
@@ -22292,7 +22304,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="80"/>
+      <c r="A96" s="79"/>
       <c r="B96" s="51" t="s">
         <v>342</v>
       </c>
@@ -22318,7 +22330,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="80"/>
+      <c r="A97" s="79"/>
       <c r="B97" s="51" t="s">
         <v>408</v>
       </c>
@@ -22344,7 +22356,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="80"/>
+      <c r="A98" s="79"/>
       <c r="B98" s="51" t="s">
         <v>409</v>
       </c>
@@ -22370,7 +22382,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="80"/>
+      <c r="A99" s="79"/>
       <c r="B99" s="51" t="s">
         <v>410</v>
       </c>
@@ -22396,7 +22408,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="80"/>
+      <c r="A100" s="79"/>
       <c r="B100" s="51" t="s">
         <v>411</v>
       </c>
@@ -22416,7 +22428,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="80"/>
+      <c r="A101" s="79"/>
       <c r="B101" s="51" t="s">
         <v>412</v>
       </c>
@@ -22436,7 +22448,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="80"/>
+      <c r="A102" s="79"/>
       <c r="B102" s="51" t="s">
         <v>413</v>
       </c>
@@ -22455,7 +22467,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="80"/>
+      <c r="A103" s="79"/>
       <c r="B103" s="51" t="s">
         <v>414</v>
       </c>
@@ -22474,7 +22486,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="80"/>
+      <c r="A104" s="79"/>
       <c r="B104" s="51" t="s">
         <v>304</v>
       </c>
@@ -22493,7 +22505,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="80"/>
+      <c r="A105" s="79"/>
       <c r="B105" s="51" t="s">
         <v>415</v>
       </c>
@@ -22855,7 +22867,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="79" t="s">
+      <c r="A122" s="83" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -22882,7 +22894,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="80"/>
+      <c r="A123" s="79"/>
       <c r="B123" s="51" t="s">
         <v>426</v>
       </c>
@@ -22908,7 +22920,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="80"/>
+      <c r="A124" s="79"/>
       <c r="B124" s="51" t="s">
         <v>427</v>
       </c>
@@ -22934,7 +22946,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="80"/>
+      <c r="A125" s="79"/>
       <c r="B125" s="51" t="s">
         <v>428</v>
       </c>
@@ -22960,7 +22972,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="80"/>
+      <c r="A126" s="79"/>
       <c r="B126" s="51" t="s">
         <v>429</v>
       </c>
@@ -22986,7 +22998,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="80"/>
+      <c r="A127" s="79"/>
       <c r="B127" s="56" t="s">
         <v>430</v>
       </c>
@@ -23012,7 +23024,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="80"/>
+      <c r="A128" s="79"/>
       <c r="B128" s="51" t="s">
         <v>431</v>
       </c>
@@ -23038,7 +23050,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="80"/>
+      <c r="A129" s="79"/>
       <c r="B129" s="56" t="s">
         <v>432</v>
       </c>
@@ -23064,7 +23076,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="80"/>
+      <c r="A130" s="79"/>
       <c r="B130" s="56" t="s">
         <v>433</v>
       </c>
@@ -23084,7 +23096,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="80"/>
+      <c r="A131" s="79"/>
       <c r="B131" s="51" t="s">
         <v>294</v>
       </c>
@@ -23104,7 +23116,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="80"/>
+      <c r="A132" s="79"/>
       <c r="B132" s="51" t="s">
         <v>329</v>
       </c>
@@ -23123,7 +23135,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="80"/>
+      <c r="A133" s="79"/>
       <c r="B133" s="51" t="s">
         <v>304</v>
       </c>
@@ -23142,7 +23154,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="80"/>
+      <c r="A134" s="79"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -23153,7 +23165,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="80"/>
+      <c r="A135" s="79"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -23611,7 +23623,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -23641,7 +23653,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="80"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="51" t="s">
         <v>311</v>
       </c>
@@ -23670,7 +23682,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="80"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="51" t="s">
         <v>440</v>
       </c>
@@ -23699,7 +23711,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="80"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="56" t="s">
         <v>441</v>
       </c>
@@ -23728,7 +23740,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="80"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="51" t="s">
         <v>342</v>
       </c>
@@ -23757,7 +23769,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="80"/>
+      <c r="A7" s="79"/>
       <c r="B7" t="s">
         <v>442</v>
       </c>
@@ -23786,7 +23798,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="80"/>
+      <c r="A8" s="79"/>
       <c r="B8" t="s">
         <v>443</v>
       </c>
@@ -23812,7 +23824,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="80"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="51" t="s">
         <v>329</v>
       </c>
@@ -23838,7 +23850,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="80"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="51" t="s">
         <v>444</v>
       </c>
@@ -23858,7 +23870,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="80"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="51" t="s">
         <v>445</v>
       </c>
@@ -23878,7 +23890,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="80"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="51" t="s">
         <v>446</v>
       </c>
@@ -23897,7 +23909,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="80"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -23910,7 +23922,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="80"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -23923,7 +23935,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="80"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -23936,7 +23948,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="80"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -23949,7 +23961,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="79" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -23976,7 +23988,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="80"/>
+      <c r="A18" s="79"/>
       <c r="B18" s="51" t="s">
         <v>447</v>
       </c>
@@ -24002,7 +24014,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="80"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="51" t="s">
         <v>342</v>
       </c>
@@ -24028,7 +24040,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="80"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="51" t="s">
         <v>371</v>
       </c>
@@ -24054,7 +24066,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="80"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="51" t="s">
         <v>372</v>
       </c>
@@ -24080,7 +24092,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="80"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -24106,7 +24118,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="80"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="51" t="s">
         <v>373</v>
       </c>
@@ -24132,7 +24144,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="80"/>
+      <c r="A24" s="79"/>
       <c r="B24" s="51" t="s">
         <v>374</v>
       </c>
@@ -24158,7 +24170,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="80"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="51" t="s">
         <v>304</v>
       </c>
@@ -24178,7 +24190,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="80"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="51" t="s">
         <v>375</v>
       </c>
@@ -24198,7 +24210,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="80"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="51" t="s">
         <v>376</v>
       </c>
@@ -24217,7 +24229,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="80"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="51" t="s">
         <v>377</v>
       </c>
@@ -24236,7 +24248,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="80"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="51" t="s">
         <v>378</v>
       </c>
@@ -24255,7 +24267,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="80"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="51" t="s">
         <v>448</v>
       </c>
@@ -24274,7 +24286,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="80"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -24285,7 +24297,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="79" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -24312,7 +24324,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="80"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="51" t="s">
         <v>449</v>
       </c>
@@ -24338,7 +24350,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="80"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="51" t="s">
         <v>450</v>
       </c>
@@ -24364,7 +24376,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="80"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="51" t="s">
         <v>294</v>
       </c>
@@ -24390,7 +24402,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="80"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="51" t="s">
         <v>451</v>
       </c>
@@ -24416,7 +24428,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="80"/>
+      <c r="A37" s="79"/>
       <c r="B37" s="51" t="s">
         <v>311</v>
       </c>
@@ -24442,7 +24454,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="80"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="51" t="s">
         <v>452</v>
       </c>
@@ -24468,7 +24480,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="80"/>
+      <c r="A39" s="79"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -24494,7 +24506,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="80"/>
+      <c r="A40" s="79"/>
       <c r="B40" s="51" t="s">
         <v>453</v>
       </c>
@@ -24514,7 +24526,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="80"/>
+      <c r="A41" s="79"/>
       <c r="B41" s="51" t="s">
         <v>454</v>
       </c>
@@ -24534,7 +24546,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="80"/>
+      <c r="A42" s="79"/>
       <c r="B42" s="51" t="s">
         <v>304</v>
       </c>
@@ -24553,7 +24565,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="80"/>
+      <c r="A43" s="79"/>
       <c r="B43" s="51" t="s">
         <v>455</v>
       </c>
@@ -24572,7 +24584,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="80"/>
+      <c r="A44" s="79"/>
       <c r="B44" s="51" t="s">
         <v>448</v>
       </c>
@@ -24591,7 +24603,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="80"/>
+      <c r="A45" s="79"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
       <c r="E45" s="52"/>
@@ -24838,7 +24850,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="79" t="s">
+      <c r="A62" s="83" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -24857,7 +24869,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="80"/>
+      <c r="A63" s="79"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -24874,7 +24886,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="80"/>
+      <c r="A64" s="79"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -24892,7 +24904,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="80"/>
+      <c r="A65" s="79"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -24910,7 +24922,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="80"/>
+      <c r="A66" s="79"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -24928,7 +24940,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="80"/>
+      <c r="A67" s="79"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -24946,7 +24958,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="80"/>
+      <c r="A68" s="79"/>
       <c r="B68" s="56" t="s">
         <v>456</v>
       </c>
@@ -24966,7 +24978,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="80"/>
+      <c r="A69" s="79"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -24984,7 +24996,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="80"/>
+      <c r="A70" s="79"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -24996,7 +25008,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="80"/>
+      <c r="A71" s="79"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -25008,7 +25020,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="80"/>
+      <c r="A72" s="79"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -25019,7 +25031,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="80"/>
+      <c r="A73" s="79"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -25030,7 +25042,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="80"/>
+      <c r="A74" s="79"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -25041,7 +25053,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="80"/>
+      <c r="A75" s="79"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -25052,7 +25064,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="80"/>
+      <c r="A76" s="79"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -25063,7 +25075,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="80" t="s">
+      <c r="A77" s="79" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -25090,7 +25102,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="80"/>
+      <c r="A78" s="79"/>
       <c r="B78" s="51" t="s">
         <v>457</v>
       </c>
@@ -25116,7 +25128,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="80"/>
+      <c r="A79" s="79"/>
       <c r="B79" s="51" t="s">
         <v>458</v>
       </c>
@@ -25142,7 +25154,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="80"/>
+      <c r="A80" s="79"/>
       <c r="B80" s="51" t="s">
         <v>309</v>
       </c>
@@ -25168,7 +25180,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="80"/>
+      <c r="A81" s="79"/>
       <c r="B81" s="51" t="s">
         <v>459</v>
       </c>
@@ -25194,7 +25206,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="80"/>
+      <c r="A82" s="79"/>
       <c r="B82" s="51" t="s">
         <v>400</v>
       </c>
@@ -25220,7 +25232,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="80"/>
+      <c r="A83" s="79"/>
       <c r="B83" s="51" t="s">
         <v>329</v>
       </c>
@@ -25246,7 +25258,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="80"/>
+      <c r="A84" s="79"/>
       <c r="B84" s="51" t="s">
         <v>401</v>
       </c>
@@ -25272,7 +25284,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="80"/>
+      <c r="A85" s="79"/>
       <c r="B85" s="51" t="s">
         <v>394</v>
       </c>
@@ -25292,7 +25304,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="80"/>
+      <c r="A86" s="79"/>
       <c r="B86" s="51" t="s">
         <v>309</v>
       </c>
@@ -25312,7 +25324,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="80"/>
+      <c r="A87" s="79"/>
       <c r="B87" s="51" t="s">
         <v>385</v>
       </c>
@@ -25331,7 +25343,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="80"/>
+      <c r="A88" s="79"/>
       <c r="B88" s="51" t="s">
         <v>402</v>
       </c>
@@ -25350,7 +25362,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="80"/>
+      <c r="A89" s="79"/>
       <c r="B89" s="51" t="s">
         <v>403</v>
       </c>
@@ -25369,7 +25381,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="80"/>
+      <c r="A90" s="79"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -25380,7 +25392,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="83"/>
+      <c r="A91" s="80"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -25391,7 +25403,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="79" t="s">
+      <c r="A92" s="83" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -25418,7 +25430,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="80"/>
+      <c r="A93" s="79"/>
       <c r="B93" s="51" t="s">
         <v>461</v>
       </c>
@@ -25444,7 +25456,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="80"/>
+      <c r="A94" s="79"/>
       <c r="B94" s="56" t="s">
         <v>309</v>
       </c>
@@ -25470,7 +25482,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="80"/>
+      <c r="A95" s="79"/>
       <c r="B95" s="51" t="s">
         <v>462</v>
       </c>
@@ -25496,7 +25508,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="80"/>
+      <c r="A96" s="79"/>
       <c r="B96" s="51" t="s">
         <v>463</v>
       </c>
@@ -25522,7 +25534,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="80"/>
+      <c r="A97" s="79"/>
       <c r="B97" s="51" t="s">
         <v>464</v>
       </c>
@@ -25548,7 +25560,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="80"/>
+      <c r="A98" s="79"/>
       <c r="B98" s="51" t="s">
         <v>465</v>
       </c>
@@ -25574,7 +25586,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="80"/>
+      <c r="A99" s="79"/>
       <c r="B99" s="51" t="s">
         <v>466</v>
       </c>
@@ -25600,7 +25612,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="80"/>
+      <c r="A100" s="79"/>
       <c r="B100" s="51" t="s">
         <v>421</v>
       </c>
@@ -25620,7 +25632,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="80"/>
+      <c r="A101" s="79"/>
       <c r="B101" s="51" t="s">
         <v>467</v>
       </c>
@@ -25640,7 +25652,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="80"/>
+      <c r="A102" s="79"/>
       <c r="B102" s="51" t="s">
         <v>468</v>
       </c>
@@ -25659,7 +25671,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="80"/>
+      <c r="A103" s="79"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -25676,7 +25688,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="80"/>
+      <c r="A104" s="79"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -25693,7 +25705,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="80"/>
+      <c r="A105" s="79"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -25953,7 +25965,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="79" t="s">
+      <c r="A122" s="83" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51"/>
@@ -25978,7 +25990,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="80"/>
+      <c r="A123" s="79"/>
       <c r="B123" s="51"/>
       <c r="C123" s="51" t="s">
         <v>295</v>
@@ -26002,7 +26014,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="80"/>
+      <c r="A124" s="79"/>
       <c r="B124" s="51"/>
       <c r="C124" s="51" t="s">
         <v>288</v>
@@ -26026,7 +26038,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="80"/>
+      <c r="A125" s="79"/>
       <c r="B125" s="51"/>
       <c r="C125" s="51" t="s">
         <v>295</v>
@@ -26050,7 +26062,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="80"/>
+      <c r="A126" s="79"/>
       <c r="B126" s="58"/>
       <c r="C126" s="51" t="s">
         <v>288</v>
@@ -26146,7 +26158,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="80"/>
+      <c r="A131" s="79"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -26155,7 +26167,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="80"/>
+      <c r="A132" s="79"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -26163,7 +26175,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="80"/>
+      <c r="A133" s="79"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -26171,7 +26183,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="80"/>
+      <c r="A134" s="79"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -26179,7 +26191,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="80"/>
+      <c r="A135" s="79"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -26941,7 +26953,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -26971,7 +26983,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="80"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="51" t="s">
         <v>470</v>
       </c>
@@ -27000,7 +27012,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="80"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="51" t="s">
         <v>471</v>
       </c>
@@ -27029,7 +27041,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="80"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="51" t="s">
         <v>472</v>
       </c>
@@ -27058,7 +27070,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="80"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="51" t="s">
         <v>329</v>
       </c>
@@ -27087,7 +27099,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="80"/>
+      <c r="A7" s="79"/>
       <c r="B7" t="s">
         <v>473</v>
       </c>
@@ -27116,7 +27128,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="80"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="51" t="s">
         <v>474</v>
       </c>
@@ -27142,7 +27154,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="80"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
         <v>288</v>
@@ -27162,7 +27174,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="80"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
         <v>295</v>
@@ -27176,7 +27188,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="80"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -27190,7 +27202,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="80"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -27203,7 +27215,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="80"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -27216,7 +27228,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="80"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -27229,7 +27241,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="80"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -27242,7 +27254,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="80"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -27255,7 +27267,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="79" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -27282,7 +27294,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="80"/>
+      <c r="A18" s="79"/>
       <c r="B18" s="51" t="s">
         <v>476</v>
       </c>
@@ -27308,7 +27320,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="80"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -27334,7 +27346,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="80"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="51" t="s">
         <v>477</v>
       </c>
@@ -27360,7 +27372,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="80"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="51" t="s">
         <v>309</v>
       </c>
@@ -27386,7 +27398,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="80"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="51" t="s">
         <v>478</v>
       </c>
@@ -27412,7 +27424,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="80"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
@@ -27427,7 +27439,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="80"/>
+      <c r="A24" s="79"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
@@ -27442,7 +27454,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="80"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -27451,7 +27463,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="80"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -27463,7 +27475,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="80"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -27474,7 +27486,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="80"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -27485,7 +27497,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="80"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -27496,7 +27508,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="80"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -27507,7 +27519,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="80"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -27518,7 +27530,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="79" t="s">
         <v>263</v>
       </c>
       <c r="C32" s="51"/>
@@ -27536,7 +27548,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="80"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -27554,7 +27566,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="80"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -27572,7 +27584,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="80"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="52"/>
@@ -27590,7 +27602,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="80"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -27608,7 +27620,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="80"/>
+      <c r="A37" s="79"/>
       <c r="B37" s="51" t="s">
         <v>479</v>
       </c>
@@ -27628,7 +27640,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="80"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -27646,7 +27658,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="80"/>
+      <c r="A39" s="79"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -27664,7 +27676,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="80"/>
+      <c r="A40" s="79"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -27676,7 +27688,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="80"/>
+      <c r="A41" s="79"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -27688,7 +27700,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="80"/>
+      <c r="A42" s="79"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -27699,7 +27711,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="80"/>
+      <c r="A43" s="79"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -27710,7 +27722,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="80"/>
+      <c r="A44" s="79"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -27721,7 +27733,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="80"/>
+      <c r="A45" s="79"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -28013,7 +28025,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="79" t="s">
+      <c r="A62" s="83" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -28032,7 +28044,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="80"/>
+      <c r="A63" s="79"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -28049,7 +28061,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="80"/>
+      <c r="A64" s="79"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -28067,7 +28079,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="80"/>
+      <c r="A65" s="79"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -28085,7 +28097,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="80"/>
+      <c r="A66" s="79"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -28103,7 +28115,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="80"/>
+      <c r="A67" s="79"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -28121,7 +28133,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="80"/>
+      <c r="A68" s="79"/>
       <c r="B68" s="56" t="s">
         <v>488</v>
       </c>
@@ -28141,7 +28153,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="80"/>
+      <c r="A69" s="79"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -28159,7 +28171,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="80"/>
+      <c r="A70" s="79"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -28171,7 +28183,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="80"/>
+      <c r="A71" s="79"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -28183,7 +28195,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="80"/>
+      <c r="A72" s="79"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -28194,7 +28206,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="80"/>
+      <c r="A73" s="79"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -28205,7 +28217,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="80"/>
+      <c r="A74" s="79"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -28216,7 +28228,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="80"/>
+      <c r="A75" s="79"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -28227,7 +28239,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="80"/>
+      <c r="A76" s="79"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -28238,7 +28250,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="80" t="s">
+      <c r="A77" s="79" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -28259,7 +28271,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="80"/>
+      <c r="A78" s="79"/>
       <c r="B78" s="51"/>
       <c r="C78" s="51"/>
       <c r="D78" s="52"/>
@@ -28277,7 +28289,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="80"/>
+      <c r="A79" s="79"/>
       <c r="B79" s="51"/>
       <c r="C79" s="51"/>
       <c r="D79" s="52"/>
@@ -28295,7 +28307,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="80"/>
+      <c r="A80" s="79"/>
       <c r="B80" s="51"/>
       <c r="C80" s="51"/>
       <c r="D80" s="52"/>
@@ -28313,7 +28325,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="80"/>
+      <c r="A81" s="79"/>
       <c r="B81" s="51"/>
       <c r="C81" s="51"/>
       <c r="D81" s="52"/>
@@ -28331,7 +28343,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="80"/>
+      <c r="A82" s="79"/>
       <c r="B82" s="51"/>
       <c r="C82" s="51"/>
       <c r="D82" s="52"/>
@@ -28349,7 +28361,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="80"/>
+      <c r="A83" s="79"/>
       <c r="B83" s="51"/>
       <c r="C83" s="51"/>
       <c r="D83" s="52"/>
@@ -28367,7 +28379,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="80"/>
+      <c r="A84" s="79"/>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
@@ -28385,7 +28397,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="80"/>
+      <c r="A85" s="79"/>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
@@ -28397,7 +28409,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="80"/>
+      <c r="A86" s="79"/>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
@@ -28409,7 +28421,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="80"/>
+      <c r="A87" s="79"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
       <c r="D87" s="52"/>
@@ -28420,7 +28432,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="80"/>
+      <c r="A88" s="79"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -28431,7 +28443,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="80"/>
+      <c r="A89" s="79"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -28442,7 +28454,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="80"/>
+      <c r="A90" s="79"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -28453,7 +28465,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="83"/>
+      <c r="A91" s="80"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -28464,7 +28476,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="79" t="s">
+      <c r="A92" s="83" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -28491,7 +28503,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="80"/>
+      <c r="A93" s="79"/>
       <c r="B93" s="51" t="s">
         <v>491</v>
       </c>
@@ -28517,7 +28529,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="80"/>
+      <c r="A94" s="79"/>
       <c r="B94" s="56" t="s">
         <v>492</v>
       </c>
@@ -28543,7 +28555,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="80"/>
+      <c r="A95" s="79"/>
       <c r="B95" s="51"/>
       <c r="C95" s="51" t="s">
         <v>293</v>
@@ -28567,7 +28579,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="80"/>
+      <c r="A96" s="79"/>
       <c r="B96" s="51"/>
       <c r="C96" s="51" t="s">
         <v>295</v>
@@ -28591,7 +28603,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="80"/>
+      <c r="A97" s="79"/>
       <c r="B97" s="51"/>
       <c r="C97" s="51" t="s">
         <v>288</v>
@@ -28615,7 +28627,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="80"/>
+      <c r="A98" s="79"/>
       <c r="B98" s="51"/>
       <c r="C98" s="51" t="s">
         <v>285</v>
@@ -28639,7 +28651,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="80"/>
+      <c r="A99" s="79"/>
       <c r="B99" s="51"/>
       <c r="C99" s="51" t="s">
         <v>290</v>
@@ -28663,7 +28675,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="80"/>
+      <c r="A100" s="79"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>288</v>
@@ -28681,7 +28693,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="80"/>
+      <c r="A101" s="79"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>295</v>
@@ -28699,7 +28711,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="80"/>
+      <c r="A102" s="79"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -28716,7 +28728,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="80"/>
+      <c r="A103" s="79"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -28733,7 +28745,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="80"/>
+      <c r="A104" s="79"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -28750,7 +28762,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="80"/>
+      <c r="A105" s="79"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -29010,7 +29022,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="79" t="s">
+      <c r="A122" s="83" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -29037,7 +29049,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="80"/>
+      <c r="A123" s="79"/>
       <c r="B123" s="51" t="s">
         <v>494</v>
       </c>
@@ -29063,7 +29075,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="80"/>
+      <c r="A124" s="79"/>
       <c r="B124" s="51" t="s">
         <v>495</v>
       </c>
@@ -29089,7 +29101,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="80"/>
+      <c r="A125" s="79"/>
       <c r="B125" s="51" t="s">
         <v>496</v>
       </c>
@@ -29115,7 +29127,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="80"/>
+      <c r="A126" s="79"/>
       <c r="B126" s="58" t="s">
         <v>497</v>
       </c>
@@ -29237,7 +29249,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="80"/>
+      <c r="A131" s="79"/>
       <c r="B131" s="59" t="s">
         <v>502</v>
       </c>
@@ -29256,7 +29268,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="80"/>
+      <c r="A132" s="79"/>
       <c r="B132" s="51" t="s">
         <v>503</v>
       </c>
@@ -29274,7 +29286,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="80"/>
+      <c r="A133" s="79"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -29282,7 +29294,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="80"/>
+      <c r="A134" s="79"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -29290,7 +29302,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="80"/>
+      <c r="A135" s="79"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -29710,7 +29722,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51"/>
@@ -29734,7 +29746,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="80"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51" t="s">
         <v>288</v>
@@ -29757,7 +29769,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="80"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51" t="s">
         <v>285</v>
@@ -29780,7 +29792,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="80"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51" t="s">
         <v>295</v>
@@ -29803,7 +29815,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="80"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51" t="s">
         <v>285</v>
@@ -29826,7 +29838,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="80"/>
+      <c r="A7" s="79"/>
       <c r="C7" s="51" t="s">
         <v>288</v>
       </c>
@@ -29848,7 +29860,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="80"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51" t="s">
         <v>288</v>
@@ -29868,7 +29880,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="80"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="51" t="s">
         <v>388</v>
       </c>
@@ -29890,7 +29902,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="80"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
         <v>295</v>
@@ -29904,7 +29916,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="80"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -29918,7 +29930,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="80"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -29931,7 +29943,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="80"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -29944,7 +29956,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="80"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -29957,7 +29969,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="80"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -29970,7 +29982,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="80"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -29983,7 +29995,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="79" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -30010,7 +30022,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="80"/>
+      <c r="A18" s="79"/>
       <c r="B18" s="51" t="s">
         <v>510</v>
       </c>
@@ -30036,7 +30048,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="80"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -30062,7 +30074,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="80"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="51" t="s">
         <v>477</v>
       </c>
@@ -30088,7 +30100,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="80"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="51" t="s">
         <v>511</v>
       </c>
@@ -30114,7 +30126,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="80"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52"/>
@@ -30132,7 +30144,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="80"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
@@ -30147,7 +30159,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="80"/>
+      <c r="A24" s="79"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
@@ -30162,7 +30174,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="80"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -30171,7 +30183,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="80"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -30183,7 +30195,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="80"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -30194,7 +30206,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="80"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -30205,7 +30217,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="80"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -30216,7 +30228,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="80"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -30227,7 +30239,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="80"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -30238,7 +30250,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="79" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -30259,7 +30271,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="80"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -30277,7 +30289,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="80"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -30295,7 +30307,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="80"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="51" t="s">
         <v>513</v>
       </c>
@@ -30321,7 +30333,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="80"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -30339,7 +30351,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="80"/>
+      <c r="A37" s="79"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
       <c r="D37" s="52"/>
@@ -30357,7 +30369,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="80"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -30375,7 +30387,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="80"/>
+      <c r="A39" s="79"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -30393,7 +30405,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="80"/>
+      <c r="A40" s="79"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -30405,7 +30417,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="80"/>
+      <c r="A41" s="79"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -30417,7 +30429,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="80"/>
+      <c r="A42" s="79"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -30428,7 +30440,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="80"/>
+      <c r="A43" s="79"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -30439,7 +30451,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="80"/>
+      <c r="A44" s="79"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -30450,7 +30462,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="80"/>
+      <c r="A45" s="79"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -30710,7 +30722,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="79" t="s">
+      <c r="A62" s="83" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -30729,7 +30741,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="80"/>
+      <c r="A63" s="79"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
       <c r="D63" s="52"/>
@@ -30746,7 +30758,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="80"/>
+      <c r="A64" s="79"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -30764,7 +30776,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="80"/>
+      <c r="A65" s="79"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
       <c r="D65" s="52"/>
@@ -30782,7 +30794,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="80"/>
+      <c r="A66" s="79"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
       <c r="D66" s="52"/>
@@ -30800,7 +30812,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="80"/>
+      <c r="A67" s="79"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="52"/>
@@ -30818,7 +30830,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="80"/>
+      <c r="A68" s="79"/>
       <c r="B68" s="56" t="s">
         <v>520</v>
       </c>
@@ -30838,7 +30850,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="80"/>
+      <c r="A69" s="79"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -30856,7 +30868,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="80"/>
+      <c r="A70" s="79"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -30868,7 +30880,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="80"/>
+      <c r="A71" s="79"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -30880,7 +30892,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="80"/>
+      <c r="A72" s="79"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -30891,7 +30903,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="80"/>
+      <c r="A73" s="79"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -30902,7 +30914,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="80"/>
+      <c r="A74" s="79"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -30913,7 +30925,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="80"/>
+      <c r="A75" s="79"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -30924,7 +30936,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="80"/>
+      <c r="A76" s="79"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -30935,7 +30947,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="80" t="s">
+      <c r="A77" s="79" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -30962,7 +30974,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="80"/>
+      <c r="A78" s="79"/>
       <c r="B78" s="56" t="s">
         <v>522</v>
       </c>
@@ -30988,7 +31000,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="80"/>
+      <c r="A79" s="79"/>
       <c r="B79" s="51" t="s">
         <v>523</v>
       </c>
@@ -31014,7 +31026,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="80"/>
+      <c r="A80" s="79"/>
       <c r="B80" s="51" t="s">
         <v>524</v>
       </c>
@@ -31040,7 +31052,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="80"/>
+      <c r="A81" s="79"/>
       <c r="B81" s="51" t="s">
         <v>525</v>
       </c>
@@ -31066,7 +31078,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="80"/>
+      <c r="A82" s="79"/>
       <c r="B82" s="51" t="s">
         <v>329</v>
       </c>
@@ -31092,7 +31104,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="80"/>
+      <c r="A83" s="79"/>
       <c r="B83" s="56" t="s">
         <v>526</v>
       </c>
@@ -31118,7 +31130,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="80"/>
+      <c r="A84" s="79"/>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
@@ -31136,7 +31148,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="80"/>
+      <c r="A85" s="79"/>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
       <c r="D85" s="52"/>
@@ -31148,7 +31160,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="80"/>
+      <c r="A86" s="79"/>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
       <c r="D86" s="52"/>
@@ -31160,7 +31172,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="80"/>
+      <c r="A87" s="79"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
       <c r="D87" s="52"/>
@@ -31171,7 +31183,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="80"/>
+      <c r="A88" s="79"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -31182,7 +31194,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="80"/>
+      <c r="A89" s="79"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -31193,7 +31205,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="80"/>
+      <c r="A90" s="79"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -31204,7 +31216,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="83"/>
+      <c r="A91" s="80"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -31215,7 +31227,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="79" t="s">
+      <c r="A92" s="83" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51"/>
@@ -31240,7 +31252,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="80"/>
+      <c r="A93" s="79"/>
       <c r="B93" s="51"/>
       <c r="C93" s="51" t="s">
         <v>288</v>
@@ -31264,7 +31276,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="80"/>
+      <c r="A94" s="79"/>
       <c r="B94" s="56"/>
       <c r="C94" s="51" t="s">
         <v>288</v>
@@ -31288,7 +31300,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="80"/>
+      <c r="A95" s="79"/>
       <c r="B95" s="51"/>
       <c r="C95" s="51" t="s">
         <v>293</v>
@@ -31312,7 +31324,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="80"/>
+      <c r="A96" s="79"/>
       <c r="B96" s="51"/>
       <c r="C96" s="51" t="s">
         <v>295</v>
@@ -31336,7 +31348,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="80"/>
+      <c r="A97" s="79"/>
       <c r="B97" s="51"/>
       <c r="C97" s="51" t="s">
         <v>288</v>
@@ -31360,7 +31372,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="80"/>
+      <c r="A98" s="79"/>
       <c r="B98" s="51"/>
       <c r="C98" s="51" t="s">
         <v>285</v>
@@ -31384,7 +31396,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="80"/>
+      <c r="A99" s="79"/>
       <c r="B99" s="51" t="s">
         <v>388</v>
       </c>
@@ -31410,7 +31422,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="80"/>
+      <c r="A100" s="79"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>288</v>
@@ -31428,7 +31440,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="80"/>
+      <c r="A101" s="79"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>295</v>
@@ -31446,7 +31458,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="80"/>
+      <c r="A102" s="79"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -31463,7 +31475,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="80"/>
+      <c r="A103" s="79"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -31480,7 +31492,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="80"/>
+      <c r="A104" s="79"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -31497,7 +31509,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="80"/>
+      <c r="A105" s="79"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -31757,7 +31769,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="79" t="s">
+      <c r="A122" s="83" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -31784,7 +31796,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="80"/>
+      <c r="A123" s="79"/>
       <c r="B123" s="51" t="s">
         <v>529</v>
       </c>
@@ -31810,7 +31822,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="80"/>
+      <c r="A124" s="79"/>
       <c r="B124" s="51" t="s">
         <v>530</v>
       </c>
@@ -31836,7 +31848,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="80"/>
+      <c r="A125" s="79"/>
       <c r="B125" s="51" t="s">
         <v>313</v>
       </c>
@@ -31862,7 +31874,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="80"/>
+      <c r="A126" s="79"/>
       <c r="B126" s="58" t="s">
         <v>531</v>
       </c>
@@ -31984,7 +31996,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="80"/>
+      <c r="A131" s="79"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -31993,7 +32005,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="80"/>
+      <c r="A132" s="79"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -32001,7 +32013,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="80"/>
+      <c r="A133" s="79"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -32009,7 +32021,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="80"/>
+      <c r="A134" s="79"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -32017,7 +32029,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="80"/>
+      <c r="A135" s="79"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -32445,7 +32457,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -32475,7 +32487,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="80"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="51" t="s">
         <v>545</v>
       </c>
@@ -32504,7 +32516,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="80"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="51" t="s">
         <v>546</v>
       </c>
@@ -32533,7 +32545,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="80"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="51" t="s">
         <v>547</v>
       </c>
@@ -32562,7 +32574,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="80"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="51" t="s">
         <v>342</v>
       </c>
@@ -32591,7 +32603,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="80"/>
+      <c r="A7" s="79"/>
       <c r="C7" s="51" t="s">
         <v>288</v>
       </c>
@@ -32613,7 +32625,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="80"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="51" t="s">
         <v>465</v>
       </c>
@@ -32639,7 +32651,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="80"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
         <v>288</v>
@@ -32659,7 +32671,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="80"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="51" t="s">
         <v>548</v>
       </c>
@@ -32679,7 +32691,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="80"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
         <v>288</v>
@@ -32693,7 +32705,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="80"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51" t="s">
         <v>296</v>
@@ -32706,7 +32718,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="80"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
         <v>295</v>
@@ -32719,7 +32731,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="80"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51" t="s">
         <v>288</v>
@@ -32732,7 +32744,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="80"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51" t="s">
         <v>293</v>
@@ -32745,7 +32757,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="80"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -32758,7 +32770,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="79" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -32785,7 +32797,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="80"/>
+      <c r="A18" s="79"/>
       <c r="B18" s="51" t="s">
         <v>549</v>
       </c>
@@ -32811,7 +32823,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="80"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="51" t="s">
         <v>329</v>
       </c>
@@ -32837,7 +32849,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="80"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="51" t="s">
         <v>550</v>
       </c>
@@ -32863,7 +32875,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="80"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="51" t="s">
         <v>550</v>
       </c>
@@ -32889,7 +32901,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="80"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="58" t="s">
         <v>551</v>
       </c>
@@ -32933,7 +32945,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="80"/>
+      <c r="A24" s="79"/>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
       <c r="D24" s="63"/>
@@ -32951,7 +32963,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="80"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -32963,7 +32975,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="80"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -32975,7 +32987,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="80"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -32986,7 +32998,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="80"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -32997,7 +33009,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="80"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -33008,7 +33020,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="80"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -33019,7 +33031,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="80"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -33030,7 +33042,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="79" t="s">
         <v>263</v>
       </c>
       <c r="C32" s="51"/>
@@ -33048,7 +33060,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="80"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
       <c r="D33" s="52"/>
@@ -33066,7 +33078,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="80"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -33084,7 +33096,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="80"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="52"/>
@@ -33102,7 +33114,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="80"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="52"/>
@@ -33120,7 +33132,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="80"/>
+      <c r="A37" s="79"/>
       <c r="B37" s="51" t="s">
         <v>73</v>
       </c>
@@ -33140,7 +33152,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="80"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
@@ -33158,7 +33170,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="80"/>
+      <c r="A39" s="79"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="52"/>
@@ -33176,7 +33188,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="80"/>
+      <c r="A40" s="79"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -33188,7 +33200,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="80"/>
+      <c r="A41" s="79"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="52"/>
@@ -33200,7 +33212,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="80"/>
+      <c r="A42" s="79"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -33211,7 +33223,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="80"/>
+      <c r="A43" s="79"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -33222,7 +33234,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="80"/>
+      <c r="A44" s="79"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -33233,7 +33245,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="80"/>
+      <c r="A45" s="79"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -33552,7 +33564,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="79" t="s">
+      <c r="A62" s="83" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -33579,7 +33591,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="80"/>
+      <c r="A63" s="79"/>
       <c r="B63" s="51" t="s">
         <v>575</v>
       </c>
@@ -33605,7 +33617,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="80"/>
+      <c r="A64" s="79"/>
       <c r="B64" s="51" t="s">
         <v>576</v>
       </c>
@@ -33631,7 +33643,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="80"/>
+      <c r="A65" s="79"/>
       <c r="B65" s="51" t="s">
         <v>309</v>
       </c>
@@ -33657,7 +33669,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="80"/>
+      <c r="A66" s="79"/>
       <c r="B66" s="51" t="s">
         <v>551</v>
       </c>
@@ -33683,7 +33695,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="80"/>
+      <c r="A67" s="79"/>
       <c r="B67" s="51" t="s">
         <v>577</v>
       </c>
@@ -33709,7 +33721,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="80"/>
+      <c r="A68" s="79"/>
       <c r="B68" s="56"/>
       <c r="C68" s="51"/>
       <c r="D68" s="52"/>
@@ -33727,7 +33739,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="80"/>
+      <c r="A69" s="79"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -33745,7 +33757,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="80"/>
+      <c r="A70" s="79"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -33757,7 +33769,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="80"/>
+      <c r="A71" s="79"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -33769,7 +33781,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="80"/>
+      <c r="A72" s="79"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -33780,7 +33792,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="80"/>
+      <c r="A73" s="79"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -33791,7 +33803,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="80"/>
+      <c r="A74" s="79"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -33802,7 +33814,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="80"/>
+      <c r="A75" s="79"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -33813,7 +33825,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="80"/>
+      <c r="A76" s="79"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -33824,7 +33836,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="80" t="s">
+      <c r="A77" s="79" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -33851,7 +33863,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="80"/>
+      <c r="A78" s="79"/>
       <c r="B78" s="51" t="s">
         <v>579</v>
       </c>
@@ -33877,7 +33889,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="80"/>
+      <c r="A79" s="79"/>
       <c r="B79" s="51" t="s">
         <v>580</v>
       </c>
@@ -33903,7 +33915,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="80"/>
+      <c r="A80" s="79"/>
       <c r="B80" s="51" t="s">
         <v>581</v>
       </c>
@@ -33929,7 +33941,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="80"/>
+      <c r="A81" s="79"/>
       <c r="B81" s="51" t="s">
         <v>582</v>
       </c>
@@ -33955,7 +33967,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="80"/>
+      <c r="A82" s="79"/>
       <c r="B82" s="51" t="s">
         <v>583</v>
       </c>
@@ -33981,7 +33993,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="80"/>
+      <c r="A83" s="79"/>
       <c r="B83" s="51" t="s">
         <v>584</v>
       </c>
@@ -34007,7 +34019,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="80"/>
+      <c r="A84" s="79"/>
       <c r="B84" s="51" t="s">
         <v>585</v>
       </c>
@@ -34033,7 +34045,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="80"/>
+      <c r="A85" s="79"/>
       <c r="B85" s="51" t="s">
         <v>586</v>
       </c>
@@ -34053,7 +34065,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="80"/>
+      <c r="A86" s="79"/>
       <c r="B86" s="51" t="s">
         <v>551</v>
       </c>
@@ -34073,7 +34085,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="80"/>
+      <c r="A87" s="79"/>
       <c r="B87" s="51" t="s">
         <v>587</v>
       </c>
@@ -34092,7 +34104,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="80"/>
+      <c r="A88" s="79"/>
       <c r="B88" s="51" t="s">
         <v>588</v>
       </c>
@@ -34111,7 +34123,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="80"/>
+      <c r="A89" s="79"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -34122,7 +34134,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="80"/>
+      <c r="A90" s="79"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -34133,7 +34145,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="83"/>
+      <c r="A91" s="80"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -34144,7 +34156,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="79" t="s">
+      <c r="A92" s="83" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -34171,7 +34183,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="80"/>
+      <c r="A93" s="79"/>
       <c r="B93" s="51" t="s">
         <v>589</v>
       </c>
@@ -34197,7 +34209,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="80"/>
+      <c r="A94" s="79"/>
       <c r="B94" s="56" t="s">
         <v>590</v>
       </c>
@@ -34223,7 +34235,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="80"/>
+      <c r="A95" s="79"/>
       <c r="B95" s="51" t="s">
         <v>591</v>
       </c>
@@ -34249,7 +34261,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="80"/>
+      <c r="A96" s="79"/>
       <c r="B96" s="51" t="s">
         <v>465</v>
       </c>
@@ -34275,7 +34287,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="80"/>
+      <c r="A97" s="79"/>
       <c r="B97" s="51" t="s">
         <v>592</v>
       </c>
@@ -34301,7 +34313,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="80"/>
+      <c r="A98" s="79"/>
       <c r="B98" s="51" t="s">
         <v>593</v>
       </c>
@@ -34327,7 +34339,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="80"/>
+      <c r="A99" s="79"/>
       <c r="B99" s="51" t="s">
         <v>309</v>
       </c>
@@ -34353,7 +34365,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="80"/>
+      <c r="A100" s="79"/>
       <c r="B100" s="51" t="s">
         <v>594</v>
       </c>
@@ -34373,7 +34385,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="80"/>
+      <c r="A101" s="79"/>
       <c r="B101" s="51" t="s">
         <v>595</v>
       </c>
@@ -34393,7 +34405,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="80"/>
+      <c r="A102" s="79"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>288</v>
@@ -34410,7 +34422,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="80"/>
+      <c r="A103" s="79"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>296</v>
@@ -34427,7 +34439,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="80"/>
+      <c r="A104" s="79"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>295</v>
@@ -34444,7 +34456,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="80"/>
+      <c r="A105" s="79"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>288</v>
@@ -34702,7 +34714,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="79" t="s">
+      <c r="A122" s="83" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51"/>
@@ -34721,7 +34733,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="80"/>
+      <c r="A123" s="79"/>
       <c r="B123" s="51"/>
       <c r="C123" s="51"/>
       <c r="D123" s="52"/>
@@ -34739,7 +34751,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="80"/>
+      <c r="A124" s="79"/>
       <c r="B124" s="51"/>
       <c r="C124" s="51"/>
       <c r="D124" s="52"/>
@@ -34757,7 +34769,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="80"/>
+      <c r="A125" s="79"/>
       <c r="B125" s="51"/>
       <c r="C125" s="51"/>
       <c r="D125" s="52"/>
@@ -34775,7 +34787,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="80"/>
+      <c r="A126" s="79"/>
       <c r="B126" s="58"/>
       <c r="C126" s="51"/>
       <c r="D126" s="52"/>
@@ -34855,7 +34867,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="80"/>
+      <c r="A131" s="79"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -34864,7 +34876,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="80"/>
+      <c r="A132" s="79"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -34872,7 +34884,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="80"/>
+      <c r="A133" s="79"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -34880,7 +34892,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="80"/>
+      <c r="A134" s="79"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -34888,7 +34900,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="80"/>
+      <c r="A135" s="79"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -35322,7 +35334,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -35352,7 +35364,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="80"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="51" t="s">
         <v>604</v>
       </c>
@@ -35381,7 +35393,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="80"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="51" t="s">
         <v>605</v>
       </c>
@@ -35410,7 +35422,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="80"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="51" t="s">
         <v>309</v>
       </c>
@@ -35439,7 +35451,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="80"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="51" t="s">
         <v>606</v>
       </c>
@@ -35468,7 +35480,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="80"/>
+      <c r="A7" s="79"/>
       <c r="B7" t="s">
         <v>607</v>
       </c>
@@ -35497,7 +35509,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="80"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="51" t="s">
         <v>608</v>
       </c>
@@ -35523,7 +35535,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="80"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="51" t="s">
         <v>329</v>
       </c>
@@ -35549,7 +35561,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="80"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="51" t="s">
         <v>608</v>
       </c>
@@ -35569,7 +35581,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="80"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="51" t="s">
         <v>609</v>
       </c>
@@ -35589,7 +35601,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="80"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="51" t="s">
         <v>610</v>
       </c>
@@ -35608,7 +35620,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="80"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="51" t="s">
         <v>309</v>
       </c>
@@ -35627,7 +35639,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="80"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="51" t="s">
         <v>611</v>
       </c>
@@ -35646,7 +35658,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="80"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="51" t="s">
         <v>612</v>
       </c>
@@ -35665,7 +35677,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="80"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
         <v>290</v>
@@ -35678,7 +35690,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="79" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -35705,7 +35717,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="80"/>
+      <c r="A18" s="79"/>
       <c r="B18" s="51" t="s">
         <v>614</v>
       </c>
@@ -35731,7 +35743,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="80"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="51" t="s">
         <v>309</v>
       </c>
@@ -35757,7 +35769,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="80"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="51" t="s">
         <v>615</v>
       </c>
@@ -35783,7 +35795,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="80"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="51" t="s">
         <v>616</v>
       </c>
@@ -35809,7 +35821,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="80"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="51" t="s">
         <v>329</v>
       </c>
@@ -35835,7 +35847,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="80"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="51" t="s">
         <v>617</v>
       </c>
@@ -35861,7 +35873,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="80"/>
+      <c r="A24" s="79"/>
       <c r="B24" s="51" t="s">
         <v>618</v>
       </c>
@@ -35887,7 +35899,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="80"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="51" t="s">
         <v>309</v>
       </c>
@@ -35907,7 +35919,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="80"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="51" t="s">
         <v>617</v>
       </c>
@@ -35927,7 +35939,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="80"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="51" t="s">
         <v>619</v>
       </c>
@@ -35946,7 +35958,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="80"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -35957,7 +35969,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="80"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -35968,7 +35980,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="80"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -35979,7 +35991,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="80"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -35990,7 +36002,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="79" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -36017,7 +36029,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="80"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="51" t="s">
         <v>620</v>
       </c>
@@ -36043,7 +36055,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="80"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="51" t="s">
         <v>621</v>
       </c>
@@ -36069,7 +36081,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="80"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="51" t="s">
         <v>622</v>
       </c>
@@ -36095,7 +36107,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="80"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="51" t="s">
         <v>623</v>
       </c>
@@ -36121,7 +36133,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="80"/>
+      <c r="A37" s="79"/>
       <c r="B37" s="51" t="s">
         <v>607</v>
       </c>
@@ -36147,7 +36159,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="80"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="51" t="s">
         <v>624</v>
       </c>
@@ -36173,7 +36185,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="80"/>
+      <c r="A39" s="79"/>
       <c r="B39" s="51" t="s">
         <v>329</v>
       </c>
@@ -36199,7 +36211,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="80"/>
+      <c r="A40" s="79"/>
       <c r="B40" s="51" t="s">
         <v>625</v>
       </c>
@@ -36219,7 +36231,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="80"/>
+      <c r="A41" s="79"/>
       <c r="B41" s="51" t="s">
         <v>626</v>
       </c>
@@ -36239,7 +36251,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="80"/>
+      <c r="A42" s="79"/>
       <c r="B42" s="51" t="s">
         <v>309</v>
       </c>
@@ -36258,7 +36270,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="80"/>
+      <c r="A43" s="79"/>
       <c r="B43" s="51" t="s">
         <v>627</v>
       </c>
@@ -36277,7 +36289,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="80"/>
+      <c r="A44" s="79"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
@@ -36288,7 +36300,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="80"/>
+      <c r="A45" s="79"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -36558,7 +36570,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="79" t="s">
+      <c r="A62" s="83" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -36585,7 +36597,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="80"/>
+      <c r="A63" s="79"/>
       <c r="B63" s="51" t="s">
         <v>635</v>
       </c>
@@ -36610,7 +36622,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="80"/>
+      <c r="A64" s="79"/>
       <c r="B64" s="51" t="s">
         <v>636</v>
       </c>
@@ -36636,7 +36648,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="80"/>
+      <c r="A65" s="79"/>
       <c r="B65" s="51" t="s">
         <v>637</v>
       </c>
@@ -36662,7 +36674,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="80"/>
+      <c r="A66" s="79"/>
       <c r="B66" s="51" t="s">
         <v>638</v>
       </c>
@@ -36688,7 +36700,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="80"/>
+      <c r="A67" s="79"/>
       <c r="B67" s="51" t="s">
         <v>599</v>
       </c>
@@ -36714,7 +36726,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="80"/>
+      <c r="A68" s="79"/>
       <c r="B68" s="56" t="s">
         <v>639</v>
       </c>
@@ -36740,7 +36752,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="80"/>
+      <c r="A69" s="79"/>
       <c r="B69" s="51" t="s">
         <v>342</v>
       </c>
@@ -36766,7 +36778,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="80"/>
+      <c r="A70" s="79"/>
       <c r="B70" s="51" t="s">
         <v>640</v>
       </c>
@@ -36786,7 +36798,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="80"/>
+      <c r="A71" s="79"/>
       <c r="B71" s="51" t="s">
         <v>641</v>
       </c>
@@ -36806,7 +36818,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="80"/>
+      <c r="A72" s="79"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -36817,7 +36829,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="80"/>
+      <c r="A73" s="79"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -36828,7 +36840,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="80"/>
+      <c r="A74" s="79"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -36839,7 +36851,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="80"/>
+      <c r="A75" s="79"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -36850,7 +36862,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="80"/>
+      <c r="A76" s="79"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -36861,7 +36873,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="80" t="s">
+      <c r="A77" s="79" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -36888,7 +36900,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="80"/>
+      <c r="A78" s="79"/>
       <c r="B78" s="51" t="s">
         <v>643</v>
       </c>
@@ -36914,7 +36926,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="80"/>
+      <c r="A79" s="79"/>
       <c r="B79" s="51" t="s">
         <v>309</v>
       </c>
@@ -36940,7 +36952,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="80"/>
+      <c r="A80" s="79"/>
       <c r="B80" s="51" t="s">
         <v>644</v>
       </c>
@@ -36966,7 +36978,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="80"/>
+      <c r="A81" s="79"/>
       <c r="B81" s="51" t="s">
         <v>645</v>
       </c>
@@ -36992,7 +37004,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="80"/>
+      <c r="A82" s="79"/>
       <c r="B82" s="51" t="s">
         <v>646</v>
       </c>
@@ -37018,7 +37030,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="80"/>
+      <c r="A83" s="79"/>
       <c r="B83" s="51" t="s">
         <v>647</v>
       </c>
@@ -37044,7 +37056,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="80"/>
+      <c r="A84" s="79"/>
       <c r="B84" s="51" t="s">
         <v>580</v>
       </c>
@@ -37070,7 +37082,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="80"/>
+      <c r="A85" s="79"/>
       <c r="B85" s="51" t="s">
         <v>648</v>
       </c>
@@ -37090,7 +37102,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="80"/>
+      <c r="A86" s="79"/>
       <c r="B86" s="51" t="s">
         <v>649</v>
       </c>
@@ -37110,7 +37122,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="80"/>
+      <c r="A87" s="79"/>
       <c r="B87" s="51" t="s">
         <v>650</v>
       </c>
@@ -37130,7 +37142,7 @@
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="80"/>
+      <c r="A88" s="79"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -37141,7 +37153,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="80"/>
+      <c r="A89" s="79"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -37152,7 +37164,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="80"/>
+      <c r="A90" s="79"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -37163,7 +37175,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="80"/>
+      <c r="A91" s="79"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -37174,7 +37186,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="83"/>
+      <c r="A92" s="80"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -37185,7 +37197,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="79" t="s">
+      <c r="A93" s="83" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -37212,7 +37224,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="80"/>
+      <c r="A94" s="79"/>
       <c r="B94" s="51" t="s">
         <v>651</v>
       </c>
@@ -37238,7 +37250,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="80"/>
+      <c r="A95" s="79"/>
       <c r="B95" s="56" t="s">
         <v>586</v>
       </c>
@@ -37264,7 +37276,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="80"/>
+      <c r="A96" s="79"/>
       <c r="B96" s="51" t="s">
         <v>652</v>
       </c>
@@ -37290,7 +37302,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="80"/>
+      <c r="A97" s="79"/>
       <c r="B97" s="51" t="s">
         <v>653</v>
       </c>
@@ -37316,7 +37328,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="80"/>
+      <c r="A98" s="79"/>
       <c r="B98" s="51" t="s">
         <v>654</v>
       </c>
@@ -37342,7 +37354,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="80"/>
+      <c r="A99" s="79"/>
       <c r="B99" s="51" t="s">
         <v>342</v>
       </c>
@@ -37368,7 +37380,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="80"/>
+      <c r="A100" s="79"/>
       <c r="B100" s="51" t="s">
         <v>655</v>
       </c>
@@ -37394,7 +37406,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="80"/>
+      <c r="A101" s="79"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51" t="s">
         <v>288</v>
@@ -37412,7 +37424,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="80"/>
+      <c r="A102" s="79"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51" t="s">
         <v>295</v>
@@ -37430,7 +37442,7 @@
       <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="80"/>
+      <c r="A103" s="79"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>288</v>
@@ -37447,7 +37459,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="80"/>
+      <c r="A104" s="79"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>296</v>
@@ -37464,7 +37476,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="80"/>
+      <c r="A105" s="79"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>295</v>
@@ -37481,7 +37493,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="80"/>
+      <c r="A106" s="79"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51" t="s">
         <v>288</v>
@@ -37843,7 +37855,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="79" t="s">
+      <c r="A123" s="83" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
@@ -37870,7 +37882,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="80"/>
+      <c r="A124" s="79"/>
       <c r="B124" s="51" t="s">
         <v>665</v>
       </c>
@@ -37896,7 +37908,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="80"/>
+      <c r="A125" s="79"/>
       <c r="B125" s="51" t="s">
         <v>342</v>
       </c>
@@ -37922,7 +37934,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="80"/>
+      <c r="A126" s="79"/>
       <c r="B126" s="51" t="s">
         <v>666</v>
       </c>
@@ -37948,7 +37960,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="80"/>
+      <c r="A127" s="79"/>
       <c r="B127" s="58" t="s">
         <v>645</v>
       </c>
@@ -38070,7 +38082,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="80"/>
+      <c r="A132" s="79"/>
       <c r="B132" s="59" t="s">
         <v>669</v>
       </c>
@@ -38089,7 +38101,7 @@
       <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="80"/>
+      <c r="A133" s="79"/>
       <c r="B133" s="51" t="s">
         <v>670</v>
       </c>
@@ -38107,7 +38119,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="80"/>
+      <c r="A134" s="79"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -38115,7 +38127,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="80"/>
+      <c r="A135" s="79"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -38123,7 +38135,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="80"/>
+      <c r="A136" s="79"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -38907,7 +38919,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="79" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="59" t="s">
@@ -38934,7 +38946,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="80"/>
+      <c r="A18" s="79"/>
       <c r="B18" s="51" t="s">
         <v>689</v>
       </c>
@@ -38960,7 +38972,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="80"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="51" t="s">
         <v>690</v>
       </c>
@@ -38986,7 +38998,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="80"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="51" t="s">
         <v>691</v>
       </c>
@@ -39012,7 +39024,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="80"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="51" t="s">
         <v>309</v>
       </c>
@@ -39038,7 +39050,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="80"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="51" t="s">
         <v>692</v>
       </c>
@@ -39064,7 +39076,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="80"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="51" t="s">
         <v>329</v>
       </c>
@@ -39090,7 +39102,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="80"/>
+      <c r="A24" s="79"/>
       <c r="B24" s="51" t="s">
         <v>693</v>
       </c>
@@ -39116,7 +39128,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="80"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="51" t="s">
         <v>694</v>
       </c>
@@ -39136,7 +39148,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="80"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="51" t="s">
         <v>695</v>
       </c>
@@ -39156,7 +39168,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="80"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="51" t="s">
         <v>296</v>
       </c>
@@ -39175,7 +39187,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="80"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="51" t="s">
         <v>696</v>
       </c>
@@ -39194,7 +39206,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="80"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="51" t="s">
         <v>309</v>
       </c>
@@ -39213,7 +39225,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="80"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="51" t="s">
         <v>697</v>
       </c>
@@ -39232,7 +39244,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="80"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="51" t="s">
         <v>698</v>
       </c>
@@ -39251,7 +39263,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="79" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -39278,7 +39290,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="80"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="51" t="s">
         <v>699</v>
       </c>
@@ -39304,7 +39316,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="80"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="51" t="s">
         <v>309</v>
       </c>
@@ -39330,7 +39342,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="80"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="51" t="s">
         <v>700</v>
       </c>
@@ -39356,7 +39368,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="80"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="51" t="s">
         <v>311</v>
       </c>
@@ -39382,7 +39394,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="80"/>
+      <c r="A37" s="79"/>
       <c r="B37" s="51" t="s">
         <v>701</v>
       </c>
@@ -39408,7 +39420,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="80"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="51" t="s">
         <v>329</v>
       </c>
@@ -39434,7 +39446,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="80"/>
+      <c r="A39" s="79"/>
       <c r="B39" s="51" t="s">
         <v>702</v>
       </c>
@@ -39460,7 +39472,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="80"/>
+      <c r="A40" s="79"/>
       <c r="B40" s="51" t="s">
         <v>703</v>
       </c>
@@ -39480,7 +39492,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="80"/>
+      <c r="A41" s="79"/>
       <c r="B41" s="51" t="s">
         <v>695</v>
       </c>
@@ -39500,7 +39512,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="80"/>
+      <c r="A42" s="79"/>
       <c r="B42" s="51" t="s">
         <v>454</v>
       </c>
@@ -39519,7 +39531,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="80"/>
+      <c r="A43" s="79"/>
       <c r="B43" s="51" t="s">
         <v>309</v>
       </c>
@@ -39538,7 +39550,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="80"/>
+      <c r="A44" s="79"/>
       <c r="B44" t="s">
         <v>704</v>
       </c>
@@ -39557,7 +39569,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="80"/>
+      <c r="A45" s="79"/>
       <c r="B45" s="51" t="s">
         <v>705</v>
       </c>
@@ -39905,7 +39917,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="79" t="s">
+      <c r="A62" s="83" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -39932,7 +39944,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="80"/>
+      <c r="A63" s="79"/>
       <c r="B63" s="51" t="s">
         <v>717</v>
       </c>
@@ -39958,7 +39970,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="80"/>
+      <c r="A64" s="79"/>
       <c r="B64" s="51" t="s">
         <v>718</v>
       </c>
@@ -39984,7 +39996,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="80"/>
+      <c r="A65" s="79"/>
       <c r="B65" s="51" t="s">
         <v>342</v>
       </c>
@@ -40010,7 +40022,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="80"/>
+      <c r="A66" s="79"/>
       <c r="B66" s="51" t="s">
         <v>719</v>
       </c>
@@ -40036,7 +40048,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="80"/>
+      <c r="A67" s="79"/>
       <c r="B67" s="51" t="s">
         <v>329</v>
       </c>
@@ -40062,7 +40074,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="80"/>
+      <c r="A68" s="79"/>
       <c r="B68" s="56" t="s">
         <v>720</v>
       </c>
@@ -40088,7 +40100,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="80"/>
+      <c r="A69" s="79"/>
       <c r="B69" s="51" t="s">
         <v>342</v>
       </c>
@@ -40114,7 +40126,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="80"/>
+      <c r="A70" s="79"/>
       <c r="B70" s="51" t="s">
         <v>721</v>
       </c>
@@ -40134,7 +40146,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="80"/>
+      <c r="A71" s="79"/>
       <c r="B71" s="51" t="s">
         <v>685</v>
       </c>
@@ -40154,7 +40166,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="80"/>
+      <c r="A72" s="79"/>
       <c r="B72" s="51" t="s">
         <v>722</v>
       </c>
@@ -40173,7 +40185,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="80"/>
+      <c r="A73" s="79"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -40184,7 +40196,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="80"/>
+      <c r="A74" s="79"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -40195,7 +40207,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="80"/>
+      <c r="A75" s="79"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -40206,7 +40218,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="80"/>
+      <c r="A76" s="79"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -40217,7 +40229,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="80" t="s">
+      <c r="A77" s="79" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -40244,7 +40256,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="80"/>
+      <c r="A78" s="79"/>
       <c r="B78" s="51" t="s">
         <v>724</v>
       </c>
@@ -40270,7 +40282,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="80"/>
+      <c r="A79" s="79"/>
       <c r="B79" s="51" t="s">
         <v>725</v>
       </c>
@@ -40296,7 +40308,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="80"/>
+      <c r="A80" s="79"/>
       <c r="B80" s="65" t="s">
         <v>342</v>
       </c>
@@ -40322,7 +40334,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="80"/>
+      <c r="A81" s="79"/>
       <c r="B81" s="59" t="s">
         <v>726</v>
       </c>
@@ -40348,7 +40360,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="80"/>
+      <c r="A82" s="79"/>
       <c r="B82" s="58" t="s">
         <v>727</v>
       </c>
@@ -40400,7 +40412,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="80"/>
+      <c r="A84" s="79"/>
       <c r="B84" t="s">
         <v>728</v>
       </c>
@@ -40426,7 +40438,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="80"/>
+      <c r="A85" s="79"/>
       <c r="B85" s="51" t="s">
         <v>727</v>
       </c>
@@ -40446,7 +40458,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="80"/>
+      <c r="A86" s="79"/>
       <c r="B86" s="51" t="s">
         <v>729</v>
       </c>
@@ -40466,7 +40478,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="80"/>
+      <c r="A87" s="79"/>
       <c r="B87" s="51" t="s">
         <v>394</v>
       </c>
@@ -40486,7 +40498,7 @@
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="80"/>
+      <c r="A88" s="79"/>
       <c r="B88" s="51" t="s">
         <v>730</v>
       </c>
@@ -40505,7 +40517,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="80"/>
+      <c r="A89" s="79"/>
       <c r="B89" s="51" t="s">
         <v>731</v>
       </c>
@@ -40524,7 +40536,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="80"/>
+      <c r="A90" s="79"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -40535,7 +40547,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="80"/>
+      <c r="A91" s="79"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -40546,7 +40558,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="83"/>
+      <c r="A92" s="80"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -40557,7 +40569,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="79" t="s">
+      <c r="A93" s="83" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -40584,7 +40596,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="80"/>
+      <c r="A94" s="79"/>
       <c r="B94" s="51" t="s">
         <v>732</v>
       </c>
@@ -40610,7 +40622,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="80"/>
+      <c r="A95" s="79"/>
       <c r="B95" s="56" t="s">
         <v>309</v>
       </c>
@@ -40636,7 +40648,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="80"/>
+      <c r="A96" s="79"/>
       <c r="B96" s="51" t="s">
         <v>733</v>
       </c>
@@ -40662,7 +40674,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="80"/>
+      <c r="A97" s="79"/>
       <c r="B97" s="51" t="s">
         <v>653</v>
       </c>
@@ -40688,7 +40700,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="80"/>
+      <c r="A98" s="79"/>
       <c r="B98" s="51" t="s">
         <v>734</v>
       </c>
@@ -40714,7 +40726,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="80"/>
+      <c r="A99" s="79"/>
       <c r="B99" s="51" t="s">
         <v>735</v>
       </c>
@@ -40740,7 +40752,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="80"/>
+      <c r="A100" s="79"/>
       <c r="B100" s="51" t="s">
         <v>736</v>
       </c>
@@ -40766,7 +40778,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="80"/>
+      <c r="A101" s="79"/>
       <c r="B101" s="51" t="s">
         <v>737</v>
       </c>
@@ -40786,7 +40798,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="80"/>
+      <c r="A102" s="79"/>
       <c r="B102" s="51" t="s">
         <v>738</v>
       </c>
@@ -40806,7 +40818,7 @@
       <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="80"/>
+      <c r="A103" s="79"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51" t="s">
         <v>288</v>
@@ -40823,7 +40835,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="80"/>
+      <c r="A104" s="79"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51" t="s">
         <v>296</v>
@@ -40840,7 +40852,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="80"/>
+      <c r="A105" s="79"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51" t="s">
         <v>295</v>
@@ -40857,7 +40869,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="80"/>
+      <c r="A106" s="79"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51" t="s">
         <v>288</v>
@@ -41221,7 +41233,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="79" t="s">
+      <c r="A123" s="83" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
@@ -41248,7 +41260,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="80"/>
+      <c r="A124" s="79"/>
       <c r="B124" s="51" t="s">
         <v>665</v>
       </c>
@@ -41274,7 +41286,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="80"/>
+      <c r="A125" s="79"/>
       <c r="B125" s="51" t="s">
         <v>342</v>
       </c>
@@ -41300,7 +41312,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="80"/>
+      <c r="A126" s="79"/>
       <c r="B126" s="51" t="s">
         <v>666</v>
       </c>
@@ -41326,7 +41338,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="80"/>
+      <c r="A127" s="79"/>
       <c r="B127" s="58" t="s">
         <v>645</v>
       </c>
@@ -41448,7 +41460,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="80"/>
+      <c r="A132" s="79"/>
       <c r="B132" s="59" t="s">
         <v>669</v>
       </c>
@@ -41467,7 +41479,7 @@
       <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="80"/>
+      <c r="A133" s="79"/>
       <c r="B133" s="51" t="s">
         <v>670</v>
       </c>
@@ -41485,7 +41497,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="80"/>
+      <c r="A134" s="79"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -41493,7 +41505,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="80"/>
+      <c r="A135" s="79"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -41501,7 +41513,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="80"/>
+      <c r="A136" s="79"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -42285,7 +42297,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="79" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="59" t="s">
@@ -42312,7 +42324,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="80"/>
+      <c r="A18" s="79"/>
       <c r="B18" s="51" t="s">
         <v>342</v>
       </c>
@@ -42338,7 +42350,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="80"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="51" t="s">
         <v>690</v>
       </c>
@@ -42364,7 +42376,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="80"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="51" t="s">
         <v>762</v>
       </c>
@@ -42390,7 +42402,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="80"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="51" t="s">
         <v>313</v>
       </c>
@@ -42416,7 +42428,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="80"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="51" t="s">
         <v>763</v>
       </c>
@@ -42442,7 +42454,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="80"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="51" t="s">
         <v>309</v>
       </c>
@@ -42468,7 +42480,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="80"/>
+      <c r="A24" s="79"/>
       <c r="B24" s="51" t="s">
         <v>296</v>
       </c>
@@ -42494,7 +42506,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="80"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="51" t="s">
         <v>764</v>
       </c>
@@ -42514,7 +42526,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="80"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52"/>
@@ -42523,7 +42535,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="80"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52"/>
@@ -42531,7 +42543,7 @@
       <c r="F27" s="52"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="80"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -42539,7 +42551,7 @@
       <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="80"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52"/>
@@ -42547,7 +42559,7 @@
       <c r="F29" s="52"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="80"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52"/>
@@ -42555,7 +42567,7 @@
       <c r="F30" s="52"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="80"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -42563,7 +42575,7 @@
       <c r="F31" s="52"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="79" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -42590,7 +42602,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="80"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="51" t="s">
         <v>765</v>
       </c>
@@ -42616,7 +42628,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="80"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="51" t="s">
         <v>309</v>
       </c>
@@ -42642,7 +42654,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="80"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="51" t="s">
         <v>766</v>
       </c>
@@ -42668,7 +42680,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="80"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="51" t="s">
         <v>767</v>
       </c>
@@ -42694,7 +42706,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="80"/>
+      <c r="A37" s="79"/>
       <c r="B37" s="51" t="s">
         <v>301</v>
       </c>
@@ -42720,7 +42732,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="80"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="51" t="s">
         <v>768</v>
       </c>
@@ -42746,7 +42758,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="80"/>
+      <c r="A39" s="79"/>
       <c r="B39" s="51" t="s">
         <v>769</v>
       </c>
@@ -42772,7 +42784,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="80"/>
+      <c r="A40" s="79"/>
       <c r="B40" s="51" t="s">
         <v>454</v>
       </c>
@@ -42792,7 +42804,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="80"/>
+      <c r="A41" s="79"/>
       <c r="B41" s="51" t="s">
         <v>309</v>
       </c>
@@ -42812,7 +42824,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="80"/>
+      <c r="A42" s="79"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -42823,7 +42835,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="80"/>
+      <c r="A43" s="79"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -42834,7 +42846,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="80"/>
+      <c r="A44" s="79"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
       <c r="E44" s="52"/>
@@ -42844,7 +42856,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="80"/>
+      <c r="A45" s="79"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -43174,7 +43186,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="79" t="s">
+      <c r="A62" s="83" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -43201,7 +43213,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="80"/>
+      <c r="A63" s="79"/>
       <c r="B63" s="51" t="s">
         <v>778</v>
       </c>
@@ -43227,7 +43239,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="80"/>
+      <c r="A64" s="79"/>
       <c r="B64" s="51" t="s">
         <v>779</v>
       </c>
@@ -43253,7 +43265,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="80"/>
+      <c r="A65" s="79"/>
       <c r="B65" s="51" t="s">
         <v>342</v>
       </c>
@@ -43279,7 +43291,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="80"/>
+      <c r="A66" s="79"/>
       <c r="B66" s="51" t="s">
         <v>780</v>
       </c>
@@ -43305,7 +43317,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="80"/>
+      <c r="A67" s="79"/>
       <c r="B67" s="51" t="s">
         <v>329</v>
       </c>
@@ -43331,7 +43343,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="80"/>
+      <c r="A68" s="79"/>
       <c r="B68" s="56" t="s">
         <v>781</v>
       </c>
@@ -43357,7 +43369,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="80"/>
+      <c r="A69" s="79"/>
       <c r="B69" s="51" t="s">
         <v>342</v>
       </c>
@@ -43383,7 +43395,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="80"/>
+      <c r="A70" s="79"/>
       <c r="B70" s="51" t="s">
         <v>781</v>
       </c>
@@ -43403,7 +43415,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="80"/>
+      <c r="A71" s="79"/>
       <c r="B71" s="51" t="s">
         <v>685</v>
       </c>
@@ -43423,7 +43435,7 @@
       <c r="I71" s="54"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="80"/>
+      <c r="A72" s="79"/>
       <c r="B72" s="51" t="s">
         <v>782</v>
       </c>
@@ -43442,7 +43454,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="80"/>
+      <c r="A73" s="79"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -43453,7 +43465,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="80"/>
+      <c r="A74" s="79"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -43464,7 +43476,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="80"/>
+      <c r="A75" s="79"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -43475,7 +43487,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="80"/>
+      <c r="A76" s="79"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -43486,7 +43498,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="80" t="s">
+      <c r="A77" s="79" t="s">
         <v>27</v>
       </c>
       <c r="B77" s="51" t="s">
@@ -43513,7 +43525,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="80"/>
+      <c r="A78" s="79"/>
       <c r="B78" s="51" t="s">
         <v>783</v>
       </c>
@@ -43539,7 +43551,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="80"/>
+      <c r="A79" s="79"/>
       <c r="B79" s="51" t="s">
         <v>342</v>
       </c>
@@ -43565,7 +43577,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="80"/>
+      <c r="A80" s="79"/>
       <c r="B80" s="65" t="s">
         <v>784</v>
       </c>
@@ -43591,7 +43603,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="80"/>
+      <c r="A81" s="79"/>
       <c r="B81" s="65" t="s">
         <v>785</v>
       </c>
@@ -43617,7 +43629,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="80"/>
+      <c r="A82" s="79"/>
       <c r="B82" s="51" t="s">
         <v>342</v>
       </c>
@@ -43669,7 +43681,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="80"/>
+      <c r="A84" s="79"/>
       <c r="B84" s="51" t="s">
         <v>786</v>
       </c>
@@ -43695,7 +43707,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="80"/>
+      <c r="A85" s="79"/>
       <c r="B85" s="51" t="s">
         <v>685</v>
       </c>
@@ -43715,7 +43727,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="80"/>
+      <c r="A86" s="79"/>
       <c r="B86" s="51" t="s">
         <v>787</v>
       </c>
@@ -43735,7 +43747,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="80"/>
+      <c r="A87" s="79"/>
       <c r="B87" s="51" t="s">
         <v>788</v>
       </c>
@@ -43755,7 +43767,7 @@
       <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="80"/>
+      <c r="A88" s="79"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52">
@@ -43769,7 +43781,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="80"/>
+      <c r="A89" s="79"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52">
@@ -43783,7 +43795,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="80"/>
+      <c r="A90" s="79"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -43794,7 +43806,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="80"/>
+      <c r="A91" s="79"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -43805,7 +43817,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="83"/>
+      <c r="A92" s="80"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -43816,7 +43828,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="79" t="s">
+      <c r="A93" s="83" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -43843,7 +43855,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="80"/>
+      <c r="A94" s="79"/>
       <c r="B94" s="51" t="s">
         <v>789</v>
       </c>
@@ -43869,7 +43881,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="80"/>
+      <c r="A95" s="79"/>
       <c r="B95" s="56" t="s">
         <v>309</v>
       </c>
@@ -43895,7 +43907,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="80"/>
+      <c r="A96" s="79"/>
       <c r="B96" s="51" t="s">
         <v>790</v>
       </c>
@@ -43921,7 +43933,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="80"/>
+      <c r="A97" s="79"/>
       <c r="B97" s="51" t="s">
         <v>653</v>
       </c>
@@ -43947,7 +43959,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="80"/>
+      <c r="A98" s="79"/>
       <c r="B98" s="51" t="s">
         <v>791</v>
       </c>
@@ -43973,7 +43985,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="80"/>
+      <c r="A99" s="79"/>
       <c r="B99" s="51" t="s">
         <v>792</v>
       </c>
@@ -43999,7 +44011,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="80"/>
+      <c r="A100" s="79"/>
       <c r="B100" s="51" t="s">
         <v>736</v>
       </c>
@@ -44025,7 +44037,7 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="80"/>
+      <c r="A101" s="79"/>
       <c r="B101" s="51" t="s">
         <v>793</v>
       </c>
@@ -44045,7 +44057,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="80"/>
+      <c r="A102" s="79"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51"/>
       <c r="D102" s="52"/>
@@ -44054,7 +44066,7 @@
       <c r="I102" s="54"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="80"/>
+      <c r="A103" s="79"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -44062,7 +44074,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="80"/>
+      <c r="A104" s="79"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -44070,7 +44082,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="80"/>
+      <c r="A105" s="79"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -44078,7 +44090,7 @@
       <c r="F105" s="52"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="80"/>
+      <c r="A106" s="79"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51"/>
       <c r="D106" s="52"/>
@@ -44424,7 +44436,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="79" t="s">
+      <c r="A123" s="83" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
@@ -44451,7 +44463,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="80"/>
+      <c r="A124" s="79"/>
       <c r="B124" s="51" t="s">
         <v>799</v>
       </c>
@@ -44477,7 +44489,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="80"/>
+      <c r="A125" s="79"/>
       <c r="B125" s="51" t="s">
         <v>342</v>
       </c>
@@ -44503,7 +44515,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="80"/>
+      <c r="A126" s="79"/>
       <c r="B126" s="51" t="s">
         <v>800</v>
       </c>
@@ -44529,7 +44541,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="80"/>
+      <c r="A127" s="79"/>
       <c r="B127" s="58" t="s">
         <v>801</v>
       </c>
@@ -44651,7 +44663,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="80"/>
+      <c r="A132" s="79"/>
       <c r="B132" s="59" t="s">
         <v>804</v>
       </c>
@@ -44670,7 +44682,7 @@
       <c r="I132" s="54"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="80"/>
+      <c r="A133" s="79"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -44678,7 +44690,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="80"/>
+      <c r="A134" s="79"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -44686,7 +44698,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="80"/>
+      <c r="A135" s="79"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -44694,7 +44706,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="80"/>
+      <c r="A136" s="79"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -45430,7 +45442,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="79" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="59" t="s">
@@ -45457,7 +45469,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="80"/>
+      <c r="A18" s="79"/>
       <c r="B18" s="51" t="s">
         <v>342</v>
       </c>
@@ -45483,7 +45495,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="80"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="51" t="s">
         <v>809</v>
       </c>
@@ -45509,7 +45521,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="80"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="51" t="s">
         <v>810</v>
       </c>
@@ -45535,7 +45547,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="80"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="51" t="s">
         <v>309</v>
       </c>
@@ -45561,7 +45573,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="80"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="51" t="s">
         <v>811</v>
       </c>
@@ -45587,7 +45599,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="80"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52">
@@ -45609,7 +45621,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="80"/>
+      <c r="A24" s="79"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52">
@@ -45631,7 +45643,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="80"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52">
@@ -45647,7 +45659,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="80"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="52">
@@ -45663,7 +45675,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="80"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
       <c r="D27" s="52">
@@ -45678,7 +45690,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="80"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52">
@@ -45693,7 +45705,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="80"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="52">
@@ -45708,7 +45720,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="80"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
       <c r="D30" s="52">
@@ -45723,7 +45735,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="80"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
       <c r="D31" s="52">
@@ -45738,7 +45750,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="79" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -45765,7 +45777,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="80"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="51" t="s">
         <v>812</v>
       </c>
@@ -45791,7 +45803,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="80"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="51" t="s">
         <v>309</v>
       </c>
@@ -45817,7 +45829,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="80"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="51" t="s">
         <v>813</v>
       </c>
@@ -45843,7 +45855,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="80"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="51" t="s">
         <v>814</v>
       </c>
@@ -45869,7 +45881,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="80"/>
+      <c r="A37" s="79"/>
       <c r="B37" t="s">
         <v>313</v>
       </c>
@@ -45895,7 +45907,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="80"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="51" t="s">
         <v>815</v>
       </c>
@@ -45921,7 +45933,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="80"/>
+      <c r="A39" s="79"/>
       <c r="B39" s="51" t="s">
         <v>816</v>
       </c>
@@ -45947,7 +45959,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="80"/>
+      <c r="A40" s="79"/>
       <c r="B40" t="s">
         <v>342</v>
       </c>
@@ -45967,7 +45979,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="80"/>
+      <c r="A41" s="79"/>
       <c r="B41" s="51" t="s">
         <v>817</v>
       </c>
@@ -45987,7 +45999,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="80"/>
+      <c r="A42" s="79"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -45998,7 +46010,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="80"/>
+      <c r="A43" s="79"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -46009,7 +46021,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="80"/>
+      <c r="A44" s="79"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
       <c r="E44" s="52"/>
@@ -46019,7 +46031,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="80"/>
+      <c r="A45" s="79"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -46335,7 +46347,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="79" t="s">
+      <c r="A62" s="83" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -46362,7 +46374,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="80"/>
+      <c r="A63" s="79"/>
       <c r="B63" s="51" t="s">
         <v>823</v>
       </c>
@@ -46388,7 +46400,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="80"/>
+      <c r="A64" s="79"/>
       <c r="B64" s="51" t="s">
         <v>824</v>
       </c>
@@ -46414,7 +46426,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="80"/>
+      <c r="A65" s="79"/>
       <c r="B65" s="51" t="s">
         <v>342</v>
       </c>
@@ -46440,7 +46452,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="80"/>
+      <c r="A66" s="79"/>
       <c r="B66" s="51" t="s">
         <v>720</v>
       </c>
@@ -46466,7 +46478,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="80"/>
+      <c r="A67" s="79"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="51"/>
@@ -46484,7 +46496,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="80"/>
+      <c r="A68" s="79"/>
       <c r="B68" s="51"/>
       <c r="C68" s="51"/>
       <c r="D68" s="52"/>
@@ -46502,7 +46514,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="80"/>
+      <c r="A69" s="79"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -46514,7 +46526,7 @@
       <c r="I69" s="54"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="80"/>
+      <c r="A70" s="79"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -46526,7 +46538,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="80"/>
+      <c r="A71" s="79"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -46537,7 +46549,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="80"/>
+      <c r="A72" s="79"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -46548,7 +46560,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="80"/>
+      <c r="A73" s="79"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -46559,7 +46571,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="80"/>
+      <c r="A74" s="79"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -46570,7 +46582,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="80"/>
+      <c r="A75" s="79"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -46581,7 +46593,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="80" t="s">
+      <c r="A76" s="79" t="s">
         <v>269</v>
       </c>
       <c r="B76" s="51" t="s">
@@ -46608,7 +46620,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="80"/>
+      <c r="A77" s="79"/>
       <c r="B77" s="51" t="s">
         <v>825</v>
       </c>
@@ -46634,7 +46646,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="80"/>
+      <c r="A78" s="79"/>
       <c r="B78" s="51" t="s">
         <v>826</v>
       </c>
@@ -46660,7 +46672,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="80"/>
+      <c r="A79" s="79"/>
       <c r="B79" s="65" t="s">
         <v>342</v>
       </c>
@@ -46686,7 +46698,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="80"/>
+      <c r="A80" s="79"/>
       <c r="B80" s="56" t="s">
         <v>827</v>
       </c>
@@ -46712,7 +46724,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="80"/>
+      <c r="A81" s="79"/>
       <c r="B81" s="51" t="s">
         <v>828</v>
       </c>
@@ -46764,7 +46776,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="80"/>
+      <c r="A83" s="79"/>
       <c r="B83" s="51"/>
       <c r="C83" s="55" t="s">
         <v>295</v>
@@ -46788,7 +46800,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="80"/>
+      <c r="A84" s="79"/>
       <c r="B84" s="51" t="s">
         <v>830</v>
       </c>
@@ -46808,7 +46820,7 @@
       <c r="I84" s="54"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="80"/>
+      <c r="A85" s="79"/>
       <c r="B85" s="51"/>
       <c r="C85" s="55" t="s">
         <v>295</v>
@@ -46826,7 +46838,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="80"/>
+      <c r="A86" s="79"/>
       <c r="B86" s="51"/>
       <c r="C86" s="55" t="s">
         <v>295</v>
@@ -46844,7 +46856,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="80"/>
+      <c r="A87" s="79"/>
       <c r="B87" s="51"/>
       <c r="C87" s="55" t="s">
         <v>295</v>
@@ -46861,7 +46873,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="80"/>
+      <c r="A88" s="79"/>
       <c r="B88" s="51"/>
       <c r="C88" s="55" t="s">
         <v>295</v>
@@ -46878,7 +46890,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="80"/>
+      <c r="A89" s="79"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -46889,7 +46901,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="80"/>
+      <c r="A90" s="79"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -46900,7 +46912,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="83"/>
+      <c r="A91" s="80"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -46911,7 +46923,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="79" t="s">
+      <c r="A92" s="83" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -46938,7 +46950,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="80"/>
+      <c r="A93" s="79"/>
       <c r="B93" s="51" t="s">
         <v>831</v>
       </c>
@@ -46964,7 +46976,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="80"/>
+      <c r="A94" s="79"/>
       <c r="B94" s="56" t="s">
         <v>309</v>
       </c>
@@ -46990,7 +47002,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="80"/>
+      <c r="A95" s="79"/>
       <c r="B95" s="51" t="s">
         <v>832</v>
       </c>
@@ -47016,7 +47028,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="80"/>
+      <c r="A96" s="79"/>
       <c r="B96" s="51" t="s">
         <v>833</v>
       </c>
@@ -47042,7 +47054,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="80"/>
+      <c r="A97" s="79"/>
       <c r="B97" s="51" t="s">
         <v>834</v>
       </c>
@@ -47068,7 +47080,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="80"/>
+      <c r="A98" s="79"/>
       <c r="B98" s="51" t="s">
         <v>835</v>
       </c>
@@ -47094,7 +47106,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="80"/>
+      <c r="A99" s="79"/>
       <c r="B99" s="51"/>
       <c r="C99" s="51" t="s">
         <v>296</v>
@@ -47118,7 +47130,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="80"/>
+      <c r="A100" s="79"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51" t="s">
         <v>288</v>
@@ -47136,7 +47148,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="80"/>
+      <c r="A101" s="79"/>
       <c r="B101" s="51"/>
       <c r="C101" s="51"/>
       <c r="D101" s="52"/>
@@ -47145,7 +47157,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="80"/>
+      <c r="A102" s="79"/>
       <c r="B102" s="51"/>
       <c r="C102" s="51"/>
       <c r="D102" s="52"/>
@@ -47153,7 +47165,7 @@
       <c r="F102" s="52"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="80"/>
+      <c r="A103" s="79"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
       <c r="D103" s="52"/>
@@ -47161,7 +47173,7 @@
       <c r="F103" s="52"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="80"/>
+      <c r="A104" s="79"/>
       <c r="B104" s="51"/>
       <c r="C104" s="51"/>
       <c r="D104" s="52"/>
@@ -47169,7 +47181,7 @@
       <c r="F104" s="52"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="80"/>
+      <c r="A105" s="79"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -47482,7 +47494,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="79" t="s">
+      <c r="A122" s="83" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -47509,7 +47521,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="80"/>
+      <c r="A123" s="79"/>
       <c r="B123" s="51" t="s">
         <v>843</v>
       </c>
@@ -47535,7 +47547,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="80"/>
+      <c r="A124" s="79"/>
       <c r="B124" s="51" t="s">
         <v>342</v>
       </c>
@@ -47561,7 +47573,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="80"/>
+      <c r="A125" s="79"/>
       <c r="B125" s="51" t="s">
         <v>844</v>
       </c>
@@ -47587,7 +47599,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="80"/>
+      <c r="A126" s="79"/>
       <c r="B126" s="58" t="s">
         <v>845</v>
       </c>
@@ -47699,7 +47711,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="80"/>
+      <c r="A131" s="79"/>
       <c r="B131" s="59"/>
       <c r="C131" s="51"/>
       <c r="D131" s="52"/>
@@ -47708,7 +47720,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="80"/>
+      <c r="A132" s="79"/>
       <c r="B132" s="51"/>
       <c r="C132" s="51"/>
       <c r="D132" s="52"/>
@@ -47716,7 +47728,7 @@
       <c r="F132" s="52"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="80"/>
+      <c r="A133" s="79"/>
       <c r="B133" s="51"/>
       <c r="C133" s="51"/>
       <c r="D133" s="52"/>
@@ -47724,7 +47736,7 @@
       <c r="F133" s="52"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="80"/>
+      <c r="A134" s="79"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="52"/>
@@ -47732,7 +47744,7 @@
       <c r="F134" s="52"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="80"/>
+      <c r="A135" s="79"/>
       <c r="B135" s="51"/>
       <c r="C135" s="51"/>
       <c r="D135" s="52"/>
@@ -48128,8 +48140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7764F1B-A8E7-4FBB-88CE-929509A01D8F}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D79" workbookViewId="0">
-      <selection activeCell="J104" sqref="J104"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -48530,7 +48542,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="79" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="51" t="s">
@@ -48557,7 +48569,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="80"/>
+      <c r="A18" s="79"/>
       <c r="B18" t="s">
         <v>858</v>
       </c>
@@ -48583,7 +48595,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="80"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="51" t="s">
         <v>859</v>
       </c>
@@ -48609,7 +48621,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="80"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="51" t="s">
         <v>342</v>
       </c>
@@ -48635,7 +48647,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="80"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="51" t="s">
         <v>860</v>
       </c>
@@ -48661,7 +48673,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="80"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="58" t="s">
         <v>329</v>
       </c>
@@ -48687,7 +48699,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="80"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="57" t="s">
         <v>861</v>
       </c>
@@ -48713,7 +48725,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="80"/>
+      <c r="A24" s="79"/>
       <c r="B24" s="57" t="s">
         <v>862</v>
       </c>
@@ -48739,7 +48751,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="80"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="57" t="s">
         <v>863</v>
       </c>
@@ -48759,7 +48771,7 @@
       <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="80"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="57" t="s">
         <v>864</v>
       </c>
@@ -48779,7 +48791,7 @@
       <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="80"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="59" t="s">
         <v>865</v>
       </c>
@@ -48798,7 +48810,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="80"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="51" t="s">
         <v>342</v>
       </c>
@@ -48817,7 +48829,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="80"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="51" t="s">
         <v>856</v>
       </c>
@@ -48836,7 +48848,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="80"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="51" t="s">
         <v>356</v>
       </c>
@@ -48855,7 +48867,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="80"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="51" t="s">
         <v>866</v>
       </c>
@@ -48874,7 +48886,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="79" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -48901,7 +48913,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="80"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="51" t="s">
         <v>812</v>
       </c>
@@ -48927,7 +48939,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="80"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="51" t="s">
         <v>309</v>
       </c>
@@ -48953,7 +48965,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="80"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="51" t="s">
         <v>813</v>
       </c>
@@ -48979,7 +48991,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="80"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="51" t="s">
         <v>814</v>
       </c>
@@ -49005,7 +49017,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="80"/>
+      <c r="A37" s="79"/>
       <c r="B37" t="s">
         <v>313</v>
       </c>
@@ -49031,7 +49043,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="80"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="51" t="s">
         <v>815</v>
       </c>
@@ -49057,7 +49069,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="80"/>
+      <c r="A39" s="79"/>
       <c r="B39" s="51" t="s">
         <v>816</v>
       </c>
@@ -49083,7 +49095,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="80"/>
+      <c r="A40" s="79"/>
       <c r="B40" t="s">
         <v>342</v>
       </c>
@@ -49103,7 +49115,7 @@
       <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="80"/>
+      <c r="A41" s="79"/>
       <c r="B41" s="51" t="s">
         <v>817</v>
       </c>
@@ -49123,7 +49135,7 @@
       <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="80"/>
+      <c r="A42" s="79"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="52"/>
@@ -49134,7 +49146,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="80"/>
+      <c r="A43" s="79"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="52"/>
@@ -49145,7 +49157,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="80"/>
+      <c r="A44" s="79"/>
       <c r="C44" s="51"/>
       <c r="D44" s="52"/>
       <c r="E44" s="52"/>
@@ -49155,7 +49167,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="80"/>
+      <c r="A45" s="79"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="52"/>
@@ -49495,7 +49507,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="79" t="s">
+      <c r="A62" s="83" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -49522,7 +49534,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="80"/>
+      <c r="A63" s="79"/>
       <c r="B63" s="51" t="s">
         <v>823</v>
       </c>
@@ -49548,7 +49560,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="80"/>
+      <c r="A64" s="79"/>
       <c r="B64" s="51" t="s">
         <v>824</v>
       </c>
@@ -49574,7 +49586,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="80"/>
+      <c r="A65" s="79"/>
       <c r="B65" s="51" t="s">
         <v>342</v>
       </c>
@@ -49600,7 +49612,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="80"/>
+      <c r="A66" s="79"/>
       <c r="B66" s="51" t="s">
         <v>720</v>
       </c>
@@ -49626,7 +49638,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="80"/>
+      <c r="A67" s="79"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
       <c r="D67" s="51"/>
@@ -49644,7 +49656,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="80"/>
+      <c r="A68" s="79"/>
       <c r="B68" s="51"/>
       <c r="C68" s="51"/>
       <c r="D68" s="52"/>
@@ -49662,7 +49674,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="80"/>
+      <c r="A69" s="79"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
       <c r="D69" s="52"/>
@@ -49674,7 +49686,7 @@
       <c r="I69" s="54"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="80"/>
+      <c r="A70" s="79"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -49686,7 +49698,7 @@
       <c r="I70" s="54"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="80"/>
+      <c r="A71" s="79"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
       <c r="D71" s="52"/>
@@ -49697,7 +49709,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="80"/>
+      <c r="A72" s="79"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -49708,7 +49720,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="80"/>
+      <c r="A73" s="79"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -49719,7 +49731,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="80"/>
+      <c r="A74" s="79"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
       <c r="D74" s="52"/>
@@ -49730,7 +49742,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="80"/>
+      <c r="A75" s="79"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
@@ -49741,7 +49753,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="80" t="s">
+      <c r="A76" s="79" t="s">
         <v>269</v>
       </c>
       <c r="B76" s="51" t="s">
@@ -49768,7 +49780,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="80"/>
+      <c r="A77" s="79"/>
       <c r="B77" s="51" t="s">
         <v>825</v>
       </c>
@@ -49794,7 +49806,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="80"/>
+      <c r="A78" s="79"/>
       <c r="B78" s="51" t="s">
         <v>826</v>
       </c>
@@ -49820,7 +49832,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="80"/>
+      <c r="A79" s="79"/>
       <c r="B79" s="65" t="s">
         <v>342</v>
       </c>
@@ -49846,7 +49858,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="80"/>
+      <c r="A80" s="79"/>
       <c r="B80" s="56" t="s">
         <v>827</v>
       </c>
@@ -49872,7 +49884,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="80"/>
+      <c r="A81" s="79"/>
       <c r="B81" s="51" t="s">
         <v>828</v>
       </c>
@@ -49924,7 +49936,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="80"/>
+      <c r="A83" s="79"/>
       <c r="B83" s="51"/>
       <c r="C83" s="55" t="s">
         <v>295</v>
@@ -49948,7 +49960,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="80"/>
+      <c r="A84" s="79"/>
       <c r="B84" s="51" t="s">
         <v>830</v>
       </c>
@@ -49968,7 +49980,7 @@
       <c r="I84" s="54"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="80"/>
+      <c r="A85" s="79"/>
       <c r="B85" s="51"/>
       <c r="C85" s="55" t="s">
         <v>295</v>
@@ -49986,7 +49998,7 @@
       <c r="I85" s="54"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="80"/>
+      <c r="A86" s="79"/>
       <c r="B86" s="51"/>
       <c r="C86" s="55" t="s">
         <v>295</v>
@@ -50004,7 +50016,7 @@
       <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="80"/>
+      <c r="A87" s="79"/>
       <c r="B87" s="51"/>
       <c r="C87" s="55" t="s">
         <v>295</v>
@@ -50021,7 +50033,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="80"/>
+      <c r="A88" s="79"/>
       <c r="B88" s="51"/>
       <c r="C88" s="55" t="s">
         <v>295</v>
@@ -50038,7 +50050,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="80"/>
+      <c r="A89" s="79"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
@@ -50049,7 +50061,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="80"/>
+      <c r="A90" s="79"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -50060,7 +50072,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="83"/>
+      <c r="A91" s="80"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -50071,7 +50083,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="79" t="s">
+      <c r="A92" s="83" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -50098,7 +50110,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="80"/>
+      <c r="A93" s="79"/>
       <c r="B93" s="51" t="s">
         <v>877</v>
       </c>
@@ -50124,7 +50136,7 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="80"/>
+      <c r="A94" s="79"/>
       <c r="B94" s="56" t="s">
         <v>342</v>
       </c>
@@ -50150,7 +50162,7 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="80"/>
+      <c r="A95" s="79"/>
       <c r="B95" s="51" t="s">
         <v>878</v>
       </c>
@@ -50176,7 +50188,7 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="80"/>
+      <c r="A96" s="79"/>
       <c r="B96" s="51" t="s">
         <v>879</v>
       </c>
@@ -50202,7 +50214,7 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="80"/>
+      <c r="A97" s="79"/>
       <c r="B97" s="51" t="s">
         <v>465</v>
       </c>
@@ -50228,7 +50240,7 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="80"/>
+      <c r="A98" s="79"/>
       <c r="B98" s="51" t="s">
         <v>880</v>
       </c>
@@ -50254,7 +50266,7 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="80"/>
+      <c r="A99" s="79"/>
       <c r="B99" s="51" t="s">
         <v>881</v>
       </c>
@@ -50280,7 +50292,7 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="80"/>
+      <c r="A100" s="79"/>
       <c r="B100" s="51" t="s">
         <v>342</v>
       </c>
@@ -50300,7 +50312,7 @@
       <c r="I100" s="54"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="80"/>
+      <c r="A101" s="79"/>
       <c r="B101" s="51" t="s">
         <v>882</v>
       </c>
@@ -50320,7 +50332,7 @@
       <c r="I101" s="54"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="80"/>
+      <c r="A102" s="79"/>
       <c r="B102" s="51" t="s">
         <v>883</v>
       </c>
@@ -50339,7 +50351,7 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="80"/>
+      <c r="A103" s="79"/>
       <c r="B103" s="51" t="s">
         <v>884</v>
       </c>
@@ -50358,7 +50370,7 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="80"/>
+      <c r="A104" s="79"/>
       <c r="B104" s="51" t="s">
         <v>885</v>
       </c>
@@ -50377,7 +50389,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="80"/>
+      <c r="A105" s="79"/>
       <c r="B105" s="51"/>
       <c r="C105" s="51"/>
       <c r="D105" s="52"/>
@@ -50724,7 +50736,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="79" t="s">
+      <c r="A122" s="83" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -50751,7 +50763,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="80"/>
+      <c r="A123" s="79"/>
       <c r="B123" s="51" t="s">
         <v>895</v>
       </c>
@@ -50777,7 +50789,7 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="80"/>
+      <c r="A124" s="79"/>
       <c r="B124" s="51" t="s">
         <v>342</v>
       </c>
@@ -50803,7 +50815,7 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="80"/>
+      <c r="A125" s="79"/>
       <c r="B125" s="51" t="s">
         <v>896</v>
       </c>
@@ -50829,7 +50841,7 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="80"/>
+      <c r="A126" s="79"/>
       <c r="B126" s="58" t="s">
         <v>329</v>
       </c>
@@ -50953,7 +50965,7 @@
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="80"/>
+      <c r="A131" s="79"/>
       <c r="B131" s="59" t="s">
         <v>333</v>
       </c>
@@ -50973,7 +50985,7 @@
       <c r="I131" s="54"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="80"/>
+      <c r="A132" s="79"/>
       <c r="B132" s="51" t="s">
         <v>342</v>
       </c>
@@ -50992,7 +51004,7 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="80"/>
+      <c r="A133" s="79"/>
       <c r="B133" s="51" t="s">
         <v>856</v>
       </c>
@@ -51011,7 +51023,7 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="80"/>
+      <c r="A134" s="79"/>
       <c r="B134" s="51" t="s">
         <v>356</v>
       </c>
@@ -51030,7 +51042,7 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="80"/>
+      <c r="A135" s="79"/>
       <c r="B135" s="51" t="s">
         <v>898</v>
       </c>
@@ -51063,17 +51075,21 @@
       <c r="A137" s="82" t="s">
         <v>276</v>
       </c>
-      <c r="B137" s="55"/>
-      <c r="C137" s="51"/>
+      <c r="B137" s="55" t="s">
+        <v>899</v>
+      </c>
+      <c r="C137" s="51" t="s">
+        <v>288</v>
+      </c>
       <c r="D137" s="52">
         <v>0.375</v>
       </c>
       <c r="E137" s="52">
-        <v>0.41666666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="F137" s="52">
         <f t="shared" ref="F137:F151" si="3">E137-D137</f>
-        <v>4.1666666666666685E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H137" s="49" t="s">
         <v>286</v>
@@ -51084,39 +51100,47 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="82"/>
-      <c r="B138" s="55"/>
-      <c r="C138" s="51"/>
+      <c r="B138" s="55" t="s">
+        <v>900</v>
+      </c>
+      <c r="C138" s="51" t="s">
+        <v>288</v>
+      </c>
       <c r="D138" s="52">
-        <v>0.41666666666666669</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E138" s="52">
-        <v>0.42708333333333331</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="F138" s="52">
         <f t="shared" si="3"/>
-        <v>1.041666666666663E-2</v>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="H138" s="53" t="s">
         <v>288</v>
       </c>
       <c r="I138" s="52">
         <f>SUMIFS(F137:F151, C137:C151,H138)</f>
-        <v>0</v>
+        <v>0.12499999999999994</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="82"/>
-      <c r="B139" s="55"/>
-      <c r="C139" s="51"/>
+      <c r="B139" s="55" t="s">
+        <v>901</v>
+      </c>
+      <c r="C139" s="51" t="s">
+        <v>288</v>
+      </c>
       <c r="D139" s="52">
-        <v>0.42708333333333331</v>
+        <v>0.625</v>
       </c>
       <c r="E139" s="52">
-        <v>0.52083333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F139" s="52">
         <f t="shared" si="3"/>
-        <v>9.3750000000000056E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H139" s="53" t="s">
         <v>285</v>
@@ -51128,17 +51152,21 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="82"/>
-      <c r="B140" s="55"/>
-      <c r="C140" s="51"/>
+      <c r="B140" s="55" t="s">
+        <v>902</v>
+      </c>
+      <c r="C140" s="51" t="s">
+        <v>288</v>
+      </c>
       <c r="D140" s="52">
-        <v>0.54166666666666663</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E140" s="52">
-        <v>0.5625</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="F140" s="52">
         <f t="shared" si="3"/>
-        <v>2.083333333333337E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H140" s="53" t="s">
         <v>290</v>
@@ -51152,15 +51180,11 @@
       <c r="A141" s="82"/>
       <c r="B141" s="55"/>
       <c r="C141" s="51"/>
-      <c r="D141" s="52">
-        <v>0.5625</v>
-      </c>
-      <c r="E141" s="52">
-        <v>0.625</v>
-      </c>
+      <c r="D141" s="52"/>
+      <c r="E141" s="52"/>
       <c r="F141" s="52">
         <f t="shared" si="3"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="H141" s="53" t="s">
         <v>293</v>
@@ -51174,15 +51198,11 @@
       <c r="A142" s="82"/>
       <c r="B142" s="55"/>
       <c r="C142" s="51"/>
-      <c r="D142" s="52">
-        <v>0.625</v>
-      </c>
-      <c r="E142" s="52">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="D142" s="52"/>
+      <c r="E142" s="52"/>
       <c r="F142" s="52">
         <f t="shared" si="3"/>
-        <v>4.166666666666663E-2</v>
+        <v>0</v>
       </c>
       <c r="H142" s="53" t="s">
         <v>296</v>
@@ -51194,19 +51214,13 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="82"/>
-      <c r="B143" s="55" t="s">
-        <v>73</v>
-      </c>
+      <c r="B143" s="55"/>
       <c r="C143" s="51"/>
-      <c r="D143" s="52">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E143" s="52">
-        <v>0.70138888888888884</v>
-      </c>
+      <c r="D143" s="52"/>
+      <c r="E143" s="52"/>
       <c r="F143" s="52">
         <f t="shared" si="3"/>
-        <v>3.472222222222221E-2</v>
+        <v>0</v>
       </c>
       <c r="H143" s="53" t="s">
         <v>295</v>
@@ -51220,37 +51234,29 @@
       <c r="A144" s="82"/>
       <c r="B144" s="58"/>
       <c r="C144" s="51"/>
-      <c r="D144" s="52">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E144" s="52">
-        <v>0.77083333333333337</v>
-      </c>
+      <c r="D144" s="52"/>
+      <c r="E144" s="52"/>
       <c r="F144" s="52">
         <f t="shared" si="3"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="H144" s="48" t="s">
         <v>300</v>
       </c>
       <c r="I144" s="49">
         <f>SUM(I138:I143)</f>
-        <v>0</v>
+        <v>0.12499999999999994</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="85"/>
       <c r="B145" s="60"/>
       <c r="C145" s="55"/>
-      <c r="D145" s="52">
-        <v>0.78125</v>
-      </c>
-      <c r="E145" s="52">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="D145" s="52"/>
+      <c r="E145" s="52"/>
       <c r="F145" s="52">
         <f t="shared" si="3"/>
-        <v>5.208333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="I145" s="54"/>
     </row>
@@ -51258,15 +51264,11 @@
       <c r="A146" s="82"/>
       <c r="B146" s="56"/>
       <c r="C146" s="51"/>
-      <c r="D146" s="52">
-        <v>0.88541666666666663</v>
-      </c>
-      <c r="E146" s="52">
-        <v>1.0208333333333333</v>
-      </c>
+      <c r="D146" s="52"/>
+      <c r="E146" s="52"/>
       <c r="F146" s="52">
         <f t="shared" si="3"/>
-        <v>0.13541666666666663</v>
+        <v>0</v>
       </c>
       <c r="I146" s="54"/>
     </row>

--- a/Process/Timesheet/Timesheet.xlsx
+++ b/Process/Timesheet/Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25310"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vinoth\GIT\TeamProject\Project\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9355CAF-EFA4-48E0-9B91-7A14AF0C52C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5002627-350F-4152-8141-2102531EE610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19414" windowHeight="10303" firstSheet="26" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19414" windowHeight="10303" firstSheet="28" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 3(06-04-2022)" sheetId="40" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4986" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4988" uniqueCount="939">
   <si>
     <t>Column1</t>
   </si>
@@ -3295,6 +3295,39 @@
   </si>
   <si>
     <t>Sequence  diagram completed - 49 %</t>
+  </si>
+  <si>
+    <t>General Team meeting</t>
+  </si>
+  <si>
+    <t>Worked on employee service ( view profile as a names not as ID)</t>
+  </si>
+  <si>
+    <t>Continued working with employee profile</t>
+  </si>
+  <si>
+    <t>Resumed working with View profile method</t>
+  </si>
+  <si>
+    <t>Helped Goutham to execute Sequence diagram</t>
+  </si>
+  <si>
+    <t>Started working with Swagger Documentation</t>
+  </si>
+  <si>
+    <t>REsolved errors in View profilr method</t>
+  </si>
+  <si>
+    <t>Continued installing Swagger editor , Swagger UI For Swagger documentation</t>
+  </si>
+  <si>
+    <t>Started validating negative cases for APIs with Darshana</t>
+  </si>
+  <si>
+    <t>Resolved Negative Validations in Role service</t>
+  </si>
+  <si>
+    <t>Listing out Needed negative case validations with Swagger check</t>
   </si>
 </sst>
 </file>
@@ -3846,10 +3879,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3858,7 +3892,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3867,7 +3901,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18545,7 +18578,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="85"/>
+      <c r="A46" s="86"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
       <c r="D46" s="52"/>
@@ -18556,7 +18589,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="86" t="s">
+      <c r="A47" s="87" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="55"/>
@@ -18575,7 +18608,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="86"/>
+      <c r="A48" s="87"/>
       <c r="B48" s="55"/>
       <c r="C48" s="51"/>
       <c r="D48" s="52"/>
@@ -18593,7 +18626,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="86"/>
+      <c r="A49" s="87"/>
       <c r="B49" s="55"/>
       <c r="C49" s="51"/>
       <c r="D49" s="52"/>
@@ -18611,7 +18644,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="86"/>
+      <c r="A50" s="87"/>
       <c r="B50" s="55"/>
       <c r="C50" s="51"/>
       <c r="D50" s="52"/>
@@ -18629,7 +18662,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="86"/>
+      <c r="A51" s="87"/>
       <c r="B51" s="55"/>
       <c r="C51" s="51"/>
       <c r="D51" s="52"/>
@@ -18647,7 +18680,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="86"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="55"/>
       <c r="C52" s="51"/>
       <c r="D52" s="52"/>
@@ -18665,7 +18698,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="86"/>
+      <c r="A53" s="87"/>
       <c r="B53" s="55"/>
       <c r="C53" s="51"/>
       <c r="D53" s="52"/>
@@ -18683,7 +18716,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="86"/>
+      <c r="A54" s="87"/>
       <c r="B54" s="55"/>
       <c r="C54" s="51"/>
       <c r="D54" s="52"/>
@@ -18701,7 +18734,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="86"/>
+      <c r="A55" s="87"/>
       <c r="B55" s="55"/>
       <c r="C55" s="51"/>
       <c r="D55" s="52"/>
@@ -18713,7 +18746,7 @@
       <c r="I55" s="54"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="86"/>
+      <c r="A56" s="87"/>
       <c r="B56" s="55"/>
       <c r="C56" s="51"/>
       <c r="D56" s="52"/>
@@ -18725,7 +18758,7 @@
       <c r="I56" s="54"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="86"/>
+      <c r="A57" s="87"/>
       <c r="B57" s="55"/>
       <c r="C57" s="51"/>
       <c r="D57" s="52"/>
@@ -18736,7 +18769,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="86"/>
+      <c r="A58" s="87"/>
       <c r="B58" s="55"/>
       <c r="C58" s="51"/>
       <c r="D58" s="52"/>
@@ -18747,7 +18780,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="86"/>
+      <c r="A59" s="87"/>
       <c r="B59" s="55"/>
       <c r="C59" s="51"/>
       <c r="D59" s="52"/>
@@ -18758,7 +18791,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="86"/>
+      <c r="A60" s="87"/>
       <c r="B60" s="55"/>
       <c r="C60" s="51"/>
       <c r="D60" s="52"/>
@@ -18769,7 +18802,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="86"/>
+      <c r="A61" s="87"/>
       <c r="B61" s="55"/>
       <c r="C61" s="51"/>
       <c r="D61" s="52"/>
@@ -18780,7 +18813,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="88" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -19384,7 +19417,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="87"/>
+      <c r="A91" s="85"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -19395,7 +19428,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="83" t="s">
+      <c r="A92" s="88" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -19687,7 +19720,7 @@
       <c r="F105" s="52"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="85"/>
+      <c r="A106" s="86"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51"/>
       <c r="D106" s="52"/>
@@ -19695,7 +19728,7 @@
       <c r="F106" s="52"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="86" t="s">
+      <c r="A107" s="87" t="s">
         <v>30</v>
       </c>
       <c r="B107" s="55" t="s">
@@ -19722,7 +19755,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="86"/>
+      <c r="A108" s="87"/>
       <c r="B108" s="55" t="s">
         <v>336</v>
       </c>
@@ -19748,7 +19781,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="86"/>
+      <c r="A109" s="87"/>
       <c r="B109" s="55" t="s">
         <v>337</v>
       </c>
@@ -19774,7 +19807,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="86"/>
+      <c r="A110" s="87"/>
       <c r="B110" s="55" t="s">
         <v>294</v>
       </c>
@@ -19800,7 +19833,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="86"/>
+      <c r="A111" s="87"/>
       <c r="B111" s="55" t="s">
         <v>338</v>
       </c>
@@ -19826,7 +19859,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="86"/>
+      <c r="A112" s="87"/>
       <c r="B112" s="55" t="s">
         <v>339</v>
       </c>
@@ -19852,7 +19885,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="86"/>
+      <c r="A113" s="87"/>
       <c r="B113" s="55" t="s">
         <v>340</v>
       </c>
@@ -19878,7 +19911,7 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="86"/>
+      <c r="A114" s="87"/>
       <c r="B114" s="55" t="s">
         <v>301</v>
       </c>
@@ -19904,7 +19937,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="86"/>
+      <c r="A115" s="87"/>
       <c r="B115" s="55" t="s">
         <v>341</v>
       </c>
@@ -19924,7 +19957,7 @@
       <c r="I115" s="54"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="86"/>
+      <c r="A116" s="87"/>
       <c r="B116" s="55" t="s">
         <v>342</v>
       </c>
@@ -19944,7 +19977,7 @@
       <c r="I116" s="54"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="86"/>
+      <c r="A117" s="87"/>
       <c r="B117" s="55" t="s">
         <v>343</v>
       </c>
@@ -19963,7 +19996,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="86"/>
+      <c r="A118" s="87"/>
       <c r="B118" s="55"/>
       <c r="C118" s="51"/>
       <c r="D118" s="52"/>
@@ -19974,7 +20007,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="86"/>
+      <c r="A119" s="87"/>
       <c r="B119" s="55"/>
       <c r="C119" s="51"/>
       <c r="D119" s="52"/>
@@ -19985,7 +20018,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="86"/>
+      <c r="A120" s="87"/>
       <c r="B120" s="55"/>
       <c r="C120" s="51"/>
       <c r="D120" s="52"/>
@@ -19996,7 +20029,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="86"/>
+      <c r="A121" s="87"/>
       <c r="B121" s="55"/>
       <c r="C121" s="51"/>
       <c r="D121" s="52"/>
@@ -20007,7 +20040,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="83" t="s">
+      <c r="A122" s="88" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -20308,7 +20341,7 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="85"/>
+      <c r="A136" s="86"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -20319,7 +20352,7 @@
       </c>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="86" t="s">
+      <c r="A137" s="87" t="s">
         <v>276</v>
       </c>
       <c r="B137" s="55" t="s">
@@ -20346,7 +20379,7 @@
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="86"/>
+      <c r="A138" s="87"/>
       <c r="B138" s="55" t="s">
         <v>350</v>
       </c>
@@ -20372,7 +20405,7 @@
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="86"/>
+      <c r="A139" s="87"/>
       <c r="B139" s="55" t="s">
         <v>351</v>
       </c>
@@ -20398,7 +20431,7 @@
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="86"/>
+      <c r="A140" s="87"/>
       <c r="B140" s="55" t="s">
         <v>352</v>
       </c>
@@ -20424,7 +20457,7 @@
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="86"/>
+      <c r="A141" s="87"/>
       <c r="B141" s="55" t="s">
         <v>301</v>
       </c>
@@ -20450,7 +20483,7 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="86"/>
+      <c r="A142" s="87"/>
       <c r="B142" s="55" t="s">
         <v>294</v>
       </c>
@@ -20476,7 +20509,7 @@
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="86"/>
+      <c r="A143" s="87"/>
       <c r="B143" s="55" t="s">
         <v>304</v>
       </c>
@@ -20502,7 +20535,7 @@
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="86"/>
+      <c r="A144" s="87"/>
       <c r="B144" s="55" t="s">
         <v>334</v>
       </c>
@@ -20528,7 +20561,7 @@
       </c>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="86"/>
+      <c r="A145" s="87"/>
       <c r="B145" s="55" t="s">
         <v>353</v>
       </c>
@@ -20548,7 +20581,7 @@
       <c r="I145" s="54"/>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="86"/>
+      <c r="A146" s="87"/>
       <c r="B146" s="55" t="s">
         <v>354</v>
       </c>
@@ -20568,7 +20601,7 @@
       <c r="I146" s="54"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="86"/>
+      <c r="A147" s="87"/>
       <c r="B147" s="55"/>
       <c r="C147" s="51"/>
       <c r="D147" s="52"/>
@@ -20579,7 +20612,7 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="86"/>
+      <c r="A148" s="87"/>
       <c r="B148" s="55"/>
       <c r="C148" s="51"/>
       <c r="D148" s="52"/>
@@ -20590,7 +20623,7 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="86"/>
+      <c r="A149" s="87"/>
       <c r="B149" s="55"/>
       <c r="C149" s="51"/>
       <c r="D149" s="52"/>
@@ -20601,7 +20634,7 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="86"/>
+      <c r="A150" s="87"/>
       <c r="B150" s="55"/>
       <c r="C150" s="51"/>
       <c r="D150" s="52"/>
@@ -20612,7 +20645,7 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="86"/>
+      <c r="A151" s="87"/>
       <c r="B151" s="55"/>
       <c r="C151" s="51"/>
       <c r="D151" s="52"/>
@@ -20623,7 +20656,7 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="83" t="s">
+      <c r="A152" s="88" t="s">
         <v>355</v>
       </c>
       <c r="B152" s="51" t="s">
@@ -20920,17 +20953,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A122:A136"/>
+    <mergeCell ref="A137:A151"/>
+    <mergeCell ref="A152:A166"/>
     <mergeCell ref="A77:A91"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A122:A136"/>
-    <mergeCell ref="A137:A151"/>
-    <mergeCell ref="A152:A166"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I48 I63 I78 I93 I108 I123 I138 I153">
     <cfRule type="cellIs" dxfId="207" priority="12" operator="greaterThan">
@@ -22051,7 +22084,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="85"/>
+      <c r="A46" s="86"/>
       <c r="B46" s="51" t="s">
         <v>387</v>
       </c>
@@ -22070,7 +22103,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="86" t="s">
+      <c r="A47" s="87" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="55"/>
@@ -22089,7 +22122,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="86"/>
+      <c r="A48" s="87"/>
       <c r="B48" s="55"/>
       <c r="C48" s="51"/>
       <c r="D48" s="52"/>
@@ -22107,7 +22140,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="86"/>
+      <c r="A49" s="87"/>
       <c r="B49" s="55"/>
       <c r="C49" s="51"/>
       <c r="D49" s="52"/>
@@ -22125,7 +22158,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="86"/>
+      <c r="A50" s="87"/>
       <c r="B50" s="55"/>
       <c r="C50" s="51"/>
       <c r="D50" s="52"/>
@@ -22143,7 +22176,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="86"/>
+      <c r="A51" s="87"/>
       <c r="B51" s="55"/>
       <c r="C51" s="51"/>
       <c r="D51" s="52"/>
@@ -22161,7 +22194,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="86"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="55"/>
       <c r="C52" s="51"/>
       <c r="D52" s="52"/>
@@ -22179,7 +22212,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="86"/>
+      <c r="A53" s="87"/>
       <c r="B53" s="55"/>
       <c r="C53" s="51"/>
       <c r="D53" s="52"/>
@@ -22197,7 +22230,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="86"/>
+      <c r="A54" s="87"/>
       <c r="B54" s="55"/>
       <c r="C54" s="51"/>
       <c r="D54" s="52"/>
@@ -22215,7 +22248,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="86"/>
+      <c r="A55" s="87"/>
       <c r="B55" s="56" t="s">
         <v>388</v>
       </c>
@@ -22229,7 +22262,7 @@
       <c r="I55" s="54"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="86"/>
+      <c r="A56" s="87"/>
       <c r="B56" s="55"/>
       <c r="C56" s="51"/>
       <c r="D56" s="52"/>
@@ -22241,7 +22274,7 @@
       <c r="I56" s="54"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="86"/>
+      <c r="A57" s="87"/>
       <c r="B57" s="55"/>
       <c r="C57" s="51"/>
       <c r="D57" s="52"/>
@@ -22252,7 +22285,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="86"/>
+      <c r="A58" s="87"/>
       <c r="B58" s="55"/>
       <c r="C58" s="51"/>
       <c r="D58" s="52"/>
@@ -22263,7 +22296,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="86"/>
+      <c r="A59" s="87"/>
       <c r="B59" s="55"/>
       <c r="C59" s="51"/>
       <c r="D59" s="52"/>
@@ -22274,7 +22307,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="86"/>
+      <c r="A60" s="87"/>
       <c r="B60" s="55"/>
       <c r="C60" s="51"/>
       <c r="D60" s="52"/>
@@ -22285,7 +22318,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="86"/>
+      <c r="A61" s="87"/>
       <c r="B61" s="55"/>
       <c r="C61" s="51"/>
       <c r="D61" s="52"/>
@@ -22296,7 +22329,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="88" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -22940,7 +22973,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="87"/>
+      <c r="A91" s="85"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -22951,7 +22984,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="83" t="s">
+      <c r="A92" s="88" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -23276,7 +23309,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="85"/>
+      <c r="A106" s="86"/>
       <c r="B106" s="51" t="s">
         <v>416</v>
       </c>
@@ -23295,7 +23328,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="86" t="s">
+      <c r="A107" s="87" t="s">
         <v>30</v>
       </c>
       <c r="B107" s="55" t="s">
@@ -23322,7 +23355,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="86"/>
+      <c r="A108" s="87"/>
       <c r="B108" s="55" t="s">
         <v>417</v>
       </c>
@@ -23348,7 +23381,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="86"/>
+      <c r="A109" s="87"/>
       <c r="B109" s="55" t="s">
         <v>418</v>
       </c>
@@ -23374,7 +23407,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="86"/>
+      <c r="A110" s="87"/>
       <c r="B110" s="55" t="s">
         <v>342</v>
       </c>
@@ -23400,7 +23433,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="86"/>
+      <c r="A111" s="87"/>
       <c r="B111" s="55" t="s">
         <v>419</v>
       </c>
@@ -23426,7 +23459,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="86"/>
+      <c r="A112" s="87"/>
       <c r="B112" s="55" t="s">
         <v>420</v>
       </c>
@@ -23452,7 +23485,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="86"/>
+      <c r="A113" s="87"/>
       <c r="B113" s="56" t="s">
         <v>329</v>
       </c>
@@ -23478,7 +23511,7 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="86"/>
+      <c r="A114" s="87"/>
       <c r="B114" s="51" t="s">
         <v>374</v>
       </c>
@@ -23504,7 +23537,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="86"/>
+      <c r="A115" s="87"/>
       <c r="B115" s="51" t="s">
         <v>421</v>
       </c>
@@ -23524,7 +23557,7 @@
       <c r="I115" s="54"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="86"/>
+      <c r="A116" s="87"/>
       <c r="B116" s="56" t="s">
         <v>422</v>
       </c>
@@ -23544,7 +23577,7 @@
       <c r="I116" s="54"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="86"/>
+      <c r="A117" s="87"/>
       <c r="B117" s="56" t="s">
         <v>385</v>
       </c>
@@ -23563,7 +23596,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="86"/>
+      <c r="A118" s="87"/>
       <c r="B118" s="51" t="s">
         <v>423</v>
       </c>
@@ -23582,7 +23615,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="86"/>
+      <c r="A119" s="87"/>
       <c r="B119" s="51" t="s">
         <v>424</v>
       </c>
@@ -23595,7 +23628,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="86"/>
+      <c r="A120" s="87"/>
       <c r="B120" s="56" t="s">
         <v>424</v>
       </c>
@@ -23608,7 +23641,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" hidden="1">
-      <c r="A121" s="86"/>
+      <c r="A121" s="87"/>
       <c r="B121" s="55"/>
       <c r="C121" s="51"/>
       <c r="D121" s="52"/>
@@ -23619,7 +23652,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="83" t="s">
+      <c r="A122" s="88" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -23928,7 +23961,7 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="85"/>
+      <c r="A136" s="86"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -23939,7 +23972,7 @@
       </c>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="86" t="s">
+      <c r="A137" s="87" t="s">
         <v>276</v>
       </c>
       <c r="B137" s="55" t="s">
@@ -23966,7 +23999,7 @@
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="86"/>
+      <c r="A138" s="87"/>
       <c r="B138" s="55" t="s">
         <v>434</v>
       </c>
@@ -23992,7 +24025,7 @@
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="86"/>
+      <c r="A139" s="87"/>
       <c r="B139" s="55" t="s">
         <v>435</v>
       </c>
@@ -24018,7 +24051,7 @@
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="86"/>
+      <c r="A140" s="87"/>
       <c r="B140" s="55" t="s">
         <v>309</v>
       </c>
@@ -24044,7 +24077,7 @@
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="86"/>
+      <c r="A141" s="87"/>
       <c r="B141" s="55" t="s">
         <v>436</v>
       </c>
@@ -24070,7 +24103,7 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="86"/>
+      <c r="A142" s="87"/>
       <c r="B142" s="55" t="s">
         <v>329</v>
       </c>
@@ -24096,7 +24129,7 @@
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="86"/>
+      <c r="A143" s="87"/>
       <c r="B143" s="55" t="s">
         <v>437</v>
       </c>
@@ -24122,7 +24155,7 @@
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="86"/>
+      <c r="A144" s="87"/>
       <c r="B144" s="51" t="s">
         <v>431</v>
       </c>
@@ -24148,7 +24181,7 @@
       </c>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="86"/>
+      <c r="A145" s="87"/>
       <c r="B145" s="56" t="s">
         <v>309</v>
       </c>
@@ -24168,7 +24201,7 @@
       <c r="I145" s="54"/>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="86"/>
+      <c r="A146" s="87"/>
       <c r="B146" s="56" t="s">
         <v>432</v>
       </c>
@@ -24188,7 +24221,7 @@
       <c r="I146" s="54"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="86"/>
+      <c r="A147" s="87"/>
       <c r="B147" s="55" t="s">
         <v>438</v>
       </c>
@@ -24207,7 +24240,7 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="86"/>
+      <c r="A148" s="87"/>
       <c r="B148" s="55" t="s">
         <v>439</v>
       </c>
@@ -24226,7 +24259,7 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="86"/>
+      <c r="A149" s="87"/>
       <c r="B149" s="55"/>
       <c r="C149" s="51"/>
       <c r="D149" s="52"/>
@@ -24237,7 +24270,7 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="86"/>
+      <c r="A150" s="87"/>
       <c r="B150" s="55"/>
       <c r="C150" s="51"/>
       <c r="D150" s="52"/>
@@ -24248,7 +24281,7 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="86"/>
+      <c r="A151" s="87"/>
       <c r="B151" s="55"/>
       <c r="C151" s="51"/>
       <c r="D151" s="52"/>
@@ -25365,7 +25398,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="85"/>
+      <c r="A46" s="86"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
       <c r="D46" s="52"/>
@@ -25376,7 +25409,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="86" t="s">
+      <c r="A47" s="87" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="55"/>
@@ -25395,7 +25428,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="86"/>
+      <c r="A48" s="87"/>
       <c r="B48" s="55"/>
       <c r="C48" s="51"/>
       <c r="D48" s="52"/>
@@ -25413,7 +25446,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="86"/>
+      <c r="A49" s="87"/>
       <c r="B49" s="55"/>
       <c r="C49" s="51"/>
       <c r="D49" s="52"/>
@@ -25431,7 +25464,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="86"/>
+      <c r="A50" s="87"/>
       <c r="B50" s="55"/>
       <c r="C50" s="51"/>
       <c r="D50" s="52"/>
@@ -25449,7 +25482,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="86"/>
+      <c r="A51" s="87"/>
       <c r="B51" s="55"/>
       <c r="C51" s="51"/>
       <c r="D51" s="52"/>
@@ -25467,7 +25500,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="86"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="55"/>
       <c r="C52" s="51"/>
       <c r="D52" s="52"/>
@@ -25485,7 +25518,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="86"/>
+      <c r="A53" s="87"/>
       <c r="B53" s="55"/>
       <c r="C53" s="51"/>
       <c r="D53" s="52"/>
@@ -25503,7 +25536,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="86"/>
+      <c r="A54" s="87"/>
       <c r="B54" s="55"/>
       <c r="C54" s="51"/>
       <c r="D54" s="52"/>
@@ -25521,7 +25554,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="86"/>
+      <c r="A55" s="87"/>
       <c r="B55" s="56" t="s">
         <v>388</v>
       </c>
@@ -25535,7 +25568,7 @@
       <c r="I55" s="54"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="86"/>
+      <c r="A56" s="87"/>
       <c r="B56" s="55"/>
       <c r="C56" s="51"/>
       <c r="D56" s="52"/>
@@ -25547,7 +25580,7 @@
       <c r="I56" s="54"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="86"/>
+      <c r="A57" s="87"/>
       <c r="B57" s="55"/>
       <c r="C57" s="51"/>
       <c r="D57" s="52"/>
@@ -25558,7 +25591,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="86"/>
+      <c r="A58" s="87"/>
       <c r="B58" s="55"/>
       <c r="C58" s="51"/>
       <c r="D58" s="52"/>
@@ -25569,7 +25602,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="86"/>
+      <c r="A59" s="87"/>
       <c r="B59" s="55"/>
       <c r="C59" s="51"/>
       <c r="D59" s="52"/>
@@ -25580,7 +25613,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="86"/>
+      <c r="A60" s="87"/>
       <c r="B60" s="55"/>
       <c r="C60" s="51"/>
       <c r="D60" s="52"/>
@@ -25591,7 +25624,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="86"/>
+      <c r="A61" s="87"/>
       <c r="B61" s="55"/>
       <c r="C61" s="51"/>
       <c r="D61" s="52"/>
@@ -25602,7 +25635,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="88" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -26144,7 +26177,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="87"/>
+      <c r="A91" s="85"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -26155,7 +26188,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="83" t="s">
+      <c r="A92" s="88" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -26474,7 +26507,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="85"/>
+      <c r="A106" s="86"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51" t="s">
         <v>285</v>
@@ -26491,7 +26524,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="86" t="s">
+      <c r="A107" s="87" t="s">
         <v>30</v>
       </c>
       <c r="B107" s="55"/>
@@ -26510,7 +26543,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="86"/>
+      <c r="A108" s="87"/>
       <c r="B108" s="55"/>
       <c r="C108" s="51"/>
       <c r="D108" s="52"/>
@@ -26528,7 +26561,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="86"/>
+      <c r="A109" s="87"/>
       <c r="B109" s="55"/>
       <c r="C109" s="51"/>
       <c r="D109" s="52"/>
@@ -26546,7 +26579,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="86"/>
+      <c r="A110" s="87"/>
       <c r="B110" s="55"/>
       <c r="C110" s="51"/>
       <c r="D110" s="52"/>
@@ -26564,7 +26597,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="86"/>
+      <c r="A111" s="87"/>
       <c r="B111" s="55" t="s">
         <v>469</v>
       </c>
@@ -26584,7 +26617,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="86"/>
+      <c r="A112" s="87"/>
       <c r="B112" s="55"/>
       <c r="C112" s="51"/>
       <c r="D112" s="52"/>
@@ -26602,7 +26635,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="86"/>
+      <c r="A113" s="87"/>
       <c r="B113" s="55"/>
       <c r="C113" s="51"/>
       <c r="D113" s="52"/>
@@ -26620,7 +26653,7 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="86"/>
+      <c r="A114" s="87"/>
       <c r="B114" s="55"/>
       <c r="C114" s="51"/>
       <c r="D114" s="52"/>
@@ -26638,7 +26671,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="86"/>
+      <c r="A115" s="87"/>
       <c r="B115" s="55"/>
       <c r="C115" s="51"/>
       <c r="D115" s="52"/>
@@ -26650,7 +26683,7 @@
       <c r="I115" s="54"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="86"/>
+      <c r="A116" s="87"/>
       <c r="B116" s="55"/>
       <c r="C116" s="51"/>
       <c r="D116" s="52"/>
@@ -26662,7 +26695,7 @@
       <c r="I116" s="54"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="86"/>
+      <c r="A117" s="87"/>
       <c r="B117" s="55"/>
       <c r="C117" s="51"/>
       <c r="D117" s="52"/>
@@ -26673,7 +26706,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="86"/>
+      <c r="A118" s="87"/>
       <c r="B118" s="55"/>
       <c r="C118" s="51"/>
       <c r="D118" s="52"/>
@@ -26684,7 +26717,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="86"/>
+      <c r="A119" s="87"/>
       <c r="B119" s="55"/>
       <c r="C119" s="51"/>
       <c r="D119" s="52"/>
@@ -26695,7 +26728,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="86"/>
+      <c r="A120" s="87"/>
       <c r="B120" s="55"/>
       <c r="C120" s="51"/>
       <c r="D120" s="52"/>
@@ -26706,7 +26739,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" hidden="1">
-      <c r="A121" s="86"/>
+      <c r="A121" s="87"/>
       <c r="B121" s="55"/>
       <c r="C121" s="51"/>
       <c r="D121" s="52"/>
@@ -26717,7 +26750,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="83" t="s">
+      <c r="A122" s="88" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51"/>
@@ -26838,7 +26871,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="88"/>
+      <c r="A127" s="89"/>
       <c r="B127" s="57"/>
       <c r="C127" s="55" t="s">
         <v>295</v>
@@ -26862,7 +26895,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="88"/>
+      <c r="A128" s="89"/>
       <c r="B128" s="57"/>
       <c r="C128" s="55" t="s">
         <v>288</v>
@@ -26886,7 +26919,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="88"/>
+      <c r="A129" s="89"/>
       <c r="B129" s="57"/>
       <c r="C129" s="55"/>
       <c r="D129" s="52"/>
@@ -26901,7 +26934,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="88"/>
+      <c r="A130" s="89"/>
       <c r="B130" s="57"/>
       <c r="C130" s="55"/>
       <c r="D130" s="52"/>
@@ -26951,7 +26984,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="85"/>
+      <c r="A136" s="86"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -26959,7 +26992,7 @@
       <c r="F136" s="52"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="86" t="s">
+      <c r="A137" s="87" t="s">
         <v>276</v>
       </c>
       <c r="B137" s="55" t="s">
@@ -26986,7 +27019,7 @@
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="86"/>
+      <c r="A138" s="87"/>
       <c r="B138" s="55" t="s">
         <v>434</v>
       </c>
@@ -27012,7 +27045,7 @@
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="86"/>
+      <c r="A139" s="87"/>
       <c r="B139" s="55" t="s">
         <v>435</v>
       </c>
@@ -27038,7 +27071,7 @@
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="86"/>
+      <c r="A140" s="87"/>
       <c r="B140" s="55" t="s">
         <v>309</v>
       </c>
@@ -27064,7 +27097,7 @@
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="86"/>
+      <c r="A141" s="87"/>
       <c r="B141" s="55" t="s">
         <v>436</v>
       </c>
@@ -27090,7 +27123,7 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="86"/>
+      <c r="A142" s="87"/>
       <c r="B142" s="55" t="s">
         <v>329</v>
       </c>
@@ -27116,7 +27149,7 @@
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="86"/>
+      <c r="A143" s="87"/>
       <c r="B143" s="55" t="s">
         <v>437</v>
       </c>
@@ -27142,7 +27175,7 @@
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="86"/>
+      <c r="A144" s="87"/>
       <c r="B144" s="51" t="s">
         <v>431</v>
       </c>
@@ -27168,7 +27201,7 @@
       </c>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="86"/>
+      <c r="A145" s="87"/>
       <c r="B145" s="56" t="s">
         <v>309</v>
       </c>
@@ -27188,7 +27221,7 @@
       <c r="I145" s="54"/>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="86"/>
+      <c r="A146" s="87"/>
       <c r="B146" s="56" t="s">
         <v>432</v>
       </c>
@@ -27208,7 +27241,7 @@
       <c r="I146" s="54"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="86"/>
+      <c r="A147" s="87"/>
       <c r="B147" s="55" t="s">
         <v>438</v>
       </c>
@@ -27227,7 +27260,7 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="86"/>
+      <c r="A148" s="87"/>
       <c r="B148" s="55" t="s">
         <v>439</v>
       </c>
@@ -27246,7 +27279,7 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="86"/>
+      <c r="A149" s="87"/>
       <c r="B149" s="55"/>
       <c r="C149" s="51"/>
       <c r="D149" s="52"/>
@@ -27257,7 +27290,7 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="86"/>
+      <c r="A150" s="87"/>
       <c r="B150" s="55"/>
       <c r="C150" s="51"/>
       <c r="D150" s="52"/>
@@ -27268,7 +27301,7 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="86"/>
+      <c r="A151" s="87"/>
       <c r="B151" s="55"/>
       <c r="C151" s="51"/>
       <c r="D151" s="52"/>
@@ -28496,7 +28529,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="85"/>
+      <c r="A46" s="86"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
       <c r="D46" s="52"/>
@@ -28507,7 +28540,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="86" t="s">
+      <c r="A47" s="87" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="55" t="s">
@@ -28533,7 +28566,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="86"/>
+      <c r="A48" s="87"/>
       <c r="B48" s="55" t="s">
         <v>481</v>
       </c>
@@ -28558,7 +28591,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="86"/>
+      <c r="A49" s="87"/>
       <c r="B49" s="55" t="s">
         <v>309</v>
       </c>
@@ -28583,7 +28616,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="86"/>
+      <c r="A50" s="87"/>
       <c r="B50" s="55" t="s">
         <v>482</v>
       </c>
@@ -28607,7 +28640,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="86"/>
+      <c r="A51" s="87"/>
       <c r="B51" s="55" t="s">
         <v>484</v>
       </c>
@@ -28632,7 +28665,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="86"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="55" t="s">
         <v>329</v>
       </c>
@@ -28657,7 +28690,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="86"/>
+      <c r="A53" s="87"/>
       <c r="B53" s="55" t="s">
         <v>485</v>
       </c>
@@ -28681,7 +28714,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="86"/>
+      <c r="A54" s="87"/>
       <c r="B54" s="55"/>
       <c r="C54" s="51"/>
       <c r="D54" s="52"/>
@@ -28698,7 +28731,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="86"/>
+      <c r="A55" s="87"/>
       <c r="B55" s="56"/>
       <c r="C55" s="51"/>
       <c r="D55" s="52"/>
@@ -28710,7 +28743,7 @@
       <c r="I55" s="54"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="86"/>
+      <c r="A56" s="87"/>
       <c r="B56" s="55"/>
       <c r="C56" s="51"/>
       <c r="D56" s="52"/>
@@ -28722,7 +28755,7 @@
       <c r="I56" s="54"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="86"/>
+      <c r="A57" s="87"/>
       <c r="B57" s="55"/>
       <c r="C57" s="51"/>
       <c r="D57" s="52"/>
@@ -28733,7 +28766,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="86"/>
+      <c r="A58" s="87"/>
       <c r="B58" s="55"/>
       <c r="C58" s="51"/>
       <c r="D58" s="52"/>
@@ -28744,7 +28777,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="86"/>
+      <c r="A59" s="87"/>
       <c r="B59" s="55"/>
       <c r="C59" s="51"/>
       <c r="D59" s="52"/>
@@ -28755,7 +28788,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="86"/>
+      <c r="A60" s="87"/>
       <c r="B60" s="55"/>
       <c r="C60" s="51"/>
       <c r="D60" s="52"/>
@@ -28766,7 +28799,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="86"/>
+      <c r="A61" s="87"/>
       <c r="B61" s="55"/>
       <c r="C61" s="51"/>
       <c r="D61" s="52"/>
@@ -28777,7 +28810,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="88" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -29217,7 +29250,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="87"/>
+      <c r="A91" s="85"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -29228,7 +29261,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="83" t="s">
+      <c r="A92" s="88" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -29531,7 +29564,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="85"/>
+      <c r="A106" s="86"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51" t="s">
         <v>285</v>
@@ -29548,7 +29581,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="86" t="s">
+      <c r="A107" s="87" t="s">
         <v>30</v>
       </c>
       <c r="B107" s="55"/>
@@ -29567,7 +29600,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="86"/>
+      <c r="A108" s="87"/>
       <c r="B108" s="55"/>
       <c r="C108" s="51"/>
       <c r="D108" s="52"/>
@@ -29585,7 +29618,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="86"/>
+      <c r="A109" s="87"/>
       <c r="B109" s="55"/>
       <c r="C109" s="51"/>
       <c r="D109" s="52"/>
@@ -29603,7 +29636,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="86"/>
+      <c r="A110" s="87"/>
       <c r="B110" s="55"/>
       <c r="C110" s="51"/>
       <c r="D110" s="52"/>
@@ -29621,7 +29654,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="86"/>
+      <c r="A111" s="87"/>
       <c r="B111" s="55" t="s">
         <v>488</v>
       </c>
@@ -29641,7 +29674,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="86"/>
+      <c r="A112" s="87"/>
       <c r="B112" s="55"/>
       <c r="C112" s="51"/>
       <c r="D112" s="52"/>
@@ -29659,7 +29692,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="86"/>
+      <c r="A113" s="87"/>
       <c r="B113" s="55"/>
       <c r="C113" s="51"/>
       <c r="D113" s="52"/>
@@ -29677,7 +29710,7 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="86"/>
+      <c r="A114" s="87"/>
       <c r="B114" s="55"/>
       <c r="C114" s="51"/>
       <c r="D114" s="52"/>
@@ -29695,7 +29728,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="86"/>
+      <c r="A115" s="87"/>
       <c r="B115" s="55"/>
       <c r="C115" s="51"/>
       <c r="D115" s="52"/>
@@ -29707,7 +29740,7 @@
       <c r="I115" s="54"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="86"/>
+      <c r="A116" s="87"/>
       <c r="B116" s="55"/>
       <c r="C116" s="51"/>
       <c r="D116" s="52"/>
@@ -29719,7 +29752,7 @@
       <c r="I116" s="54"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="86"/>
+      <c r="A117" s="87"/>
       <c r="B117" s="55"/>
       <c r="C117" s="51"/>
       <c r="D117" s="52"/>
@@ -29730,7 +29763,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="86"/>
+      <c r="A118" s="87"/>
       <c r="B118" s="55"/>
       <c r="C118" s="51"/>
       <c r="D118" s="52"/>
@@ -29741,7 +29774,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="86"/>
+      <c r="A119" s="87"/>
       <c r="B119" s="55"/>
       <c r="C119" s="51"/>
       <c r="D119" s="52"/>
@@ -29752,7 +29785,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="86"/>
+      <c r="A120" s="87"/>
       <c r="B120" s="55"/>
       <c r="C120" s="51"/>
       <c r="D120" s="52"/>
@@ -29763,7 +29796,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" hidden="1">
-      <c r="A121" s="86"/>
+      <c r="A121" s="87"/>
       <c r="B121" s="55"/>
       <c r="C121" s="51"/>
       <c r="D121" s="52"/>
@@ -29774,7 +29807,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="83" t="s">
+      <c r="A122" s="88" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -29905,7 +29938,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="88"/>
+      <c r="A127" s="89"/>
       <c r="B127" s="57" t="s">
         <v>498</v>
       </c>
@@ -29931,7 +29964,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="88"/>
+      <c r="A128" s="89"/>
       <c r="B128" s="57" t="s">
         <v>499</v>
       </c>
@@ -29957,7 +29990,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="88"/>
+      <c r="A129" s="89"/>
       <c r="B129" s="57" t="s">
         <v>500</v>
       </c>
@@ -29982,7 +30015,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="88"/>
+      <c r="A130" s="89"/>
       <c r="B130" s="57" t="s">
         <v>501</v>
       </c>
@@ -30062,7 +30095,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="85"/>
+      <c r="A136" s="86"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -30070,7 +30103,7 @@
       <c r="F136" s="52"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="86" t="s">
+      <c r="A137" s="87" t="s">
         <v>276</v>
       </c>
       <c r="B137" s="55" t="s">
@@ -30097,7 +30130,7 @@
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="86"/>
+      <c r="A138" s="87"/>
       <c r="B138" s="55" t="s">
         <v>309</v>
       </c>
@@ -30123,7 +30156,7 @@
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="86"/>
+      <c r="A139" s="87"/>
       <c r="B139" s="55" t="s">
         <v>505</v>
       </c>
@@ -30149,7 +30182,7 @@
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="86"/>
+      <c r="A140" s="87"/>
       <c r="B140" s="55" t="s">
         <v>309</v>
       </c>
@@ -30175,7 +30208,7 @@
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="86"/>
+      <c r="A141" s="87"/>
       <c r="B141" s="55" t="s">
         <v>506</v>
       </c>
@@ -30201,7 +30234,7 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="86"/>
+      <c r="A142" s="87"/>
       <c r="B142" s="55" t="s">
         <v>507</v>
       </c>
@@ -30227,7 +30260,7 @@
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="86"/>
+      <c r="A143" s="87"/>
       <c r="B143" s="55" t="s">
         <v>309</v>
       </c>
@@ -30253,7 +30286,7 @@
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="86"/>
+      <c r="A144" s="87"/>
       <c r="B144" s="51" t="s">
         <v>508</v>
       </c>
@@ -30279,7 +30312,7 @@
       </c>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="86"/>
+      <c r="A145" s="87"/>
       <c r="B145" s="56"/>
       <c r="C145" s="51"/>
       <c r="D145" s="52"/>
@@ -30291,7 +30324,7 @@
       <c r="I145" s="54"/>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="86"/>
+      <c r="A146" s="87"/>
       <c r="B146" s="56"/>
       <c r="C146" s="51"/>
       <c r="D146" s="52"/>
@@ -30303,7 +30336,7 @@
       <c r="I146" s="54"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="86"/>
+      <c r="A147" s="87"/>
       <c r="B147" s="55"/>
       <c r="C147" s="51"/>
       <c r="D147" s="52"/>
@@ -30314,7 +30347,7 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="86"/>
+      <c r="A148" s="87"/>
       <c r="B148" s="55"/>
       <c r="C148" s="51"/>
       <c r="D148" s="52"/>
@@ -30325,7 +30358,7 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="86"/>
+      <c r="A149" s="87"/>
       <c r="B149" s="55"/>
       <c r="C149" s="51"/>
       <c r="D149" s="52"/>
@@ -30336,7 +30369,7 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="86"/>
+      <c r="A150" s="87"/>
       <c r="B150" s="55"/>
       <c r="C150" s="51"/>
       <c r="D150" s="52"/>
@@ -30347,7 +30380,7 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="86"/>
+      <c r="A151" s="87"/>
       <c r="B151" s="55"/>
       <c r="C151" s="51"/>
       <c r="D151" s="52"/>
@@ -31225,7 +31258,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="85"/>
+      <c r="A46" s="86"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
       <c r="D46" s="52"/>
@@ -31236,7 +31269,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="86" t="s">
+      <c r="A47" s="87" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="55" t="s">
@@ -31262,7 +31295,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="86"/>
+      <c r="A48" s="87"/>
       <c r="B48" s="55" t="s">
         <v>515</v>
       </c>
@@ -31287,7 +31320,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="86"/>
+      <c r="A49" s="87"/>
       <c r="B49" s="55" t="s">
         <v>516</v>
       </c>
@@ -31312,7 +31345,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="86"/>
+      <c r="A50" s="87"/>
       <c r="B50" s="55"/>
       <c r="C50" s="51"/>
       <c r="D50" s="52"/>
@@ -31328,7 +31361,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="86"/>
+      <c r="A51" s="87"/>
       <c r="B51" s="55"/>
       <c r="C51" s="51"/>
       <c r="D51" s="52"/>
@@ -31345,7 +31378,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="86"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="55"/>
       <c r="C52" s="51"/>
       <c r="D52" s="52"/>
@@ -31362,7 +31395,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="86"/>
+      <c r="A53" s="87"/>
       <c r="B53" s="55"/>
       <c r="C53" s="51"/>
       <c r="D53" s="52"/>
@@ -31378,7 +31411,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="86"/>
+      <c r="A54" s="87"/>
       <c r="B54" s="55"/>
       <c r="C54" s="51"/>
       <c r="D54" s="52"/>
@@ -31395,7 +31428,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="86"/>
+      <c r="A55" s="87"/>
       <c r="B55" s="56"/>
       <c r="C55" s="51"/>
       <c r="D55" s="52"/>
@@ -31407,7 +31440,7 @@
       <c r="I55" s="54"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="86"/>
+      <c r="A56" s="87"/>
       <c r="B56" s="55"/>
       <c r="C56" s="51"/>
       <c r="D56" s="52"/>
@@ -31419,7 +31452,7 @@
       <c r="I56" s="54"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="86"/>
+      <c r="A57" s="87"/>
       <c r="B57" s="55"/>
       <c r="C57" s="51"/>
       <c r="D57" s="52"/>
@@ -31430,7 +31463,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="86"/>
+      <c r="A58" s="87"/>
       <c r="B58" s="55"/>
       <c r="C58" s="51"/>
       <c r="D58" s="52"/>
@@ -31441,7 +31474,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="86"/>
+      <c r="A59" s="87"/>
       <c r="B59" s="55"/>
       <c r="C59" s="51"/>
       <c r="D59" s="52"/>
@@ -31452,7 +31485,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="86"/>
+      <c r="A60" s="87"/>
       <c r="B60" s="55"/>
       <c r="C60" s="51"/>
       <c r="D60" s="52"/>
@@ -31463,7 +31496,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="86"/>
+      <c r="A61" s="87"/>
       <c r="B61" s="55"/>
       <c r="C61" s="51"/>
       <c r="D61" s="52"/>
@@ -31474,7 +31507,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="88" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51"/>
@@ -31968,7 +32001,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="87"/>
+      <c r="A91" s="85"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -31979,7 +32012,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="83" t="s">
+      <c r="A92" s="88" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51"/>
@@ -32278,7 +32311,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="85"/>
+      <c r="A106" s="86"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51" t="s">
         <v>285</v>
@@ -32295,7 +32328,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="86" t="s">
+      <c r="A107" s="87" t="s">
         <v>30</v>
       </c>
       <c r="B107" s="55"/>
@@ -32314,7 +32347,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="86"/>
+      <c r="A108" s="87"/>
       <c r="B108" s="55"/>
       <c r="C108" s="51"/>
       <c r="D108" s="52"/>
@@ -32332,7 +32365,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="86"/>
+      <c r="A109" s="87"/>
       <c r="B109" s="55"/>
       <c r="C109" s="51"/>
       <c r="D109" s="52"/>
@@ -32350,7 +32383,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="86"/>
+      <c r="A110" s="87"/>
       <c r="B110" s="55"/>
       <c r="C110" s="51"/>
       <c r="D110" s="52"/>
@@ -32368,7 +32401,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="86"/>
+      <c r="A111" s="87"/>
       <c r="B111" s="55"/>
       <c r="C111" s="51"/>
       <c r="D111" s="52"/>
@@ -32386,7 +32419,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="86"/>
+      <c r="A112" s="87"/>
       <c r="B112" s="55"/>
       <c r="C112" s="51"/>
       <c r="D112" s="52"/>
@@ -32404,7 +32437,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="86"/>
+      <c r="A113" s="87"/>
       <c r="B113" s="55" t="s">
         <v>527</v>
       </c>
@@ -32424,7 +32457,7 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="86"/>
+      <c r="A114" s="87"/>
       <c r="B114" s="55"/>
       <c r="C114" s="51"/>
       <c r="D114" s="52"/>
@@ -32442,7 +32475,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="86"/>
+      <c r="A115" s="87"/>
       <c r="B115" s="55"/>
       <c r="C115" s="51"/>
       <c r="D115" s="52"/>
@@ -32454,7 +32487,7 @@
       <c r="I115" s="54"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="86"/>
+      <c r="A116" s="87"/>
       <c r="B116" s="55"/>
       <c r="C116" s="51"/>
       <c r="D116" s="52"/>
@@ -32466,7 +32499,7 @@
       <c r="I116" s="54"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="86"/>
+      <c r="A117" s="87"/>
       <c r="B117" s="55"/>
       <c r="C117" s="51"/>
       <c r="D117" s="52"/>
@@ -32477,7 +32510,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="86"/>
+      <c r="A118" s="87"/>
       <c r="B118" s="55"/>
       <c r="C118" s="51"/>
       <c r="D118" s="52"/>
@@ -32488,7 +32521,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="86"/>
+      <c r="A119" s="87"/>
       <c r="B119" s="55"/>
       <c r="C119" s="51"/>
       <c r="D119" s="52"/>
@@ -32499,7 +32532,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="86"/>
+      <c r="A120" s="87"/>
       <c r="B120" s="55"/>
       <c r="C120" s="51"/>
       <c r="D120" s="52"/>
@@ -32510,7 +32543,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" hidden="1">
-      <c r="A121" s="86"/>
+      <c r="A121" s="87"/>
       <c r="B121" s="55"/>
       <c r="C121" s="51"/>
       <c r="D121" s="52"/>
@@ -32521,7 +32554,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="83" t="s">
+      <c r="A122" s="88" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -32652,7 +32685,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="88"/>
+      <c r="A127" s="89"/>
       <c r="B127" s="57" t="s">
         <v>532</v>
       </c>
@@ -32678,7 +32711,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="88"/>
+      <c r="A128" s="89"/>
       <c r="B128" s="57" t="s">
         <v>533</v>
       </c>
@@ -32704,7 +32737,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="88"/>
+      <c r="A129" s="89"/>
       <c r="B129" s="57" t="s">
         <v>534</v>
       </c>
@@ -32729,7 +32762,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="88"/>
+      <c r="A130" s="89"/>
       <c r="B130" s="57" t="s">
         <v>535</v>
       </c>
@@ -32789,7 +32822,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="85"/>
+      <c r="A136" s="86"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -32797,7 +32830,7 @@
       <c r="F136" s="52"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="86" t="s">
+      <c r="A137" s="87" t="s">
         <v>276</v>
       </c>
       <c r="B137" s="55" t="s">
@@ -32824,7 +32857,7 @@
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="86"/>
+      <c r="A138" s="87"/>
       <c r="B138" s="55" t="s">
         <v>537</v>
       </c>
@@ -32850,7 +32883,7 @@
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="86"/>
+      <c r="A139" s="87"/>
       <c r="B139" s="55" t="s">
         <v>538</v>
       </c>
@@ -32876,7 +32909,7 @@
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="86"/>
+      <c r="A140" s="87"/>
       <c r="B140" s="55" t="s">
         <v>539</v>
       </c>
@@ -32902,7 +32935,7 @@
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="86"/>
+      <c r="A141" s="87"/>
       <c r="B141" s="55" t="s">
         <v>540</v>
       </c>
@@ -32928,7 +32961,7 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="86"/>
+      <c r="A142" s="87"/>
       <c r="B142" s="55" t="s">
         <v>541</v>
       </c>
@@ -32954,7 +32987,7 @@
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="86"/>
+      <c r="A143" s="87"/>
       <c r="B143" s="55" t="s">
         <v>542</v>
       </c>
@@ -32980,7 +33013,7 @@
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="86"/>
+      <c r="A144" s="87"/>
       <c r="B144" s="58" t="s">
         <v>543</v>
       </c>
@@ -33006,7 +33039,7 @@
       </c>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="89"/>
+      <c r="A145" s="90"/>
       <c r="B145" s="57" t="s">
         <v>544</v>
       </c>
@@ -33026,7 +33059,7 @@
       <c r="I145" s="54"/>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="86"/>
+      <c r="A146" s="87"/>
       <c r="B146" s="56"/>
       <c r="C146" s="51"/>
       <c r="D146" s="52"/>
@@ -33038,7 +33071,7 @@
       <c r="I146" s="54"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="86"/>
+      <c r="A147" s="87"/>
       <c r="B147" s="55"/>
       <c r="C147" s="51"/>
       <c r="D147" s="52"/>
@@ -33049,7 +33082,7 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="86"/>
+      <c r="A148" s="87"/>
       <c r="B148" s="55"/>
       <c r="C148" s="51"/>
       <c r="D148" s="52"/>
@@ -33060,7 +33093,7 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="86"/>
+      <c r="A149" s="87"/>
       <c r="B149" s="55"/>
       <c r="C149" s="51"/>
       <c r="D149" s="52"/>
@@ -33071,7 +33104,7 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="86"/>
+      <c r="A150" s="87"/>
       <c r="B150" s="55"/>
       <c r="C150" s="51"/>
       <c r="D150" s="52"/>
@@ -33082,7 +33115,7 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="86"/>
+      <c r="A151" s="87"/>
       <c r="B151" s="55"/>
       <c r="C151" s="51"/>
       <c r="D151" s="52"/>
@@ -33679,7 +33712,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="88"/>
+      <c r="A23" s="89"/>
       <c r="B23" s="60"/>
       <c r="C23" s="60"/>
       <c r="D23" s="61"/>
@@ -34008,7 +34041,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="85"/>
+      <c r="A46" s="86"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
       <c r="D46" s="52"/>
@@ -34019,7 +34052,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="86" t="s">
+      <c r="A47" s="87" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="55" t="s">
@@ -34045,7 +34078,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="86"/>
+      <c r="A48" s="87"/>
       <c r="B48" s="55" t="s">
         <v>553</v>
       </c>
@@ -34069,7 +34102,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="86"/>
+      <c r="A49" s="87"/>
       <c r="B49" s="55" t="s">
         <v>555</v>
       </c>
@@ -34094,7 +34127,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="86"/>
+      <c r="A50" s="87"/>
       <c r="B50" s="55" t="s">
         <v>556</v>
       </c>
@@ -34118,7 +34151,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="86"/>
+      <c r="A51" s="87"/>
       <c r="B51" s="55" t="s">
         <v>557</v>
       </c>
@@ -34143,7 +34176,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="86"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="55" t="s">
         <v>558</v>
       </c>
@@ -34168,7 +34201,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="86"/>
+      <c r="A53" s="87"/>
       <c r="B53" s="55" t="s">
         <v>559</v>
       </c>
@@ -34192,7 +34225,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="86"/>
+      <c r="A54" s="87"/>
       <c r="B54" s="55" t="s">
         <v>561</v>
       </c>
@@ -34216,7 +34249,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="86"/>
+      <c r="A55" s="87"/>
       <c r="B55" s="56" t="s">
         <v>566</v>
       </c>
@@ -34235,7 +34268,7 @@
       <c r="I55" s="54"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="86"/>
+      <c r="A56" s="87"/>
       <c r="B56" s="55" t="s">
         <v>558</v>
       </c>
@@ -34254,7 +34287,7 @@
       <c r="I56" s="54"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="86"/>
+      <c r="A57" s="87"/>
       <c r="B57" s="55" t="s">
         <v>571</v>
       </c>
@@ -34272,7 +34305,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="86"/>
+      <c r="A58" s="87"/>
       <c r="B58" s="55"/>
       <c r="C58" s="51"/>
       <c r="D58" s="52"/>
@@ -34283,7 +34316,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="86"/>
+      <c r="A59" s="87"/>
       <c r="B59" s="55"/>
       <c r="C59" s="51"/>
       <c r="D59" s="52"/>
@@ -34294,7 +34327,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="86"/>
+      <c r="A60" s="87"/>
       <c r="B60" s="55"/>
       <c r="C60" s="51"/>
       <c r="D60" s="52"/>
@@ -34305,7 +34338,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="86"/>
+      <c r="A61" s="87"/>
       <c r="B61" s="55"/>
       <c r="C61" s="51"/>
       <c r="D61" s="52"/>
@@ -34316,7 +34349,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="88" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -34897,7 +34930,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="87"/>
+      <c r="A91" s="85"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -34908,7 +34941,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="83" t="s">
+      <c r="A92" s="88" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -35225,7 +35258,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="85"/>
+      <c r="A106" s="86"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51" t="s">
         <v>285</v>
@@ -35242,7 +35275,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="86" t="s">
+      <c r="A107" s="87" t="s">
         <v>30</v>
       </c>
       <c r="B107" s="55"/>
@@ -35261,7 +35294,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="86"/>
+      <c r="A108" s="87"/>
       <c r="B108" s="55"/>
       <c r="C108" s="51"/>
       <c r="D108" s="52"/>
@@ -35279,7 +35312,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="86"/>
+      <c r="A109" s="87"/>
       <c r="B109" s="55"/>
       <c r="C109" s="51"/>
       <c r="D109" s="52"/>
@@ -35297,7 +35330,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="86"/>
+      <c r="A110" s="87"/>
       <c r="B110" s="55"/>
       <c r="C110" s="51"/>
       <c r="D110" s="52"/>
@@ -35315,7 +35348,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="86"/>
+      <c r="A111" s="87"/>
       <c r="B111" s="55"/>
       <c r="C111" s="51"/>
       <c r="D111" s="52"/>
@@ -35333,7 +35366,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="86"/>
+      <c r="A112" s="87"/>
       <c r="B112" s="55"/>
       <c r="C112" s="51"/>
       <c r="D112" s="52"/>
@@ -35351,7 +35384,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="86"/>
+      <c r="A113" s="87"/>
       <c r="B113" s="55"/>
       <c r="C113" s="51"/>
       <c r="D113" s="52"/>
@@ -35369,7 +35402,7 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="86"/>
+      <c r="A114" s="87"/>
       <c r="B114" s="55"/>
       <c r="C114" s="51"/>
       <c r="D114" s="52"/>
@@ -35387,7 +35420,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="86"/>
+      <c r="A115" s="87"/>
       <c r="B115" s="55"/>
       <c r="C115" s="51"/>
       <c r="D115" s="52"/>
@@ -35399,7 +35432,7 @@
       <c r="I115" s="54"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="86"/>
+      <c r="A116" s="87"/>
       <c r="B116" s="55"/>
       <c r="C116" s="51"/>
       <c r="D116" s="52"/>
@@ -35411,7 +35444,7 @@
       <c r="I116" s="54"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="86"/>
+      <c r="A117" s="87"/>
       <c r="B117" s="55"/>
       <c r="C117" s="51"/>
       <c r="D117" s="52"/>
@@ -35422,7 +35455,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="86"/>
+      <c r="A118" s="87"/>
       <c r="B118" s="55"/>
       <c r="C118" s="51"/>
       <c r="D118" s="52"/>
@@ -35433,7 +35466,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="86"/>
+      <c r="A119" s="87"/>
       <c r="B119" s="55"/>
       <c r="C119" s="51"/>
       <c r="D119" s="52"/>
@@ -35444,7 +35477,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="86"/>
+      <c r="A120" s="87"/>
       <c r="B120" s="55"/>
       <c r="C120" s="51"/>
       <c r="D120" s="52"/>
@@ -35455,7 +35488,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" hidden="1">
-      <c r="A121" s="86"/>
+      <c r="A121" s="87"/>
       <c r="B121" s="55"/>
       <c r="C121" s="51"/>
       <c r="D121" s="52"/>
@@ -35466,7 +35499,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="83" t="s">
+      <c r="A122" s="88" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51"/>
@@ -35557,7 +35590,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="88"/>
+      <c r="A127" s="89"/>
       <c r="B127" s="57"/>
       <c r="C127" s="55"/>
       <c r="D127" s="52"/>
@@ -35575,7 +35608,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="88"/>
+      <c r="A128" s="89"/>
       <c r="B128" s="57" t="s">
         <v>73</v>
       </c>
@@ -35595,7 +35628,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="88"/>
+      <c r="A129" s="89"/>
       <c r="B129" s="57"/>
       <c r="C129" s="55"/>
       <c r="D129" s="52"/>
@@ -35610,7 +35643,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="88"/>
+      <c r="A130" s="89"/>
       <c r="B130" s="57"/>
       <c r="C130" s="55"/>
       <c r="D130" s="52"/>
@@ -35660,7 +35693,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="85"/>
+      <c r="A136" s="86"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -35668,7 +35701,7 @@
       <c r="F136" s="52"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="86" t="s">
+      <c r="A137" s="87" t="s">
         <v>276</v>
       </c>
       <c r="B137" s="51" t="s">
@@ -35695,7 +35728,7 @@
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="86"/>
+      <c r="A138" s="87"/>
       <c r="B138" s="51" t="s">
         <v>580</v>
       </c>
@@ -35721,7 +35754,7 @@
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="86"/>
+      <c r="A139" s="87"/>
       <c r="B139" s="51" t="s">
         <v>597</v>
       </c>
@@ -35747,7 +35780,7 @@
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="86"/>
+      <c r="A140" s="87"/>
       <c r="B140" s="51" t="s">
         <v>598</v>
       </c>
@@ -35773,7 +35806,7 @@
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="86"/>
+      <c r="A141" s="87"/>
       <c r="B141" s="51" t="s">
         <v>599</v>
       </c>
@@ -35799,7 +35832,7 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="86"/>
+      <c r="A142" s="87"/>
       <c r="B142" s="51" t="s">
         <v>600</v>
       </c>
@@ -35825,7 +35858,7 @@
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="86"/>
+      <c r="A143" s="87"/>
       <c r="B143" s="51" t="s">
         <v>586</v>
       </c>
@@ -35851,7 +35884,7 @@
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="86"/>
+      <c r="A144" s="87"/>
       <c r="B144" s="51" t="s">
         <v>601</v>
       </c>
@@ -35877,7 +35910,7 @@
       </c>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="86"/>
+      <c r="A145" s="87"/>
       <c r="B145" s="51" t="s">
         <v>551</v>
       </c>
@@ -35897,7 +35930,7 @@
       <c r="I145" s="54"/>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="86"/>
+      <c r="A146" s="87"/>
       <c r="B146" s="51" t="s">
         <v>602</v>
       </c>
@@ -35917,7 +35950,7 @@
       <c r="I146" s="54"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="86"/>
+      <c r="A147" s="87"/>
       <c r="B147" s="51"/>
       <c r="C147" s="51"/>
       <c r="D147" s="52"/>
@@ -35928,7 +35961,7 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="86"/>
+      <c r="A148" s="87"/>
       <c r="B148" s="51"/>
       <c r="C148" s="51"/>
       <c r="D148" s="52"/>
@@ -35939,7 +35972,7 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="86"/>
+      <c r="A149" s="87"/>
       <c r="B149" s="55"/>
       <c r="C149" s="51"/>
       <c r="D149" s="52"/>
@@ -35950,7 +35983,7 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="86"/>
+      <c r="A150" s="87"/>
       <c r="B150" s="55"/>
       <c r="C150" s="51"/>
       <c r="D150" s="52"/>
@@ -35961,7 +35994,7 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="86"/>
+      <c r="A151" s="87"/>
       <c r="B151" s="55"/>
       <c r="C151" s="51"/>
       <c r="D151" s="52"/>
@@ -37063,7 +37096,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="85"/>
+      <c r="A46" s="86"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
       <c r="D46" s="52"/>
@@ -37074,7 +37107,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="86" t="s">
+      <c r="A47" s="87" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="55" t="s">
@@ -37100,7 +37133,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="86"/>
+      <c r="A48" s="87"/>
       <c r="B48" s="55" t="s">
         <v>629</v>
       </c>
@@ -37125,7 +37158,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="86"/>
+      <c r="A49" s="87"/>
       <c r="B49" s="55" t="s">
         <v>558</v>
       </c>
@@ -37150,7 +37183,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="86"/>
+      <c r="A50" s="87"/>
       <c r="B50" s="51" t="s">
         <v>607</v>
       </c>
@@ -37174,7 +37207,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="86"/>
+      <c r="A51" s="87"/>
       <c r="B51" s="55" t="s">
         <v>631</v>
       </c>
@@ -37193,7 +37226,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="86"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="55"/>
       <c r="C52" s="51"/>
       <c r="D52" s="52"/>
@@ -37210,7 +37243,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="86"/>
+      <c r="A53" s="87"/>
       <c r="B53" s="55"/>
       <c r="C53" s="51"/>
       <c r="D53" s="52"/>
@@ -37226,7 +37259,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="86"/>
+      <c r="A54" s="87"/>
       <c r="B54" s="55"/>
       <c r="C54" s="51"/>
       <c r="D54" s="52"/>
@@ -37243,7 +37276,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="86"/>
+      <c r="A55" s="87"/>
       <c r="B55" s="56"/>
       <c r="C55" s="51"/>
       <c r="D55" s="52"/>
@@ -37255,7 +37288,7 @@
       <c r="I55" s="54"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="86"/>
+      <c r="A56" s="87"/>
       <c r="B56" s="55"/>
       <c r="C56" s="51"/>
       <c r="D56" s="52"/>
@@ -37267,7 +37300,7 @@
       <c r="I56" s="54"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="86"/>
+      <c r="A57" s="87"/>
       <c r="B57" s="55"/>
       <c r="C57" s="51"/>
       <c r="D57" s="52"/>
@@ -37278,7 +37311,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="86"/>
+      <c r="A58" s="87"/>
       <c r="B58" s="55"/>
       <c r="C58" s="51"/>
       <c r="D58" s="52"/>
@@ -37289,7 +37322,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="86"/>
+      <c r="A59" s="87"/>
       <c r="B59" s="55"/>
       <c r="C59" s="51"/>
       <c r="D59" s="52"/>
@@ -37300,7 +37333,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="86"/>
+      <c r="A60" s="87"/>
       <c r="B60" s="55"/>
       <c r="C60" s="51"/>
       <c r="D60" s="52"/>
@@ -37311,7 +37344,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="86"/>
+      <c r="A61" s="87"/>
       <c r="B61" s="55"/>
       <c r="C61" s="51"/>
       <c r="D61" s="52"/>
@@ -37322,7 +37355,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="88" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -37938,7 +37971,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="87"/>
+      <c r="A92" s="85"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -37949,7 +37982,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="83" t="s">
+      <c r="A93" s="88" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -38262,7 +38295,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="85"/>
+      <c r="A107" s="86"/>
       <c r="B107" s="51"/>
       <c r="C107" s="51" t="s">
         <v>285</v>
@@ -38279,7 +38312,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="86" t="s">
+      <c r="A108" s="87" t="s">
         <v>30</v>
       </c>
       <c r="B108" s="55" t="s">
@@ -38306,7 +38339,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="86"/>
+      <c r="A109" s="87"/>
       <c r="B109" s="55" t="s">
         <v>656</v>
       </c>
@@ -38332,7 +38365,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="86"/>
+      <c r="A110" s="87"/>
       <c r="B110" s="55" t="s">
         <v>657</v>
       </c>
@@ -38358,7 +38391,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="86"/>
+      <c r="A111" s="87"/>
       <c r="B111" s="55" t="s">
         <v>309</v>
       </c>
@@ -38384,7 +38417,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="86"/>
+      <c r="A112" s="87"/>
       <c r="B112" s="55" t="s">
         <v>658</v>
       </c>
@@ -38410,7 +38443,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="86"/>
+      <c r="A113" s="87"/>
       <c r="B113" s="55" t="s">
         <v>645</v>
       </c>
@@ -38436,7 +38469,7 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="86"/>
+      <c r="A114" s="87"/>
       <c r="B114" s="55" t="s">
         <v>659</v>
       </c>
@@ -38462,7 +38495,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="86"/>
+      <c r="A115" s="87"/>
       <c r="B115" s="55" t="s">
         <v>329</v>
       </c>
@@ -38488,7 +38521,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="86"/>
+      <c r="A116" s="87"/>
       <c r="B116" s="55" t="s">
         <v>660</v>
       </c>
@@ -38508,7 +38541,7 @@
       <c r="I116" s="54"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="86"/>
+      <c r="A117" s="87"/>
       <c r="B117" s="55" t="s">
         <v>309</v>
       </c>
@@ -38528,7 +38561,7 @@
       <c r="I117" s="54"/>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="86"/>
+      <c r="A118" s="87"/>
       <c r="B118" s="55" t="s">
         <v>661</v>
       </c>
@@ -38547,7 +38580,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="86"/>
+      <c r="A119" s="87"/>
       <c r="B119" s="55" t="s">
         <v>662</v>
       </c>
@@ -38566,7 +38599,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="86"/>
+      <c r="A120" s="87"/>
       <c r="B120" s="55" t="s">
         <v>663</v>
       </c>
@@ -38585,7 +38618,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="86"/>
+      <c r="A121" s="87"/>
       <c r="B121" s="55"/>
       <c r="C121" s="51"/>
       <c r="D121" s="52"/>
@@ -38596,7 +38629,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" hidden="1">
-      <c r="A122" s="86"/>
+      <c r="A122" s="87"/>
       <c r="B122" s="55"/>
       <c r="C122" s="51"/>
       <c r="D122" s="52"/>
@@ -38607,7 +38640,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="83" t="s">
+      <c r="A123" s="88" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
@@ -38738,7 +38771,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="88"/>
+      <c r="A128" s="89"/>
       <c r="B128" s="57" t="s">
         <v>667</v>
       </c>
@@ -38764,7 +38797,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="88"/>
+      <c r="A129" s="89"/>
       <c r="B129" s="57" t="s">
         <v>329</v>
       </c>
@@ -38790,7 +38823,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="88"/>
+      <c r="A130" s="89"/>
       <c r="B130" s="57" t="s">
         <v>668</v>
       </c>
@@ -38815,7 +38848,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="88"/>
+      <c r="A131" s="89"/>
       <c r="B131" s="57" t="s">
         <v>342</v>
       </c>
@@ -38895,7 +38928,7 @@
       <c r="F136" s="52"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="85"/>
+      <c r="A137" s="86"/>
       <c r="B137" s="51"/>
       <c r="C137" s="51"/>
       <c r="D137" s="52"/>
@@ -38903,7 +38936,7 @@
       <c r="F137" s="52"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="86" t="s">
+      <c r="A138" s="87" t="s">
         <v>276</v>
       </c>
       <c r="B138" s="55" t="s">
@@ -38930,7 +38963,7 @@
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="86"/>
+      <c r="A139" s="87"/>
       <c r="B139" s="55" t="s">
         <v>586</v>
       </c>
@@ -38956,7 +38989,7 @@
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="86"/>
+      <c r="A140" s="87"/>
       <c r="B140" s="55" t="s">
         <v>672</v>
       </c>
@@ -38982,7 +39015,7 @@
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="86"/>
+      <c r="A141" s="87"/>
       <c r="B141" s="55" t="s">
         <v>673</v>
       </c>
@@ -39008,7 +39041,7 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="86"/>
+      <c r="A142" s="87"/>
       <c r="B142" s="55" t="s">
         <v>599</v>
       </c>
@@ -39034,7 +39067,7 @@
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="86"/>
+      <c r="A143" s="87"/>
       <c r="B143" s="55" t="s">
         <v>674</v>
       </c>
@@ -39060,7 +39093,7 @@
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="86"/>
+      <c r="A144" s="87"/>
       <c r="B144" s="55" t="s">
         <v>675</v>
       </c>
@@ -39086,7 +39119,7 @@
       </c>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="86"/>
+      <c r="A145" s="87"/>
       <c r="B145" s="58" t="s">
         <v>586</v>
       </c>
@@ -39112,7 +39145,7 @@
       </c>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="89"/>
+      <c r="A146" s="90"/>
       <c r="B146" s="60" t="s">
         <v>676</v>
       </c>
@@ -39132,7 +39165,7 @@
       <c r="I146" s="54"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="86"/>
+      <c r="A147" s="87"/>
       <c r="B147" s="56"/>
       <c r="C147" s="51"/>
       <c r="D147" s="52"/>
@@ -39144,7 +39177,7 @@
       <c r="I147" s="54"/>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="86"/>
+      <c r="A148" s="87"/>
       <c r="B148" s="55"/>
       <c r="C148" s="51"/>
       <c r="D148" s="52"/>
@@ -39155,7 +39188,7 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="86"/>
+      <c r="A149" s="87"/>
       <c r="B149" s="55"/>
       <c r="C149" s="51"/>
       <c r="D149" s="52"/>
@@ -39166,7 +39199,7 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="86"/>
+      <c r="A150" s="87"/>
       <c r="B150" s="55"/>
       <c r="C150" s="51"/>
       <c r="D150" s="52"/>
@@ -39177,7 +39210,7 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="86"/>
+      <c r="A151" s="87"/>
       <c r="B151" s="55"/>
       <c r="C151" s="51"/>
       <c r="D151" s="52"/>
@@ -39188,7 +39221,7 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="86"/>
+      <c r="A152" s="87"/>
       <c r="B152" s="55"/>
       <c r="C152" s="51"/>
       <c r="D152" s="52"/>
@@ -39315,7 +39348,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="60" t="s">
@@ -39345,7 +39378,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="88"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="60" t="s">
         <v>678</v>
       </c>
@@ -39374,7 +39407,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="88"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="60" t="s">
         <v>679</v>
       </c>
@@ -39403,7 +39436,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="88"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="60" t="s">
         <v>309</v>
       </c>
@@ -39432,7 +39465,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="88"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="60" t="s">
         <v>680</v>
       </c>
@@ -39461,7 +39494,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="88"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="60" t="s">
         <v>681</v>
       </c>
@@ -39490,7 +39523,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="88"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="60" t="s">
         <v>313</v>
       </c>
@@ -39516,7 +39549,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="88"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="60" t="s">
         <v>682</v>
       </c>
@@ -39542,7 +39575,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="88"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="60" t="s">
         <v>683</v>
       </c>
@@ -39562,7 +39595,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="88"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="60" t="s">
         <v>684</v>
       </c>
@@ -39582,7 +39615,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="88"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="60" t="s">
         <v>685</v>
       </c>
@@ -39601,7 +39634,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="88"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="60" t="s">
         <v>309</v>
       </c>
@@ -39620,7 +39653,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="88"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="60" t="s">
         <v>686</v>
       </c>
@@ -39639,7 +39672,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="88"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="60" t="s">
         <v>687</v>
       </c>
@@ -39658,7 +39691,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="88"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="60"/>
       <c r="C16" s="60" t="s">
         <v>290</v>
@@ -40340,7 +40373,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="85"/>
+      <c r="A46" s="86"/>
       <c r="B46" s="51" t="s">
         <v>706</v>
       </c>
@@ -40359,7 +40392,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="86" t="s">
+      <c r="A47" s="87" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="55" t="s">
@@ -40385,7 +40418,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="86"/>
+      <c r="A48" s="87"/>
       <c r="B48" s="55" t="s">
         <v>707</v>
       </c>
@@ -40410,7 +40443,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="86"/>
+      <c r="A49" s="87"/>
       <c r="B49" s="55" t="s">
         <v>558</v>
       </c>
@@ -40435,7 +40468,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="86"/>
+      <c r="A50" s="87"/>
       <c r="B50" s="51" t="s">
         <v>708</v>
       </c>
@@ -40459,7 +40492,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="86"/>
+      <c r="A51" s="87"/>
       <c r="B51" s="55" t="s">
         <v>710</v>
       </c>
@@ -40484,7 +40517,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="86"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="55" t="s">
         <v>329</v>
       </c>
@@ -40509,7 +40542,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="86"/>
+      <c r="A53" s="87"/>
       <c r="B53" s="55" t="s">
         <v>711</v>
       </c>
@@ -40533,7 +40566,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="86"/>
+      <c r="A54" s="87"/>
       <c r="B54" s="55" t="s">
         <v>713</v>
       </c>
@@ -40558,7 +40591,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="86"/>
+      <c r="A55" s="87"/>
       <c r="B55" s="56" t="s">
         <v>715</v>
       </c>
@@ -40578,7 +40611,7 @@
       <c r="I55" s="54"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="86"/>
+      <c r="A56" s="87"/>
       <c r="B56" s="55" t="s">
         <v>454</v>
       </c>
@@ -40598,7 +40631,7 @@
       <c r="I56" s="54"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="86"/>
+      <c r="A57" s="87"/>
       <c r="B57" s="55" t="s">
         <v>586</v>
       </c>
@@ -40617,7 +40650,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="86"/>
+      <c r="A58" s="87"/>
       <c r="B58" s="55" t="s">
         <v>716</v>
       </c>
@@ -40636,7 +40669,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="86"/>
+      <c r="A59" s="87"/>
       <c r="B59" s="55"/>
       <c r="C59" s="51"/>
       <c r="D59" s="52"/>
@@ -40647,7 +40680,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="86"/>
+      <c r="A60" s="87"/>
       <c r="B60" s="55"/>
       <c r="C60" s="51"/>
       <c r="D60" s="52"/>
@@ -40658,7 +40691,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="86"/>
+      <c r="A61" s="87"/>
       <c r="B61" s="55"/>
       <c r="C61" s="51"/>
       <c r="D61" s="52"/>
@@ -40669,7 +40702,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="88" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -41138,7 +41171,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="88"/>
+      <c r="A83" s="89"/>
       <c r="B83" s="60" t="s">
         <v>329</v>
       </c>
@@ -41310,7 +41343,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="87"/>
+      <c r="A92" s="85"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -41321,7 +41354,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="83" t="s">
+      <c r="A93" s="88" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -41638,7 +41671,7 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="85"/>
+      <c r="A107" s="86"/>
       <c r="B107" s="51"/>
       <c r="C107" s="51" t="s">
         <v>285</v>
@@ -41655,7 +41688,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="86" t="s">
+      <c r="A108" s="87" t="s">
         <v>30</v>
       </c>
       <c r="B108" s="55" t="s">
@@ -41682,7 +41715,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="86"/>
+      <c r="A109" s="87"/>
       <c r="B109" s="55" t="s">
         <v>739</v>
       </c>
@@ -41708,7 +41741,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="86"/>
+      <c r="A110" s="87"/>
       <c r="B110" s="56" t="s">
         <v>740</v>
       </c>
@@ -41734,7 +41767,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="86"/>
+      <c r="A111" s="87"/>
       <c r="B111" s="55" t="s">
         <v>309</v>
       </c>
@@ -41760,7 +41793,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="86"/>
+      <c r="A112" s="87"/>
       <c r="B112" s="55" t="s">
         <v>741</v>
       </c>
@@ -41786,7 +41819,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="86"/>
+      <c r="A113" s="87"/>
       <c r="B113" s="55" t="s">
         <v>653</v>
       </c>
@@ -41812,7 +41845,7 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="86"/>
+      <c r="A114" s="87"/>
       <c r="B114" s="55" t="s">
         <v>742</v>
       </c>
@@ -41838,7 +41871,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="86"/>
+      <c r="A115" s="87"/>
       <c r="B115" s="55" t="s">
         <v>421</v>
       </c>
@@ -41863,7 +41896,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="86"/>
+      <c r="A116" s="87"/>
       <c r="B116" s="55" t="s">
         <v>745</v>
       </c>
@@ -41883,7 +41916,7 @@
       <c r="I116" s="54"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="86"/>
+      <c r="A117" s="87"/>
       <c r="B117" s="55" t="s">
         <v>296</v>
       </c>
@@ -41903,7 +41936,7 @@
       <c r="I117" s="54"/>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="86"/>
+      <c r="A118" s="87"/>
       <c r="B118" s="55" t="s">
         <v>746</v>
       </c>
@@ -41922,7 +41955,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="86"/>
+      <c r="A119" s="87"/>
       <c r="B119" s="55" t="s">
         <v>747</v>
       </c>
@@ -41941,7 +41974,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="86"/>
+      <c r="A120" s="87"/>
       <c r="B120" s="55" t="s">
         <v>748</v>
       </c>
@@ -41963,7 +41996,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="86"/>
+      <c r="A121" s="87"/>
       <c r="B121" s="55"/>
       <c r="C121" s="51"/>
       <c r="D121" s="52"/>
@@ -41974,7 +42007,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" hidden="1">
-      <c r="A122" s="86"/>
+      <c r="A122" s="87"/>
       <c r="B122" s="55"/>
       <c r="C122" s="51"/>
       <c r="D122" s="52"/>
@@ -41985,7 +42018,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="83" t="s">
+      <c r="A123" s="88" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
@@ -42116,7 +42149,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="88"/>
+      <c r="A128" s="89"/>
       <c r="B128" s="57" t="s">
         <v>667</v>
       </c>
@@ -42142,7 +42175,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="88"/>
+      <c r="A129" s="89"/>
       <c r="B129" s="57" t="s">
         <v>329</v>
       </c>
@@ -42168,7 +42201,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="88"/>
+      <c r="A130" s="89"/>
       <c r="B130" s="57" t="s">
         <v>668</v>
       </c>
@@ -42193,7 +42226,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="88"/>
+      <c r="A131" s="89"/>
       <c r="B131" s="57" t="s">
         <v>342</v>
       </c>
@@ -42273,7 +42306,7 @@
       <c r="F136" s="52"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="85"/>
+      <c r="A137" s="86"/>
       <c r="B137" s="51"/>
       <c r="C137" s="51"/>
       <c r="D137" s="52"/>
@@ -42281,7 +42314,7 @@
       <c r="F137" s="52"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="86" t="s">
+      <c r="A138" s="87" t="s">
         <v>276</v>
       </c>
       <c r="B138" s="55" t="s">
@@ -42308,7 +42341,7 @@
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="86"/>
+      <c r="A139" s="87"/>
       <c r="B139" s="55" t="s">
         <v>586</v>
       </c>
@@ -42334,7 +42367,7 @@
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="86"/>
+      <c r="A140" s="87"/>
       <c r="B140" s="55" t="s">
         <v>750</v>
       </c>
@@ -42360,7 +42393,7 @@
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="86"/>
+      <c r="A141" s="87"/>
       <c r="B141" s="55" t="s">
         <v>599</v>
       </c>
@@ -42386,7 +42419,7 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="86"/>
+      <c r="A142" s="87"/>
       <c r="B142" s="55" t="s">
         <v>751</v>
       </c>
@@ -42412,7 +42445,7 @@
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="86"/>
+      <c r="A143" s="87"/>
       <c r="B143" s="55" t="s">
         <v>671</v>
       </c>
@@ -42438,7 +42471,7 @@
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="86"/>
+      <c r="A144" s="87"/>
       <c r="B144" s="55" t="s">
         <v>745</v>
       </c>
@@ -42464,7 +42497,7 @@
       </c>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="86"/>
+      <c r="A145" s="87"/>
       <c r="B145" s="58" t="s">
         <v>752</v>
       </c>
@@ -42490,7 +42523,7 @@
       </c>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="89"/>
+      <c r="A146" s="90"/>
       <c r="B146" s="60" t="s">
         <v>753</v>
       </c>
@@ -42510,7 +42543,7 @@
       <c r="I146" s="54"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="86"/>
+      <c r="A147" s="87"/>
       <c r="B147" s="56" t="s">
         <v>754</v>
       </c>
@@ -42530,7 +42563,7 @@
       <c r="I147" s="54"/>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="86"/>
+      <c r="A148" s="87"/>
       <c r="B148" s="55"/>
       <c r="C148" s="51"/>
       <c r="D148" s="52"/>
@@ -42541,7 +42574,7 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="86"/>
+      <c r="A149" s="87"/>
       <c r="B149" s="55"/>
       <c r="C149" s="51"/>
       <c r="D149" s="52"/>
@@ -42552,7 +42585,7 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="86"/>
+      <c r="A150" s="87"/>
       <c r="B150" s="55"/>
       <c r="C150" s="51"/>
       <c r="D150" s="52"/>
@@ -42563,7 +42596,7 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="86"/>
+      <c r="A151" s="87"/>
       <c r="B151" s="55"/>
       <c r="C151" s="51"/>
       <c r="D151" s="52"/>
@@ -42574,7 +42607,7 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="86"/>
+      <c r="A152" s="87"/>
       <c r="B152" s="55"/>
       <c r="C152" s="51"/>
       <c r="D152" s="52"/>
@@ -42701,7 +42734,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="60" t="s">
@@ -42731,7 +42764,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="88"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="60" t="s">
         <v>755</v>
       </c>
@@ -42760,7 +42793,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="88"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="60" t="s">
         <v>756</v>
       </c>
@@ -42789,7 +42822,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="88"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="60" t="s">
         <v>309</v>
       </c>
@@ -42818,7 +42851,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="88"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="60" t="s">
         <v>757</v>
       </c>
@@ -42847,7 +42880,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="88"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="60" t="s">
         <v>757</v>
       </c>
@@ -42876,7 +42909,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="88"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="60" t="s">
         <v>313</v>
       </c>
@@ -42902,7 +42935,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="88"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="60" t="s">
         <v>758</v>
       </c>
@@ -42928,7 +42961,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="88"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="60" t="s">
         <v>759</v>
       </c>
@@ -42948,7 +42981,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="88"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="60" t="s">
         <v>760</v>
       </c>
@@ -42968,7 +43001,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="88"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="60" t="s">
         <v>685</v>
       </c>
@@ -42987,7 +43020,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="88"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="60" t="s">
         <v>309</v>
       </c>
@@ -43006,7 +43039,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="88"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="60"/>
       <c r="C14" s="60" t="s">
         <v>288</v>
@@ -43023,7 +43056,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="88"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="60"/>
       <c r="C15" s="60" t="s">
         <v>290</v>
@@ -43036,7 +43069,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="88"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="60"/>
       <c r="C16" s="60" t="s">
         <v>290</v>
@@ -43619,7 +43652,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="85"/>
+      <c r="A46" s="86"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
       <c r="D46" s="52"/>
@@ -43630,7 +43663,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="86" t="s">
+      <c r="A47" s="87" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="55" t="s">
@@ -43656,7 +43689,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="86"/>
+      <c r="A48" s="87"/>
       <c r="B48" s="55" t="s">
         <v>770</v>
       </c>
@@ -43680,7 +43713,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="86"/>
+      <c r="A49" s="87"/>
       <c r="B49" s="55" t="s">
         <v>558</v>
       </c>
@@ -43705,7 +43738,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="86"/>
+      <c r="A50" s="87"/>
       <c r="B50" s="51" t="s">
         <v>772</v>
       </c>
@@ -43729,7 +43762,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="86"/>
+      <c r="A51" s="87"/>
       <c r="B51" s="55" t="s">
         <v>774</v>
       </c>
@@ -43754,7 +43787,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="86"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="55" t="s">
         <v>775</v>
       </c>
@@ -43779,7 +43812,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="86"/>
+      <c r="A53" s="87"/>
       <c r="B53" s="55" t="s">
         <v>599</v>
       </c>
@@ -43803,7 +43836,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="86"/>
+      <c r="A54" s="87"/>
       <c r="B54" s="55" t="s">
         <v>775</v>
       </c>
@@ -43828,7 +43861,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="86"/>
+      <c r="A55" s="87"/>
       <c r="B55" s="56" t="s">
         <v>516</v>
       </c>
@@ -43848,7 +43881,7 @@
       <c r="I55" s="54"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="86"/>
+      <c r="A56" s="87"/>
       <c r="B56" s="55" t="s">
         <v>454</v>
       </c>
@@ -43867,7 +43900,7 @@
       <c r="I56" s="54"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="86"/>
+      <c r="A57" s="87"/>
       <c r="B57" s="55" t="s">
         <v>586</v>
       </c>
@@ -43886,7 +43919,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="86"/>
+      <c r="A58" s="87"/>
       <c r="B58" s="55" t="s">
         <v>777</v>
       </c>
@@ -43905,7 +43938,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="86"/>
+      <c r="A59" s="87"/>
       <c r="B59" s="55"/>
       <c r="C59" s="51"/>
       <c r="D59" s="52"/>
@@ -43916,7 +43949,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="86"/>
+      <c r="A60" s="87"/>
       <c r="B60" s="55"/>
       <c r="C60" s="51"/>
       <c r="D60" s="52"/>
@@ -43927,7 +43960,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="86"/>
+      <c r="A61" s="87"/>
       <c r="B61" s="55"/>
       <c r="C61" s="51"/>
       <c r="D61" s="52"/>
@@ -43938,7 +43971,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="88" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -44407,7 +44440,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="88"/>
+      <c r="A83" s="89"/>
       <c r="B83" s="51" t="s">
         <v>783</v>
       </c>
@@ -44569,7 +44602,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="87"/>
+      <c r="A92" s="85"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -44580,7 +44613,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="83" t="s">
+      <c r="A93" s="88" t="s">
         <v>54</v>
       </c>
       <c r="B93" s="51" t="s">
@@ -44850,7 +44883,7 @@
       <c r="F106" s="52"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="85"/>
+      <c r="A107" s="86"/>
       <c r="B107" s="51"/>
       <c r="C107" s="51"/>
       <c r="D107" s="52"/>
@@ -44858,7 +44891,7 @@
       <c r="F107" s="52"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="86" t="s">
+      <c r="A108" s="87" t="s">
         <v>30</v>
       </c>
       <c r="B108" s="55" t="s">
@@ -44885,7 +44918,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="86"/>
+      <c r="A109" s="87"/>
       <c r="B109" s="55" t="s">
         <v>739</v>
       </c>
@@ -44911,7 +44944,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="86"/>
+      <c r="A110" s="87"/>
       <c r="B110" s="56" t="s">
         <v>794</v>
       </c>
@@ -44937,7 +44970,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="86"/>
+      <c r="A111" s="87"/>
       <c r="B111" s="55" t="s">
         <v>309</v>
       </c>
@@ -44963,7 +44996,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="86"/>
+      <c r="A112" s="87"/>
       <c r="B112" s="55" t="s">
         <v>795</v>
       </c>
@@ -44989,7 +45022,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="86"/>
+      <c r="A113" s="87"/>
       <c r="B113" s="55" t="s">
         <v>653</v>
       </c>
@@ -45015,7 +45048,7 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="86"/>
+      <c r="A114" s="87"/>
       <c r="B114" s="55" t="s">
         <v>742</v>
       </c>
@@ -45041,7 +45074,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="86"/>
+      <c r="A115" s="87"/>
       <c r="B115" s="55" t="s">
         <v>421</v>
       </c>
@@ -45066,7 +45099,7 @@
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="86"/>
+      <c r="A116" s="87"/>
       <c r="B116" s="55" t="s">
         <v>746</v>
       </c>
@@ -45086,7 +45119,7 @@
       <c r="I116" s="54"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="86"/>
+      <c r="A117" s="87"/>
       <c r="B117" s="55" t="s">
         <v>345</v>
       </c>
@@ -45106,7 +45139,7 @@
       <c r="I117" s="54"/>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="86"/>
+      <c r="A118" s="87"/>
       <c r="B118" s="55" t="s">
         <v>421</v>
       </c>
@@ -45125,7 +45158,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="86"/>
+      <c r="A119" s="87"/>
       <c r="B119" s="55" t="s">
         <v>796</v>
       </c>
@@ -45144,7 +45177,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="86"/>
+      <c r="A120" s="87"/>
       <c r="B120" s="55" t="s">
         <v>797</v>
       </c>
@@ -45166,7 +45199,7 @@
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="86"/>
+      <c r="A121" s="87"/>
       <c r="B121" s="55"/>
       <c r="C121" s="51"/>
       <c r="D121" s="52"/>
@@ -45177,7 +45210,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" hidden="1">
-      <c r="A122" s="86"/>
+      <c r="A122" s="87"/>
       <c r="B122" s="55"/>
       <c r="C122" s="51"/>
       <c r="D122" s="52"/>
@@ -45188,7 +45221,7 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="83" t="s">
+      <c r="A123" s="88" t="s">
         <v>273</v>
       </c>
       <c r="B123" s="51" t="s">
@@ -45319,7 +45352,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="88"/>
+      <c r="A128" s="89"/>
       <c r="B128" s="57" t="s">
         <v>599</v>
       </c>
@@ -45345,7 +45378,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="88"/>
+      <c r="A129" s="89"/>
       <c r="B129" s="57" t="s">
         <v>802</v>
       </c>
@@ -45371,7 +45404,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="88"/>
+      <c r="A130" s="89"/>
       <c r="B130" s="57" t="s">
         <v>803</v>
       </c>
@@ -45396,7 +45429,7 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="88"/>
+      <c r="A131" s="89"/>
       <c r="B131" s="57" t="s">
         <v>345</v>
       </c>
@@ -45466,7 +45499,7 @@
       <c r="F136" s="52"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="85"/>
+      <c r="A137" s="86"/>
       <c r="B137" s="51"/>
       <c r="C137" s="51"/>
       <c r="D137" s="52"/>
@@ -45474,7 +45507,7 @@
       <c r="F137" s="52"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="86" t="s">
+      <c r="A138" s="87" t="s">
         <v>276</v>
       </c>
       <c r="B138" s="55" t="s">
@@ -45501,7 +45534,7 @@
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="86"/>
+      <c r="A139" s="87"/>
       <c r="B139" s="55" t="s">
         <v>586</v>
       </c>
@@ -45527,7 +45560,7 @@
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="86"/>
+      <c r="A140" s="87"/>
       <c r="B140" s="55" t="s">
         <v>750</v>
       </c>
@@ -45553,7 +45586,7 @@
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="86"/>
+      <c r="A141" s="87"/>
       <c r="B141" s="55" t="s">
         <v>599</v>
       </c>
@@ -45579,7 +45612,7 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="86"/>
+      <c r="A142" s="87"/>
       <c r="B142" s="55" t="s">
         <v>751</v>
       </c>
@@ -45605,7 +45638,7 @@
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="86"/>
+      <c r="A143" s="87"/>
       <c r="B143" s="55" t="s">
         <v>671</v>
       </c>
@@ -45631,7 +45664,7 @@
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="86"/>
+      <c r="A144" s="87"/>
       <c r="B144" s="55" t="s">
         <v>745</v>
       </c>
@@ -45657,7 +45690,7 @@
       </c>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="86"/>
+      <c r="A145" s="87"/>
       <c r="B145" s="58" t="s">
         <v>752</v>
       </c>
@@ -45683,7 +45716,7 @@
       </c>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="89"/>
+      <c r="A146" s="90"/>
       <c r="B146" s="60" t="s">
         <v>753</v>
       </c>
@@ -45703,7 +45736,7 @@
       <c r="I146" s="54"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="86"/>
+      <c r="A147" s="87"/>
       <c r="B147" s="56" t="s">
         <v>754</v>
       </c>
@@ -45723,7 +45756,7 @@
       <c r="I147" s="54"/>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="86"/>
+      <c r="A148" s="87"/>
       <c r="B148" s="55"/>
       <c r="C148" s="51"/>
       <c r="D148" s="52"/>
@@ -45734,7 +45767,7 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="86"/>
+      <c r="A149" s="87"/>
       <c r="B149" s="55"/>
       <c r="C149" s="51"/>
       <c r="D149" s="52"/>
@@ -45745,7 +45778,7 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="86"/>
+      <c r="A150" s="87"/>
       <c r="B150" s="55"/>
       <c r="C150" s="51"/>
       <c r="D150" s="52"/>
@@ -45756,7 +45789,7 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="86"/>
+      <c r="A151" s="87"/>
       <c r="B151" s="55"/>
       <c r="C151" s="51"/>
       <c r="D151" s="52"/>
@@ -45767,7 +45800,7 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="86"/>
+      <c r="A152" s="87"/>
       <c r="B152" s="55"/>
       <c r="C152" s="51"/>
       <c r="D152" s="52"/>
@@ -45892,7 +45925,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="60" t="s">
@@ -45922,7 +45955,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="88"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="60" t="s">
         <v>805</v>
       </c>
@@ -45951,7 +45984,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="88"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="60" t="s">
         <v>806</v>
       </c>
@@ -45980,7 +46013,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="88"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="60" t="s">
         <v>309</v>
       </c>
@@ -46009,7 +46042,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="88"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="60" t="s">
         <v>807</v>
       </c>
@@ -46038,7 +46071,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="88"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="60"/>
       <c r="C7" s="60" t="s">
         <v>288</v>
@@ -46061,7 +46094,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="88"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="60"/>
       <c r="C8" s="60" t="s">
         <v>295</v>
@@ -46081,7 +46114,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="88"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="60"/>
       <c r="C9" s="60" t="s">
         <v>288</v>
@@ -46101,7 +46134,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="88"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="60"/>
       <c r="C10" s="60" t="s">
         <v>288</v>
@@ -46115,7 +46148,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="88"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="60"/>
       <c r="C11" s="60" t="s">
         <v>285</v>
@@ -46129,7 +46162,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="88"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="60"/>
       <c r="C12" s="60" t="s">
         <v>296</v>
@@ -46142,7 +46175,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="88"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="60"/>
       <c r="C13" s="60" t="s">
         <v>295</v>
@@ -46155,7 +46188,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="88"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="60"/>
       <c r="C14" s="60" t="s">
         <v>288</v>
@@ -46168,7 +46201,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="88"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="60"/>
       <c r="C15" s="60" t="s">
         <v>290</v>
@@ -46181,7 +46214,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="88"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="60"/>
       <c r="C16" s="60" t="s">
         <v>290</v>
@@ -46794,7 +46827,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="85"/>
+      <c r="A46" s="86"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
       <c r="D46" s="52"/>
@@ -46805,7 +46838,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="86" t="s">
+      <c r="A47" s="87" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="55" t="s">
@@ -46831,7 +46864,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="86"/>
+      <c r="A48" s="87"/>
       <c r="B48" s="55" t="s">
         <v>818</v>
       </c>
@@ -46855,7 +46888,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="86"/>
+      <c r="A49" s="87"/>
       <c r="B49" s="55" t="s">
         <v>772</v>
       </c>
@@ -46880,7 +46913,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="86"/>
+      <c r="A50" s="87"/>
       <c r="B50" s="51" t="s">
         <v>586</v>
       </c>
@@ -46904,7 +46937,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="86"/>
+      <c r="A51" s="87"/>
       <c r="B51" s="55" t="s">
         <v>775</v>
       </c>
@@ -46929,7 +46962,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="86"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="55" t="s">
         <v>329</v>
       </c>
@@ -46954,7 +46987,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="86"/>
+      <c r="A53" s="87"/>
       <c r="B53" s="55" t="s">
         <v>777</v>
       </c>
@@ -46978,7 +47011,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="86"/>
+      <c r="A54" s="87"/>
       <c r="B54" s="55" t="s">
         <v>820</v>
       </c>
@@ -47003,7 +47036,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="86"/>
+      <c r="A55" s="87"/>
       <c r="B55" s="55" t="s">
         <v>309</v>
       </c>
@@ -47023,7 +47056,7 @@
       <c r="I55" s="54"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="86"/>
+      <c r="A56" s="87"/>
       <c r="B56" s="55" t="s">
         <v>775</v>
       </c>
@@ -47042,7 +47075,7 @@
       <c r="I56" s="54"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="86"/>
+      <c r="A57" s="87"/>
       <c r="B57" s="55"/>
       <c r="C57" s="51"/>
       <c r="D57" s="52"/>
@@ -47055,7 +47088,7 @@
       <c r="I57" s="70"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="86"/>
+      <c r="A58" s="87"/>
       <c r="B58" s="55"/>
       <c r="C58" s="51"/>
       <c r="D58" s="52"/>
@@ -47066,7 +47099,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="86"/>
+      <c r="A59" s="87"/>
       <c r="B59" s="55"/>
       <c r="C59" s="51"/>
       <c r="D59" s="52"/>
@@ -47077,7 +47110,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="86"/>
+      <c r="A60" s="87"/>
       <c r="B60" s="55"/>
       <c r="C60" s="51"/>
       <c r="D60" s="52"/>
@@ -47088,7 +47121,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="86"/>
+      <c r="A61" s="87"/>
       <c r="B61" s="55"/>
       <c r="C61" s="51"/>
       <c r="D61" s="52"/>
@@ -47099,7 +47132,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="88" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -47502,7 +47535,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="88"/>
+      <c r="A82" s="89"/>
       <c r="B82" s="51" t="s">
         <v>829</v>
       </c>
@@ -47664,7 +47697,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="87"/>
+      <c r="A91" s="85"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -47675,7 +47708,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="83" t="s">
+      <c r="A92" s="88" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -47941,7 +47974,7 @@
       <c r="F105" s="52"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="85"/>
+      <c r="A106" s="86"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51"/>
       <c r="D106" s="52"/>
@@ -47949,7 +47982,7 @@
       <c r="F106" s="52"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="86" t="s">
+      <c r="A107" s="87" t="s">
         <v>30</v>
       </c>
       <c r="B107" s="55" t="s">
@@ -47976,7 +48009,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="86"/>
+      <c r="A108" s="87"/>
       <c r="B108" s="55" t="s">
         <v>836</v>
       </c>
@@ -48001,7 +48034,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="86"/>
+      <c r="A109" s="87"/>
       <c r="B109" s="56" t="s">
         <v>837</v>
       </c>
@@ -48027,7 +48060,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="86"/>
+      <c r="A110" s="87"/>
       <c r="B110" s="55" t="s">
         <v>309</v>
       </c>
@@ -48053,7 +48086,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="86"/>
+      <c r="A111" s="87"/>
       <c r="B111" s="55" t="s">
         <v>838</v>
       </c>
@@ -48079,7 +48112,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="86"/>
+      <c r="A112" s="87"/>
       <c r="B112" s="55" t="s">
         <v>653</v>
       </c>
@@ -48105,7 +48138,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="86"/>
+      <c r="A113" s="87"/>
       <c r="B113" s="55" t="s">
         <v>839</v>
       </c>
@@ -48131,7 +48164,7 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="86"/>
+      <c r="A114" s="87"/>
       <c r="B114" s="55" t="s">
         <v>840</v>
       </c>
@@ -48156,7 +48189,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="86"/>
+      <c r="A115" s="87"/>
       <c r="B115" s="55"/>
       <c r="C115" s="51"/>
       <c r="D115" s="52" t="s">
@@ -48169,7 +48202,7 @@
       <c r="I115" s="54"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="86"/>
+      <c r="A116" s="87"/>
       <c r="B116" s="55" t="s">
         <v>424</v>
       </c>
@@ -48184,7 +48217,7 @@
       <c r="I116" s="54"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="86"/>
+      <c r="A117" s="87"/>
       <c r="B117" s="55" t="s">
         <v>424</v>
       </c>
@@ -48198,7 +48231,7 @@
       <c r="F117" s="52"/>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="86"/>
+      <c r="A118" s="87"/>
       <c r="B118" s="55" t="s">
         <v>424</v>
       </c>
@@ -48212,7 +48245,7 @@
       <c r="F118" s="52"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="86"/>
+      <c r="A119" s="87"/>
       <c r="B119" s="55" t="s">
         <v>424</v>
       </c>
@@ -48227,7 +48260,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="86"/>
+      <c r="A120" s="87"/>
       <c r="B120" s="55"/>
       <c r="C120" s="51"/>
       <c r="D120" s="52"/>
@@ -48235,7 +48268,7 @@
       <c r="F120" s="52"/>
     </row>
     <row r="121" spans="1:9" hidden="1">
-      <c r="A121" s="86"/>
+      <c r="A121" s="87"/>
       <c r="B121" s="55"/>
       <c r="C121" s="51"/>
       <c r="D121" s="52"/>
@@ -48246,7 +48279,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="83" t="s">
+      <c r="A122" s="88" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -48377,7 +48410,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="88"/>
+      <c r="A127" s="89"/>
       <c r="B127" s="57" t="s">
         <v>846</v>
       </c>
@@ -48403,7 +48436,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="88"/>
+      <c r="A128" s="89"/>
       <c r="B128" s="57" t="s">
         <v>342</v>
       </c>
@@ -48429,7 +48462,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="88"/>
+      <c r="A129" s="89"/>
       <c r="B129" s="57" t="s">
         <v>847</v>
       </c>
@@ -48454,7 +48487,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="88"/>
+      <c r="A130" s="89"/>
       <c r="B130" s="57"/>
       <c r="C130" s="55"/>
       <c r="D130" s="52"/>
@@ -48504,7 +48537,7 @@
       <c r="F135" s="52"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="85"/>
+      <c r="A136" s="86"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -48512,7 +48545,7 @@
       <c r="F136" s="52"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="86" t="s">
+      <c r="A137" s="87" t="s">
         <v>276</v>
       </c>
       <c r="B137" s="55" t="s">
@@ -48539,7 +48572,7 @@
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="86"/>
+      <c r="A138" s="87"/>
       <c r="B138" s="55" t="s">
         <v>586</v>
       </c>
@@ -48565,7 +48598,7 @@
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="86"/>
+      <c r="A139" s="87"/>
       <c r="B139" s="55" t="s">
         <v>750</v>
       </c>
@@ -48591,7 +48624,7 @@
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="86"/>
+      <c r="A140" s="87"/>
       <c r="B140" s="55" t="s">
         <v>599</v>
       </c>
@@ -48617,7 +48650,7 @@
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="86"/>
+      <c r="A141" s="87"/>
       <c r="B141" s="55" t="s">
         <v>751</v>
       </c>
@@ -48643,7 +48676,7 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="86"/>
+      <c r="A142" s="87"/>
       <c r="B142" s="55" t="s">
         <v>671</v>
       </c>
@@ -48669,7 +48702,7 @@
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="86"/>
+      <c r="A143" s="87"/>
       <c r="B143" s="55" t="s">
         <v>745</v>
       </c>
@@ -48695,7 +48728,7 @@
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="86"/>
+      <c r="A144" s="87"/>
       <c r="B144" s="58" t="s">
         <v>752</v>
       </c>
@@ -48721,7 +48754,7 @@
       </c>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="89"/>
+      <c r="A145" s="90"/>
       <c r="B145" s="60" t="s">
         <v>753</v>
       </c>
@@ -48741,7 +48774,7 @@
       <c r="I145" s="54"/>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="86"/>
+      <c r="A146" s="87"/>
       <c r="B146" s="56" t="s">
         <v>754</v>
       </c>
@@ -48761,7 +48794,7 @@
       <c r="I146" s="54"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="86"/>
+      <c r="A147" s="87"/>
       <c r="B147" s="55"/>
       <c r="C147" s="51"/>
       <c r="D147" s="52"/>
@@ -48772,7 +48805,7 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="86"/>
+      <c r="A148" s="87"/>
       <c r="B148" s="55"/>
       <c r="C148" s="51"/>
       <c r="D148" s="52"/>
@@ -48783,7 +48816,7 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="86"/>
+      <c r="A149" s="87"/>
       <c r="B149" s="55"/>
       <c r="C149" s="51"/>
       <c r="D149" s="52"/>
@@ -48794,7 +48827,7 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="86"/>
+      <c r="A150" s="87"/>
       <c r="B150" s="55"/>
       <c r="C150" s="51"/>
       <c r="D150" s="52"/>
@@ -48805,7 +48838,7 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="86"/>
+      <c r="A151" s="87"/>
       <c r="B151" s="55"/>
       <c r="C151" s="51"/>
       <c r="D151" s="52"/>
@@ -48932,7 +48965,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="60" t="s">
@@ -48962,7 +48995,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="88"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="60" t="s">
         <v>848</v>
       </c>
@@ -48991,7 +49024,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="88"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="60" t="s">
         <v>849</v>
       </c>
@@ -49020,7 +49053,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="88"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="60" t="s">
         <v>309</v>
       </c>
@@ -49049,7 +49082,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="88"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="60" t="s">
         <v>807</v>
       </c>
@@ -49078,7 +49111,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="88"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="60" t="s">
         <v>313</v>
       </c>
@@ -49107,7 +49140,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="88"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="60" t="s">
         <v>850</v>
       </c>
@@ -49133,7 +49166,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="88"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="60" t="s">
         <v>851</v>
       </c>
@@ -49159,7 +49192,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="88"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="60" t="s">
         <v>852</v>
       </c>
@@ -49179,7 +49212,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="88"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="60" t="s">
         <v>853</v>
       </c>
@@ -49199,7 +49232,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="88"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="73" t="s">
         <v>311</v>
       </c>
@@ -49218,7 +49251,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="88"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="73" t="s">
         <v>854</v>
       </c>
@@ -49237,7 +49270,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="88"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="60" t="s">
         <v>342</v>
       </c>
@@ -49256,7 +49289,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="88"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="60" t="s">
         <v>855</v>
       </c>
@@ -49275,7 +49308,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="88"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="60" t="s">
         <v>856</v>
       </c>
@@ -49619,7 +49652,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="87"/>
+      <c r="A31" s="85"/>
       <c r="B31" s="51" t="s">
         <v>866</v>
       </c>
@@ -49638,7 +49671,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="83" t="s">
+      <c r="A32" s="88" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -49955,7 +49988,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="85"/>
+      <c r="A46" s="86"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
       <c r="D46" s="52"/>
@@ -49966,7 +49999,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="86" t="s">
+      <c r="A47" s="87" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="55" t="s">
@@ -49992,7 +50025,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="86"/>
+      <c r="A48" s="87"/>
       <c r="B48" s="55" t="s">
         <v>775</v>
       </c>
@@ -50016,7 +50049,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="86"/>
+      <c r="A49" s="87"/>
       <c r="B49" s="55" t="s">
         <v>586</v>
       </c>
@@ -50041,7 +50074,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="86"/>
+      <c r="A50" s="87"/>
       <c r="B50" s="51" t="s">
         <v>775</v>
       </c>
@@ -50065,7 +50098,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="86"/>
+      <c r="A51" s="87"/>
       <c r="B51" s="55" t="s">
         <v>876</v>
       </c>
@@ -50090,7 +50123,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="86"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="55" t="s">
         <v>877</v>
       </c>
@@ -50115,7 +50148,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="86"/>
+      <c r="A53" s="87"/>
       <c r="B53" s="55" t="s">
         <v>599</v>
       </c>
@@ -50139,7 +50172,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="86"/>
+      <c r="A54" s="87"/>
       <c r="B54" s="55" t="s">
         <v>878</v>
       </c>
@@ -50164,7 +50197,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="86"/>
+      <c r="A55" s="87"/>
       <c r="B55" s="55" t="s">
         <v>880</v>
       </c>
@@ -50184,7 +50217,7 @@
       <c r="I55" s="54"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="86"/>
+      <c r="A56" s="87"/>
       <c r="B56" s="55" t="s">
         <v>309</v>
       </c>
@@ -50203,7 +50236,7 @@
       <c r="I56" s="54"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="86"/>
+      <c r="A57" s="87"/>
       <c r="B57" s="55" t="s">
         <v>882</v>
       </c>
@@ -50224,7 +50257,7 @@
       <c r="I57" s="81"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="86"/>
+      <c r="A58" s="87"/>
       <c r="B58" s="55" t="s">
         <v>883</v>
       </c>
@@ -50243,7 +50276,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="86"/>
+      <c r="A59" s="87"/>
       <c r="B59" s="55" t="s">
         <v>884</v>
       </c>
@@ -50262,7 +50295,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="86"/>
+      <c r="A60" s="87"/>
       <c r="B60" s="55"/>
       <c r="C60" s="51"/>
       <c r="D60" s="52"/>
@@ -50273,7 +50306,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="86"/>
+      <c r="A61" s="87"/>
       <c r="B61" s="55"/>
       <c r="C61" s="51"/>
       <c r="D61" s="52"/>
@@ -50284,7 +50317,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="88" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -50749,7 +50782,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="88"/>
+      <c r="A82" s="89"/>
       <c r="B82" s="51" t="s">
         <v>829</v>
       </c>
@@ -50911,7 +50944,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="87"/>
+      <c r="A91" s="85"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -50922,7 +50955,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="83" t="s">
+      <c r="A92" s="88" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -51236,7 +51269,7 @@
       <c r="F105" s="52"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="85"/>
+      <c r="A106" s="86"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51"/>
       <c r="D106" s="52"/>
@@ -51244,7 +51277,7 @@
       <c r="F106" s="52"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="86" t="s">
+      <c r="A107" s="87" t="s">
         <v>30</v>
       </c>
       <c r="B107" s="55" t="s">
@@ -51271,7 +51304,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="86"/>
+      <c r="A108" s="87"/>
       <c r="B108" s="55" t="s">
         <v>837</v>
       </c>
@@ -51296,7 +51329,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="86"/>
+      <c r="A109" s="87"/>
       <c r="B109" s="56" t="s">
         <v>900</v>
       </c>
@@ -51322,7 +51355,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="86"/>
+      <c r="A110" s="87"/>
       <c r="B110" s="55" t="s">
         <v>309</v>
       </c>
@@ -51348,7 +51381,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="86"/>
+      <c r="A111" s="87"/>
       <c r="B111" s="55" t="s">
         <v>901</v>
       </c>
@@ -51374,7 +51407,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="86"/>
+      <c r="A112" s="87"/>
       <c r="B112" s="55" t="s">
         <v>653</v>
       </c>
@@ -51400,7 +51433,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="86"/>
+      <c r="A113" s="87"/>
       <c r="B113" s="55" t="s">
         <v>902</v>
       </c>
@@ -51426,7 +51459,7 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="86"/>
+      <c r="A114" s="87"/>
       <c r="B114" s="55" t="s">
         <v>342</v>
       </c>
@@ -51451,7 +51484,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="86"/>
+      <c r="A115" s="87"/>
       <c r="B115" s="55" t="s">
         <v>903</v>
       </c>
@@ -51470,7 +51503,7 @@
       <c r="I115" s="54"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="86"/>
+      <c r="A116" s="87"/>
       <c r="B116" s="55" t="s">
         <v>904</v>
       </c>
@@ -51489,7 +51522,7 @@
       <c r="I116" s="54"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="86"/>
+      <c r="A117" s="87"/>
       <c r="B117" s="55" t="s">
         <v>333</v>
       </c>
@@ -51507,7 +51540,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="86"/>
+      <c r="A118" s="87"/>
       <c r="B118" s="55" t="s">
         <v>342</v>
       </c>
@@ -51525,7 +51558,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="86"/>
+      <c r="A119" s="87"/>
       <c r="B119" s="55" t="s">
         <v>905</v>
       </c>
@@ -51546,7 +51579,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="86"/>
+      <c r="A120" s="87"/>
       <c r="B120" s="55" t="s">
         <v>906</v>
       </c>
@@ -51564,7 +51597,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" hidden="1">
-      <c r="A121" s="86"/>
+      <c r="A121" s="87"/>
       <c r="B121" s="55"/>
       <c r="C121" s="51"/>
       <c r="D121" s="52"/>
@@ -51575,7 +51608,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="83" t="s">
+      <c r="A122" s="88" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -51706,7 +51739,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="88"/>
+      <c r="A127" s="89"/>
       <c r="B127" s="57" t="s">
         <v>911</v>
       </c>
@@ -51732,7 +51765,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="88"/>
+      <c r="A128" s="89"/>
       <c r="B128" s="57" t="s">
         <v>862</v>
       </c>
@@ -51758,7 +51791,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="88"/>
+      <c r="A129" s="89"/>
       <c r="B129" s="57" t="s">
         <v>903</v>
       </c>
@@ -51784,7 +51817,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="88"/>
+      <c r="A130" s="89"/>
       <c r="B130" s="57" t="s">
         <v>864</v>
       </c>
@@ -51900,7 +51933,7 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="85"/>
+      <c r="A136" s="86"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -51911,7 +51944,7 @@
       </c>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="86" t="s">
+      <c r="A137" s="87" t="s">
         <v>276</v>
       </c>
       <c r="B137" s="55" t="s">
@@ -51938,7 +51971,7 @@
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="86"/>
+      <c r="A138" s="87"/>
       <c r="B138" s="55" t="s">
         <v>914</v>
       </c>
@@ -51964,7 +51997,7 @@
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="86"/>
+      <c r="A139" s="87"/>
       <c r="B139" s="55" t="s">
         <v>915</v>
       </c>
@@ -51990,7 +52023,7 @@
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="86"/>
+      <c r="A140" s="87"/>
       <c r="B140" s="55" t="s">
         <v>916</v>
       </c>
@@ -52016,7 +52049,7 @@
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="86"/>
+      <c r="A141" s="87"/>
       <c r="B141" s="55"/>
       <c r="C141" s="51"/>
       <c r="D141" s="52"/>
@@ -52034,7 +52067,7 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="86"/>
+      <c r="A142" s="87"/>
       <c r="B142" s="55"/>
       <c r="C142" s="51"/>
       <c r="D142" s="52"/>
@@ -52052,7 +52085,7 @@
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="86"/>
+      <c r="A143" s="87"/>
       <c r="B143" s="55"/>
       <c r="C143" s="51"/>
       <c r="D143" s="52"/>
@@ -52070,7 +52103,7 @@
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="86"/>
+      <c r="A144" s="87"/>
       <c r="B144" s="58"/>
       <c r="C144" s="51"/>
       <c r="D144" s="52"/>
@@ -52088,7 +52121,7 @@
       </c>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="89"/>
+      <c r="A145" s="90"/>
       <c r="B145" s="60"/>
       <c r="C145" s="55"/>
       <c r="D145" s="52"/>
@@ -52100,7 +52133,7 @@
       <c r="I145" s="54"/>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="86"/>
+      <c r="A146" s="87"/>
       <c r="B146" s="56"/>
       <c r="C146" s="51"/>
       <c r="D146" s="52"/>
@@ -52112,7 +52145,7 @@
       <c r="I146" s="54"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="86"/>
+      <c r="A147" s="87"/>
       <c r="B147" s="55"/>
       <c r="C147" s="51"/>
       <c r="D147" s="52"/>
@@ -52123,7 +52156,7 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="86"/>
+      <c r="A148" s="87"/>
       <c r="B148" s="55"/>
       <c r="C148" s="51"/>
       <c r="D148" s="52"/>
@@ -52134,7 +52167,7 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="86"/>
+      <c r="A149" s="87"/>
       <c r="B149" s="55"/>
       <c r="C149" s="51"/>
       <c r="D149" s="52"/>
@@ -52145,7 +52178,7 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="86"/>
+      <c r="A150" s="87"/>
       <c r="B150" s="55"/>
       <c r="C150" s="51"/>
       <c r="D150" s="52"/>
@@ -52156,7 +52189,7 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="86"/>
+      <c r="A151" s="87"/>
       <c r="B151" s="55"/>
       <c r="C151" s="51"/>
       <c r="D151" s="52"/>
@@ -52294,8 +52327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2157EB76-4429-4183-9F2E-52D80F6A8607}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="N102" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="N102" sqref="N102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -52334,7 +52367,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="60" t="s">
@@ -52364,7 +52397,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="88"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="60" t="s">
         <v>848</v>
       </c>
@@ -52393,7 +52426,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="88"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="60" t="s">
         <v>849</v>
       </c>
@@ -52422,7 +52455,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="88"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="60" t="s">
         <v>309</v>
       </c>
@@ -52451,7 +52484,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="88"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="60" t="s">
         <v>807</v>
       </c>
@@ -52480,7 +52513,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="88"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="60" t="s">
         <v>313</v>
       </c>
@@ -52509,7 +52542,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="88"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="60" t="s">
         <v>850</v>
       </c>
@@ -52535,7 +52568,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="88"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="60" t="s">
         <v>851</v>
       </c>
@@ -52561,7 +52594,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="88"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="60" t="s">
         <v>852</v>
       </c>
@@ -52581,7 +52614,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="88"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="60" t="s">
         <v>853</v>
       </c>
@@ -52601,7 +52634,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="88"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="73" t="s">
         <v>311</v>
       </c>
@@ -52620,7 +52653,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="88"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="73" t="s">
         <v>854</v>
       </c>
@@ -52639,7 +52672,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="88"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="60" t="s">
         <v>342</v>
       </c>
@@ -52658,7 +52691,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="88"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="60" t="s">
         <v>855</v>
       </c>
@@ -52677,7 +52710,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="88"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="60" t="s">
         <v>856</v>
       </c>
@@ -53021,7 +53054,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="87"/>
+      <c r="A31" s="85"/>
       <c r="B31" s="51" t="s">
         <v>866</v>
       </c>
@@ -53040,7 +53073,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="83" t="s">
+      <c r="A32" s="88" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -53357,7 +53390,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="85"/>
+      <c r="A46" s="86"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
       <c r="D46" s="52"/>
@@ -53368,7 +53401,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="86" t="s">
+      <c r="A47" s="87" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="55" t="s">
@@ -53394,7 +53427,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="86"/>
+      <c r="A48" s="87"/>
       <c r="B48" s="55" t="s">
         <v>775</v>
       </c>
@@ -53418,7 +53451,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="86"/>
+      <c r="A49" s="87"/>
       <c r="B49" s="55" t="s">
         <v>586</v>
       </c>
@@ -53443,7 +53476,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="86"/>
+      <c r="A50" s="87"/>
       <c r="B50" s="51" t="s">
         <v>775</v>
       </c>
@@ -53467,7 +53500,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="86"/>
+      <c r="A51" s="87"/>
       <c r="B51" s="55" t="s">
         <v>876</v>
       </c>
@@ -53492,7 +53525,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="86"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="55" t="s">
         <v>877</v>
       </c>
@@ -53517,7 +53550,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="86"/>
+      <c r="A53" s="87"/>
       <c r="B53" s="55" t="s">
         <v>599</v>
       </c>
@@ -53541,7 +53574,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="86"/>
+      <c r="A54" s="87"/>
       <c r="B54" s="55" t="s">
         <v>878</v>
       </c>
@@ -53566,7 +53599,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="86"/>
+      <c r="A55" s="87"/>
       <c r="B55" s="55" t="s">
         <v>880</v>
       </c>
@@ -53586,7 +53619,7 @@
       <c r="I55" s="54"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="86"/>
+      <c r="A56" s="87"/>
       <c r="B56" s="55" t="s">
         <v>309</v>
       </c>
@@ -53605,7 +53638,7 @@
       <c r="I56" s="54"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="86"/>
+      <c r="A57" s="87"/>
       <c r="B57" s="55" t="s">
         <v>882</v>
       </c>
@@ -53626,7 +53659,7 @@
       <c r="I57" s="81"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="86"/>
+      <c r="A58" s="87"/>
       <c r="B58" s="55" t="s">
         <v>883</v>
       </c>
@@ -53645,7 +53678,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="86"/>
+      <c r="A59" s="87"/>
       <c r="B59" s="55" t="s">
         <v>884</v>
       </c>
@@ -53664,7 +53697,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="86"/>
+      <c r="A60" s="87"/>
       <c r="B60" s="55"/>
       <c r="C60" s="51"/>
       <c r="D60" s="52"/>
@@ -53675,7 +53708,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="86"/>
+      <c r="A61" s="87"/>
       <c r="B61" s="55"/>
       <c r="C61" s="51"/>
       <c r="D61" s="52"/>
@@ -53686,7 +53719,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="88" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -54151,7 +54184,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="88"/>
+      <c r="A82" s="89"/>
       <c r="B82" s="51" t="s">
         <v>829</v>
       </c>
@@ -54313,7 +54346,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="87"/>
+      <c r="A91" s="85"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -54324,7 +54357,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="83" t="s">
+      <c r="A92" s="88" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -54430,7 +54463,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="84"/>
-      <c r="B96" s="90" t="s">
+      <c r="B96" s="83" t="s">
         <v>919</v>
       </c>
       <c r="C96" s="51" t="s">
@@ -54574,7 +54607,7 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="84"/>
-      <c r="B102" s="90"/>
+      <c r="B102" s="83"/>
       <c r="C102" s="51" t="s">
         <v>296</v>
       </c>
@@ -54632,7 +54665,7 @@
       <c r="F105" s="52"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="85"/>
+      <c r="A106" s="86"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51"/>
       <c r="D106" s="52"/>
@@ -54640,7 +54673,7 @@
       <c r="F106" s="52"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="86" t="s">
+      <c r="A107" s="87" t="s">
         <v>30</v>
       </c>
       <c r="B107" s="55" t="s">
@@ -54667,7 +54700,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="86"/>
+      <c r="A108" s="87"/>
       <c r="B108" s="55" t="s">
         <v>837</v>
       </c>
@@ -54692,7 +54725,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="86"/>
+      <c r="A109" s="87"/>
       <c r="B109" s="56" t="s">
         <v>900</v>
       </c>
@@ -54718,7 +54751,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="86"/>
+      <c r="A110" s="87"/>
       <c r="B110" s="55" t="s">
         <v>309</v>
       </c>
@@ -54744,7 +54777,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="86"/>
+      <c r="A111" s="87"/>
       <c r="B111" s="55" t="s">
         <v>901</v>
       </c>
@@ -54770,7 +54803,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="86"/>
+      <c r="A112" s="87"/>
       <c r="B112" s="55" t="s">
         <v>653</v>
       </c>
@@ -54796,7 +54829,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="86"/>
+      <c r="A113" s="87"/>
       <c r="B113" s="55" t="s">
         <v>902</v>
       </c>
@@ -54822,7 +54855,7 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="86"/>
+      <c r="A114" s="87"/>
       <c r="B114" s="55" t="s">
         <v>342</v>
       </c>
@@ -54847,7 +54880,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="86"/>
+      <c r="A115" s="87"/>
       <c r="B115" s="55" t="s">
         <v>903</v>
       </c>
@@ -54866,7 +54899,7 @@
       <c r="I115" s="54"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="86"/>
+      <c r="A116" s="87"/>
       <c r="B116" s="55" t="s">
         <v>904</v>
       </c>
@@ -54885,7 +54918,7 @@
       <c r="I116" s="54"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="86"/>
+      <c r="A117" s="87"/>
       <c r="B117" s="55" t="s">
         <v>333</v>
       </c>
@@ -54903,7 +54936,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="86"/>
+      <c r="A118" s="87"/>
       <c r="B118" s="55" t="s">
         <v>342</v>
       </c>
@@ -54921,7 +54954,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="86"/>
+      <c r="A119" s="87"/>
       <c r="B119" s="55" t="s">
         <v>905</v>
       </c>
@@ -54942,7 +54975,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="86"/>
+      <c r="A120" s="87"/>
       <c r="B120" s="55" t="s">
         <v>906</v>
       </c>
@@ -54960,7 +54993,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" hidden="1">
-      <c r="A121" s="86"/>
+      <c r="A121" s="87"/>
       <c r="B121" s="55"/>
       <c r="C121" s="51"/>
       <c r="D121" s="52"/>
@@ -54971,7 +55004,7 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="83" t="s">
+      <c r="A122" s="88" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
@@ -55102,7 +55135,7 @@
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="88"/>
+      <c r="A127" s="89"/>
       <c r="B127" s="57" t="s">
         <v>911</v>
       </c>
@@ -55128,7 +55161,7 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="88"/>
+      <c r="A128" s="89"/>
       <c r="B128" s="57" t="s">
         <v>862</v>
       </c>
@@ -55154,7 +55187,7 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="88"/>
+      <c r="A129" s="89"/>
       <c r="B129" s="57" t="s">
         <v>903</v>
       </c>
@@ -55180,7 +55213,7 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="88"/>
+      <c r="A130" s="89"/>
       <c r="B130" s="57" t="s">
         <v>864</v>
       </c>
@@ -55296,7 +55329,7 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="85"/>
+      <c r="A136" s="86"/>
       <c r="B136" s="51"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -55307,7 +55340,7 @@
       </c>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="86" t="s">
+      <c r="A137" s="87" t="s">
         <v>276</v>
       </c>
       <c r="B137" s="55" t="s">
@@ -55334,7 +55367,7 @@
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="86"/>
+      <c r="A138" s="87"/>
       <c r="B138" s="55" t="s">
         <v>914</v>
       </c>
@@ -55360,7 +55393,7 @@
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="86"/>
+      <c r="A139" s="87"/>
       <c r="B139" s="55" t="s">
         <v>915</v>
       </c>
@@ -55386,7 +55419,7 @@
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="86"/>
+      <c r="A140" s="87"/>
       <c r="B140" s="55" t="s">
         <v>916</v>
       </c>
@@ -55412,7 +55445,7 @@
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="86"/>
+      <c r="A141" s="87"/>
       <c r="B141" s="55"/>
       <c r="C141" s="51"/>
       <c r="D141" s="52"/>
@@ -55430,7 +55463,7 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="86"/>
+      <c r="A142" s="87"/>
       <c r="B142" s="55"/>
       <c r="C142" s="51"/>
       <c r="D142" s="52"/>
@@ -55448,7 +55481,7 @@
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="86"/>
+      <c r="A143" s="87"/>
       <c r="B143" s="55"/>
       <c r="C143" s="51"/>
       <c r="D143" s="52"/>
@@ -55466,7 +55499,7 @@
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="86"/>
+      <c r="A144" s="87"/>
       <c r="B144" s="58"/>
       <c r="C144" s="51"/>
       <c r="D144" s="52"/>
@@ -55484,7 +55517,7 @@
       </c>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="89"/>
+      <c r="A145" s="90"/>
       <c r="B145" s="60"/>
       <c r="C145" s="55"/>
       <c r="D145" s="52"/>
@@ -55496,7 +55529,7 @@
       <c r="I145" s="54"/>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="86"/>
+      <c r="A146" s="87"/>
       <c r="B146" s="56"/>
       <c r="C146" s="51"/>
       <c r="D146" s="52"/>
@@ -55508,7 +55541,7 @@
       <c r="I146" s="54"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="86"/>
+      <c r="A147" s="87"/>
       <c r="B147" s="55"/>
       <c r="C147" s="51"/>
       <c r="D147" s="52"/>
@@ -55519,7 +55552,7 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="86"/>
+      <c r="A148" s="87"/>
       <c r="B148" s="55"/>
       <c r="C148" s="51"/>
       <c r="D148" s="52"/>
@@ -55530,7 +55563,7 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="86"/>
+      <c r="A149" s="87"/>
       <c r="B149" s="55"/>
       <c r="C149" s="51"/>
       <c r="D149" s="52"/>
@@ -55541,7 +55574,7 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="86"/>
+      <c r="A150" s="87"/>
       <c r="B150" s="55"/>
       <c r="C150" s="51"/>
       <c r="D150" s="52"/>
@@ -55552,7 +55585,7 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="86"/>
+      <c r="A151" s="87"/>
       <c r="B151" s="55"/>
       <c r="C151" s="51"/>
       <c r="D151" s="52"/>
@@ -55690,8 +55723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFEB2C7-63A1-4A8F-BD32-936833786D82}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="J97" sqref="J97"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -55730,7 +55763,7 @@
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="60" t="s">
@@ -55760,7 +55793,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="88"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="60" t="s">
         <v>848</v>
       </c>
@@ -55789,7 +55822,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="88"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="60" t="s">
         <v>849</v>
       </c>
@@ -55818,7 +55851,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="88"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="60" t="s">
         <v>309</v>
       </c>
@@ -55847,7 +55880,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="88"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="60" t="s">
         <v>807</v>
       </c>
@@ -55876,7 +55909,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="88"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="60" t="s">
         <v>313</v>
       </c>
@@ -55905,7 +55938,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="88"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="60" t="s">
         <v>850</v>
       </c>
@@ -55931,7 +55964,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="88"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="60" t="s">
         <v>851</v>
       </c>
@@ -55957,7 +55990,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="88"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="60" t="s">
         <v>852</v>
       </c>
@@ -55977,7 +56010,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="88"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="60" t="s">
         <v>853</v>
       </c>
@@ -55997,7 +56030,7 @@
       <c r="I11" s="54"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="88"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="73" t="s">
         <v>311</v>
       </c>
@@ -56016,7 +56049,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="88"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="73" t="s">
         <v>854</v>
       </c>
@@ -56035,7 +56068,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="88"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="60" t="s">
         <v>342</v>
       </c>
@@ -56054,7 +56087,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="88"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="60" t="s">
         <v>855</v>
       </c>
@@ -56073,7 +56106,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="88"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="60" t="s">
         <v>856</v>
       </c>
@@ -56417,7 +56450,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="87"/>
+      <c r="A31" s="85"/>
       <c r="B31" s="51" t="s">
         <v>866</v>
       </c>
@@ -56436,7 +56469,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="83" t="s">
+      <c r="A32" s="88" t="s">
         <v>263</v>
       </c>
       <c r="B32" s="51" t="s">
@@ -56753,7 +56786,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="85"/>
+      <c r="A46" s="86"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
       <c r="D46" s="52"/>
@@ -56764,7 +56797,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="86" t="s">
+      <c r="A47" s="87" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="55" t="s">
@@ -56790,7 +56823,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="86"/>
+      <c r="A48" s="87"/>
       <c r="B48" s="55" t="s">
         <v>775</v>
       </c>
@@ -56814,7 +56847,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="86"/>
+      <c r="A49" s="87"/>
       <c r="B49" s="55" t="s">
         <v>586</v>
       </c>
@@ -56839,7 +56872,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="86"/>
+      <c r="A50" s="87"/>
       <c r="B50" s="51" t="s">
         <v>775</v>
       </c>
@@ -56863,7 +56896,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="86"/>
+      <c r="A51" s="87"/>
       <c r="B51" s="55" t="s">
         <v>876</v>
       </c>
@@ -56888,7 +56921,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="86"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="55" t="s">
         <v>877</v>
       </c>
@@ -56913,7 +56946,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="86"/>
+      <c r="A53" s="87"/>
       <c r="B53" s="55" t="s">
         <v>599</v>
       </c>
@@ -56937,7 +56970,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="86"/>
+      <c r="A54" s="87"/>
       <c r="B54" s="55" t="s">
         <v>878</v>
       </c>
@@ -56962,7 +56995,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="86"/>
+      <c r="A55" s="87"/>
       <c r="B55" s="55" t="s">
         <v>880</v>
       </c>
@@ -56982,7 +57015,7 @@
       <c r="I55" s="54"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="86"/>
+      <c r="A56" s="87"/>
       <c r="B56" s="55" t="s">
         <v>309</v>
       </c>
@@ -57001,7 +57034,7 @@
       <c r="I56" s="54"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="86"/>
+      <c r="A57" s="87"/>
       <c r="B57" s="55" t="s">
         <v>882</v>
       </c>
@@ -57022,7 +57055,7 @@
       <c r="I57" s="81"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="86"/>
+      <c r="A58" s="87"/>
       <c r="B58" s="55" t="s">
         <v>883</v>
       </c>
@@ -57041,7 +57074,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="86"/>
+      <c r="A59" s="87"/>
       <c r="B59" s="55" t="s">
         <v>884</v>
       </c>
@@ -57060,7 +57093,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="86"/>
+      <c r="A60" s="87"/>
       <c r="B60" s="55"/>
       <c r="C60" s="51"/>
       <c r="D60" s="52"/>
@@ -57071,7 +57104,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="86"/>
+      <c r="A61" s="87"/>
       <c r="B61" s="55"/>
       <c r="C61" s="51"/>
       <c r="D61" s="52"/>
@@ -57082,7 +57115,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="88" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="51" t="s">
@@ -57547,7 +57580,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="88"/>
+      <c r="A82" s="89"/>
       <c r="B82" s="51" t="s">
         <v>829</v>
       </c>
@@ -57709,7 +57742,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="87"/>
+      <c r="A91" s="85"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -57720,7 +57753,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="83" t="s">
+      <c r="A92" s="88" t="s">
         <v>54</v>
       </c>
       <c r="B92" s="51" t="s">
@@ -57968,7 +58001,7 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="84"/>
-      <c r="B102" s="90"/>
+      <c r="B102" s="83"/>
       <c r="C102" s="51" t="s">
         <v>296</v>
       </c>
@@ -58026,7 +58059,7 @@
       <c r="F105" s="52"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="85"/>
+      <c r="A106" s="86"/>
       <c r="B106" s="51"/>
       <c r="C106" s="51"/>
       <c r="D106" s="52"/>
@@ -58034,7 +58067,7 @@
       <c r="F106" s="52"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="86" t="s">
+      <c r="A107" s="87" t="s">
         <v>30</v>
       </c>
       <c r="B107" s="55" t="s">
@@ -58061,7 +58094,7 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="86"/>
+      <c r="A108" s="87"/>
       <c r="B108" s="55" t="s">
         <v>837</v>
       </c>
@@ -58086,7 +58119,7 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="86"/>
+      <c r="A109" s="87"/>
       <c r="B109" s="56" t="s">
         <v>900</v>
       </c>
@@ -58112,7 +58145,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="86"/>
+      <c r="A110" s="87"/>
       <c r="B110" s="55" t="s">
         <v>309</v>
       </c>
@@ -58138,7 +58171,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="86"/>
+      <c r="A111" s="87"/>
       <c r="B111" s="55" t="s">
         <v>901</v>
       </c>
@@ -58164,7 +58197,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="86"/>
+      <c r="A112" s="87"/>
       <c r="B112" s="55" t="s">
         <v>653</v>
       </c>
@@ -58190,7 +58223,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="86"/>
+      <c r="A113" s="87"/>
       <c r="B113" s="55" t="s">
         <v>902</v>
       </c>
@@ -58216,7 +58249,7 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="86"/>
+      <c r="A114" s="87"/>
       <c r="B114" s="55" t="s">
         <v>342</v>
       </c>
@@ -58241,7 +58274,7 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="86"/>
+      <c r="A115" s="87"/>
       <c r="B115" s="55" t="s">
         <v>903</v>
       </c>
@@ -58260,7 +58293,7 @@
       <c r="I115" s="54"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="86"/>
+      <c r="A116" s="87"/>
       <c r="B116" s="55" t="s">
         <v>904</v>
       </c>
@@ -58279,7 +58312,7 @@
       <c r="I116" s="54"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="86"/>
+      <c r="A117" s="87"/>
       <c r="B117" s="55" t="s">
         <v>333</v>
       </c>
@@ -58297,7 +58330,7 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="86"/>
+      <c r="A118" s="87"/>
       <c r="B118" s="55" t="s">
         <v>342</v>
       </c>
@@ -58315,7 +58348,7 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="86"/>
+      <c r="A119" s="87"/>
       <c r="B119" s="55" t="s">
         <v>905</v>
       </c>
@@ -58336,7 +58369,7 @@
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="86"/>
+      <c r="A120" s="87"/>
       <c r="B120" s="55" t="s">
         <v>906</v>
       </c>
@@ -58354,7 +58387,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" hidden="1">
-      <c r="A121" s="86"/>
+      <c r="A121" s="87"/>
       <c r="B121" s="55"/>
       <c r="C121" s="51"/>
       <c r="D121" s="52"/>
@@ -58365,24 +58398,24 @@
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="83" t="s">
+      <c r="A122" s="88" t="s">
         <v>273</v>
       </c>
       <c r="B122" s="51" t="s">
-        <v>908</v>
+        <v>928</v>
       </c>
       <c r="C122" s="51" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D122" s="52">
-        <v>0.36458333333333331</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="E122" s="52">
-        <v>0.39583333333333331</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="F122" s="52">
         <f t="shared" si="1"/>
-        <v>3.125E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="H122" s="49" t="s">
         <v>286</v>
@@ -58394,27 +58427,27 @@
     <row r="123" spans="1:9">
       <c r="A123" s="84"/>
       <c r="B123" s="51" t="s">
-        <v>909</v>
+        <v>929</v>
       </c>
       <c r="C123" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D123" s="52">
-        <v>0.39583333333333331</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="E123" s="52">
-        <v>0.46527777777777773</v>
+        <v>0.4375</v>
       </c>
       <c r="F123" s="52">
         <f t="shared" si="1"/>
-        <v>6.944444444444442E-2</v>
+        <v>3.4722222222222265E-2</v>
       </c>
       <c r="H123" s="53" t="s">
         <v>288</v>
       </c>
       <c r="I123" s="52">
         <f>SUMIFS(F122:F136, C122:C136,H123)</f>
-        <v>0.30902777777777751</v>
+        <v>0.46666666666666651</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -58426,190 +58459,190 @@
         <v>295</v>
       </c>
       <c r="D124" s="52">
-        <v>0.46527777777777773</v>
+        <v>0.4375</v>
       </c>
       <c r="E124" s="52">
-        <v>0.4861111111111111</v>
+        <v>0.45</v>
       </c>
       <c r="F124" s="52">
         <f t="shared" si="1"/>
-        <v>2.083333333333337E-2</v>
+        <v>1.2500000000000011E-2</v>
       </c>
       <c r="H124" s="53" t="s">
         <v>285</v>
       </c>
       <c r="I124" s="52">
         <f>SUMIFS(F122:F136, C122:C136,H124)</f>
-        <v>0</v>
+        <v>1.7361111111111049E-2</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="84"/>
       <c r="B125" s="51" t="s">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="C125" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D125" s="52">
-        <v>0.4861111111111111</v>
+        <v>0.45</v>
       </c>
       <c r="E125" s="52">
-        <v>0.5625</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F125" s="52">
         <f t="shared" si="1"/>
-        <v>7.6388888888888895E-2</v>
+        <v>2.9166666666666674E-2</v>
       </c>
       <c r="H125" s="53" t="s">
         <v>290</v>
       </c>
       <c r="I125" s="52">
         <f>SUMIFS(F122:F136, C122:C136,H125)</f>
-        <v>4.1666666666666741E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="84"/>
       <c r="B126" s="58" t="s">
-        <v>329</v>
+        <v>729</v>
       </c>
       <c r="C126" s="51" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D126" s="52">
-        <v>0.5625</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E126" s="52">
-        <v>0.58680555555555558</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="F126" s="52">
         <f t="shared" si="1"/>
-        <v>2.430555555555558E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H126" s="53" t="s">
         <v>293</v>
       </c>
       <c r="I126" s="52">
         <f>SUMIFS(F122:F136, C122:C136,H126)</f>
-        <v>3.125E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="88"/>
+      <c r="A127" s="89"/>
       <c r="B127" s="57" t="s">
-        <v>911</v>
+        <v>931</v>
       </c>
       <c r="C127" s="55" t="s">
         <v>288</v>
       </c>
       <c r="D127" s="52">
-        <v>0.58680555555555558</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E127" s="52">
-        <v>0.63194444444444442</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="F127" s="52">
         <f t="shared" si="1"/>
-        <v>4.513888888888884E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H127" s="53" t="s">
         <v>296</v>
       </c>
       <c r="I127" s="52">
         <f>SUMIFS(F122:F136, C122:C136,H127)</f>
-        <v>4.166666666666663E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="88"/>
+      <c r="A128" s="89"/>
       <c r="B128" s="57" t="s">
-        <v>862</v>
+        <v>925</v>
       </c>
       <c r="C128" s="55" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D128" s="52">
-        <v>0.63194444444444442</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="E128" s="52">
-        <v>0.66666666666666663</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="F128" s="52">
         <f t="shared" si="1"/>
-        <v>3.472222222222221E-2</v>
+        <v>2.430555555555558E-2</v>
       </c>
       <c r="H128" s="53" t="s">
         <v>295</v>
       </c>
       <c r="I128" s="52">
         <f>SUMIFS(F122:F136, C122:C136,H128)</f>
-        <v>5.555555555555558E-2</v>
+        <v>5.4166666666666752E-2</v>
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="88"/>
+      <c r="A129" s="89"/>
       <c r="B129" s="57" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="C129" s="55" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D129" s="52">
-        <v>0.66666666666666663</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="E129" s="52">
-        <v>0.70833333333333337</v>
+        <v>0.59375</v>
       </c>
       <c r="F129" s="52">
         <f t="shared" si="1"/>
-        <v>4.1666666666666741E-2</v>
+        <v>1.7361111111111049E-2</v>
       </c>
       <c r="H129" s="48" t="s">
         <v>300</v>
       </c>
       <c r="I129" s="49">
         <f>SUM(I123:I128)</f>
-        <v>0.47916666666666646</v>
+        <v>0.59374999999999978</v>
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="88"/>
+      <c r="A130" s="89"/>
       <c r="B130" s="57" t="s">
-        <v>864</v>
+        <v>933</v>
       </c>
       <c r="C130" s="55" t="s">
         <v>288</v>
       </c>
       <c r="D130" s="52">
-        <v>0.71527777777777779</v>
+        <v>0.59375</v>
       </c>
       <c r="E130" s="52">
-        <v>0.72916666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F130" s="52">
         <f t="shared" si="1"/>
-        <v>1.388888888888884E-2</v>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="I130" s="54"/>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="84"/>
       <c r="B131" s="59" t="s">
-        <v>333</v>
+        <v>934</v>
       </c>
       <c r="C131" s="51" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D131" s="52">
-        <v>0.73958333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E131" s="52">
-        <v>0.78125</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="F131" s="52">
         <f t="shared" ref="F131:F151" si="2">E131-D131</f>
-        <v>4.166666666666663E-2</v>
+        <v>5.2083333333333259E-2</v>
       </c>
       <c r="I131" s="54"/>
     </row>
@@ -58622,86 +58655,94 @@
         <v>295</v>
       </c>
       <c r="D132" s="52">
-        <v>0.78125</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="E132" s="52">
-        <v>0.79166666666666663</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="F132" s="52">
         <f t="shared" si="2"/>
-        <v>1.041666666666663E-2</v>
+        <v>1.736111111111116E-2</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="84"/>
       <c r="B133" s="51" t="s">
-        <v>856</v>
+        <v>935</v>
       </c>
       <c r="C133" s="51" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D133" s="52">
-        <v>0.81944444444444453</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="E133" s="52">
-        <v>0.84027777777777779</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="F133" s="52">
         <f t="shared" si="2"/>
-        <v>2.0833333333333259E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="84"/>
       <c r="B134" s="51" t="s">
-        <v>356</v>
+        <v>936</v>
       </c>
       <c r="C134" s="51" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D134" s="52">
-        <v>0.84027777777777779</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="E134" s="52">
-        <v>0.85069444444444453</v>
+        <v>0.8125</v>
       </c>
       <c r="F134" s="52">
         <f t="shared" si="2"/>
-        <v>1.0416666666666741E-2</v>
+        <v>5.5555555555555469E-2</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="84"/>
       <c r="B135" s="51" t="s">
-        <v>912</v>
+        <v>937</v>
       </c>
       <c r="C135" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D135" s="52">
-        <v>0.85069444444444453</v>
+        <v>0.86458333333333337</v>
       </c>
       <c r="E135" s="52">
-        <v>0.88888888888888884</v>
+        <v>0.9458333333333333</v>
       </c>
       <c r="F135" s="52">
         <f t="shared" si="2"/>
-        <v>3.8194444444444309E-2</v>
+        <v>8.1249999999999933E-2</v>
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="85"/>
-      <c r="B136" s="51"/>
-      <c r="C136" s="51"/>
-      <c r="D136" s="52"/>
-      <c r="E136" s="52"/>
+      <c r="A136" s="86"/>
+      <c r="B136" s="51" t="s">
+        <v>938</v>
+      </c>
+      <c r="C136" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D136" s="52">
+        <v>0.9458333333333333</v>
+      </c>
+      <c r="E136" s="52">
+        <v>1.0347222222222221</v>
+      </c>
       <c r="F136" s="52">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.8888888888888795E-2</v>
       </c>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="86" t="s">
+      <c r="A137" s="87" t="s">
         <v>276</v>
       </c>
       <c r="B137" s="55" t="s">
@@ -58728,7 +58769,7 @@
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="86"/>
+      <c r="A138" s="87"/>
       <c r="B138" s="55" t="s">
         <v>914</v>
       </c>
@@ -58754,7 +58795,7 @@
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="86"/>
+      <c r="A139" s="87"/>
       <c r="B139" s="55" t="s">
         <v>915</v>
       </c>
@@ -58780,7 +58821,7 @@
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="86"/>
+      <c r="A140" s="87"/>
       <c r="B140" s="55" t="s">
         <v>916</v>
       </c>
@@ -58806,7 +58847,7 @@
       </c>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="86"/>
+      <c r="A141" s="87"/>
       <c r="B141" s="55"/>
       <c r="C141" s="51"/>
       <c r="D141" s="52"/>
@@ -58824,7 +58865,7 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="86"/>
+      <c r="A142" s="87"/>
       <c r="B142" s="55"/>
       <c r="C142" s="51"/>
       <c r="D142" s="52"/>
@@ -58842,7 +58883,7 @@
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="86"/>
+      <c r="A143" s="87"/>
       <c r="B143" s="55"/>
       <c r="C143" s="51"/>
       <c r="D143" s="52"/>
@@ -58860,7 +58901,7 @@
       </c>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="86"/>
+      <c r="A144" s="87"/>
       <c r="B144" s="58"/>
       <c r="C144" s="51"/>
       <c r="D144" s="52"/>
@@ -58878,7 +58919,7 @@
       </c>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="89"/>
+      <c r="A145" s="90"/>
       <c r="B145" s="60"/>
       <c r="C145" s="55"/>
       <c r="D145" s="52"/>
@@ -58890,7 +58931,7 @@
       <c r="I145" s="54"/>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="86"/>
+      <c r="A146" s="87"/>
       <c r="B146" s="56"/>
       <c r="C146" s="51"/>
       <c r="D146" s="52"/>
@@ -58902,7 +58943,7 @@
       <c r="I146" s="54"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="86"/>
+      <c r="A147" s="87"/>
       <c r="B147" s="55"/>
       <c r="C147" s="51"/>
       <c r="D147" s="52"/>
@@ -58913,7 +58954,7 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="86"/>
+      <c r="A148" s="87"/>
       <c r="B148" s="55"/>
       <c r="C148" s="51"/>
       <c r="D148" s="52"/>
@@ -58924,7 +58965,7 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="86"/>
+      <c r="A149" s="87"/>
       <c r="B149" s="55"/>
       <c r="C149" s="51"/>
       <c r="D149" s="52"/>
@@ -58935,7 +58976,7 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="86"/>
+      <c r="A150" s="87"/>
       <c r="B150" s="55"/>
       <c r="C150" s="51"/>
       <c r="D150" s="52"/>
@@ -58946,7 +58987,7 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="86"/>
+      <c r="A151" s="87"/>
       <c r="B151" s="55"/>
       <c r="C151" s="51"/>
       <c r="D151" s="52"/>
